--- a/AAII_Financials/Quarterly/NHYDY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NHYDY_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>NHYDY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,218 @@
     <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4070200</v>
+        <v>3630600</v>
       </c>
       <c r="E8" s="3">
-        <v>4250200</v>
+        <v>3838000</v>
       </c>
       <c r="F8" s="3">
-        <v>4077400</v>
+        <v>4007700</v>
       </c>
       <c r="G8" s="3">
-        <v>4164500</v>
+        <v>3844700</v>
       </c>
       <c r="H8" s="3">
-        <v>4314200</v>
+        <v>3926900</v>
       </c>
       <c r="I8" s="3">
-        <v>4475600</v>
+        <v>4068100</v>
       </c>
       <c r="J8" s="3">
+        <v>4220300</v>
+      </c>
+      <c r="K8" s="3">
         <v>4336500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4493100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2639900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2847400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2839100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2620100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2487500</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2613500</v>
+        <v>2284200</v>
       </c>
       <c r="E9" s="3">
-        <v>2812100</v>
+        <v>2464400</v>
       </c>
       <c r="F9" s="3">
-        <v>2727000</v>
+        <v>2651600</v>
       </c>
       <c r="G9" s="3">
-        <v>2730000</v>
+        <v>2571400</v>
       </c>
       <c r="H9" s="3">
-        <v>2784600</v>
+        <v>2574300</v>
       </c>
       <c r="I9" s="3">
-        <v>2874600</v>
+        <v>2625700</v>
       </c>
       <c r="J9" s="3">
+        <v>2710500</v>
+      </c>
+      <c r="K9" s="3">
         <v>2733500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2826500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1710000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1835000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1827600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1651100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1588800</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1456700</v>
+        <v>1346500</v>
       </c>
       <c r="E10" s="3">
-        <v>1438100</v>
+        <v>1373600</v>
       </c>
       <c r="F10" s="3">
-        <v>1350400</v>
+        <v>1356100</v>
       </c>
       <c r="G10" s="3">
-        <v>1434500</v>
+        <v>1273300</v>
       </c>
       <c r="H10" s="3">
-        <v>1529600</v>
+        <v>1352600</v>
       </c>
       <c r="I10" s="3">
-        <v>1601100</v>
+        <v>1442300</v>
       </c>
       <c r="J10" s="3">
+        <v>1509700</v>
+      </c>
+      <c r="K10" s="3">
         <v>1602900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1666600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>929900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1012400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1011600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>969000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>898600</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +893,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +938,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,34 +985,37 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
+        <v>93300</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1013,52 +1032,58 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>242600</v>
+        <v>218100</v>
       </c>
       <c r="E15" s="3">
-        <v>228400</v>
+        <v>228700</v>
       </c>
       <c r="F15" s="3">
-        <v>227600</v>
+        <v>215300</v>
       </c>
       <c r="G15" s="3">
-        <v>186500</v>
+        <v>214600</v>
       </c>
       <c r="H15" s="3">
-        <v>200800</v>
+        <v>175900</v>
       </c>
       <c r="I15" s="3">
-        <v>205200</v>
+        <v>189400</v>
       </c>
       <c r="J15" s="3">
+        <v>193400</v>
+      </c>
+      <c r="K15" s="3">
         <v>207100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>228100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>167900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>160800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>166700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>197200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>174600</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1097,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4046100</v>
+        <v>3671400</v>
       </c>
       <c r="E17" s="3">
-        <v>4179000</v>
+        <v>3815300</v>
       </c>
       <c r="F17" s="3">
-        <v>4075200</v>
+        <v>3940600</v>
       </c>
       <c r="G17" s="3">
-        <v>4145200</v>
+        <v>3842700</v>
       </c>
       <c r="H17" s="3">
-        <v>4091000</v>
+        <v>3908700</v>
       </c>
       <c r="I17" s="3">
-        <v>4151700</v>
+        <v>3857600</v>
       </c>
       <c r="J17" s="3">
+        <v>3914800</v>
+      </c>
+      <c r="K17" s="3">
         <v>3978300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3970800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2370900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2506300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2542000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2378000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2317800</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>24100</v>
+        <v>-40800</v>
       </c>
       <c r="E18" s="3">
-        <v>71200</v>
+        <v>22700</v>
       </c>
       <c r="F18" s="3">
-        <v>2200</v>
+        <v>67100</v>
       </c>
       <c r="G18" s="3">
-        <v>19300</v>
+        <v>2000</v>
       </c>
       <c r="H18" s="3">
-        <v>223200</v>
+        <v>18200</v>
       </c>
       <c r="I18" s="3">
-        <v>324000</v>
+        <v>210400</v>
       </c>
       <c r="J18" s="3">
+        <v>305500</v>
+      </c>
+      <c r="K18" s="3">
         <v>358100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>522300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>269000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>341100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>297200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>242200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>169700</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,228 +1210,244 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-153800</v>
+        <v>48700</v>
       </c>
       <c r="E20" s="3">
-        <v>-48600</v>
+        <v>-145100</v>
       </c>
       <c r="F20" s="3">
-        <v>20000</v>
+        <v>-45800</v>
       </c>
       <c r="G20" s="3">
-        <v>-49000</v>
+        <v>18800</v>
       </c>
       <c r="H20" s="3">
-        <v>-28900</v>
+        <v>-46200</v>
       </c>
       <c r="I20" s="3">
-        <v>-31800</v>
+        <v>-27200</v>
       </c>
       <c r="J20" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-38200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-77500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>60900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-102800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>27100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-3800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>44600</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>112800</v>
+        <v>319400</v>
       </c>
       <c r="E21" s="3">
-        <v>251000</v>
+        <v>106400</v>
       </c>
       <c r="F21" s="3">
-        <v>249700</v>
+        <v>236700</v>
       </c>
       <c r="G21" s="3">
-        <v>156800</v>
+        <v>235500</v>
       </c>
       <c r="H21" s="3">
-        <v>395100</v>
+        <v>147800</v>
       </c>
       <c r="I21" s="3">
-        <v>497200</v>
+        <v>372600</v>
       </c>
       <c r="J21" s="3">
+        <v>468800</v>
+      </c>
+      <c r="K21" s="3">
         <v>527000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>673000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>497900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>399100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>491000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>435600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>388800</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>22900</v>
+        <v>25000</v>
       </c>
       <c r="E22" s="3">
-        <v>23400</v>
+        <v>21600</v>
       </c>
       <c r="F22" s="3">
-        <v>19300</v>
+        <v>22100</v>
       </c>
       <c r="G22" s="3">
-        <v>29200</v>
+        <v>18200</v>
       </c>
       <c r="H22" s="3">
-        <v>17000</v>
+        <v>27500</v>
       </c>
       <c r="I22" s="3">
         <v>16100</v>
       </c>
       <c r="J22" s="3">
+        <v>15100</v>
+      </c>
+      <c r="K22" s="3">
         <v>13300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>12400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>4700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>8200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>10400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>13400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-152600</v>
+        <v>-17100</v>
       </c>
       <c r="E23" s="3">
-        <v>-900</v>
+        <v>-143900</v>
       </c>
       <c r="F23" s="3">
-        <v>2800</v>
+        <v>-800</v>
       </c>
       <c r="G23" s="3">
-        <v>-58900</v>
+        <v>2700</v>
       </c>
       <c r="H23" s="3">
-        <v>177300</v>
+        <v>-55500</v>
       </c>
       <c r="I23" s="3">
-        <v>276100</v>
+        <v>167200</v>
       </c>
       <c r="J23" s="3">
+        <v>260400</v>
+      </c>
+      <c r="K23" s="3">
         <v>306600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>432500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>325100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>230100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>313900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>224900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>208700</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-1700</v>
+        <v>50800</v>
       </c>
       <c r="E24" s="3">
-        <v>19900</v>
+        <v>-1600</v>
       </c>
       <c r="F24" s="3">
-        <v>16300</v>
+        <v>18700</v>
       </c>
       <c r="G24" s="3">
-        <v>22600</v>
+        <v>15300</v>
       </c>
       <c r="H24" s="3">
-        <v>77000</v>
+        <v>21300</v>
       </c>
       <c r="I24" s="3">
-        <v>51300</v>
+        <v>72600</v>
       </c>
       <c r="J24" s="3">
+        <v>48400</v>
+      </c>
+      <c r="K24" s="3">
         <v>81300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>15600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>72300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>49100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>87200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>100500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>70800</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-150900</v>
+        <v>-67900</v>
       </c>
       <c r="E26" s="3">
-        <v>-20700</v>
+        <v>-142300</v>
       </c>
       <c r="F26" s="3">
-        <v>-13500</v>
+        <v>-19500</v>
       </c>
       <c r="G26" s="3">
-        <v>-81500</v>
+        <v>-12700</v>
       </c>
       <c r="H26" s="3">
-        <v>100200</v>
+        <v>-76800</v>
       </c>
       <c r="I26" s="3">
-        <v>224800</v>
+        <v>94500</v>
       </c>
       <c r="J26" s="3">
+        <v>212000</v>
+      </c>
+      <c r="K26" s="3">
         <v>225300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>416800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>252900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>181000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>226700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>124400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>138000</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-136600</v>
+        <v>-48700</v>
       </c>
       <c r="E27" s="3">
-        <v>-9200</v>
+        <v>-128800</v>
       </c>
       <c r="F27" s="3">
-        <v>1000</v>
+        <v>-8700</v>
       </c>
       <c r="G27" s="3">
-        <v>-75200</v>
+        <v>900</v>
       </c>
       <c r="H27" s="3">
-        <v>81500</v>
+        <v>-70900</v>
       </c>
       <c r="I27" s="3">
-        <v>228700</v>
+        <v>76800</v>
       </c>
       <c r="J27" s="3">
+        <v>215600</v>
+      </c>
+      <c r="K27" s="3">
         <v>226900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>405100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>235900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>171800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>217300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>130700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>133800</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1772,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>153800</v>
+        <v>-48700</v>
       </c>
       <c r="E32" s="3">
-        <v>48600</v>
+        <v>145100</v>
       </c>
       <c r="F32" s="3">
-        <v>-20000</v>
+        <v>45800</v>
       </c>
       <c r="G32" s="3">
-        <v>49000</v>
+        <v>-18800</v>
       </c>
       <c r="H32" s="3">
-        <v>28900</v>
+        <v>46200</v>
       </c>
       <c r="I32" s="3">
-        <v>31800</v>
+        <v>27200</v>
       </c>
       <c r="J32" s="3">
+        <v>30000</v>
+      </c>
+      <c r="K32" s="3">
         <v>38200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>77500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-60900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>102800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-27100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>3800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-44600</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-136600</v>
+        <v>-48700</v>
       </c>
       <c r="E33" s="3">
-        <v>-9200</v>
+        <v>-128800</v>
       </c>
       <c r="F33" s="3">
-        <v>1000</v>
+        <v>-8700</v>
       </c>
       <c r="G33" s="3">
-        <v>-75200</v>
+        <v>900</v>
       </c>
       <c r="H33" s="3">
-        <v>81500</v>
+        <v>-70900</v>
       </c>
       <c r="I33" s="3">
-        <v>228700</v>
+        <v>76800</v>
       </c>
       <c r="J33" s="3">
+        <v>215600</v>
+      </c>
+      <c r="K33" s="3">
         <v>226900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>405100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>235900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>171800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>217300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>130700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>133800</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-136600</v>
+        <v>-48700</v>
       </c>
       <c r="E35" s="3">
-        <v>-9200</v>
+        <v>-128800</v>
       </c>
       <c r="F35" s="3">
-        <v>1000</v>
+        <v>-8700</v>
       </c>
       <c r="G35" s="3">
-        <v>-75200</v>
+        <v>900</v>
       </c>
       <c r="H35" s="3">
-        <v>81500</v>
+        <v>-70900</v>
       </c>
       <c r="I35" s="3">
-        <v>228700</v>
+        <v>76800</v>
       </c>
       <c r="J35" s="3">
+        <v>215600</v>
+      </c>
+      <c r="K35" s="3">
         <v>226900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>405100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>235900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>171800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>217300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>130700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>133800</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,192 +2052,205 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1147900</v>
+        <v>1256900</v>
       </c>
       <c r="E41" s="3">
-        <v>1148900</v>
+        <v>1082400</v>
       </c>
       <c r="F41" s="3">
-        <v>661700</v>
+        <v>1083400</v>
       </c>
       <c r="G41" s="3">
-        <v>650400</v>
+        <v>623900</v>
       </c>
       <c r="H41" s="3">
-        <v>742700</v>
+        <v>613300</v>
       </c>
       <c r="I41" s="3">
-        <v>616400</v>
+        <v>700300</v>
       </c>
       <c r="J41" s="3">
+        <v>581300</v>
+      </c>
+      <c r="K41" s="3">
         <v>1016700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1369600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2067200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>925500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1027500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>991000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>980500</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>176700</v>
+        <v>164100</v>
       </c>
       <c r="E42" s="3">
-        <v>169400</v>
+        <v>166600</v>
       </c>
       <c r="F42" s="3">
-        <v>176100</v>
+        <v>159700</v>
       </c>
       <c r="G42" s="3">
-        <v>192700</v>
+        <v>166000</v>
       </c>
       <c r="H42" s="3">
-        <v>207600</v>
+        <v>181700</v>
       </c>
       <c r="I42" s="3">
-        <v>229300</v>
+        <v>195800</v>
       </c>
       <c r="J42" s="3">
+        <v>216300</v>
+      </c>
+      <c r="K42" s="3">
         <v>200600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>244200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>259400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>600500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>580000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>624900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>572400</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2496000</v>
+        <v>1939500</v>
       </c>
       <c r="E43" s="3">
-        <v>2515400</v>
+        <v>2353600</v>
       </c>
       <c r="F43" s="3">
-        <v>2554100</v>
+        <v>2371900</v>
       </c>
       <c r="G43" s="3">
-        <v>2250500</v>
+        <v>2408300</v>
       </c>
       <c r="H43" s="3">
-        <v>2357200</v>
+        <v>2122100</v>
       </c>
       <c r="I43" s="3">
-        <v>2543200</v>
+        <v>2222700</v>
       </c>
       <c r="J43" s="3">
+        <v>2398100</v>
+      </c>
+      <c r="K43" s="3">
         <v>2471900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2313800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1523300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1559100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1584500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1342000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1417300</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2352000</v>
+        <v>2129500</v>
       </c>
       <c r="E44" s="3">
-        <v>2464700</v>
+        <v>2217800</v>
       </c>
       <c r="F44" s="3">
-        <v>2712700</v>
+        <v>2324100</v>
       </c>
       <c r="G44" s="3">
-        <v>2873100</v>
+        <v>2557900</v>
       </c>
       <c r="H44" s="3">
-        <v>2594600</v>
+        <v>2709200</v>
       </c>
       <c r="I44" s="3">
-        <v>2423300</v>
+        <v>2446600</v>
       </c>
       <c r="J44" s="3">
+        <v>2285100</v>
+      </c>
+      <c r="K44" s="3">
         <v>2237700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2398100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1573000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1498300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1548300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1526600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1420000</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="3">
         <v>100</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>8</v>
@@ -2169,8 +2267,8 @@
       <c r="J45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
+      <c r="K45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -2178,193 +2276,208 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3" t="s">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>100</v>
       </c>
-      <c r="P45" s="3" t="s">
+      <c r="Q45" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6172800</v>
+        <v>5489900</v>
       </c>
       <c r="E46" s="3">
-        <v>6298400</v>
+        <v>5820600</v>
       </c>
       <c r="F46" s="3">
-        <v>6104500</v>
+        <v>5939000</v>
       </c>
       <c r="G46" s="3">
-        <v>5966700</v>
+        <v>5756200</v>
       </c>
       <c r="H46" s="3">
-        <v>5902200</v>
+        <v>5626300</v>
       </c>
       <c r="I46" s="3">
-        <v>5812400</v>
+        <v>5565400</v>
       </c>
       <c r="J46" s="3">
+        <v>5480700</v>
+      </c>
+      <c r="K46" s="3">
         <v>5926900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6325700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5422900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4583400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4740300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4484500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4390100</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1281200</v>
+        <v>1176600</v>
       </c>
       <c r="E47" s="3">
-        <v>1186400</v>
+        <v>1208100</v>
       </c>
       <c r="F47" s="3">
-        <v>1231300</v>
+        <v>1118800</v>
       </c>
       <c r="G47" s="3">
-        <v>1255200</v>
+        <v>1161000</v>
       </c>
       <c r="H47" s="3">
-        <v>1203600</v>
+        <v>1183600</v>
       </c>
       <c r="I47" s="3">
-        <v>1208600</v>
+        <v>1134900</v>
       </c>
       <c r="J47" s="3">
+        <v>1139600</v>
+      </c>
+      <c r="K47" s="3">
         <v>1144700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1299300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2104800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2176900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2458200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2442200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2383800</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8031000</v>
+        <v>7595100</v>
       </c>
       <c r="E48" s="3">
-        <v>7940700</v>
+        <v>7572800</v>
       </c>
       <c r="F48" s="3">
-        <v>7907000</v>
+        <v>7487600</v>
       </c>
       <c r="G48" s="3">
-        <v>8068300</v>
+        <v>7455800</v>
       </c>
       <c r="H48" s="3">
-        <v>7187600</v>
+        <v>7607900</v>
       </c>
       <c r="I48" s="3">
-        <v>7234400</v>
+        <v>6777500</v>
       </c>
       <c r="J48" s="3">
+        <v>6821700</v>
+      </c>
+      <c r="K48" s="3">
         <v>7588300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8444900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6542100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6670700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>7352000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>7241900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6716900</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1268800</v>
+        <v>1176600</v>
       </c>
       <c r="E49" s="3">
-        <v>1246000</v>
+        <v>1196400</v>
       </c>
       <c r="F49" s="3">
-        <v>1207800</v>
+        <v>1174900</v>
       </c>
       <c r="G49" s="3">
-        <v>1241500</v>
+        <v>1138900</v>
       </c>
       <c r="H49" s="3">
-        <v>1160300</v>
+        <v>1170600</v>
       </c>
       <c r="I49" s="3">
-        <v>1265000</v>
+        <v>1094100</v>
       </c>
       <c r="J49" s="3">
+        <v>1192800</v>
+      </c>
+      <c r="K49" s="3">
         <v>1316300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1471900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>628400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>645800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>729800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>716500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>674300</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2567,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1366900</v>
+        <v>1380100</v>
       </c>
       <c r="E52" s="3">
-        <v>1443900</v>
+        <v>1288900</v>
       </c>
       <c r="F52" s="3">
-        <v>1411700</v>
+        <v>1361500</v>
       </c>
       <c r="G52" s="3">
-        <v>1541900</v>
+        <v>1331100</v>
       </c>
       <c r="H52" s="3">
-        <v>1390600</v>
+        <v>1453900</v>
       </c>
       <c r="I52" s="3">
-        <v>1312800</v>
+        <v>1311300</v>
       </c>
       <c r="J52" s="3">
+        <v>1237900</v>
+      </c>
+      <c r="K52" s="3">
         <v>1249900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1550800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1229500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1189000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1275900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1241600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1207000</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2661,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>18120500</v>
+        <v>16818200</v>
       </c>
       <c r="E54" s="3">
-        <v>18115400</v>
+        <v>17086700</v>
       </c>
       <c r="F54" s="3">
-        <v>17862200</v>
+        <v>17081800</v>
       </c>
       <c r="G54" s="3">
-        <v>17893000</v>
+        <v>16843100</v>
       </c>
       <c r="H54" s="3">
-        <v>16844300</v>
+        <v>16872100</v>
       </c>
       <c r="I54" s="3">
-        <v>16833200</v>
+        <v>15883200</v>
       </c>
       <c r="J54" s="3">
+        <v>15872800</v>
+      </c>
+      <c r="K54" s="3">
         <v>17226200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>18905400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>15927700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>15265800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>16556200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>16126800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>15372100</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,272 +2748,291 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2139000</v>
+        <v>1912200</v>
       </c>
       <c r="E57" s="3">
-        <v>2279800</v>
+        <v>2016900</v>
       </c>
       <c r="F57" s="3">
-        <v>2402600</v>
+        <v>2149700</v>
       </c>
       <c r="G57" s="3">
-        <v>2211100</v>
+        <v>2265500</v>
       </c>
       <c r="H57" s="3">
-        <v>2159600</v>
+        <v>2085000</v>
       </c>
       <c r="I57" s="3">
-        <v>2316400</v>
+        <v>2036400</v>
       </c>
       <c r="J57" s="3">
+        <v>2184200</v>
+      </c>
+      <c r="K57" s="3">
         <v>2237200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2266100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1198100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1212600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1260600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1246300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1125900</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>659000</v>
+        <v>629900</v>
       </c>
       <c r="E58" s="3">
-        <v>887100</v>
+        <v>621400</v>
       </c>
       <c r="F58" s="3">
-        <v>967000</v>
+        <v>836500</v>
       </c>
       <c r="G58" s="3">
-        <v>1016900</v>
+        <v>911800</v>
       </c>
       <c r="H58" s="3">
-        <v>716800</v>
+        <v>958900</v>
       </c>
       <c r="I58" s="3">
-        <v>539100</v>
+        <v>675900</v>
       </c>
       <c r="J58" s="3">
+        <v>508300</v>
+      </c>
+      <c r="K58" s="3">
         <v>571600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>954700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1049600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>433200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>429200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>404800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>439200</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>444300</v>
+        <v>495300</v>
       </c>
       <c r="E59" s="3">
-        <v>400100</v>
+        <v>418900</v>
       </c>
       <c r="F59" s="3">
-        <v>507000</v>
+        <v>377300</v>
       </c>
       <c r="G59" s="3">
-        <v>1259600</v>
+        <v>478000</v>
       </c>
       <c r="H59" s="3">
-        <v>639800</v>
+        <v>620200</v>
       </c>
       <c r="I59" s="3">
-        <v>539800</v>
+        <v>603300</v>
       </c>
       <c r="J59" s="3">
+        <v>509000</v>
+      </c>
+      <c r="K59" s="3">
         <v>526400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1202600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>410100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>337100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>411300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>458100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>516900</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3242200</v>
+        <v>3037400</v>
       </c>
       <c r="E60" s="3">
-        <v>3567000</v>
+        <v>3057200</v>
       </c>
       <c r="F60" s="3">
-        <v>3876600</v>
+        <v>3363500</v>
       </c>
       <c r="G60" s="3">
-        <v>3885800</v>
+        <v>3655400</v>
       </c>
       <c r="H60" s="3">
-        <v>3516200</v>
+        <v>3664100</v>
       </c>
       <c r="I60" s="3">
-        <v>3395300</v>
+        <v>3315500</v>
       </c>
       <c r="J60" s="3">
+        <v>3201600</v>
+      </c>
+      <c r="K60" s="3">
         <v>3335200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3860100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2657800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1982800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2101200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2109200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2081900</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2168200</v>
+        <v>1929200</v>
       </c>
       <c r="E61" s="3">
-        <v>2020100</v>
+        <v>2044500</v>
       </c>
       <c r="F61" s="3">
-        <v>1145500</v>
+        <v>1904800</v>
       </c>
       <c r="G61" s="3">
-        <v>1013500</v>
+        <v>1080200</v>
       </c>
       <c r="H61" s="3">
-        <v>855600</v>
+        <v>955700</v>
       </c>
       <c r="I61" s="3">
-        <v>1017300</v>
+        <v>806700</v>
       </c>
       <c r="J61" s="3">
+        <v>959300</v>
+      </c>
+      <c r="K61" s="3">
         <v>948900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1043500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>356300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>368600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>415900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>550400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>420300</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3526900</v>
+        <v>3250200</v>
       </c>
       <c r="E62" s="3">
-        <v>3242000</v>
+        <v>3325700</v>
       </c>
       <c r="F62" s="3">
-        <v>3141800</v>
+        <v>3057000</v>
       </c>
       <c r="G62" s="3">
-        <v>3411100</v>
+        <v>2962500</v>
       </c>
       <c r="H62" s="3">
-        <v>2981400</v>
+        <v>3216500</v>
       </c>
       <c r="I62" s="3">
-        <v>2964400</v>
+        <v>2811300</v>
       </c>
       <c r="J62" s="3">
+        <v>2795200</v>
+      </c>
+      <c r="K62" s="3">
         <v>3056100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3561200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2735700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2775600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2844800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2661200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2833800</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3169,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9411500</v>
+        <v>8641100</v>
       </c>
       <c r="E66" s="3">
-        <v>9312100</v>
+        <v>8874500</v>
       </c>
       <c r="F66" s="3">
-        <v>8674100</v>
+        <v>8780800</v>
       </c>
       <c r="G66" s="3">
-        <v>8582400</v>
+        <v>8179200</v>
       </c>
       <c r="H66" s="3">
-        <v>7838300</v>
+        <v>8092700</v>
       </c>
       <c r="I66" s="3">
-        <v>7863700</v>
+        <v>7391100</v>
       </c>
       <c r="J66" s="3">
+        <v>7415000</v>
+      </c>
+      <c r="K66" s="3">
         <v>7870700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8828100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6353700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5731300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6081600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6027600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6016400</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3423,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5773800</v>
+        <v>5395800</v>
       </c>
       <c r="E72" s="3">
-        <v>5910500</v>
+        <v>5444400</v>
       </c>
       <c r="F72" s="3">
-        <v>6197300</v>
+        <v>5573300</v>
       </c>
       <c r="G72" s="3">
-        <v>6196300</v>
+        <v>5843700</v>
       </c>
       <c r="H72" s="3">
-        <v>6272900</v>
+        <v>5842800</v>
       </c>
       <c r="I72" s="3">
-        <v>6191500</v>
+        <v>5915000</v>
       </c>
       <c r="J72" s="3">
+        <v>5838300</v>
+      </c>
+      <c r="K72" s="3">
         <v>6351300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6534600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6130800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5895000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>6408300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>6190900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>6060300</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3611,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8709000</v>
+        <v>8177100</v>
       </c>
       <c r="E76" s="3">
-        <v>8803300</v>
+        <v>8212100</v>
       </c>
       <c r="F76" s="3">
-        <v>9188100</v>
+        <v>8301000</v>
       </c>
       <c r="G76" s="3">
-        <v>9310600</v>
+        <v>8663900</v>
       </c>
       <c r="H76" s="3">
-        <v>9006000</v>
+        <v>8779400</v>
       </c>
       <c r="I76" s="3">
-        <v>8969500</v>
+        <v>8492100</v>
       </c>
       <c r="J76" s="3">
+        <v>8457800</v>
+      </c>
+      <c r="K76" s="3">
         <v>9355400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10077300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9574000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9534500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10474600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>10099100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>9355600</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-136600</v>
+        <v>-48700</v>
       </c>
       <c r="E81" s="3">
-        <v>-9200</v>
+        <v>-128800</v>
       </c>
       <c r="F81" s="3">
-        <v>1000</v>
+        <v>-8700</v>
       </c>
       <c r="G81" s="3">
-        <v>-75200</v>
+        <v>900</v>
       </c>
       <c r="H81" s="3">
-        <v>81500</v>
+        <v>-70900</v>
       </c>
       <c r="I81" s="3">
-        <v>228700</v>
+        <v>76800</v>
       </c>
       <c r="J81" s="3">
+        <v>215600</v>
+      </c>
+      <c r="K81" s="3">
         <v>226900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>405100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>235900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>171800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>217300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>130700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>133800</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +3825,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>242600</v>
+        <v>311500</v>
       </c>
       <c r="E83" s="3">
-        <v>228500</v>
+        <v>228700</v>
       </c>
       <c r="F83" s="3">
-        <v>227600</v>
+        <v>215400</v>
       </c>
       <c r="G83" s="3">
-        <v>186500</v>
+        <v>214600</v>
       </c>
       <c r="H83" s="3">
-        <v>200800</v>
+        <v>175900</v>
       </c>
       <c r="I83" s="3">
-        <v>205000</v>
+        <v>189400</v>
       </c>
       <c r="J83" s="3">
+        <v>193300</v>
+      </c>
+      <c r="K83" s="3">
         <v>207100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>228100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>168000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>160800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>166700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>197300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>174500</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4105,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>378700</v>
+        <v>581100</v>
       </c>
       <c r="E89" s="3">
-        <v>282100</v>
+        <v>357100</v>
       </c>
       <c r="F89" s="3">
-        <v>84500</v>
+        <v>266000</v>
       </c>
       <c r="G89" s="3">
-        <v>102400</v>
+        <v>79700</v>
       </c>
       <c r="H89" s="3">
-        <v>279300</v>
+        <v>96600</v>
       </c>
       <c r="I89" s="3">
-        <v>164700</v>
+        <v>263300</v>
       </c>
       <c r="J89" s="3">
+        <v>155300</v>
+      </c>
+      <c r="K89" s="3">
         <v>215800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>740900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>341600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>501400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>82400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>523700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>284800</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4173,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-213800</v>
+        <v>-296000</v>
       </c>
       <c r="E91" s="3">
-        <v>-242000</v>
+        <v>-201600</v>
       </c>
       <c r="F91" s="3">
-        <v>-176900</v>
+        <v>-228200</v>
       </c>
       <c r="G91" s="3">
-        <v>-273100</v>
+        <v>-166900</v>
       </c>
       <c r="H91" s="3">
-        <v>-194800</v>
+        <v>-257500</v>
       </c>
       <c r="I91" s="3">
-        <v>-166700</v>
+        <v>-183700</v>
       </c>
       <c r="J91" s="3">
+        <v>-157200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-148500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-353000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-173800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-156300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-172100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-315900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-198600</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4312,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-210900</v>
+        <v>-299400</v>
       </c>
       <c r="E94" s="3">
-        <v>-291500</v>
+        <v>-198900</v>
       </c>
       <c r="F94" s="3">
-        <v>-175200</v>
+        <v>-274900</v>
       </c>
       <c r="G94" s="3">
-        <v>-281000</v>
+        <v>-165200</v>
       </c>
       <c r="H94" s="3">
-        <v>-164100</v>
+        <v>-265000</v>
       </c>
       <c r="I94" s="3">
-        <v>-176000</v>
+        <v>-154800</v>
       </c>
       <c r="J94" s="3">
+        <v>-165900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-159600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1571400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>220100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-244300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-80900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-331100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-397400</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,52 +4380,56 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-9300</v>
       </c>
       <c r="E96" s="3">
-        <v>-277500</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-261700</v>
       </c>
       <c r="G96" s="3">
-        <v>-2400</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-2100</v>
+        <v>-2300</v>
       </c>
       <c r="I96" s="3">
-        <v>-388500</v>
+        <v>-1900</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-366300</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-8700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-42700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-303900</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-14300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4566,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-187800</v>
+        <v>-99200</v>
       </c>
       <c r="E100" s="3">
-        <v>498400</v>
+        <v>-177100</v>
       </c>
       <c r="F100" s="3">
-        <v>110400</v>
+        <v>470000</v>
       </c>
       <c r="G100" s="3">
-        <v>43900</v>
+        <v>104100</v>
       </c>
       <c r="H100" s="3">
-        <v>23500</v>
+        <v>41400</v>
       </c>
       <c r="I100" s="3">
-        <v>-365200</v>
+        <v>22200</v>
       </c>
       <c r="J100" s="3">
+        <v>-344300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-292100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>101800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>602000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-283600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>26000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-212400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-22300</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>19000</v>
+        <v>-8000</v>
       </c>
       <c r="E101" s="3">
-        <v>-1700</v>
+        <v>17900</v>
       </c>
       <c r="F101" s="3">
-        <v>-8500</v>
+        <v>-1600</v>
       </c>
       <c r="G101" s="3">
-        <v>42300</v>
+        <v>-8000</v>
       </c>
       <c r="H101" s="3">
-        <v>-12400</v>
+        <v>39900</v>
       </c>
       <c r="I101" s="3">
-        <v>-23800</v>
+        <v>-11700</v>
       </c>
       <c r="J101" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="K101" s="3">
         <v>-30700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>31000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-22000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-12900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>9000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>30300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-21500</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1000</v>
+        <v>174400</v>
       </c>
       <c r="E102" s="3">
-        <v>487200</v>
+        <v>-900</v>
       </c>
       <c r="F102" s="3">
-        <v>11300</v>
+        <v>459400</v>
       </c>
       <c r="G102" s="3">
-        <v>-92300</v>
+        <v>10600</v>
       </c>
       <c r="H102" s="3">
-        <v>126300</v>
+        <v>-87100</v>
       </c>
       <c r="I102" s="3">
-        <v>-400200</v>
+        <v>119100</v>
       </c>
       <c r="J102" s="3">
+        <v>-377400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-266600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-697600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1141700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-39400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>36500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>10500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-156300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NHYDY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NHYDY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>NHYDY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,244 @@
     <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3630600</v>
+        <v>3489600</v>
       </c>
       <c r="E8" s="3">
-        <v>3838000</v>
+        <v>4301100</v>
       </c>
       <c r="F8" s="3">
-        <v>4007700</v>
+        <v>4004000</v>
       </c>
       <c r="G8" s="3">
-        <v>3844700</v>
+        <v>4232700</v>
       </c>
       <c r="H8" s="3">
-        <v>3926900</v>
+        <v>4419800</v>
       </c>
       <c r="I8" s="3">
+        <v>4240100</v>
+      </c>
+      <c r="J8" s="3">
+        <v>4330700</v>
+      </c>
+      <c r="K8" s="3">
         <v>4068100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>4220300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>4336500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>4493100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>2639900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>2847400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>2839100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>2620100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>2487500</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2284200</v>
+        <v>2203000</v>
       </c>
       <c r="E9" s="3">
-        <v>2464400</v>
+        <v>2611600</v>
       </c>
       <c r="F9" s="3">
-        <v>2651600</v>
+        <v>2519000</v>
       </c>
       <c r="G9" s="3">
-        <v>2571400</v>
+        <v>2717800</v>
       </c>
       <c r="H9" s="3">
-        <v>2574300</v>
+        <v>2924300</v>
       </c>
       <c r="I9" s="3">
+        <v>2835800</v>
+      </c>
+      <c r="J9" s="3">
+        <v>2839000</v>
+      </c>
+      <c r="K9" s="3">
         <v>2625700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>2710500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>2733500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>2826500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1710000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1835000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1827600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1651100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>1588800</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1346500</v>
+        <v>1286600</v>
       </c>
       <c r="E10" s="3">
-        <v>1373600</v>
+        <v>1689600</v>
       </c>
       <c r="F10" s="3">
-        <v>1356100</v>
+        <v>1484900</v>
       </c>
       <c r="G10" s="3">
-        <v>1273300</v>
+        <v>1514800</v>
       </c>
       <c r="H10" s="3">
-        <v>1352600</v>
+        <v>1495500</v>
       </c>
       <c r="I10" s="3">
+        <v>1404300</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1491700</v>
+      </c>
+      <c r="K10" s="3">
         <v>1442300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1509700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1602900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1666600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>929900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>1012400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>1011600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>969000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>898600</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,8 +920,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -941,8 +969,14 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,19 +1022,25 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>93300</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
+        <v>206300</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F14" s="3">
+        <v>102900</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1014,14 +1054,14 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
@@ -1035,55 +1075,67 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>218100</v>
+        <v>240000</v>
       </c>
       <c r="E15" s="3">
-        <v>228700</v>
+        <v>246600</v>
       </c>
       <c r="F15" s="3">
-        <v>215300</v>
+        <v>240500</v>
       </c>
       <c r="G15" s="3">
-        <v>214600</v>
+        <v>252300</v>
       </c>
       <c r="H15" s="3">
-        <v>175900</v>
+        <v>237500</v>
       </c>
       <c r="I15" s="3">
+        <v>236700</v>
+      </c>
+      <c r="J15" s="3">
+        <v>193900</v>
+      </c>
+      <c r="K15" s="3">
         <v>189400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>193400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>207100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>228100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>167900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>160800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>166700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>197200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>174600</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1150,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3671400</v>
+        <v>3677000</v>
       </c>
       <c r="E17" s="3">
-        <v>3815300</v>
+        <v>4041600</v>
       </c>
       <c r="F17" s="3">
-        <v>3940600</v>
+        <v>4049000</v>
       </c>
       <c r="G17" s="3">
-        <v>3842700</v>
+        <v>4207600</v>
       </c>
       <c r="H17" s="3">
-        <v>3908700</v>
+        <v>4345800</v>
       </c>
       <c r="I17" s="3">
+        <v>4237900</v>
+      </c>
+      <c r="J17" s="3">
+        <v>4310600</v>
+      </c>
+      <c r="K17" s="3">
         <v>3857600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>3914800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>3978300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>3970800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2370900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2506300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2542000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2378000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2317800</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-40800</v>
+        <v>-187400</v>
       </c>
       <c r="E18" s="3">
-        <v>22700</v>
+        <v>259600</v>
       </c>
       <c r="F18" s="3">
-        <v>67100</v>
+        <v>-45000</v>
       </c>
       <c r="G18" s="3">
-        <v>2000</v>
+        <v>25000</v>
       </c>
       <c r="H18" s="3">
-        <v>18200</v>
+        <v>74000</v>
       </c>
       <c r="I18" s="3">
+        <v>2300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>20100</v>
+      </c>
+      <c r="K18" s="3">
         <v>210400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>305500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>358100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>522300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>269000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>341100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>297200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>242200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>169700</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,243 +1277,275 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>48700</v>
+        <v>86400</v>
       </c>
       <c r="E20" s="3">
-        <v>-145100</v>
+        <v>-518500</v>
       </c>
       <c r="F20" s="3">
-        <v>-45800</v>
+        <v>53700</v>
       </c>
       <c r="G20" s="3">
-        <v>18800</v>
+        <v>-160000</v>
       </c>
       <c r="H20" s="3">
-        <v>-46200</v>
+        <v>-50500</v>
       </c>
       <c r="I20" s="3">
+        <v>20800</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-51000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-27200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-30000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-38200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-77500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>60900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-102800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>27100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>44600</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>319400</v>
+        <v>345300</v>
       </c>
       <c r="E21" s="3">
-        <v>106400</v>
+        <v>-10800</v>
       </c>
       <c r="F21" s="3">
-        <v>236700</v>
+        <v>352200</v>
       </c>
       <c r="G21" s="3">
-        <v>235500</v>
+        <v>117300</v>
       </c>
       <c r="H21" s="3">
-        <v>147800</v>
+        <v>261100</v>
       </c>
       <c r="I21" s="3">
+        <v>259700</v>
+      </c>
+      <c r="J21" s="3">
+        <v>163000</v>
+      </c>
+      <c r="K21" s="3">
         <v>372600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>468800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>527000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>673000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>497900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>399100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>491000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>435600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>388800</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>25000</v>
+        <v>26400</v>
       </c>
       <c r="E22" s="3">
-        <v>21600</v>
+        <v>25700</v>
       </c>
       <c r="F22" s="3">
-        <v>22100</v>
+        <v>27500</v>
       </c>
       <c r="G22" s="3">
-        <v>18200</v>
+        <v>23800</v>
       </c>
       <c r="H22" s="3">
-        <v>27500</v>
+        <v>24400</v>
       </c>
       <c r="I22" s="3">
+        <v>20100</v>
+      </c>
+      <c r="J22" s="3">
+        <v>30300</v>
+      </c>
+      <c r="K22" s="3">
         <v>16100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>15100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>13300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>12400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>4700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>8200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>10400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>13400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-17100</v>
+        <v>-127400</v>
       </c>
       <c r="E23" s="3">
-        <v>-143900</v>
+        <v>-284600</v>
       </c>
       <c r="F23" s="3">
-        <v>-800</v>
+        <v>-18800</v>
       </c>
       <c r="G23" s="3">
-        <v>2700</v>
+        <v>-158700</v>
       </c>
       <c r="H23" s="3">
-        <v>-55500</v>
+        <v>-900</v>
       </c>
       <c r="I23" s="3">
+        <v>2900</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-61300</v>
+      </c>
+      <c r="K23" s="3">
         <v>167200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>260400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>306600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>432500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>325100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>230100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>313900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>224900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>208700</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>50800</v>
+        <v>38600</v>
       </c>
       <c r="E24" s="3">
-        <v>-1600</v>
+        <v>-56200</v>
       </c>
       <c r="F24" s="3">
-        <v>18700</v>
+        <v>56100</v>
       </c>
       <c r="G24" s="3">
-        <v>15300</v>
+        <v>-1800</v>
       </c>
       <c r="H24" s="3">
-        <v>21300</v>
+        <v>20600</v>
       </c>
       <c r="I24" s="3">
+        <v>16900</v>
+      </c>
+      <c r="J24" s="3">
+        <v>23500</v>
+      </c>
+      <c r="K24" s="3">
         <v>72600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>48400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>81300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>15600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>72300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>49100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>87200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>100500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>70800</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1591,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-67900</v>
+        <v>-166000</v>
       </c>
       <c r="E26" s="3">
-        <v>-142300</v>
+        <v>-228500</v>
       </c>
       <c r="F26" s="3">
-        <v>-19500</v>
+        <v>-74900</v>
       </c>
       <c r="G26" s="3">
-        <v>-12700</v>
+        <v>-156900</v>
       </c>
       <c r="H26" s="3">
-        <v>-76800</v>
+        <v>-21500</v>
       </c>
       <c r="I26" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-84700</v>
+      </c>
+      <c r="K26" s="3">
         <v>94500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>212000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>225300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>416800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>252900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>181000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>226700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>124400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>138000</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-48700</v>
+        <v>-140800</v>
       </c>
       <c r="E27" s="3">
-        <v>-128800</v>
+        <v>-204300</v>
       </c>
       <c r="F27" s="3">
-        <v>-8700</v>
+        <v>-53700</v>
       </c>
       <c r="G27" s="3">
-        <v>900</v>
+        <v>-142000</v>
       </c>
       <c r="H27" s="3">
-        <v>-70900</v>
+        <v>-9600</v>
       </c>
       <c r="I27" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-78200</v>
+      </c>
+      <c r="K27" s="3">
         <v>76800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>215600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>226900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>405100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>235900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>171800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>217300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>130700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>133800</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1909,120 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-48700</v>
+        <v>-86400</v>
       </c>
       <c r="E32" s="3">
-        <v>145100</v>
+        <v>518500</v>
       </c>
       <c r="F32" s="3">
-        <v>45800</v>
+        <v>-53700</v>
       </c>
       <c r="G32" s="3">
-        <v>-18800</v>
+        <v>160000</v>
       </c>
       <c r="H32" s="3">
-        <v>46200</v>
+        <v>50500</v>
       </c>
       <c r="I32" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="J32" s="3">
+        <v>51000</v>
+      </c>
+      <c r="K32" s="3">
         <v>27200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>30000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>38200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>77500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-60900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>102800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-27100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>3800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-44600</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-48700</v>
+        <v>-140800</v>
       </c>
       <c r="E33" s="3">
-        <v>-128800</v>
+        <v>-204300</v>
       </c>
       <c r="F33" s="3">
-        <v>-8700</v>
+        <v>-53700</v>
       </c>
       <c r="G33" s="3">
-        <v>900</v>
+        <v>-142000</v>
       </c>
       <c r="H33" s="3">
-        <v>-70900</v>
+        <v>-9600</v>
       </c>
       <c r="I33" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-78200</v>
+      </c>
+      <c r="K33" s="3">
         <v>76800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>215600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>226900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>405100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>235900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>171800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>217300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>130700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>133800</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +2068,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-48700</v>
+        <v>-140800</v>
       </c>
       <c r="E35" s="3">
-        <v>-128800</v>
+        <v>-204300</v>
       </c>
       <c r="F35" s="3">
-        <v>-8700</v>
+        <v>-53700</v>
       </c>
       <c r="G35" s="3">
-        <v>900</v>
+        <v>-142000</v>
       </c>
       <c r="H35" s="3">
-        <v>-70900</v>
+        <v>-9600</v>
       </c>
       <c r="I35" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-78200</v>
+      </c>
+      <c r="K35" s="3">
         <v>76800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>215600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>226900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>405100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>235900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>171800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>217300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>130700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>133800</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,210 +2225,236 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1256900</v>
+        <v>1735700</v>
       </c>
       <c r="E41" s="3">
-        <v>1082400</v>
+        <v>1371900</v>
       </c>
       <c r="F41" s="3">
-        <v>1083400</v>
+        <v>1386100</v>
       </c>
       <c r="G41" s="3">
-        <v>623900</v>
+        <v>1193700</v>
       </c>
       <c r="H41" s="3">
-        <v>613300</v>
+        <v>1194800</v>
       </c>
       <c r="I41" s="3">
+        <v>688100</v>
+      </c>
+      <c r="J41" s="3">
+        <v>676400</v>
+      </c>
+      <c r="K41" s="3">
         <v>700300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>581300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1016700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1369600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>2067200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>925500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1027500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>991000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>980500</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>164100</v>
+        <v>654000</v>
       </c>
       <c r="E42" s="3">
-        <v>166600</v>
+        <v>311400</v>
       </c>
       <c r="F42" s="3">
-        <v>159700</v>
+        <v>181000</v>
       </c>
       <c r="G42" s="3">
-        <v>166000</v>
+        <v>183800</v>
       </c>
       <c r="H42" s="3">
-        <v>181700</v>
+        <v>176100</v>
       </c>
       <c r="I42" s="3">
+        <v>183100</v>
+      </c>
+      <c r="J42" s="3">
+        <v>200400</v>
+      </c>
+      <c r="K42" s="3">
         <v>195800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>216300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>200600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>244200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>259400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>600500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>580000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>624900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>572400</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1939500</v>
+        <v>2134100</v>
       </c>
       <c r="E43" s="3">
-        <v>2353600</v>
+        <v>2768500</v>
       </c>
       <c r="F43" s="3">
-        <v>2371900</v>
+        <v>2139000</v>
       </c>
       <c r="G43" s="3">
-        <v>2408300</v>
+        <v>2595600</v>
       </c>
       <c r="H43" s="3">
-        <v>2122100</v>
+        <v>2615800</v>
       </c>
       <c r="I43" s="3">
+        <v>2656000</v>
+      </c>
+      <c r="J43" s="3">
+        <v>2340300</v>
+      </c>
+      <c r="K43" s="3">
         <v>2222700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>2398100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>2471900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>2313800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1523300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1559100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1584500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>1342000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>1417300</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2129500</v>
+        <v>2299500</v>
       </c>
       <c r="E44" s="3">
-        <v>2217800</v>
+        <v>2534400</v>
       </c>
       <c r="F44" s="3">
-        <v>2324100</v>
+        <v>2348500</v>
       </c>
       <c r="G44" s="3">
-        <v>2557900</v>
+        <v>2445800</v>
       </c>
       <c r="H44" s="3">
-        <v>2709200</v>
+        <v>2563000</v>
       </c>
       <c r="I44" s="3">
+        <v>2821000</v>
+      </c>
+      <c r="J44" s="3">
+        <v>2987800</v>
+      </c>
+      <c r="K44" s="3">
         <v>2446600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>2285100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>2237700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>2398100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>1573000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>1498300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>1548300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>1526600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>1420000</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E45" s="3">
-        <v>100</v>
+      <c r="E45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>8</v>
+      <c r="G45" s="3">
+        <v>100</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>8</v>
@@ -2270,214 +2468,244 @@
       <c r="K45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3">
-        <v>0</v>
+      <c r="L45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>8</v>
+      <c r="O45" s="3">
+        <v>0</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>100</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5489900</v>
+        <v>6823400</v>
       </c>
       <c r="E46" s="3">
-        <v>5820600</v>
+        <v>6986200</v>
       </c>
       <c r="F46" s="3">
-        <v>5939000</v>
+        <v>6054500</v>
       </c>
       <c r="G46" s="3">
-        <v>5756200</v>
+        <v>6419100</v>
       </c>
       <c r="H46" s="3">
-        <v>5626300</v>
+        <v>6549800</v>
       </c>
       <c r="I46" s="3">
+        <v>6348200</v>
+      </c>
+      <c r="J46" s="3">
+        <v>6204900</v>
+      </c>
+      <c r="K46" s="3">
         <v>5565400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>5480700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>5926900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>6325700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>5422900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>4583400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>4740300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>4484500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>4390100</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1176600</v>
+        <v>1423700</v>
       </c>
       <c r="E47" s="3">
-        <v>1208100</v>
+        <v>1562000</v>
       </c>
       <c r="F47" s="3">
-        <v>1118800</v>
+        <v>1297500</v>
       </c>
       <c r="G47" s="3">
-        <v>1161000</v>
+        <v>1332300</v>
       </c>
       <c r="H47" s="3">
-        <v>1183600</v>
+        <v>1233800</v>
       </c>
       <c r="I47" s="3">
+        <v>1280400</v>
+      </c>
+      <c r="J47" s="3">
+        <v>1305300</v>
+      </c>
+      <c r="K47" s="3">
         <v>1134900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>1139600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>1144700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>1299300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>2104800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>2176900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>2458200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>2442200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>2383800</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7595100</v>
+        <v>7951300</v>
       </c>
       <c r="E48" s="3">
-        <v>7572800</v>
+        <v>8789700</v>
       </c>
       <c r="F48" s="3">
-        <v>7487600</v>
+        <v>8376100</v>
       </c>
       <c r="G48" s="3">
-        <v>7455800</v>
+        <v>8351500</v>
       </c>
       <c r="H48" s="3">
-        <v>7607900</v>
+        <v>8257600</v>
       </c>
       <c r="I48" s="3">
+        <v>8222500</v>
+      </c>
+      <c r="J48" s="3">
+        <v>8390300</v>
+      </c>
+      <c r="K48" s="3">
         <v>6777500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>6821700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>7588300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>8444900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>6542100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>6670700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>7352000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>7241900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>6716900</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1176600</v>
+        <v>1157800</v>
       </c>
       <c r="E49" s="3">
-        <v>1196400</v>
+        <v>1427100</v>
       </c>
       <c r="F49" s="3">
-        <v>1174900</v>
+        <v>1297500</v>
       </c>
       <c r="G49" s="3">
-        <v>1138900</v>
+        <v>1319400</v>
       </c>
       <c r="H49" s="3">
-        <v>1170600</v>
+        <v>1295700</v>
       </c>
       <c r="I49" s="3">
+        <v>1256000</v>
+      </c>
+      <c r="J49" s="3">
+        <v>1291000</v>
+      </c>
+      <c r="K49" s="3">
         <v>1094100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1192800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1316300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>1471900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>628400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>645800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>729800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>716500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>674300</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,55 +2804,67 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1380100</v>
+        <v>1388400</v>
       </c>
       <c r="E52" s="3">
-        <v>1288900</v>
+        <v>1456100</v>
       </c>
       <c r="F52" s="3">
-        <v>1361500</v>
+        <v>1522100</v>
       </c>
       <c r="G52" s="3">
-        <v>1331100</v>
+        <v>1421400</v>
       </c>
       <c r="H52" s="3">
-        <v>1453900</v>
+        <v>1501500</v>
       </c>
       <c r="I52" s="3">
+        <v>1468000</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1415700</v>
+      </c>
+      <c r="K52" s="3">
         <v>1311300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1237900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1249900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1550800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>1229500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>1189000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>1275900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>1241600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>1207000</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2910,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>16818200</v>
+        <v>18744500</v>
       </c>
       <c r="E54" s="3">
-        <v>17086700</v>
+        <v>20221000</v>
       </c>
       <c r="F54" s="3">
-        <v>17081800</v>
+        <v>18547700</v>
       </c>
       <c r="G54" s="3">
-        <v>16843100</v>
+        <v>18843800</v>
       </c>
       <c r="H54" s="3">
-        <v>16872100</v>
+        <v>18838500</v>
       </c>
       <c r="I54" s="3">
+        <v>18575100</v>
+      </c>
+      <c r="J54" s="3">
+        <v>18607200</v>
+      </c>
+      <c r="K54" s="3">
         <v>15883200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>15872800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>17226200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>18905400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>15927700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>15265800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>16556200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>16126800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>15372100</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,290 +3009,328 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1912200</v>
+        <v>1883300</v>
       </c>
       <c r="E57" s="3">
-        <v>2016900</v>
+        <v>2432200</v>
       </c>
       <c r="F57" s="3">
-        <v>2149700</v>
+        <v>2108800</v>
       </c>
       <c r="G57" s="3">
-        <v>2265500</v>
+        <v>2224400</v>
       </c>
       <c r="H57" s="3">
-        <v>2085000</v>
+        <v>2370800</v>
       </c>
       <c r="I57" s="3">
+        <v>2498500</v>
+      </c>
+      <c r="J57" s="3">
+        <v>2299400</v>
+      </c>
+      <c r="K57" s="3">
         <v>2036400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>2184200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>2237200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>2266100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1198100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1212600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1260600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1246300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>1125900</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>629900</v>
+        <v>800300</v>
       </c>
       <c r="E58" s="3">
-        <v>621400</v>
+        <v>871900</v>
       </c>
       <c r="F58" s="3">
-        <v>836500</v>
+        <v>694600</v>
       </c>
       <c r="G58" s="3">
-        <v>911800</v>
+        <v>685300</v>
       </c>
       <c r="H58" s="3">
-        <v>958900</v>
+        <v>922500</v>
       </c>
       <c r="I58" s="3">
+        <v>1005600</v>
+      </c>
+      <c r="J58" s="3">
+        <v>1057500</v>
+      </c>
+      <c r="K58" s="3">
         <v>675900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>508300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>571600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>954700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1049600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>433200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>429200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>404800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>439200</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>495300</v>
+        <v>419800</v>
       </c>
       <c r="E59" s="3">
-        <v>418900</v>
+        <v>538300</v>
       </c>
       <c r="F59" s="3">
-        <v>377300</v>
+        <v>546300</v>
       </c>
       <c r="G59" s="3">
-        <v>478000</v>
+        <v>462000</v>
       </c>
       <c r="H59" s="3">
-        <v>620200</v>
+        <v>416100</v>
       </c>
       <c r="I59" s="3">
+        <v>527200</v>
+      </c>
+      <c r="J59" s="3">
+        <v>684000</v>
+      </c>
+      <c r="K59" s="3">
         <v>603300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>509000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>526400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1202600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>410100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>337100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>411300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>458100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>516900</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3037400</v>
+        <v>3103500</v>
       </c>
       <c r="E60" s="3">
-        <v>3057200</v>
+        <v>3842300</v>
       </c>
       <c r="F60" s="3">
-        <v>3363500</v>
+        <v>3349700</v>
       </c>
       <c r="G60" s="3">
-        <v>3655400</v>
+        <v>3371600</v>
       </c>
       <c r="H60" s="3">
-        <v>3664100</v>
+        <v>3709400</v>
       </c>
       <c r="I60" s="3">
+        <v>4031300</v>
+      </c>
+      <c r="J60" s="3">
+        <v>4040900</v>
+      </c>
+      <c r="K60" s="3">
         <v>3315500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>3201600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>3335200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>3860100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2657800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1982800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2101200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>2109200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>2081900</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1929200</v>
+        <v>3000400</v>
       </c>
       <c r="E61" s="3">
-        <v>2044500</v>
+        <v>2401900</v>
       </c>
       <c r="F61" s="3">
-        <v>1904800</v>
+        <v>2127600</v>
       </c>
       <c r="G61" s="3">
-        <v>1080200</v>
+        <v>2254700</v>
       </c>
       <c r="H61" s="3">
-        <v>955700</v>
+        <v>2100700</v>
       </c>
       <c r="I61" s="3">
+        <v>1191300</v>
+      </c>
+      <c r="J61" s="3">
+        <v>1054000</v>
+      </c>
+      <c r="K61" s="3">
         <v>806700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>959300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>948900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1043500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>356300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>368600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>415900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>550400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>420300</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3250200</v>
+        <v>3743300</v>
       </c>
       <c r="E62" s="3">
-        <v>3325700</v>
+        <v>4142000</v>
       </c>
       <c r="F62" s="3">
-        <v>3057000</v>
+        <v>3584400</v>
       </c>
       <c r="G62" s="3">
-        <v>2962500</v>
+        <v>3667700</v>
       </c>
       <c r="H62" s="3">
-        <v>3216500</v>
+        <v>3371400</v>
       </c>
       <c r="I62" s="3">
+        <v>3267200</v>
+      </c>
+      <c r="J62" s="3">
+        <v>3547300</v>
+      </c>
+      <c r="K62" s="3">
         <v>2811300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>2795200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>3056100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>3561200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>2735700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>2775600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>2844800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>2661200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>2833800</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3482,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>8641100</v>
+        <v>10211600</v>
       </c>
       <c r="E66" s="3">
-        <v>8874500</v>
+        <v>10832900</v>
       </c>
       <c r="F66" s="3">
-        <v>8780800</v>
+        <v>9529700</v>
       </c>
       <c r="G66" s="3">
-        <v>8179200</v>
+        <v>9787100</v>
       </c>
       <c r="H66" s="3">
-        <v>8092700</v>
+        <v>9683800</v>
       </c>
       <c r="I66" s="3">
+        <v>9020300</v>
+      </c>
+      <c r="J66" s="3">
+        <v>8925000</v>
+      </c>
+      <c r="K66" s="3">
         <v>7391100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>7415000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>7870700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>8828100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>6353700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>5731300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>6081600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>6027600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>6016400</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5395800</v>
+        <v>5605700</v>
       </c>
       <c r="E72" s="3">
-        <v>5444400</v>
+        <v>5746400</v>
       </c>
       <c r="F72" s="3">
-        <v>5573300</v>
+        <v>5950700</v>
       </c>
       <c r="G72" s="3">
-        <v>5843700</v>
+        <v>6004300</v>
       </c>
       <c r="H72" s="3">
-        <v>5842800</v>
+        <v>6146400</v>
       </c>
       <c r="I72" s="3">
+        <v>6444600</v>
+      </c>
+      <c r="J72" s="3">
+        <v>6443600</v>
+      </c>
+      <c r="K72" s="3">
         <v>5915000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>5838300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>6351300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>6534600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>6130800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>5895000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>6408300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>6190900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>6060300</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8177100</v>
+        <v>8532900</v>
       </c>
       <c r="E76" s="3">
-        <v>8212100</v>
+        <v>9388100</v>
       </c>
       <c r="F76" s="3">
-        <v>8301000</v>
+        <v>9018000</v>
       </c>
       <c r="G76" s="3">
-        <v>8663900</v>
+        <v>9056600</v>
       </c>
       <c r="H76" s="3">
-        <v>8779400</v>
+        <v>9154700</v>
       </c>
       <c r="I76" s="3">
+        <v>9554800</v>
+      </c>
+      <c r="J76" s="3">
+        <v>9682200</v>
+      </c>
+      <c r="K76" s="3">
         <v>8492100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>8457800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>9355400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>10077300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>9574000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>9534500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>10474600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>10099100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>9355600</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +4086,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-48700</v>
+        <v>-140800</v>
       </c>
       <c r="E81" s="3">
-        <v>-128800</v>
+        <v>-204300</v>
       </c>
       <c r="F81" s="3">
-        <v>-8700</v>
+        <v>-53700</v>
       </c>
       <c r="G81" s="3">
-        <v>900</v>
+        <v>-142000</v>
       </c>
       <c r="H81" s="3">
-        <v>-70900</v>
+        <v>-9600</v>
       </c>
       <c r="I81" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-78200</v>
+      </c>
+      <c r="K81" s="3">
         <v>76800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>215600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>226900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>405100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>235900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>171800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>217300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>130700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>133800</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,55 +4222,63 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>311500</v>
+        <v>446300</v>
       </c>
       <c r="E83" s="3">
-        <v>228700</v>
+        <v>248100</v>
       </c>
       <c r="F83" s="3">
-        <v>215400</v>
+        <v>343500</v>
       </c>
       <c r="G83" s="3">
-        <v>214600</v>
+        <v>252300</v>
       </c>
       <c r="H83" s="3">
-        <v>175900</v>
+        <v>237600</v>
       </c>
       <c r="I83" s="3">
+        <v>236700</v>
+      </c>
+      <c r="J83" s="3">
+        <v>193900</v>
+      </c>
+      <c r="K83" s="3">
         <v>189400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>193300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>207100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>228100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>168000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>160800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>166700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>197300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>174500</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4536,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>581100</v>
+        <v>247100</v>
       </c>
       <c r="E89" s="3">
-        <v>357100</v>
+        <v>153700</v>
       </c>
       <c r="F89" s="3">
-        <v>266000</v>
+        <v>640800</v>
       </c>
       <c r="G89" s="3">
-        <v>79700</v>
+        <v>393900</v>
       </c>
       <c r="H89" s="3">
-        <v>96600</v>
+        <v>293300</v>
       </c>
       <c r="I89" s="3">
+        <v>87900</v>
+      </c>
+      <c r="J89" s="3">
+        <v>106500</v>
+      </c>
+      <c r="K89" s="3">
         <v>263300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>155300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>215800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>740900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>341600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>501400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>82400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>523700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>284800</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,55 +4614,63 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-296000</v>
+        <v>-141400</v>
       </c>
       <c r="E91" s="3">
-        <v>-201600</v>
+        <v>-169800</v>
       </c>
       <c r="F91" s="3">
-        <v>-228200</v>
+        <v>-326400</v>
       </c>
       <c r="G91" s="3">
-        <v>-166900</v>
+        <v>-222400</v>
       </c>
       <c r="H91" s="3">
-        <v>-257500</v>
+        <v>-251700</v>
       </c>
       <c r="I91" s="3">
+        <v>-184000</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-284000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-183700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-157200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-148500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-353000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-173800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-156300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-172100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-315900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-198600</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4769,67 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-299400</v>
+        <v>-520800</v>
       </c>
       <c r="E94" s="3">
-        <v>-198900</v>
+        <v>-231400</v>
       </c>
       <c r="F94" s="3">
-        <v>-274900</v>
+        <v>-330200</v>
       </c>
       <c r="G94" s="3">
-        <v>-165200</v>
+        <v>-219300</v>
       </c>
       <c r="H94" s="3">
-        <v>-265000</v>
+        <v>-303100</v>
       </c>
       <c r="I94" s="3">
+        <v>-182200</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-292200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-154800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-165900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-159600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-1571400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>220100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-244300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-80900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-331100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-397400</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,55 +4847,63 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-9300</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-261700</v>
+        <v>-10300</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-2300</v>
+        <v>-288600</v>
       </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1900</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-366300</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-8700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-42700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-303900</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-14300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,145 +5055,169 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-99200</v>
+        <v>743800</v>
       </c>
       <c r="E100" s="3">
-        <v>-177100</v>
+        <v>-1600</v>
       </c>
       <c r="F100" s="3">
-        <v>470000</v>
+        <v>-109400</v>
       </c>
       <c r="G100" s="3">
-        <v>104100</v>
+        <v>-195300</v>
       </c>
       <c r="H100" s="3">
-        <v>41400</v>
+        <v>518300</v>
       </c>
       <c r="I100" s="3">
+        <v>114900</v>
+      </c>
+      <c r="J100" s="3">
+        <v>45700</v>
+      </c>
+      <c r="K100" s="3">
         <v>22200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-344300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-292100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>101800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>602000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-283600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>26000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-212400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-22300</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-8000</v>
+        <v>-106300</v>
       </c>
       <c r="E101" s="3">
-        <v>17900</v>
+        <v>65100</v>
       </c>
       <c r="F101" s="3">
-        <v>-1600</v>
+        <v>-8800</v>
       </c>
       <c r="G101" s="3">
-        <v>-8000</v>
+        <v>19700</v>
       </c>
       <c r="H101" s="3">
-        <v>39900</v>
+        <v>-1800</v>
       </c>
       <c r="I101" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="J101" s="3">
+        <v>44000</v>
+      </c>
+      <c r="K101" s="3">
         <v>-11700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-22400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-30700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>31000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-22000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-12900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>9000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>30300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-21500</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>174400</v>
+        <v>363800</v>
       </c>
       <c r="E102" s="3">
-        <v>-900</v>
+        <v>-14200</v>
       </c>
       <c r="F102" s="3">
-        <v>459400</v>
+        <v>192400</v>
       </c>
       <c r="G102" s="3">
-        <v>10600</v>
+        <v>-1000</v>
       </c>
       <c r="H102" s="3">
-        <v>-87100</v>
+        <v>506700</v>
       </c>
       <c r="I102" s="3">
+        <v>11700</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-96000</v>
+      </c>
+      <c r="K102" s="3">
         <v>119100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-377400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-266600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-697600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>1141700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-39400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>36500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>10500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-156300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NHYDY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NHYDY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>NHYDY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3489600</v>
+        <v>3755100</v>
       </c>
       <c r="E8" s="3">
-        <v>4301100</v>
+        <v>3501700</v>
       </c>
       <c r="F8" s="3">
-        <v>4004000</v>
+        <v>4316000</v>
       </c>
       <c r="G8" s="3">
-        <v>4232700</v>
+        <v>4017800</v>
       </c>
       <c r="H8" s="3">
-        <v>4419800</v>
+        <v>4247300</v>
       </c>
       <c r="I8" s="3">
-        <v>4240100</v>
+        <v>4435100</v>
       </c>
       <c r="J8" s="3">
+        <v>4254800</v>
+      </c>
+      <c r="K8" s="3">
         <v>4330700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4068100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4220300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4336500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4493100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2639900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2847400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2839100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2620100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2487500</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2203000</v>
+        <v>2290900</v>
       </c>
       <c r="E9" s="3">
-        <v>2611600</v>
+        <v>2210700</v>
       </c>
       <c r="F9" s="3">
-        <v>2519000</v>
+        <v>2620600</v>
       </c>
       <c r="G9" s="3">
-        <v>2717800</v>
+        <v>2527800</v>
       </c>
       <c r="H9" s="3">
-        <v>2924300</v>
+        <v>2727200</v>
       </c>
       <c r="I9" s="3">
-        <v>2835800</v>
+        <v>2934400</v>
       </c>
       <c r="J9" s="3">
+        <v>2845600</v>
+      </c>
+      <c r="K9" s="3">
         <v>2839000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2625700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2710500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2733500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2826500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1710000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1835000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1827600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1651100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1588800</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1286600</v>
+        <v>1464100</v>
       </c>
       <c r="E10" s="3">
-        <v>1689600</v>
+        <v>1291000</v>
       </c>
       <c r="F10" s="3">
-        <v>1484900</v>
+        <v>1695400</v>
       </c>
       <c r="G10" s="3">
-        <v>1514800</v>
+        <v>1490100</v>
       </c>
       <c r="H10" s="3">
-        <v>1495500</v>
+        <v>1520100</v>
       </c>
       <c r="I10" s="3">
-        <v>1404300</v>
+        <v>1500700</v>
       </c>
       <c r="J10" s="3">
+        <v>1409100</v>
+      </c>
+      <c r="K10" s="3">
         <v>1491700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1442300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1509700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1602900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1666600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>929900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1012400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1011600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>969000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>898600</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,22 +1045,25 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>206300</v>
+        <v>8500</v>
       </c>
       <c r="E14" s="3">
+        <v>207100</v>
+      </c>
+      <c r="F14" s="3">
         <v>1400</v>
       </c>
-      <c r="F14" s="3">
-        <v>102900</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
+      <c r="G14" s="3">
+        <v>103200</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1060,11 +1080,11 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1081,61 +1101,67 @@
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>240000</v>
+        <v>227600</v>
       </c>
       <c r="E15" s="3">
-        <v>246600</v>
+        <v>240800</v>
       </c>
       <c r="F15" s="3">
-        <v>240500</v>
+        <v>247500</v>
       </c>
       <c r="G15" s="3">
-        <v>252300</v>
+        <v>241400</v>
       </c>
       <c r="H15" s="3">
+        <v>253100</v>
+      </c>
+      <c r="I15" s="3">
+        <v>238300</v>
+      </c>
+      <c r="J15" s="3">
         <v>237500</v>
       </c>
-      <c r="I15" s="3">
-        <v>236700</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>193900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>189400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>193400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>207100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>228100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>167900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>160800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>166700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>197200</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>174600</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3677000</v>
+        <v>3548800</v>
       </c>
       <c r="E17" s="3">
-        <v>4041600</v>
+        <v>3689700</v>
       </c>
       <c r="F17" s="3">
-        <v>4049000</v>
+        <v>4055500</v>
       </c>
       <c r="G17" s="3">
-        <v>4207600</v>
+        <v>4063000</v>
       </c>
       <c r="H17" s="3">
-        <v>4345800</v>
+        <v>4222200</v>
       </c>
       <c r="I17" s="3">
-        <v>4237900</v>
+        <v>4360800</v>
       </c>
       <c r="J17" s="3">
+        <v>4252500</v>
+      </c>
+      <c r="K17" s="3">
         <v>4310600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3857600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3914800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3978300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3970800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2370900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2506300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2542000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2378000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2317800</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-187400</v>
+        <v>206300</v>
       </c>
       <c r="E18" s="3">
-        <v>259600</v>
+        <v>-188000</v>
       </c>
       <c r="F18" s="3">
-        <v>-45000</v>
+        <v>260500</v>
       </c>
       <c r="G18" s="3">
-        <v>25000</v>
+        <v>-45200</v>
       </c>
       <c r="H18" s="3">
-        <v>74000</v>
+        <v>25100</v>
       </c>
       <c r="I18" s="3">
+        <v>74300</v>
+      </c>
+      <c r="J18" s="3">
         <v>2300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>20100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>210400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>305500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>358100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>522300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>269000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>341100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>297200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>242200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>169700</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,273 +1312,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>86400</v>
+        <v>-172400</v>
       </c>
       <c r="E20" s="3">
-        <v>-518500</v>
+        <v>86700</v>
       </c>
       <c r="F20" s="3">
-        <v>53700</v>
+        <v>-520300</v>
       </c>
       <c r="G20" s="3">
-        <v>-160000</v>
+        <v>53900</v>
       </c>
       <c r="H20" s="3">
-        <v>-50500</v>
+        <v>-160500</v>
       </c>
       <c r="I20" s="3">
+        <v>-50700</v>
+      </c>
+      <c r="J20" s="3">
         <v>20800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-51000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-27200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-30000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-38200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-77500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>60900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-102800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>27100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-3800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>44600</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>345300</v>
+        <v>269900</v>
       </c>
       <c r="E21" s="3">
-        <v>-10800</v>
+        <v>346500</v>
       </c>
       <c r="F21" s="3">
-        <v>352200</v>
+        <v>-10900</v>
       </c>
       <c r="G21" s="3">
-        <v>117300</v>
+        <v>353400</v>
       </c>
       <c r="H21" s="3">
-        <v>261100</v>
+        <v>117700</v>
       </c>
       <c r="I21" s="3">
-        <v>259700</v>
+        <v>262000</v>
       </c>
       <c r="J21" s="3">
+        <v>260600</v>
+      </c>
+      <c r="K21" s="3">
         <v>163000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>372600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>468800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>527000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>673000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>497900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>399100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>491000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>435600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>388800</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>26400</v>
+        <v>29900</v>
       </c>
       <c r="E22" s="3">
-        <v>25700</v>
+        <v>26500</v>
       </c>
       <c r="F22" s="3">
-        <v>27500</v>
+        <v>25800</v>
       </c>
       <c r="G22" s="3">
-        <v>23800</v>
+        <v>27600</v>
       </c>
       <c r="H22" s="3">
-        <v>24400</v>
+        <v>23900</v>
       </c>
       <c r="I22" s="3">
-        <v>20100</v>
+        <v>24500</v>
       </c>
       <c r="J22" s="3">
+        <v>20200</v>
+      </c>
+      <c r="K22" s="3">
         <v>30300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>16100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>15100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>13300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>12400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>4700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>8200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>10400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>13400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-127400</v>
+        <v>4000</v>
       </c>
       <c r="E23" s="3">
-        <v>-284600</v>
+        <v>-127800</v>
       </c>
       <c r="F23" s="3">
-        <v>-18800</v>
+        <v>-285600</v>
       </c>
       <c r="G23" s="3">
-        <v>-158700</v>
+        <v>-18900</v>
       </c>
       <c r="H23" s="3">
+        <v>-159300</v>
+      </c>
+      <c r="I23" s="3">
         <v>-900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-61300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>167200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>260400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>306600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>432500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>325100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>230100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>313900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>224900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>208700</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>38600</v>
+        <v>29000</v>
       </c>
       <c r="E24" s="3">
-        <v>-56200</v>
+        <v>38700</v>
       </c>
       <c r="F24" s="3">
-        <v>56100</v>
+        <v>-56400</v>
       </c>
       <c r="G24" s="3">
+        <v>56300</v>
+      </c>
+      <c r="H24" s="3">
         <v>-1800</v>
       </c>
-      <c r="H24" s="3">
-        <v>20600</v>
-      </c>
       <c r="I24" s="3">
-        <v>16900</v>
+        <v>20700</v>
       </c>
       <c r="J24" s="3">
+        <v>17000</v>
+      </c>
+      <c r="K24" s="3">
         <v>23500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>72600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>48400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>81300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>15600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>72300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>49100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>87200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>100500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>70800</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-166000</v>
+        <v>-25000</v>
       </c>
       <c r="E26" s="3">
-        <v>-228500</v>
+        <v>-166500</v>
       </c>
       <c r="F26" s="3">
-        <v>-74900</v>
+        <v>-229300</v>
       </c>
       <c r="G26" s="3">
-        <v>-156900</v>
+        <v>-75200</v>
       </c>
       <c r="H26" s="3">
-        <v>-21500</v>
+        <v>-157500</v>
       </c>
       <c r="I26" s="3">
+        <v>-21600</v>
+      </c>
+      <c r="J26" s="3">
         <v>-14000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-84700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>94500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>212000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>225300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>416800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>252900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>181000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>226700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>124400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>138000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-140800</v>
+        <v>-25100</v>
       </c>
       <c r="E27" s="3">
-        <v>-204300</v>
+        <v>-141300</v>
       </c>
       <c r="F27" s="3">
-        <v>-53700</v>
+        <v>-205000</v>
       </c>
       <c r="G27" s="3">
-        <v>-142000</v>
+        <v>-53900</v>
       </c>
       <c r="H27" s="3">
+        <v>-142500</v>
+      </c>
+      <c r="I27" s="3">
         <v>-9600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-78200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>76800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>215600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>226900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>405100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>235900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>171800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>217300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>130700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>133800</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-86400</v>
+        <v>172400</v>
       </c>
       <c r="E32" s="3">
-        <v>518500</v>
+        <v>-86700</v>
       </c>
       <c r="F32" s="3">
-        <v>-53700</v>
+        <v>520300</v>
       </c>
       <c r="G32" s="3">
-        <v>160000</v>
+        <v>-53900</v>
       </c>
       <c r="H32" s="3">
-        <v>50500</v>
+        <v>160500</v>
       </c>
       <c r="I32" s="3">
+        <v>50700</v>
+      </c>
+      <c r="J32" s="3">
         <v>-20800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>51000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>27200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>30000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>38200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>77500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-60900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>102800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-27100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>3800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-44600</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-140800</v>
+        <v>-25100</v>
       </c>
       <c r="E33" s="3">
-        <v>-204300</v>
+        <v>-141300</v>
       </c>
       <c r="F33" s="3">
-        <v>-53700</v>
+        <v>-205000</v>
       </c>
       <c r="G33" s="3">
-        <v>-142000</v>
+        <v>-53900</v>
       </c>
       <c r="H33" s="3">
+        <v>-142500</v>
+      </c>
+      <c r="I33" s="3">
         <v>-9600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-78200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>76800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>215600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>226900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>405100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>235900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>171800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>217300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>130700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>133800</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-140800</v>
+        <v>-25100</v>
       </c>
       <c r="E35" s="3">
-        <v>-204300</v>
+        <v>-141300</v>
       </c>
       <c r="F35" s="3">
-        <v>-53700</v>
+        <v>-205000</v>
       </c>
       <c r="G35" s="3">
-        <v>-142000</v>
+        <v>-53900</v>
       </c>
       <c r="H35" s="3">
+        <v>-142500</v>
+      </c>
+      <c r="I35" s="3">
         <v>-9600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-78200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>76800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>215600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>226900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>405100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>235900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>171800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>217300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>130700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>133800</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,225 +2313,238 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1735700</v>
+        <v>1980600</v>
       </c>
       <c r="E41" s="3">
-        <v>1371900</v>
+        <v>1741700</v>
       </c>
       <c r="F41" s="3">
-        <v>1386100</v>
+        <v>1376600</v>
       </c>
       <c r="G41" s="3">
-        <v>1193700</v>
+        <v>1390900</v>
       </c>
       <c r="H41" s="3">
-        <v>1194800</v>
+        <v>1197900</v>
       </c>
       <c r="I41" s="3">
-        <v>688100</v>
+        <v>1198900</v>
       </c>
       <c r="J41" s="3">
+        <v>690500</v>
+      </c>
+      <c r="K41" s="3">
         <v>676400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>700300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>581300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1016700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1369600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2067200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>925500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1027500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>991000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>980500</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>654000</v>
+        <v>673800</v>
       </c>
       <c r="E42" s="3">
-        <v>311400</v>
+        <v>656300</v>
       </c>
       <c r="F42" s="3">
-        <v>181000</v>
+        <v>312500</v>
       </c>
       <c r="G42" s="3">
-        <v>183800</v>
+        <v>181600</v>
       </c>
       <c r="H42" s="3">
-        <v>176100</v>
+        <v>184400</v>
       </c>
       <c r="I42" s="3">
-        <v>183100</v>
+        <v>176700</v>
       </c>
       <c r="J42" s="3">
+        <v>183700</v>
+      </c>
+      <c r="K42" s="3">
         <v>200400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>195800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>216300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>200600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>244200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>259400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>600500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>580000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>624900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>572400</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2134100</v>
+        <v>2294500</v>
       </c>
       <c r="E43" s="3">
-        <v>2768500</v>
+        <v>2141500</v>
       </c>
       <c r="F43" s="3">
-        <v>2139000</v>
+        <v>2778100</v>
       </c>
       <c r="G43" s="3">
-        <v>2595600</v>
+        <v>2146300</v>
       </c>
       <c r="H43" s="3">
-        <v>2615800</v>
+        <v>2604600</v>
       </c>
       <c r="I43" s="3">
-        <v>2656000</v>
+        <v>2624900</v>
       </c>
       <c r="J43" s="3">
+        <v>2665200</v>
+      </c>
+      <c r="K43" s="3">
         <v>2340300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2222700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2398100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2471900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2313800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1523300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1559100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1584500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1342000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1417300</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2299500</v>
+        <v>2183600</v>
       </c>
       <c r="E44" s="3">
-        <v>2534400</v>
+        <v>2307400</v>
       </c>
       <c r="F44" s="3">
-        <v>2348500</v>
+        <v>2543100</v>
       </c>
       <c r="G44" s="3">
-        <v>2445800</v>
+        <v>2356600</v>
       </c>
       <c r="H44" s="3">
-        <v>2563000</v>
+        <v>2454300</v>
       </c>
       <c r="I44" s="3">
-        <v>2821000</v>
+        <v>2571900</v>
       </c>
       <c r="J44" s="3">
+        <v>2830700</v>
+      </c>
+      <c r="K44" s="3">
         <v>2987800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2446600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2285100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2237700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2398100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1573000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1498300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1548300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1526600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1420000</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>8</v>
+      <c r="D45" s="3">
+        <v>100</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>8</v>
@@ -2453,11 +2552,11 @@
       <c r="F45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G45" s="3">
+      <c r="G45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" s="3">
         <v>100</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>8</v>
@@ -2474,8 +2573,8 @@
       <c r="M45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
+      <c r="N45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -2483,229 +2582,244 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-      <c r="Q45" s="3" t="s">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>100</v>
       </c>
-      <c r="S45" s="3" t="s">
+      <c r="T45" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6823400</v>
+        <v>7132700</v>
       </c>
       <c r="E46" s="3">
-        <v>6986200</v>
+        <v>6846900</v>
       </c>
       <c r="F46" s="3">
-        <v>6054500</v>
+        <v>7010300</v>
       </c>
       <c r="G46" s="3">
-        <v>6419100</v>
+        <v>6075400</v>
       </c>
       <c r="H46" s="3">
-        <v>6549800</v>
+        <v>6441300</v>
       </c>
       <c r="I46" s="3">
-        <v>6348200</v>
+        <v>6572400</v>
       </c>
       <c r="J46" s="3">
+        <v>6370100</v>
+      </c>
+      <c r="K46" s="3">
         <v>6204900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5565400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5480700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5926900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6325700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5422900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4583400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4740300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4484500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4390100</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1423700</v>
+        <v>1364000</v>
       </c>
       <c r="E47" s="3">
-        <v>1562000</v>
+        <v>1428600</v>
       </c>
       <c r="F47" s="3">
-        <v>1297500</v>
+        <v>1567400</v>
       </c>
       <c r="G47" s="3">
-        <v>1332300</v>
+        <v>1302000</v>
       </c>
       <c r="H47" s="3">
-        <v>1233800</v>
+        <v>1336900</v>
       </c>
       <c r="I47" s="3">
-        <v>1280400</v>
+        <v>1238100</v>
       </c>
       <c r="J47" s="3">
+        <v>1284800</v>
+      </c>
+      <c r="K47" s="3">
         <v>1305300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1134900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1139600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1144700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1299300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2104800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2176900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2458200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2442200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2383800</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7951300</v>
+        <v>7772700</v>
       </c>
       <c r="E48" s="3">
-        <v>8789700</v>
+        <v>7978800</v>
       </c>
       <c r="F48" s="3">
-        <v>8376100</v>
+        <v>8820100</v>
       </c>
       <c r="G48" s="3">
-        <v>8351500</v>
+        <v>8405100</v>
       </c>
       <c r="H48" s="3">
-        <v>8257600</v>
+        <v>8380400</v>
       </c>
       <c r="I48" s="3">
-        <v>8222500</v>
+        <v>8286200</v>
       </c>
       <c r="J48" s="3">
+        <v>8251000</v>
+      </c>
+      <c r="K48" s="3">
         <v>8390300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6777500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6821700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>7588300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>8444900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6542100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6670700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>7352000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>7241900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>6716900</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1157800</v>
+        <v>1121100</v>
       </c>
       <c r="E49" s="3">
-        <v>1427100</v>
+        <v>1161800</v>
       </c>
       <c r="F49" s="3">
-        <v>1297500</v>
+        <v>1432000</v>
       </c>
       <c r="G49" s="3">
-        <v>1319400</v>
+        <v>1302000</v>
       </c>
       <c r="H49" s="3">
-        <v>1295700</v>
+        <v>1324000</v>
       </c>
       <c r="I49" s="3">
-        <v>1256000</v>
+        <v>1300200</v>
       </c>
       <c r="J49" s="3">
+        <v>1260400</v>
+      </c>
+      <c r="K49" s="3">
         <v>1291000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1094100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1192800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1316300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1471900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>628400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>645800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>729800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>716500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>674300</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1388400</v>
+        <v>1387200</v>
       </c>
       <c r="E52" s="3">
-        <v>1456100</v>
+        <v>1393200</v>
       </c>
       <c r="F52" s="3">
-        <v>1522100</v>
+        <v>1461100</v>
       </c>
       <c r="G52" s="3">
-        <v>1421400</v>
+        <v>1527300</v>
       </c>
       <c r="H52" s="3">
-        <v>1501500</v>
+        <v>1426300</v>
       </c>
       <c r="I52" s="3">
-        <v>1468000</v>
+        <v>1506700</v>
       </c>
       <c r="J52" s="3">
+        <v>1473100</v>
+      </c>
+      <c r="K52" s="3">
         <v>1415700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1311300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1237900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1249900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1550800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1229500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1189000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1275900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1241600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1207000</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>18744500</v>
+        <v>18777600</v>
       </c>
       <c r="E54" s="3">
-        <v>20221000</v>
+        <v>18809300</v>
       </c>
       <c r="F54" s="3">
-        <v>18547700</v>
+        <v>20290900</v>
       </c>
       <c r="G54" s="3">
-        <v>18843800</v>
+        <v>18611800</v>
       </c>
       <c r="H54" s="3">
-        <v>18838500</v>
+        <v>18908900</v>
       </c>
       <c r="I54" s="3">
-        <v>18575100</v>
+        <v>18903600</v>
       </c>
       <c r="J54" s="3">
+        <v>18639300</v>
+      </c>
+      <c r="K54" s="3">
         <v>18607200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>15883200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>15872800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>17226200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>18905400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>15927700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>15265800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>16556200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>16126800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>15372100</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,326 +3141,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1883300</v>
+        <v>2022500</v>
       </c>
       <c r="E57" s="3">
-        <v>2432200</v>
+        <v>1889800</v>
       </c>
       <c r="F57" s="3">
-        <v>2108800</v>
+        <v>2440600</v>
       </c>
       <c r="G57" s="3">
-        <v>2224400</v>
+        <v>2116100</v>
       </c>
       <c r="H57" s="3">
-        <v>2370800</v>
+        <v>2232000</v>
       </c>
       <c r="I57" s="3">
-        <v>2498500</v>
+        <v>2379000</v>
       </c>
       <c r="J57" s="3">
+        <v>2507100</v>
+      </c>
+      <c r="K57" s="3">
         <v>2299400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2036400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2184200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2237200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2266100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1198100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1212600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1260600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1246300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1125900</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>800300</v>
+        <v>782800</v>
       </c>
       <c r="E58" s="3">
-        <v>871900</v>
+        <v>803100</v>
       </c>
       <c r="F58" s="3">
-        <v>694600</v>
+        <v>874900</v>
       </c>
       <c r="G58" s="3">
-        <v>685300</v>
+        <v>697000</v>
       </c>
       <c r="H58" s="3">
-        <v>922500</v>
+        <v>687600</v>
       </c>
       <c r="I58" s="3">
-        <v>1005600</v>
+        <v>925700</v>
       </c>
       <c r="J58" s="3">
+        <v>1009000</v>
+      </c>
+      <c r="K58" s="3">
         <v>1057500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>675900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>508300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>571600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>954700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1049600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>433200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>429200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>404800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>439200</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>419800</v>
+        <v>414200</v>
       </c>
       <c r="E59" s="3">
-        <v>538300</v>
+        <v>421300</v>
       </c>
       <c r="F59" s="3">
-        <v>546300</v>
+        <v>540100</v>
       </c>
       <c r="G59" s="3">
-        <v>462000</v>
+        <v>548200</v>
       </c>
       <c r="H59" s="3">
-        <v>416100</v>
+        <v>463600</v>
       </c>
       <c r="I59" s="3">
-        <v>527200</v>
+        <v>417500</v>
       </c>
       <c r="J59" s="3">
+        <v>529000</v>
+      </c>
+      <c r="K59" s="3">
         <v>684000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>603300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>509000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>526400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1202600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>410100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>337100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>411300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>458100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>516900</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3103500</v>
+        <v>3219600</v>
       </c>
       <c r="E60" s="3">
-        <v>3842300</v>
+        <v>3114200</v>
       </c>
       <c r="F60" s="3">
-        <v>3349700</v>
+        <v>3855600</v>
       </c>
       <c r="G60" s="3">
-        <v>3371600</v>
+        <v>3361300</v>
       </c>
       <c r="H60" s="3">
-        <v>3709400</v>
+        <v>3383300</v>
       </c>
       <c r="I60" s="3">
-        <v>4031300</v>
+        <v>3722200</v>
       </c>
       <c r="J60" s="3">
+        <v>4045200</v>
+      </c>
+      <c r="K60" s="3">
         <v>4040900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3315500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3201600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3335200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3860100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2657800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1982800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2101200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2109200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2081900</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3000400</v>
+        <v>2929100</v>
       </c>
       <c r="E61" s="3">
-        <v>2401900</v>
+        <v>3010800</v>
       </c>
       <c r="F61" s="3">
-        <v>2127600</v>
+        <v>2410200</v>
       </c>
       <c r="G61" s="3">
-        <v>2254700</v>
+        <v>2134900</v>
       </c>
       <c r="H61" s="3">
-        <v>2100700</v>
+        <v>2262500</v>
       </c>
       <c r="I61" s="3">
-        <v>1191300</v>
+        <v>2108000</v>
       </c>
       <c r="J61" s="3">
+        <v>1195400</v>
+      </c>
+      <c r="K61" s="3">
         <v>1054000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>806700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>959300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>948900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1043500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>356300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>368600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>415900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>550400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>420300</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3743300</v>
+        <v>3923600</v>
       </c>
       <c r="E62" s="3">
-        <v>4142000</v>
+        <v>3756200</v>
       </c>
       <c r="F62" s="3">
-        <v>3584400</v>
+        <v>4156300</v>
       </c>
       <c r="G62" s="3">
-        <v>3667700</v>
+        <v>3596800</v>
       </c>
       <c r="H62" s="3">
-        <v>3371400</v>
+        <v>3680300</v>
       </c>
       <c r="I62" s="3">
-        <v>3267200</v>
+        <v>3383100</v>
       </c>
       <c r="J62" s="3">
+        <v>3278400</v>
+      </c>
+      <c r="K62" s="3">
         <v>3547300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2811300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2795200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3056100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3561200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2735700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2775600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2844800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2661200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2833800</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10211600</v>
+        <v>10418900</v>
       </c>
       <c r="E66" s="3">
-        <v>10832900</v>
+        <v>10246900</v>
       </c>
       <c r="F66" s="3">
-        <v>9529700</v>
+        <v>10870300</v>
       </c>
       <c r="G66" s="3">
-        <v>9787100</v>
+        <v>9562600</v>
       </c>
       <c r="H66" s="3">
-        <v>9683800</v>
+        <v>9821000</v>
       </c>
       <c r="I66" s="3">
-        <v>9020300</v>
+        <v>9717300</v>
       </c>
       <c r="J66" s="3">
+        <v>9051500</v>
+      </c>
+      <c r="K66" s="3">
         <v>8925000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7391100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7415000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7870700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8828100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6353700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5731300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6081600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6027600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6016400</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5605700</v>
+        <v>5599900</v>
       </c>
       <c r="E72" s="3">
-        <v>5746400</v>
+        <v>5625100</v>
       </c>
       <c r="F72" s="3">
-        <v>5950700</v>
+        <v>5766200</v>
       </c>
       <c r="G72" s="3">
-        <v>6004300</v>
+        <v>5971300</v>
       </c>
       <c r="H72" s="3">
-        <v>6146400</v>
+        <v>6025000</v>
       </c>
       <c r="I72" s="3">
-        <v>6444600</v>
+        <v>6167700</v>
       </c>
       <c r="J72" s="3">
+        <v>6466900</v>
+      </c>
+      <c r="K72" s="3">
         <v>6443600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5915000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5838300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>6351300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>6534600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>6130800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>5895000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>6408300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>6190900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>6060300</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8532900</v>
+        <v>8358600</v>
       </c>
       <c r="E76" s="3">
-        <v>9388100</v>
+        <v>8562400</v>
       </c>
       <c r="F76" s="3">
-        <v>9018000</v>
+        <v>9420500</v>
       </c>
       <c r="G76" s="3">
-        <v>9056600</v>
+        <v>9049200</v>
       </c>
       <c r="H76" s="3">
-        <v>9154700</v>
+        <v>9087900</v>
       </c>
       <c r="I76" s="3">
-        <v>9554800</v>
+        <v>9186300</v>
       </c>
       <c r="J76" s="3">
+        <v>9587900</v>
+      </c>
+      <c r="K76" s="3">
         <v>9682200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8492100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8457800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9355400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10077300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9574000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>9534500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>10474600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>10099100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>9355600</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-140800</v>
+        <v>-25100</v>
       </c>
       <c r="E81" s="3">
-        <v>-204300</v>
+        <v>-141300</v>
       </c>
       <c r="F81" s="3">
-        <v>-53700</v>
+        <v>-205000</v>
       </c>
       <c r="G81" s="3">
-        <v>-142000</v>
+        <v>-53900</v>
       </c>
       <c r="H81" s="3">
+        <v>-142500</v>
+      </c>
+      <c r="I81" s="3">
         <v>-9600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-78200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>76800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>215600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>226900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>405100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>235900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>171800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>217300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>130700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>133800</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>446300</v>
+        <v>236000</v>
       </c>
       <c r="E83" s="3">
-        <v>248100</v>
+        <v>447900</v>
       </c>
       <c r="F83" s="3">
-        <v>343500</v>
+        <v>248900</v>
       </c>
       <c r="G83" s="3">
-        <v>252300</v>
+        <v>344700</v>
       </c>
       <c r="H83" s="3">
-        <v>237600</v>
+        <v>253100</v>
       </c>
       <c r="I83" s="3">
-        <v>236700</v>
+        <v>238400</v>
       </c>
       <c r="J83" s="3">
+        <v>237500</v>
+      </c>
+      <c r="K83" s="3">
         <v>193900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>189400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>193300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>207100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>228100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>168000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>160800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>166700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>197300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>174500</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>247100</v>
+        <v>511600</v>
       </c>
       <c r="E89" s="3">
-        <v>153700</v>
+        <v>247900</v>
       </c>
       <c r="F89" s="3">
-        <v>640800</v>
+        <v>154200</v>
       </c>
       <c r="G89" s="3">
-        <v>393900</v>
+        <v>643000</v>
       </c>
       <c r="H89" s="3">
-        <v>293300</v>
+        <v>395200</v>
       </c>
       <c r="I89" s="3">
-        <v>87900</v>
+        <v>294300</v>
       </c>
       <c r="J89" s="3">
+        <v>88200</v>
+      </c>
+      <c r="K89" s="3">
         <v>106500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>263300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>155300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>215800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>740900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>341600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>501400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>82400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>523700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>284800</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-141400</v>
+        <v>-162800</v>
       </c>
       <c r="E91" s="3">
-        <v>-169800</v>
+        <v>-141900</v>
       </c>
       <c r="F91" s="3">
-        <v>-326400</v>
+        <v>-170400</v>
       </c>
       <c r="G91" s="3">
-        <v>-222400</v>
+        <v>-327500</v>
       </c>
       <c r="H91" s="3">
-        <v>-251700</v>
+        <v>-223100</v>
       </c>
       <c r="I91" s="3">
-        <v>-184000</v>
+        <v>-252600</v>
       </c>
       <c r="J91" s="3">
+        <v>-184600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-284000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-183700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-157200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-148500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-353000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-173800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-156300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-172100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-315900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-198600</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-520800</v>
+        <v>-164300</v>
       </c>
       <c r="E94" s="3">
-        <v>-231400</v>
+        <v>-522600</v>
       </c>
       <c r="F94" s="3">
-        <v>-330200</v>
+        <v>-232200</v>
       </c>
       <c r="G94" s="3">
-        <v>-219300</v>
+        <v>-331400</v>
       </c>
       <c r="H94" s="3">
-        <v>-303100</v>
+        <v>-220100</v>
       </c>
       <c r="I94" s="3">
-        <v>-182200</v>
+        <v>-304200</v>
       </c>
       <c r="J94" s="3">
+        <v>-182800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-292200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-154800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-165900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-159600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1571400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>220100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-244300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-80900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-331100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-397400</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4861,49 +5095,52 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
         <v>-10300</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
-        <v>-288600</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-289600</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-2500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-366300</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-8700</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-42700</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-303900</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-14300</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>743800</v>
+        <v>-83500</v>
       </c>
       <c r="E100" s="3">
+        <v>746400</v>
+      </c>
+      <c r="F100" s="3">
         <v>-1600</v>
       </c>
-      <c r="F100" s="3">
-        <v>-109400</v>
-      </c>
       <c r="G100" s="3">
-        <v>-195300</v>
+        <v>-109800</v>
       </c>
       <c r="H100" s="3">
-        <v>518300</v>
+        <v>-196000</v>
       </c>
       <c r="I100" s="3">
-        <v>114900</v>
+        <v>520100</v>
       </c>
       <c r="J100" s="3">
+        <v>115200</v>
+      </c>
+      <c r="K100" s="3">
         <v>45700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>22200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-344300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-292100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>101800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>602000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-283600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>26000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-212400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-22300</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-106300</v>
+        <v>-24900</v>
       </c>
       <c r="E101" s="3">
-        <v>65100</v>
+        <v>-106600</v>
       </c>
       <c r="F101" s="3">
+        <v>65300</v>
+      </c>
+      <c r="G101" s="3">
         <v>-8800</v>
       </c>
-      <c r="G101" s="3">
-        <v>19700</v>
-      </c>
       <c r="H101" s="3">
+        <v>19800</v>
+      </c>
+      <c r="I101" s="3">
         <v>-1800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-8800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>44000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-11700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-22400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-30700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>31000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-22000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-12900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>9000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>30300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-21500</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>363800</v>
+        <v>238900</v>
       </c>
       <c r="E102" s="3">
-        <v>-14200</v>
+        <v>365100</v>
       </c>
       <c r="F102" s="3">
-        <v>192400</v>
+        <v>-14300</v>
       </c>
       <c r="G102" s="3">
+        <v>193000</v>
+      </c>
+      <c r="H102" s="3">
         <v>-1000</v>
       </c>
-      <c r="H102" s="3">
-        <v>506700</v>
-      </c>
       <c r="I102" s="3">
-        <v>11700</v>
+        <v>508400</v>
       </c>
       <c r="J102" s="3">
+        <v>11800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-96000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>119100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-377400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-266600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-697600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1141700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-39400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>36500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>10500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-156300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NHYDY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NHYDY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>NHYDY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3755100</v>
+        <v>4150400</v>
       </c>
       <c r="E8" s="3">
-        <v>3501700</v>
+        <v>3835300</v>
       </c>
       <c r="F8" s="3">
-        <v>4316000</v>
+        <v>3576600</v>
       </c>
       <c r="G8" s="3">
-        <v>4017800</v>
+        <v>4408300</v>
       </c>
       <c r="H8" s="3">
-        <v>4247300</v>
+        <v>4103700</v>
       </c>
       <c r="I8" s="3">
-        <v>4435100</v>
+        <v>4338100</v>
       </c>
       <c r="J8" s="3">
+        <v>4529900</v>
+      </c>
+      <c r="K8" s="3">
         <v>4254800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4330700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4068100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4220300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4336500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4493100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2639900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2847400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2839100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2620100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2487500</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2290900</v>
+        <v>2507000</v>
       </c>
       <c r="E9" s="3">
-        <v>2210700</v>
+        <v>2339900</v>
       </c>
       <c r="F9" s="3">
-        <v>2620600</v>
+        <v>2257900</v>
       </c>
       <c r="G9" s="3">
-        <v>2527800</v>
+        <v>2676600</v>
       </c>
       <c r="H9" s="3">
-        <v>2727200</v>
+        <v>2581800</v>
       </c>
       <c r="I9" s="3">
-        <v>2934400</v>
+        <v>2785500</v>
       </c>
       <c r="J9" s="3">
+        <v>2997100</v>
+      </c>
+      <c r="K9" s="3">
         <v>2845600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2839000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2625700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2710500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2733500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2826500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1710000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1835000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1827600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1651100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1588800</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1464100</v>
+        <v>1643400</v>
       </c>
       <c r="E10" s="3">
-        <v>1291000</v>
+        <v>1495400</v>
       </c>
       <c r="F10" s="3">
-        <v>1695400</v>
+        <v>1318600</v>
       </c>
       <c r="G10" s="3">
-        <v>1490100</v>
+        <v>1731700</v>
       </c>
       <c r="H10" s="3">
-        <v>1520100</v>
+        <v>1521900</v>
       </c>
       <c r="I10" s="3">
-        <v>1500700</v>
+        <v>1552600</v>
       </c>
       <c r="J10" s="3">
+        <v>1532800</v>
+      </c>
+      <c r="K10" s="3">
         <v>1409100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1491700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1442300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1509700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1602900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1666600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>929900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1012400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1011600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>969000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>898600</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,25 +1064,28 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>8500</v>
+        <v>227000</v>
       </c>
       <c r="E14" s="3">
-        <v>207100</v>
+        <v>8700</v>
       </c>
       <c r="F14" s="3">
+        <v>211500</v>
+      </c>
+      <c r="G14" s="3">
         <v>1400</v>
       </c>
-      <c r="G14" s="3">
-        <v>103200</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
+      <c r="H14" s="3">
+        <v>105500</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -1083,11 +1102,11 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1104,64 +1123,70 @@
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>227600</v>
+        <v>237000</v>
       </c>
       <c r="E15" s="3">
-        <v>240800</v>
+        <v>232400</v>
       </c>
       <c r="F15" s="3">
-        <v>247500</v>
+        <v>245900</v>
       </c>
       <c r="G15" s="3">
-        <v>241400</v>
+        <v>252800</v>
       </c>
       <c r="H15" s="3">
-        <v>253100</v>
+        <v>246500</v>
       </c>
       <c r="I15" s="3">
-        <v>238300</v>
+        <v>258500</v>
       </c>
       <c r="J15" s="3">
+        <v>243400</v>
+      </c>
+      <c r="K15" s="3">
         <v>237500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>193900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>189400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>193400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>207100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>228100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>167900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>160800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>166700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>197200</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>174600</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3548800</v>
+        <v>3587300</v>
       </c>
       <c r="E17" s="3">
-        <v>3689700</v>
+        <v>3624700</v>
       </c>
       <c r="F17" s="3">
-        <v>4055500</v>
+        <v>3768600</v>
       </c>
       <c r="G17" s="3">
-        <v>4063000</v>
+        <v>4142200</v>
       </c>
       <c r="H17" s="3">
-        <v>4222200</v>
+        <v>4149800</v>
       </c>
       <c r="I17" s="3">
-        <v>4360800</v>
+        <v>4312400</v>
       </c>
       <c r="J17" s="3">
+        <v>4454100</v>
+      </c>
+      <c r="K17" s="3">
         <v>4252500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4310600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3857600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3914800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3978300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3970800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2370900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2506300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2542000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2378000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2317800</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>206300</v>
+        <v>563100</v>
       </c>
       <c r="E18" s="3">
-        <v>-188000</v>
+        <v>210700</v>
       </c>
       <c r="F18" s="3">
-        <v>260500</v>
+        <v>-192100</v>
       </c>
       <c r="G18" s="3">
-        <v>-45200</v>
+        <v>266100</v>
       </c>
       <c r="H18" s="3">
-        <v>25100</v>
+        <v>-46100</v>
       </c>
       <c r="I18" s="3">
-        <v>74300</v>
+        <v>25700</v>
       </c>
       <c r="J18" s="3">
+        <v>75900</v>
+      </c>
+      <c r="K18" s="3">
         <v>2300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>20100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>210400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>305500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>358100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>522300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>269000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>341100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>297200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>242200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>169700</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,288 +1345,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-172400</v>
+        <v>188200</v>
       </c>
       <c r="E20" s="3">
-        <v>86700</v>
+        <v>-176100</v>
       </c>
       <c r="F20" s="3">
-        <v>-520300</v>
+        <v>88600</v>
       </c>
       <c r="G20" s="3">
-        <v>53900</v>
+        <v>-531400</v>
       </c>
       <c r="H20" s="3">
-        <v>-160500</v>
+        <v>55000</v>
       </c>
       <c r="I20" s="3">
-        <v>-50700</v>
+        <v>-164000</v>
       </c>
       <c r="J20" s="3">
+        <v>-51800</v>
+      </c>
+      <c r="K20" s="3">
         <v>20800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-51000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-27200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-30000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-38200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-77500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>60900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-102800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>27100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-3800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>44600</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>269900</v>
+        <v>1215400</v>
       </c>
       <c r="E21" s="3">
-        <v>346500</v>
+        <v>275700</v>
       </c>
       <c r="F21" s="3">
-        <v>-10900</v>
+        <v>353900</v>
       </c>
       <c r="G21" s="3">
-        <v>353400</v>
+        <v>-11100</v>
       </c>
       <c r="H21" s="3">
-        <v>117700</v>
+        <v>361000</v>
       </c>
       <c r="I21" s="3">
-        <v>262000</v>
+        <v>120300</v>
       </c>
       <c r="J21" s="3">
+        <v>267600</v>
+      </c>
+      <c r="K21" s="3">
         <v>260600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>163000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>372600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>468800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>527000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>673000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>497900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>399100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>491000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>435600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>388800</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>29900</v>
+        <v>31500</v>
       </c>
       <c r="E22" s="3">
-        <v>26500</v>
+        <v>30500</v>
       </c>
       <c r="F22" s="3">
-        <v>25800</v>
+        <v>27100</v>
       </c>
       <c r="G22" s="3">
-        <v>27600</v>
+        <v>26400</v>
       </c>
       <c r="H22" s="3">
-        <v>23900</v>
+        <v>28200</v>
       </c>
       <c r="I22" s="3">
-        <v>24500</v>
+        <v>24400</v>
       </c>
       <c r="J22" s="3">
+        <v>25000</v>
+      </c>
+      <c r="K22" s="3">
         <v>20200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>30300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>16100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>15100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>13300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>12400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>4700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>8200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>10400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>13400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>719900</v>
+      </c>
+      <c r="E23" s="3">
         <v>4000</v>
       </c>
-      <c r="E23" s="3">
-        <v>-127800</v>
-      </c>
       <c r="F23" s="3">
-        <v>-285600</v>
+        <v>-130500</v>
       </c>
       <c r="G23" s="3">
-        <v>-18900</v>
+        <v>-291700</v>
       </c>
       <c r="H23" s="3">
-        <v>-159300</v>
+        <v>-19300</v>
       </c>
       <c r="I23" s="3">
+        <v>-162700</v>
+      </c>
+      <c r="J23" s="3">
         <v>-900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-61300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>167200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>260400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>306600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>432500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>325100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>230100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>313900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>224900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>208700</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>29000</v>
+        <v>98300</v>
       </c>
       <c r="E24" s="3">
-        <v>38700</v>
+        <v>29600</v>
       </c>
       <c r="F24" s="3">
-        <v>-56400</v>
+        <v>39500</v>
       </c>
       <c r="G24" s="3">
-        <v>56300</v>
+        <v>-57600</v>
       </c>
       <c r="H24" s="3">
-        <v>-1800</v>
+        <v>57500</v>
       </c>
       <c r="I24" s="3">
-        <v>20700</v>
+        <v>-1900</v>
       </c>
       <c r="J24" s="3">
+        <v>21200</v>
+      </c>
+      <c r="K24" s="3">
         <v>17000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>23500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>72600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>48400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>81300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>15600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>72300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>49100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>87200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>100500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>70800</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-25000</v>
+        <v>621600</v>
       </c>
       <c r="E26" s="3">
-        <v>-166500</v>
+        <v>-25600</v>
       </c>
       <c r="F26" s="3">
-        <v>-229300</v>
+        <v>-170100</v>
       </c>
       <c r="G26" s="3">
-        <v>-75200</v>
+        <v>-234200</v>
       </c>
       <c r="H26" s="3">
-        <v>-157500</v>
+        <v>-76800</v>
       </c>
       <c r="I26" s="3">
-        <v>-21600</v>
+        <v>-160800</v>
       </c>
       <c r="J26" s="3">
+        <v>-22100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-14000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-84700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>94500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>212000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>225300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>416800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>252900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>181000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>226700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>124400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>138000</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-25100</v>
+        <v>592600</v>
       </c>
       <c r="E27" s="3">
-        <v>-141300</v>
+        <v>-25700</v>
       </c>
       <c r="F27" s="3">
-        <v>-205000</v>
+        <v>-144300</v>
       </c>
       <c r="G27" s="3">
-        <v>-53900</v>
+        <v>-209400</v>
       </c>
       <c r="H27" s="3">
-        <v>-142500</v>
+        <v>-55000</v>
       </c>
       <c r="I27" s="3">
-        <v>-9600</v>
+        <v>-145600</v>
       </c>
       <c r="J27" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="K27" s="3">
         <v>1000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-78200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>76800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>215600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>226900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>405100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>235900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>171800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>217300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>130700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>133800</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>172400</v>
+        <v>-188200</v>
       </c>
       <c r="E32" s="3">
-        <v>-86700</v>
+        <v>176100</v>
       </c>
       <c r="F32" s="3">
-        <v>520300</v>
+        <v>-88600</v>
       </c>
       <c r="G32" s="3">
-        <v>-53900</v>
+        <v>531400</v>
       </c>
       <c r="H32" s="3">
-        <v>160500</v>
+        <v>-55000</v>
       </c>
       <c r="I32" s="3">
-        <v>50700</v>
+        <v>164000</v>
       </c>
       <c r="J32" s="3">
+        <v>51800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-20800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>51000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>27200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>30000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>38200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>77500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-60900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>102800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-27100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>3800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-44600</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-25100</v>
+        <v>592600</v>
       </c>
       <c r="E33" s="3">
-        <v>-141300</v>
+        <v>-25700</v>
       </c>
       <c r="F33" s="3">
-        <v>-205000</v>
+        <v>-144300</v>
       </c>
       <c r="G33" s="3">
-        <v>-53900</v>
+        <v>-209400</v>
       </c>
       <c r="H33" s="3">
-        <v>-142500</v>
+        <v>-55000</v>
       </c>
       <c r="I33" s="3">
-        <v>-9600</v>
+        <v>-145600</v>
       </c>
       <c r="J33" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="K33" s="3">
         <v>1000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-78200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>76800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>215600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>226900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>405100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>235900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>171800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>217300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>130700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>133800</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-25100</v>
+        <v>592600</v>
       </c>
       <c r="E35" s="3">
-        <v>-141300</v>
+        <v>-25700</v>
       </c>
       <c r="F35" s="3">
-        <v>-205000</v>
+        <v>-144300</v>
       </c>
       <c r="G35" s="3">
-        <v>-53900</v>
+        <v>-209400</v>
       </c>
       <c r="H35" s="3">
-        <v>-142500</v>
+        <v>-55000</v>
       </c>
       <c r="I35" s="3">
-        <v>-9600</v>
+        <v>-145600</v>
       </c>
       <c r="J35" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="K35" s="3">
         <v>1000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-78200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>76800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>215600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>226900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>405100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>235900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>171800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>217300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>130700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>133800</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,240 +2399,253 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1980600</v>
+        <v>2039500</v>
       </c>
       <c r="E41" s="3">
-        <v>1741700</v>
+        <v>2022900</v>
       </c>
       <c r="F41" s="3">
-        <v>1376600</v>
+        <v>1779000</v>
       </c>
       <c r="G41" s="3">
-        <v>1390900</v>
+        <v>1406100</v>
       </c>
       <c r="H41" s="3">
-        <v>1197900</v>
+        <v>1420600</v>
       </c>
       <c r="I41" s="3">
-        <v>1198900</v>
+        <v>1223500</v>
       </c>
       <c r="J41" s="3">
+        <v>1224500</v>
+      </c>
+      <c r="K41" s="3">
         <v>690500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>676400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>700300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>581300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1016700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1369600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2067200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>925500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1027500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>991000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>980500</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>673800</v>
+        <v>527400</v>
       </c>
       <c r="E42" s="3">
-        <v>656300</v>
+        <v>688200</v>
       </c>
       <c r="F42" s="3">
-        <v>312500</v>
+        <v>670300</v>
       </c>
       <c r="G42" s="3">
-        <v>181600</v>
+        <v>319100</v>
       </c>
       <c r="H42" s="3">
-        <v>184400</v>
+        <v>185500</v>
       </c>
       <c r="I42" s="3">
-        <v>176700</v>
+        <v>188400</v>
       </c>
       <c r="J42" s="3">
+        <v>180500</v>
+      </c>
+      <c r="K42" s="3">
         <v>183700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>200400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>195800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>216300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>200600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>244200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>259400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>600500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>580000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>624900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>572400</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2294500</v>
+        <v>2123400</v>
       </c>
       <c r="E43" s="3">
-        <v>2141500</v>
+        <v>2343600</v>
       </c>
       <c r="F43" s="3">
-        <v>2778100</v>
+        <v>2187300</v>
       </c>
       <c r="G43" s="3">
-        <v>2146300</v>
+        <v>2837400</v>
       </c>
       <c r="H43" s="3">
-        <v>2604600</v>
+        <v>2192200</v>
       </c>
       <c r="I43" s="3">
-        <v>2624900</v>
+        <v>2660300</v>
       </c>
       <c r="J43" s="3">
+        <v>2681000</v>
+      </c>
+      <c r="K43" s="3">
         <v>2665200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2340300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2222700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2398100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2471900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2313800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1523300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1559100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1584500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1342000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1417300</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2183600</v>
+        <v>2253900</v>
       </c>
       <c r="E44" s="3">
-        <v>2307400</v>
+        <v>2230300</v>
       </c>
       <c r="F44" s="3">
-        <v>2543100</v>
+        <v>2356800</v>
       </c>
       <c r="G44" s="3">
-        <v>2356600</v>
+        <v>2597500</v>
       </c>
       <c r="H44" s="3">
-        <v>2454300</v>
+        <v>2407000</v>
       </c>
       <c r="I44" s="3">
-        <v>2571900</v>
+        <v>2506700</v>
       </c>
       <c r="J44" s="3">
+        <v>2626900</v>
+      </c>
+      <c r="K44" s="3">
         <v>2830700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2987800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2446600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2285100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2237700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2398100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1573000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1498300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1548300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1526600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1420000</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="3">
         <v>100</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>8</v>
@@ -2555,11 +2653,11 @@
       <c r="G45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H45" s="3">
+      <c r="H45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I45" s="3">
         <v>100</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>8</v>
@@ -2576,8 +2674,8 @@
       <c r="N45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
+      <c r="O45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -2585,241 +2683,256 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-      <c r="R45" s="3" t="s">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>100</v>
       </c>
-      <c r="T45" s="3" t="s">
+      <c r="U45" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7132700</v>
+        <v>6944200</v>
       </c>
       <c r="E46" s="3">
-        <v>6846900</v>
+        <v>7285200</v>
       </c>
       <c r="F46" s="3">
-        <v>7010300</v>
+        <v>6993300</v>
       </c>
       <c r="G46" s="3">
-        <v>6075400</v>
+        <v>7160200</v>
       </c>
       <c r="H46" s="3">
-        <v>6441300</v>
+        <v>6205300</v>
       </c>
       <c r="I46" s="3">
-        <v>6572400</v>
+        <v>6579000</v>
       </c>
       <c r="J46" s="3">
+        <v>6712900</v>
+      </c>
+      <c r="K46" s="3">
         <v>6370100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6204900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5565400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5480700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5926900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6325700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5422900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4583400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4740300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4484500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4390100</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1364000</v>
+        <v>1999000</v>
       </c>
       <c r="E47" s="3">
-        <v>1428600</v>
+        <v>1393100</v>
       </c>
       <c r="F47" s="3">
-        <v>1567400</v>
+        <v>1459100</v>
       </c>
       <c r="G47" s="3">
-        <v>1302000</v>
+        <v>1600900</v>
       </c>
       <c r="H47" s="3">
-        <v>1336900</v>
+        <v>1329900</v>
       </c>
       <c r="I47" s="3">
-        <v>1238100</v>
+        <v>1365500</v>
       </c>
       <c r="J47" s="3">
+        <v>1264500</v>
+      </c>
+      <c r="K47" s="3">
         <v>1284800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1305300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1134900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1139600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1144700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1299300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2104800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2176900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2458200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2442200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2383800</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7772700</v>
+        <v>7428600</v>
       </c>
       <c r="E48" s="3">
-        <v>7978800</v>
+        <v>7938800</v>
       </c>
       <c r="F48" s="3">
-        <v>8820100</v>
+        <v>8149400</v>
       </c>
       <c r="G48" s="3">
-        <v>8405100</v>
+        <v>9008600</v>
       </c>
       <c r="H48" s="3">
-        <v>8380400</v>
+        <v>8584700</v>
       </c>
       <c r="I48" s="3">
-        <v>8286200</v>
+        <v>8559500</v>
       </c>
       <c r="J48" s="3">
+        <v>8463300</v>
+      </c>
+      <c r="K48" s="3">
         <v>8251000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8390300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6777500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6821700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>7588300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>8444900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6542100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6670700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>7352000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>7241900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>6716900</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1121100</v>
+        <v>1081900</v>
       </c>
       <c r="E49" s="3">
-        <v>1161800</v>
+        <v>1145100</v>
       </c>
       <c r="F49" s="3">
-        <v>1432000</v>
+        <v>1186600</v>
       </c>
       <c r="G49" s="3">
-        <v>1302000</v>
+        <v>1462600</v>
       </c>
       <c r="H49" s="3">
-        <v>1324000</v>
+        <v>1329900</v>
       </c>
       <c r="I49" s="3">
-        <v>1300200</v>
+        <v>1352300</v>
       </c>
       <c r="J49" s="3">
+        <v>1328000</v>
+      </c>
+      <c r="K49" s="3">
         <v>1260400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1291000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1094100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1192800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1316300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1471900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>628400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>645800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>729800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>716500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>674300</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3046,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1387200</v>
+        <v>1556700</v>
       </c>
       <c r="E52" s="3">
-        <v>1393200</v>
+        <v>1416800</v>
       </c>
       <c r="F52" s="3">
-        <v>1461100</v>
+        <v>1422900</v>
       </c>
       <c r="G52" s="3">
-        <v>1527300</v>
+        <v>1492300</v>
       </c>
       <c r="H52" s="3">
-        <v>1426300</v>
+        <v>1560000</v>
       </c>
       <c r="I52" s="3">
-        <v>1506700</v>
+        <v>1456800</v>
       </c>
       <c r="J52" s="3">
+        <v>1538900</v>
+      </c>
+      <c r="K52" s="3">
         <v>1473100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1415700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1311300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1237900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1249900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1550800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1229500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1189000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1275900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1241600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1207000</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>18777600</v>
+        <v>19010500</v>
       </c>
       <c r="E54" s="3">
-        <v>18809300</v>
+        <v>19179000</v>
       </c>
       <c r="F54" s="3">
-        <v>20290900</v>
+        <v>19211300</v>
       </c>
       <c r="G54" s="3">
-        <v>18611800</v>
+        <v>20724600</v>
       </c>
       <c r="H54" s="3">
-        <v>18908900</v>
+        <v>19009700</v>
       </c>
       <c r="I54" s="3">
-        <v>18903600</v>
+        <v>19313100</v>
       </c>
       <c r="J54" s="3">
+        <v>19307700</v>
+      </c>
+      <c r="K54" s="3">
         <v>18639300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>18607200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>15883200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>15872800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>17226200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>18905400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>15927700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>15265800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>16556200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>16126800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>15372100</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,344 +3271,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2022500</v>
+        <v>2191000</v>
       </c>
       <c r="E57" s="3">
-        <v>1889800</v>
+        <v>2065700</v>
       </c>
       <c r="F57" s="3">
-        <v>2440600</v>
+        <v>1930200</v>
       </c>
       <c r="G57" s="3">
-        <v>2116100</v>
+        <v>2492800</v>
       </c>
       <c r="H57" s="3">
-        <v>2232000</v>
+        <v>2161400</v>
       </c>
       <c r="I57" s="3">
-        <v>2379000</v>
+        <v>2279800</v>
       </c>
       <c r="J57" s="3">
+        <v>2429800</v>
+      </c>
+      <c r="K57" s="3">
         <v>2507100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2299400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2036400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2184200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2237200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2266100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1198100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1212600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1260600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1246300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1125900</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>782800</v>
+        <v>549000</v>
       </c>
       <c r="E58" s="3">
-        <v>803100</v>
+        <v>799600</v>
       </c>
       <c r="F58" s="3">
-        <v>874900</v>
+        <v>820300</v>
       </c>
       <c r="G58" s="3">
-        <v>697000</v>
+        <v>893600</v>
       </c>
       <c r="H58" s="3">
-        <v>687600</v>
+        <v>711900</v>
       </c>
       <c r="I58" s="3">
-        <v>925700</v>
+        <v>702300</v>
       </c>
       <c r="J58" s="3">
+        <v>945500</v>
+      </c>
+      <c r="K58" s="3">
         <v>1009000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1057500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>675900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>508300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>571600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>954700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1049600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>433200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>429200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>404800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>439200</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>414200</v>
+        <v>618900</v>
       </c>
       <c r="E59" s="3">
-        <v>421300</v>
+        <v>423100</v>
       </c>
       <c r="F59" s="3">
-        <v>540100</v>
+        <v>430300</v>
       </c>
       <c r="G59" s="3">
-        <v>548200</v>
+        <v>551700</v>
       </c>
       <c r="H59" s="3">
-        <v>463600</v>
+        <v>559900</v>
       </c>
       <c r="I59" s="3">
-        <v>417500</v>
+        <v>473500</v>
       </c>
       <c r="J59" s="3">
+        <v>426400</v>
+      </c>
+      <c r="K59" s="3">
         <v>529000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>684000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>603300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>509000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>526400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1202600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>410100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>337100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>411300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>458100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>516900</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3219600</v>
+        <v>3358800</v>
       </c>
       <c r="E60" s="3">
-        <v>3114200</v>
+        <v>3288400</v>
       </c>
       <c r="F60" s="3">
-        <v>3855600</v>
+        <v>3180800</v>
       </c>
       <c r="G60" s="3">
-        <v>3361300</v>
+        <v>3938000</v>
       </c>
       <c r="H60" s="3">
-        <v>3383300</v>
+        <v>3433200</v>
       </c>
       <c r="I60" s="3">
-        <v>3722200</v>
+        <v>3455600</v>
       </c>
       <c r="J60" s="3">
+        <v>3801800</v>
+      </c>
+      <c r="K60" s="3">
         <v>4045200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4040900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3315500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3201600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3335200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3860100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2657800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1982800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2101200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2109200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2081900</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2929100</v>
+        <v>2868900</v>
       </c>
       <c r="E61" s="3">
-        <v>3010800</v>
+        <v>2991700</v>
       </c>
       <c r="F61" s="3">
-        <v>2410200</v>
+        <v>3075200</v>
       </c>
       <c r="G61" s="3">
-        <v>2134900</v>
+        <v>2461800</v>
       </c>
       <c r="H61" s="3">
-        <v>2262500</v>
+        <v>2180600</v>
       </c>
       <c r="I61" s="3">
-        <v>2108000</v>
+        <v>2310900</v>
       </c>
       <c r="J61" s="3">
+        <v>2153000</v>
+      </c>
+      <c r="K61" s="3">
         <v>1195400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1054000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>806700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>959300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>948900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1043500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>356300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>368600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>415900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>550400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>420300</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3923600</v>
+        <v>3827900</v>
       </c>
       <c r="E62" s="3">
-        <v>3756200</v>
+        <v>4007500</v>
       </c>
       <c r="F62" s="3">
-        <v>4156300</v>
+        <v>3836500</v>
       </c>
       <c r="G62" s="3">
-        <v>3596800</v>
+        <v>4245100</v>
       </c>
       <c r="H62" s="3">
-        <v>3680300</v>
+        <v>3673700</v>
       </c>
       <c r="I62" s="3">
-        <v>3383100</v>
+        <v>3759000</v>
       </c>
       <c r="J62" s="3">
+        <v>3455400</v>
+      </c>
+      <c r="K62" s="3">
         <v>3278400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3547300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2811300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2795200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3056100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3561200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2735700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2775600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2844800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2661200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2833800</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10418900</v>
+        <v>10421600</v>
       </c>
       <c r="E66" s="3">
-        <v>10246900</v>
+        <v>10641700</v>
       </c>
       <c r="F66" s="3">
-        <v>10870300</v>
+        <v>10465900</v>
       </c>
       <c r="G66" s="3">
-        <v>9562600</v>
+        <v>11102700</v>
       </c>
       <c r="H66" s="3">
-        <v>9821000</v>
+        <v>9767000</v>
       </c>
       <c r="I66" s="3">
-        <v>9717300</v>
+        <v>10030900</v>
       </c>
       <c r="J66" s="3">
+        <v>9925000</v>
+      </c>
+      <c r="K66" s="3">
         <v>9051500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8925000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7391100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7415000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7870700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8828100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6353700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5731300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6081600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6027600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6016400</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5599900</v>
+        <v>6016000</v>
       </c>
       <c r="E72" s="3">
-        <v>5625100</v>
+        <v>5719600</v>
       </c>
       <c r="F72" s="3">
-        <v>5766200</v>
+        <v>5745300</v>
       </c>
       <c r="G72" s="3">
-        <v>5971300</v>
+        <v>5889500</v>
       </c>
       <c r="H72" s="3">
-        <v>6025000</v>
+        <v>6098900</v>
       </c>
       <c r="I72" s="3">
-        <v>6167700</v>
+        <v>6153800</v>
       </c>
       <c r="J72" s="3">
+        <v>6299500</v>
+      </c>
+      <c r="K72" s="3">
         <v>6466900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6443600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5915000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5838300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>6351300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>6534600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>6130800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>5895000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>6408300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>6190900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>6060300</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8358600</v>
+        <v>8588900</v>
       </c>
       <c r="E76" s="3">
-        <v>8562400</v>
+        <v>8537300</v>
       </c>
       <c r="F76" s="3">
-        <v>9420500</v>
+        <v>8745400</v>
       </c>
       <c r="G76" s="3">
-        <v>9049200</v>
+        <v>9621900</v>
       </c>
       <c r="H76" s="3">
-        <v>9087900</v>
+        <v>9242700</v>
       </c>
       <c r="I76" s="3">
-        <v>9186300</v>
+        <v>9282200</v>
       </c>
       <c r="J76" s="3">
+        <v>9382700</v>
+      </c>
+      <c r="K76" s="3">
         <v>9587900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9682200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8492100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8457800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>9355400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>10077300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>9574000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>9534500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>10474600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>10099100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>9355600</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-25100</v>
+        <v>592600</v>
       </c>
       <c r="E81" s="3">
-        <v>-141300</v>
+        <v>-25700</v>
       </c>
       <c r="F81" s="3">
-        <v>-205000</v>
+        <v>-144300</v>
       </c>
       <c r="G81" s="3">
-        <v>-53900</v>
+        <v>-209400</v>
       </c>
       <c r="H81" s="3">
-        <v>-142500</v>
+        <v>-55000</v>
       </c>
       <c r="I81" s="3">
-        <v>-9600</v>
+        <v>-145600</v>
       </c>
       <c r="J81" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="K81" s="3">
         <v>1000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-78200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>76800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>215600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>226900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>405100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>235900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>171800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>217300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>130700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>133800</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4620,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>236000</v>
+        <v>464000</v>
       </c>
       <c r="E83" s="3">
-        <v>447900</v>
+        <v>241100</v>
       </c>
       <c r="F83" s="3">
-        <v>248900</v>
+        <v>457400</v>
       </c>
       <c r="G83" s="3">
-        <v>344700</v>
+        <v>254300</v>
       </c>
       <c r="H83" s="3">
-        <v>253100</v>
+        <v>352100</v>
       </c>
       <c r="I83" s="3">
-        <v>238400</v>
+        <v>258500</v>
       </c>
       <c r="J83" s="3">
+        <v>243500</v>
+      </c>
+      <c r="K83" s="3">
         <v>237500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>193900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>189400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>193300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>207100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>228100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>168000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>160800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>166700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>197300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>174500</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>511600</v>
+        <v>629500</v>
       </c>
       <c r="E89" s="3">
-        <v>247900</v>
+        <v>522500</v>
       </c>
       <c r="F89" s="3">
-        <v>154200</v>
+        <v>253200</v>
       </c>
       <c r="G89" s="3">
-        <v>643000</v>
+        <v>157500</v>
       </c>
       <c r="H89" s="3">
-        <v>395200</v>
+        <v>656800</v>
       </c>
       <c r="I89" s="3">
-        <v>294300</v>
+        <v>403700</v>
       </c>
       <c r="J89" s="3">
+        <v>300600</v>
+      </c>
+      <c r="K89" s="3">
         <v>88200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>106500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>263300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>155300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>215800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>740900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>341600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>501400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>82400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>523700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>284800</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5056,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-162800</v>
+        <v>-241800</v>
       </c>
       <c r="E91" s="3">
-        <v>-141900</v>
+        <v>-166300</v>
       </c>
       <c r="F91" s="3">
-        <v>-170400</v>
+        <v>-144900</v>
       </c>
       <c r="G91" s="3">
-        <v>-327500</v>
+        <v>-174000</v>
       </c>
       <c r="H91" s="3">
-        <v>-223100</v>
+        <v>-334500</v>
       </c>
       <c r="I91" s="3">
-        <v>-252600</v>
+        <v>-227900</v>
       </c>
       <c r="J91" s="3">
+        <v>-258000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-184600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-284000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-183700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-157200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-148500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-353000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-173800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-156300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-172100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-315900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-198600</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-164300</v>
+        <v>-23900</v>
       </c>
       <c r="E94" s="3">
-        <v>-522600</v>
+        <v>-167800</v>
       </c>
       <c r="F94" s="3">
-        <v>-232200</v>
+        <v>-533700</v>
       </c>
       <c r="G94" s="3">
-        <v>-331400</v>
+        <v>-237200</v>
       </c>
       <c r="H94" s="3">
-        <v>-220100</v>
+        <v>-338400</v>
       </c>
       <c r="I94" s="3">
-        <v>-304200</v>
+        <v>-224800</v>
       </c>
       <c r="J94" s="3">
+        <v>-310700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-182800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-292200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-154800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-165900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-159600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1571400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>220100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-244300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-80900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-331100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-397400</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,13 +5315,14 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-303900</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -5098,49 +5331,52 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-10300</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-10500</v>
       </c>
       <c r="I96" s="3">
-        <v>-289600</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-295800</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-2500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-366300</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-8700</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-42700</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-303900</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-14300</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5549,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-83500</v>
+        <v>-551800</v>
       </c>
       <c r="E100" s="3">
-        <v>746400</v>
+        <v>-85300</v>
       </c>
       <c r="F100" s="3">
+        <v>762300</v>
+      </c>
+      <c r="G100" s="3">
         <v>-1600</v>
       </c>
-      <c r="G100" s="3">
-        <v>-109800</v>
-      </c>
       <c r="H100" s="3">
-        <v>-196000</v>
+        <v>-112200</v>
       </c>
       <c r="I100" s="3">
-        <v>520100</v>
+        <v>-200200</v>
       </c>
       <c r="J100" s="3">
+        <v>531200</v>
+      </c>
+      <c r="K100" s="3">
         <v>115200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>45700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>22200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-344300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-292100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>101800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>602000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-283600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>26000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-212400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-22300</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-24900</v>
+        <v>-37200</v>
       </c>
       <c r="E101" s="3">
-        <v>-106600</v>
+        <v>-25400</v>
       </c>
       <c r="F101" s="3">
-        <v>65300</v>
+        <v>-108900</v>
       </c>
       <c r="G101" s="3">
+        <v>66700</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="I101" s="3">
+        <v>20200</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="K101" s="3">
         <v>-8800</v>
       </c>
-      <c r="H101" s="3">
-        <v>19800</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-8800</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>44000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-11700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-22400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-30700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>31000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-22000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-12900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>9000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>30300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-21500</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>238900</v>
+        <v>16500</v>
       </c>
       <c r="E102" s="3">
-        <v>365100</v>
+        <v>244000</v>
       </c>
       <c r="F102" s="3">
-        <v>-14300</v>
+        <v>372900</v>
       </c>
       <c r="G102" s="3">
-        <v>193000</v>
+        <v>-14600</v>
       </c>
       <c r="H102" s="3">
+        <v>197100</v>
+      </c>
+      <c r="I102" s="3">
         <v>-1000</v>
       </c>
-      <c r="I102" s="3">
-        <v>508400</v>
-      </c>
       <c r="J102" s="3">
+        <v>519300</v>
+      </c>
+      <c r="K102" s="3">
         <v>11800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-96000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>119100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-377400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-266600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-697600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1141700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-39400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>36500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>10500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-156300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NHYDY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NHYDY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>NHYDY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4150400</v>
+        <v>3845600</v>
       </c>
       <c r="E8" s="3">
-        <v>3835300</v>
+        <v>1452400</v>
       </c>
       <c r="F8" s="3">
-        <v>3576600</v>
+        <v>3992200</v>
       </c>
       <c r="G8" s="3">
-        <v>4408300</v>
+        <v>3722900</v>
       </c>
       <c r="H8" s="3">
-        <v>4103700</v>
+        <v>3804500</v>
       </c>
       <c r="I8" s="3">
-        <v>4338100</v>
+        <v>4271600</v>
       </c>
       <c r="J8" s="3">
+        <v>4515500</v>
+      </c>
+      <c r="K8" s="3">
         <v>4529900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4254800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4330700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4068100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4220300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4336500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4493100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2639900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2847400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2839100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2620100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2487500</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2507000</v>
+        <v>2302000</v>
       </c>
       <c r="E9" s="3">
-        <v>2339900</v>
+        <v>727200</v>
       </c>
       <c r="F9" s="3">
-        <v>2257900</v>
+        <v>2435600</v>
       </c>
       <c r="G9" s="3">
-        <v>2676600</v>
+        <v>2350300</v>
       </c>
       <c r="H9" s="3">
-        <v>2581800</v>
+        <v>2250900</v>
       </c>
       <c r="I9" s="3">
-        <v>2785500</v>
+        <v>2687400</v>
       </c>
       <c r="J9" s="3">
+        <v>2899500</v>
+      </c>
+      <c r="K9" s="3">
         <v>2997100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2845600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2839000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2625700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2710500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2733500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2826500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1710000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1835000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1827600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1651100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1588800</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1643400</v>
+        <v>1543600</v>
       </c>
       <c r="E10" s="3">
-        <v>1495400</v>
+        <v>725200</v>
       </c>
       <c r="F10" s="3">
-        <v>1318600</v>
+        <v>1556600</v>
       </c>
       <c r="G10" s="3">
-        <v>1731700</v>
+        <v>1372600</v>
       </c>
       <c r="H10" s="3">
-        <v>1521900</v>
+        <v>1553600</v>
       </c>
       <c r="I10" s="3">
-        <v>1552600</v>
+        <v>1584200</v>
       </c>
       <c r="J10" s="3">
+        <v>1616100</v>
+      </c>
+      <c r="K10" s="3">
         <v>1532800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1409100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1491700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1442300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1509700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1602900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1666600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>929900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1012400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1011600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>969000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>898600</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,28 +1084,31 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>227000</v>
+        <v>14700</v>
       </c>
       <c r="E14" s="3">
-        <v>8700</v>
+        <v>7600</v>
       </c>
       <c r="F14" s="3">
-        <v>211500</v>
+        <v>9000</v>
       </c>
       <c r="G14" s="3">
+        <v>220100</v>
+      </c>
+      <c r="H14" s="3">
         <v>1400</v>
       </c>
-      <c r="H14" s="3">
-        <v>105500</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
+      <c r="I14" s="3">
+        <v>109800</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -1105,11 +1125,11 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
@@ -1126,67 +1146,73 @@
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>237000</v>
+        <v>211100</v>
       </c>
       <c r="E15" s="3">
-        <v>232400</v>
+        <v>102400</v>
       </c>
       <c r="F15" s="3">
-        <v>245900</v>
+        <v>241900</v>
       </c>
       <c r="G15" s="3">
-        <v>252800</v>
+        <v>256000</v>
       </c>
       <c r="H15" s="3">
-        <v>246500</v>
+        <v>228200</v>
       </c>
       <c r="I15" s="3">
-        <v>258500</v>
+        <v>256600</v>
       </c>
       <c r="J15" s="3">
+        <v>269100</v>
+      </c>
+      <c r="K15" s="3">
         <v>243400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>237500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>193900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>189400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>193400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>207100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>228100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>167900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>160800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>166700</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>197200</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>174600</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3587300</v>
+        <v>3576900</v>
       </c>
       <c r="E17" s="3">
-        <v>3624700</v>
+        <v>622600</v>
       </c>
       <c r="F17" s="3">
-        <v>3768600</v>
+        <v>3772900</v>
       </c>
       <c r="G17" s="3">
-        <v>4142200</v>
+        <v>3922800</v>
       </c>
       <c r="H17" s="3">
-        <v>4149800</v>
+        <v>3536300</v>
       </c>
       <c r="I17" s="3">
-        <v>4312400</v>
+        <v>4319600</v>
       </c>
       <c r="J17" s="3">
+        <v>4488800</v>
+      </c>
+      <c r="K17" s="3">
         <v>4454100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4252500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4310600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3857600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3914800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3978300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3970800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2370900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2506300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2542000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2378000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2317800</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>563100</v>
+        <v>268800</v>
       </c>
       <c r="E18" s="3">
-        <v>210700</v>
+        <v>829800</v>
       </c>
       <c r="F18" s="3">
-        <v>-192100</v>
+        <v>219300</v>
       </c>
       <c r="G18" s="3">
-        <v>266100</v>
+        <v>-199900</v>
       </c>
       <c r="H18" s="3">
-        <v>-46100</v>
+        <v>268200</v>
       </c>
       <c r="I18" s="3">
-        <v>25700</v>
+        <v>-48000</v>
       </c>
       <c r="J18" s="3">
+        <v>26700</v>
+      </c>
+      <c r="K18" s="3">
         <v>75900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>20100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>210400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>305500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>358100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>522300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>269000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>341100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>297200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>242200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>169700</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,303 +1379,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>188200</v>
+        <v>79600</v>
       </c>
       <c r="E20" s="3">
-        <v>-176100</v>
+        <v>214200</v>
       </c>
       <c r="F20" s="3">
-        <v>88600</v>
+        <v>-183300</v>
       </c>
       <c r="G20" s="3">
-        <v>-531400</v>
+        <v>92200</v>
       </c>
       <c r="H20" s="3">
-        <v>55000</v>
+        <v>-506700</v>
       </c>
       <c r="I20" s="3">
-        <v>-164000</v>
+        <v>57300</v>
       </c>
       <c r="J20" s="3">
+        <v>-170700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-51800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>20800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-51000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-27200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-30000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-38200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-77500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>60900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-102800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>27100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-3800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>44600</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1215400</v>
+        <v>574100</v>
       </c>
       <c r="E21" s="3">
-        <v>275700</v>
+        <v>1527000</v>
       </c>
       <c r="F21" s="3">
-        <v>353900</v>
+        <v>286900</v>
       </c>
       <c r="G21" s="3">
-        <v>-11100</v>
+        <v>403300</v>
       </c>
       <c r="H21" s="3">
-        <v>361000</v>
+        <v>-8800</v>
       </c>
       <c r="I21" s="3">
-        <v>120300</v>
+        <v>375800</v>
       </c>
       <c r="J21" s="3">
+        <v>125200</v>
+      </c>
+      <c r="K21" s="3">
         <v>267600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>260600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>163000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>372600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>468800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>527000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>673000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>497900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>399100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>491000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>435600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>388800</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>31500</v>
+        <v>28500</v>
       </c>
       <c r="E22" s="3">
         <v>30500</v>
       </c>
       <c r="F22" s="3">
-        <v>27100</v>
+        <v>31800</v>
       </c>
       <c r="G22" s="3">
-        <v>26400</v>
+        <v>28200</v>
       </c>
       <c r="H22" s="3">
-        <v>28200</v>
+        <v>26200</v>
       </c>
       <c r="I22" s="3">
-        <v>24400</v>
+        <v>29400</v>
       </c>
       <c r="J22" s="3">
+        <v>25400</v>
+      </c>
+      <c r="K22" s="3">
         <v>25000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>20200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>30300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>16100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>15100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>13300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>12400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>4700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>8200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>10400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>13400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>719900</v>
+        <v>319800</v>
       </c>
       <c r="E23" s="3">
-        <v>4000</v>
+        <v>1013600</v>
       </c>
       <c r="F23" s="3">
-        <v>-130500</v>
+        <v>4200</v>
       </c>
       <c r="G23" s="3">
-        <v>-291700</v>
+        <v>-135900</v>
       </c>
       <c r="H23" s="3">
-        <v>-19300</v>
+        <v>-264800</v>
       </c>
       <c r="I23" s="3">
-        <v>-162700</v>
+        <v>-20100</v>
       </c>
       <c r="J23" s="3">
+        <v>-169300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-61300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>167200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>260400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>306600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>432500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>325100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>230100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>313900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>224900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>208700</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>98300</v>
+        <v>93400</v>
       </c>
       <c r="E24" s="3">
-        <v>29600</v>
+        <v>98500</v>
       </c>
       <c r="F24" s="3">
-        <v>39500</v>
+        <v>30800</v>
       </c>
       <c r="G24" s="3">
-        <v>-57600</v>
+        <v>41200</v>
       </c>
       <c r="H24" s="3">
-        <v>57500</v>
+        <v>-55000</v>
       </c>
       <c r="I24" s="3">
+        <v>59800</v>
+      </c>
+      <c r="J24" s="3">
         <v>-1900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>21200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>17000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>23500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>72600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>48400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>81300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>15600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>72300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>49100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>87200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>100500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>70800</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>621600</v>
+        <v>226400</v>
       </c>
       <c r="E26" s="3">
-        <v>-25600</v>
+        <v>915100</v>
       </c>
       <c r="F26" s="3">
-        <v>-170100</v>
+        <v>-26600</v>
       </c>
       <c r="G26" s="3">
-        <v>-234200</v>
+        <v>-177000</v>
       </c>
       <c r="H26" s="3">
-        <v>-76800</v>
+        <v>-209800</v>
       </c>
       <c r="I26" s="3">
-        <v>-160800</v>
+        <v>-79900</v>
       </c>
       <c r="J26" s="3">
+        <v>-167400</v>
+      </c>
+      <c r="K26" s="3">
         <v>-22100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-14000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-84700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>94500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>212000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>225300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>416800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>252900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>181000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>226700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>124400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>138000</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>592600</v>
+        <v>219200</v>
       </c>
       <c r="E27" s="3">
-        <v>-25700</v>
+        <v>884900</v>
       </c>
       <c r="F27" s="3">
-        <v>-144300</v>
+        <v>-26700</v>
       </c>
       <c r="G27" s="3">
-        <v>-209400</v>
+        <v>-150200</v>
       </c>
       <c r="H27" s="3">
-        <v>-55000</v>
+        <v>-184000</v>
       </c>
       <c r="I27" s="3">
-        <v>-145600</v>
+        <v>-57300</v>
       </c>
       <c r="J27" s="3">
+        <v>-151500</v>
+      </c>
+      <c r="K27" s="3">
         <v>-9800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-78200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>76800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>215600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>226900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>405100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>235900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>171800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>217300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>130700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>133800</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,31 +1935,34 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>-45700</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
+        <v>-267900</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>-33900</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-188200</v>
+        <v>-79600</v>
       </c>
       <c r="E32" s="3">
-        <v>176100</v>
+        <v>-214200</v>
       </c>
       <c r="F32" s="3">
-        <v>-88600</v>
+        <v>183300</v>
       </c>
       <c r="G32" s="3">
-        <v>531400</v>
+        <v>-92200</v>
       </c>
       <c r="H32" s="3">
-        <v>-55000</v>
+        <v>506700</v>
       </c>
       <c r="I32" s="3">
-        <v>164000</v>
+        <v>-57300</v>
       </c>
       <c r="J32" s="3">
+        <v>170700</v>
+      </c>
+      <c r="K32" s="3">
         <v>51800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-20800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>51000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>27200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>30000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>38200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>77500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-60900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>102800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-27100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>3800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-44600</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>592600</v>
+        <v>173400</v>
       </c>
       <c r="E33" s="3">
-        <v>-25700</v>
+        <v>617000</v>
       </c>
       <c r="F33" s="3">
-        <v>-144300</v>
+        <v>-26700</v>
       </c>
       <c r="G33" s="3">
-        <v>-209400</v>
+        <v>-150200</v>
       </c>
       <c r="H33" s="3">
-        <v>-55000</v>
+        <v>-218000</v>
       </c>
       <c r="I33" s="3">
-        <v>-145600</v>
+        <v>-57300</v>
       </c>
       <c r="J33" s="3">
+        <v>-151500</v>
+      </c>
+      <c r="K33" s="3">
         <v>-9800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-78200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>76800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>215600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>226900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>405100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>235900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>171800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>217300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>130700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>133800</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>592600</v>
+        <v>173400</v>
       </c>
       <c r="E35" s="3">
-        <v>-25700</v>
+        <v>617000</v>
       </c>
       <c r="F35" s="3">
-        <v>-144300</v>
+        <v>-26700</v>
       </c>
       <c r="G35" s="3">
-        <v>-209400</v>
+        <v>-150200</v>
       </c>
       <c r="H35" s="3">
-        <v>-55000</v>
+        <v>-218000</v>
       </c>
       <c r="I35" s="3">
-        <v>-145600</v>
+        <v>-57300</v>
       </c>
       <c r="J35" s="3">
+        <v>-151500</v>
+      </c>
+      <c r="K35" s="3">
         <v>-9800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-78200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>76800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>215600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>226900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>405100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>235900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>171800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>217300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>130700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>133800</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,255 +2486,268 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2039500</v>
+        <v>1806700</v>
       </c>
       <c r="E41" s="3">
-        <v>2022900</v>
+        <v>2122900</v>
       </c>
       <c r="F41" s="3">
-        <v>1779000</v>
+        <v>2105700</v>
       </c>
       <c r="G41" s="3">
-        <v>1406100</v>
+        <v>1851700</v>
       </c>
       <c r="H41" s="3">
-        <v>1420600</v>
+        <v>1463600</v>
       </c>
       <c r="I41" s="3">
-        <v>1223500</v>
+        <v>1478700</v>
       </c>
       <c r="J41" s="3">
+        <v>1273500</v>
+      </c>
+      <c r="K41" s="3">
         <v>1224500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>690500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>676400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>700300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>581300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1016700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1369600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2067200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>925500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1027500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>991000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>980500</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>527400</v>
+        <v>562800</v>
       </c>
       <c r="E42" s="3">
-        <v>688200</v>
+        <v>549000</v>
       </c>
       <c r="F42" s="3">
-        <v>670300</v>
+        <v>716400</v>
       </c>
       <c r="G42" s="3">
-        <v>319100</v>
+        <v>697700</v>
       </c>
       <c r="H42" s="3">
-        <v>185500</v>
+        <v>332200</v>
       </c>
       <c r="I42" s="3">
-        <v>188400</v>
+        <v>193100</v>
       </c>
       <c r="J42" s="3">
+        <v>196100</v>
+      </c>
+      <c r="K42" s="3">
         <v>180500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>183700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>200400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>195800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>216300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>200600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>244200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>259400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>600500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>580000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>624900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>572400</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2123400</v>
+        <v>2021400</v>
       </c>
       <c r="E43" s="3">
-        <v>2343600</v>
+        <v>2210300</v>
       </c>
       <c r="F43" s="3">
-        <v>2187300</v>
+        <v>2439500</v>
       </c>
       <c r="G43" s="3">
-        <v>2837400</v>
+        <v>2276700</v>
       </c>
       <c r="H43" s="3">
-        <v>2192200</v>
+        <v>2953500</v>
       </c>
       <c r="I43" s="3">
-        <v>2660300</v>
+        <v>2281900</v>
       </c>
       <c r="J43" s="3">
+        <v>2769100</v>
+      </c>
+      <c r="K43" s="3">
         <v>2681000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2665200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2340300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2222700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2398100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2471900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2313800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1523300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1559100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1584500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1342000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1417300</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2253900</v>
+        <v>1723100</v>
       </c>
       <c r="E44" s="3">
-        <v>2230300</v>
+        <v>2346100</v>
       </c>
       <c r="F44" s="3">
-        <v>2356800</v>
+        <v>2321500</v>
       </c>
       <c r="G44" s="3">
-        <v>2597500</v>
+        <v>2453200</v>
       </c>
       <c r="H44" s="3">
-        <v>2407000</v>
+        <v>2703800</v>
       </c>
       <c r="I44" s="3">
-        <v>2506700</v>
+        <v>2505400</v>
       </c>
       <c r="J44" s="3">
+        <v>2609300</v>
+      </c>
+      <c r="K44" s="3">
         <v>2626900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2830700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2987800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2446600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2285100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2237700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2398100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1573000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1498300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1548300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1526600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1420000</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="3">
         <v>100</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>8</v>
@@ -2656,11 +2755,11 @@
       <c r="H45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I45" s="3">
+      <c r="I45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J45" s="3">
         <v>100</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>8</v>
@@ -2677,8 +2776,8 @@
       <c r="O45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
+      <c r="P45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
@@ -2686,253 +2785,268 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-      <c r="S45" s="3" t="s">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>100</v>
       </c>
-      <c r="U45" s="3" t="s">
+      <c r="V45" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6944200</v>
+        <v>6114000</v>
       </c>
       <c r="E46" s="3">
-        <v>7285200</v>
+        <v>7228200</v>
       </c>
       <c r="F46" s="3">
-        <v>6993300</v>
+        <v>7583200</v>
       </c>
       <c r="G46" s="3">
-        <v>7160200</v>
+        <v>7279400</v>
       </c>
       <c r="H46" s="3">
-        <v>6205300</v>
+        <v>7453100</v>
       </c>
       <c r="I46" s="3">
-        <v>6579000</v>
+        <v>6459100</v>
       </c>
       <c r="J46" s="3">
+        <v>6848100</v>
+      </c>
+      <c r="K46" s="3">
         <v>6712900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6370100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6204900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5565400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5480700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5926900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6325700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5422900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4583400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4740300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4484500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4390100</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1999000</v>
+        <v>2073400</v>
       </c>
       <c r="E47" s="3">
-        <v>1393100</v>
+        <v>2080800</v>
       </c>
       <c r="F47" s="3">
-        <v>1459100</v>
+        <v>1450100</v>
       </c>
       <c r="G47" s="3">
-        <v>1600900</v>
+        <v>1518800</v>
       </c>
       <c r="H47" s="3">
-        <v>1329900</v>
+        <v>1666400</v>
       </c>
       <c r="I47" s="3">
-        <v>1365500</v>
+        <v>1384300</v>
       </c>
       <c r="J47" s="3">
+        <v>1421300</v>
+      </c>
+      <c r="K47" s="3">
         <v>1264500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1284800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1305300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1134900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1139600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1144700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1299300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2104800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2176900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2458200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2442200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2383800</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7428600</v>
+        <v>6486200</v>
       </c>
       <c r="E48" s="3">
-        <v>7938800</v>
+        <v>7732500</v>
       </c>
       <c r="F48" s="3">
-        <v>8149400</v>
+        <v>8263600</v>
       </c>
       <c r="G48" s="3">
-        <v>9008600</v>
+        <v>8482700</v>
       </c>
       <c r="H48" s="3">
-        <v>8584700</v>
+        <v>9377100</v>
       </c>
       <c r="I48" s="3">
-        <v>8559500</v>
+        <v>8935900</v>
       </c>
       <c r="J48" s="3">
+        <v>8909600</v>
+      </c>
+      <c r="K48" s="3">
         <v>8463300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8251000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>8390300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6777500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6821700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>7588300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>8444900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6542100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>6670700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>7352000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>7241900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>6716900</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1081900</v>
+        <v>1058700</v>
       </c>
       <c r="E49" s="3">
-        <v>1145100</v>
+        <v>1126200</v>
       </c>
       <c r="F49" s="3">
-        <v>1186600</v>
+        <v>1191900</v>
       </c>
       <c r="G49" s="3">
-        <v>1462600</v>
+        <v>1235100</v>
       </c>
       <c r="H49" s="3">
-        <v>1329900</v>
+        <v>1522400</v>
       </c>
       <c r="I49" s="3">
-        <v>1352300</v>
+        <v>1384300</v>
       </c>
       <c r="J49" s="3">
+        <v>1407600</v>
+      </c>
+      <c r="K49" s="3">
         <v>1328000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1260400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1291000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1094100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1192800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1316300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1471900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>628400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>645800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>729800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>716500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>674300</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1556700</v>
+        <v>3793400</v>
       </c>
       <c r="E52" s="3">
-        <v>1416800</v>
+        <v>1620400</v>
       </c>
       <c r="F52" s="3">
-        <v>1422900</v>
+        <v>1474800</v>
       </c>
       <c r="G52" s="3">
-        <v>1492300</v>
+        <v>1481200</v>
       </c>
       <c r="H52" s="3">
-        <v>1560000</v>
+        <v>1553400</v>
       </c>
       <c r="I52" s="3">
-        <v>1456800</v>
+        <v>1623800</v>
       </c>
       <c r="J52" s="3">
+        <v>1516400</v>
+      </c>
+      <c r="K52" s="3">
         <v>1538900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1473100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1415700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1311300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1237900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1249900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1550800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1229500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1189000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1275900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1241600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1207000</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>19010500</v>
+        <v>19525800</v>
       </c>
       <c r="E54" s="3">
-        <v>19179000</v>
+        <v>19788100</v>
       </c>
       <c r="F54" s="3">
-        <v>19211300</v>
+        <v>19963500</v>
       </c>
       <c r="G54" s="3">
-        <v>20724600</v>
+        <v>19997200</v>
       </c>
       <c r="H54" s="3">
-        <v>19009700</v>
+        <v>21572400</v>
       </c>
       <c r="I54" s="3">
-        <v>19313100</v>
+        <v>19787300</v>
       </c>
       <c r="J54" s="3">
+        <v>20103100</v>
+      </c>
+      <c r="K54" s="3">
         <v>19307700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>18639300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>18607200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>15883200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>15872800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>17226200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>18905400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>15927700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>15265800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>16556200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>16126800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>15372100</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,362 +3402,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2191000</v>
+        <v>2101700</v>
       </c>
       <c r="E57" s="3">
-        <v>2065700</v>
+        <v>2280600</v>
       </c>
       <c r="F57" s="3">
-        <v>1930200</v>
+        <v>2150200</v>
       </c>
       <c r="G57" s="3">
-        <v>2492800</v>
+        <v>2009200</v>
       </c>
       <c r="H57" s="3">
-        <v>2161400</v>
+        <v>2594700</v>
       </c>
       <c r="I57" s="3">
-        <v>2279800</v>
+        <v>2249800</v>
       </c>
       <c r="J57" s="3">
+        <v>2373000</v>
+      </c>
+      <c r="K57" s="3">
         <v>2429800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2507100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2299400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2036400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2184200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2237200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2266100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1198100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1212600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1260600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1246300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1125900</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>549000</v>
+        <v>565800</v>
       </c>
       <c r="E58" s="3">
-        <v>799600</v>
+        <v>571500</v>
       </c>
       <c r="F58" s="3">
-        <v>820300</v>
+        <v>832300</v>
       </c>
       <c r="G58" s="3">
-        <v>893600</v>
+        <v>853800</v>
       </c>
       <c r="H58" s="3">
-        <v>711900</v>
+        <v>930100</v>
       </c>
       <c r="I58" s="3">
-        <v>702300</v>
+        <v>741100</v>
       </c>
       <c r="J58" s="3">
+        <v>731100</v>
+      </c>
+      <c r="K58" s="3">
         <v>945500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1009000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1057500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>675900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>508300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>571600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>954700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1049600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>433200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>429200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>404800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>439200</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>618900</v>
+        <v>485800</v>
       </c>
       <c r="E59" s="3">
-        <v>423100</v>
+        <v>644200</v>
       </c>
       <c r="F59" s="3">
-        <v>430300</v>
+        <v>440400</v>
       </c>
       <c r="G59" s="3">
-        <v>551700</v>
+        <v>447900</v>
       </c>
       <c r="H59" s="3">
-        <v>559900</v>
+        <v>574200</v>
       </c>
       <c r="I59" s="3">
-        <v>473500</v>
+        <v>582800</v>
       </c>
       <c r="J59" s="3">
+        <v>492900</v>
+      </c>
+      <c r="K59" s="3">
         <v>426400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>529000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>684000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>603300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>509000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>526400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1202600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>410100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>337100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>411300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>458100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>516900</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3358800</v>
+        <v>3153300</v>
       </c>
       <c r="E60" s="3">
-        <v>3288400</v>
+        <v>3496200</v>
       </c>
       <c r="F60" s="3">
-        <v>3180800</v>
+        <v>3422900</v>
       </c>
       <c r="G60" s="3">
-        <v>3938000</v>
+        <v>3310900</v>
       </c>
       <c r="H60" s="3">
-        <v>3433200</v>
+        <v>4099100</v>
       </c>
       <c r="I60" s="3">
-        <v>3455600</v>
+        <v>3573600</v>
       </c>
       <c r="J60" s="3">
+        <v>3597000</v>
+      </c>
+      <c r="K60" s="3">
         <v>3801800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4045200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4040900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3315500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3201600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3335200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3860100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2657800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1982800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2101200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2109200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2081900</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2868900</v>
+        <v>2847500</v>
       </c>
       <c r="E61" s="3">
-        <v>2991700</v>
+        <v>2986300</v>
       </c>
       <c r="F61" s="3">
-        <v>3075200</v>
+        <v>3114100</v>
       </c>
       <c r="G61" s="3">
-        <v>2461800</v>
+        <v>3201000</v>
       </c>
       <c r="H61" s="3">
-        <v>2180600</v>
+        <v>2562500</v>
       </c>
       <c r="I61" s="3">
-        <v>2310900</v>
+        <v>2269700</v>
       </c>
       <c r="J61" s="3">
+        <v>2405400</v>
+      </c>
+      <c r="K61" s="3">
         <v>2153000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1195400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1054000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>806700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>959300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>948900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1043500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>356300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>368600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>415900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>550400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>420300</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3827900</v>
+        <v>4172600</v>
       </c>
       <c r="E62" s="3">
-        <v>4007500</v>
+        <v>3984500</v>
       </c>
       <c r="F62" s="3">
-        <v>3836500</v>
+        <v>4171400</v>
       </c>
       <c r="G62" s="3">
-        <v>4245100</v>
+        <v>3993400</v>
       </c>
       <c r="H62" s="3">
-        <v>3673700</v>
+        <v>4418800</v>
       </c>
       <c r="I62" s="3">
-        <v>3759000</v>
+        <v>3824000</v>
       </c>
       <c r="J62" s="3">
+        <v>3912800</v>
+      </c>
+      <c r="K62" s="3">
         <v>3455400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3278400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3547300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2811300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2795200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3056100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3561200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2735700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2775600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2844800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2661200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2833800</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10421600</v>
+        <v>10529500</v>
       </c>
       <c r="E66" s="3">
-        <v>10641700</v>
+        <v>10847900</v>
       </c>
       <c r="F66" s="3">
-        <v>10465900</v>
+        <v>11077000</v>
       </c>
       <c r="G66" s="3">
-        <v>11102700</v>
+        <v>10894000</v>
       </c>
       <c r="H66" s="3">
-        <v>9767000</v>
+        <v>11556800</v>
       </c>
       <c r="I66" s="3">
-        <v>10030900</v>
+        <v>10166600</v>
       </c>
       <c r="J66" s="3">
+        <v>10441200</v>
+      </c>
+      <c r="K66" s="3">
         <v>9925000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9051500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8925000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7391100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7415000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7870700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8828100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6353700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5731300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6081600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6027600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6016400</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6016000</v>
+        <v>6435500</v>
       </c>
       <c r="E72" s="3">
-        <v>5719600</v>
+        <v>6262100</v>
       </c>
       <c r="F72" s="3">
-        <v>5745300</v>
+        <v>5953600</v>
       </c>
       <c r="G72" s="3">
-        <v>5889500</v>
+        <v>5980300</v>
       </c>
       <c r="H72" s="3">
-        <v>6098900</v>
+        <v>6130400</v>
       </c>
       <c r="I72" s="3">
-        <v>6153800</v>
+        <v>6348400</v>
       </c>
       <c r="J72" s="3">
+        <v>6405600</v>
+      </c>
+      <c r="K72" s="3">
         <v>6299500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6466900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6443600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5915000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5838300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>6351300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>6534600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>6130800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>5895000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>6408300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>6190900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>6060300</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8588900</v>
+        <v>8996300</v>
       </c>
       <c r="E76" s="3">
-        <v>8537300</v>
+        <v>8940200</v>
       </c>
       <c r="F76" s="3">
-        <v>8745400</v>
+        <v>8886500</v>
       </c>
       <c r="G76" s="3">
-        <v>9621900</v>
+        <v>9103200</v>
       </c>
       <c r="H76" s="3">
-        <v>9242700</v>
+        <v>10015500</v>
       </c>
       <c r="I76" s="3">
-        <v>9282200</v>
+        <v>9620700</v>
       </c>
       <c r="J76" s="3">
+        <v>9661900</v>
+      </c>
+      <c r="K76" s="3">
         <v>9382700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9587900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9682200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8492100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8457800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9355400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>10077300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>9574000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>9534500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>10474600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>10099100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>9355600</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>592600</v>
+        <v>173400</v>
       </c>
       <c r="E81" s="3">
-        <v>-25700</v>
+        <v>617000</v>
       </c>
       <c r="F81" s="3">
-        <v>-144300</v>
+        <v>-26700</v>
       </c>
       <c r="G81" s="3">
-        <v>-209400</v>
+        <v>-150200</v>
       </c>
       <c r="H81" s="3">
-        <v>-55000</v>
+        <v>-218000</v>
       </c>
       <c r="I81" s="3">
-        <v>-145600</v>
+        <v>-57300</v>
       </c>
       <c r="J81" s="3">
+        <v>-151500</v>
+      </c>
+      <c r="K81" s="3">
         <v>-9800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-78200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>76800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>215600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>226900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>405100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>235900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>171800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>217300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>130700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>133800</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,67 +4819,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>464000</v>
+        <v>225800</v>
       </c>
       <c r="E83" s="3">
-        <v>241100</v>
+        <v>483000</v>
       </c>
       <c r="F83" s="3">
-        <v>457400</v>
+        <v>251000</v>
       </c>
       <c r="G83" s="3">
-        <v>254300</v>
+        <v>476100</v>
       </c>
       <c r="H83" s="3">
-        <v>352100</v>
+        <v>264700</v>
       </c>
       <c r="I83" s="3">
-        <v>258500</v>
+        <v>366500</v>
       </c>
       <c r="J83" s="3">
+        <v>269100</v>
+      </c>
+      <c r="K83" s="3">
         <v>243500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>237500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>193900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>189400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>193300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>207100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>228100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>168000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>160800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>166700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>197300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>174500</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>629500</v>
+        <v>-65500</v>
       </c>
       <c r="E89" s="3">
-        <v>522500</v>
+        <v>655200</v>
       </c>
       <c r="F89" s="3">
-        <v>253200</v>
+        <v>543900</v>
       </c>
       <c r="G89" s="3">
-        <v>157500</v>
+        <v>263600</v>
       </c>
       <c r="H89" s="3">
-        <v>656800</v>
+        <v>163900</v>
       </c>
       <c r="I89" s="3">
-        <v>403700</v>
+        <v>683600</v>
       </c>
       <c r="J89" s="3">
+        <v>420200</v>
+      </c>
+      <c r="K89" s="3">
         <v>300600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>88200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>106500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>263300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>155300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>215800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>740900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>341600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>501400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>82400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>523700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>284800</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-241800</v>
+        <v>-122400</v>
       </c>
       <c r="E91" s="3">
-        <v>-166300</v>
+        <v>-251700</v>
       </c>
       <c r="F91" s="3">
-        <v>-144900</v>
+        <v>-173100</v>
       </c>
       <c r="G91" s="3">
-        <v>-174000</v>
+        <v>-169300</v>
       </c>
       <c r="H91" s="3">
-        <v>-334500</v>
+        <v>-162600</v>
       </c>
       <c r="I91" s="3">
-        <v>-227900</v>
+        <v>-348200</v>
       </c>
       <c r="J91" s="3">
+        <v>-237200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-258000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-184600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-284000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-183700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-157200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-148500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-353000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-173800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-156300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-172100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-315900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-198600</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-23900</v>
+        <v>-156200</v>
       </c>
       <c r="E94" s="3">
-        <v>-167800</v>
+        <v>-24900</v>
       </c>
       <c r="F94" s="3">
-        <v>-533700</v>
+        <v>-174600</v>
       </c>
       <c r="G94" s="3">
-        <v>-237200</v>
+        <v>-571300</v>
       </c>
       <c r="H94" s="3">
-        <v>-338400</v>
+        <v>-231100</v>
       </c>
       <c r="I94" s="3">
-        <v>-224800</v>
+        <v>-352300</v>
       </c>
       <c r="J94" s="3">
+        <v>-234000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-310700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-182800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-292200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-154800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-165900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-159600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1571400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>220100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-244300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-80900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-331100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-397400</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,67 +5549,71 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-316300</v>
+      </c>
+      <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
+        <v>-295800</v>
+      </c>
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="N96" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="O96" s="3">
+        <v>-366300</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="R96" s="3">
+        <v>-42700</v>
+      </c>
+      <c r="S96" s="3">
         <v>-303900</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-10500</v>
-      </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-295800</v>
-      </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-366300</v>
-      </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-8700</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-42700</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-303900</v>
-      </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-14300</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,181 +5795,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-551800</v>
+        <v>-59800</v>
       </c>
       <c r="E100" s="3">
-        <v>-85300</v>
+        <v>-574400</v>
       </c>
       <c r="F100" s="3">
-        <v>762300</v>
+        <v>-88800</v>
       </c>
       <c r="G100" s="3">
-        <v>-1600</v>
+        <v>792600</v>
       </c>
       <c r="H100" s="3">
-        <v>-112200</v>
+        <v>-700</v>
       </c>
       <c r="I100" s="3">
-        <v>-200200</v>
+        <v>-116700</v>
       </c>
       <c r="J100" s="3">
+        <v>-208300</v>
+      </c>
+      <c r="K100" s="3">
         <v>531200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>115200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>45700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>22200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-344300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-292100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>101800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>602000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-283600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>26000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-212400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-22300</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-37200</v>
+        <v>-34500</v>
       </c>
       <c r="E101" s="3">
-        <v>-25400</v>
+        <v>-38800</v>
       </c>
       <c r="F101" s="3">
-        <v>-108900</v>
+        <v>-26500</v>
       </c>
       <c r="G101" s="3">
-        <v>66700</v>
+        <v>-113400</v>
       </c>
       <c r="H101" s="3">
-        <v>-9000</v>
+        <v>69400</v>
       </c>
       <c r="I101" s="3">
-        <v>20200</v>
+        <v>-9400</v>
       </c>
       <c r="J101" s="3">
+        <v>21100</v>
+      </c>
+      <c r="K101" s="3">
         <v>-1900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-8800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>44000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-11700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-22400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-30700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>31000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-22000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-12900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>9000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>30300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-21500</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>16500</v>
+        <v>-316100</v>
       </c>
       <c r="E102" s="3">
-        <v>244000</v>
+        <v>17200</v>
       </c>
       <c r="F102" s="3">
-        <v>372900</v>
+        <v>254000</v>
       </c>
       <c r="G102" s="3">
-        <v>-14600</v>
+        <v>388200</v>
       </c>
       <c r="H102" s="3">
-        <v>197100</v>
+        <v>-15200</v>
       </c>
       <c r="I102" s="3">
-        <v>-1000</v>
+        <v>205200</v>
       </c>
       <c r="J102" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="K102" s="3">
         <v>519300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>11800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-96000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>119100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-377400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-266600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-697600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1141700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-39400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>36500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>10500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-156300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NHYDY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NHYDY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>NHYDY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3845600</v>
+        <v>3825000</v>
       </c>
       <c r="E8" s="3">
-        <v>1452400</v>
+        <v>3536300</v>
       </c>
       <c r="F8" s="3">
-        <v>3992200</v>
+        <v>1335600</v>
       </c>
       <c r="G8" s="3">
-        <v>3722900</v>
+        <v>3671100</v>
       </c>
       <c r="H8" s="3">
-        <v>3804500</v>
+        <v>2805000</v>
       </c>
       <c r="I8" s="3">
-        <v>4271600</v>
+        <v>3498500</v>
       </c>
       <c r="J8" s="3">
+        <v>3928000</v>
+      </c>
+      <c r="K8" s="3">
         <v>4515500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4529900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4254800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4330700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4068100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4220300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4336500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4493100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2639900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2847400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2839100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2620100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2487500</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2302000</v>
+        <v>2347900</v>
       </c>
       <c r="E9" s="3">
-        <v>727200</v>
+        <v>2116900</v>
       </c>
       <c r="F9" s="3">
-        <v>2435600</v>
+        <v>668700</v>
       </c>
       <c r="G9" s="3">
-        <v>2350300</v>
+        <v>2239700</v>
       </c>
       <c r="H9" s="3">
-        <v>2250900</v>
+        <v>1752200</v>
       </c>
       <c r="I9" s="3">
-        <v>2687400</v>
+        <v>2069800</v>
       </c>
       <c r="J9" s="3">
+        <v>2471300</v>
+      </c>
+      <c r="K9" s="3">
         <v>2899500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2997100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2845600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2839000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2625700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2710500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2733500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2826500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1710000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1835000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1827600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1651100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1588800</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1543600</v>
+        <v>1477100</v>
       </c>
       <c r="E10" s="3">
-        <v>725200</v>
+        <v>1419500</v>
       </c>
       <c r="F10" s="3">
-        <v>1556600</v>
+        <v>666800</v>
       </c>
       <c r="G10" s="3">
-        <v>1372600</v>
+        <v>1431400</v>
       </c>
       <c r="H10" s="3">
-        <v>1553600</v>
+        <v>1052800</v>
       </c>
       <c r="I10" s="3">
-        <v>1584200</v>
+        <v>1428700</v>
       </c>
       <c r="J10" s="3">
+        <v>1456800</v>
+      </c>
+      <c r="K10" s="3">
         <v>1616100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1532800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1409100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1491700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1442300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1509700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1602900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1666600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>929900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1012400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1011600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>969000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>898600</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,31 +1104,34 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>14700</v>
+        <v>800</v>
       </c>
       <c r="E14" s="3">
-        <v>7600</v>
+        <v>13500</v>
       </c>
       <c r="F14" s="3">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="G14" s="3">
-        <v>220100</v>
+        <v>8300</v>
       </c>
       <c r="H14" s="3">
-        <v>1400</v>
+        <v>202400</v>
       </c>
       <c r="I14" s="3">
-        <v>109800</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
+        <v>1300</v>
+      </c>
+      <c r="J14" s="3">
+        <v>100900</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1128,11 +1148,11 @@
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
@@ -1149,70 +1169,76 @@
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>211100</v>
+        <v>208600</v>
       </c>
       <c r="E15" s="3">
-        <v>102400</v>
+        <v>194100</v>
       </c>
       <c r="F15" s="3">
-        <v>241900</v>
+        <v>94200</v>
       </c>
       <c r="G15" s="3">
-        <v>256000</v>
+        <v>222500</v>
       </c>
       <c r="H15" s="3">
-        <v>228200</v>
+        <v>201400</v>
       </c>
       <c r="I15" s="3">
-        <v>256600</v>
+        <v>209800</v>
       </c>
       <c r="J15" s="3">
+        <v>236000</v>
+      </c>
+      <c r="K15" s="3">
         <v>269100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>243400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>237500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>193900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>189400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>193400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>207100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>228100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>167900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>160800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>166700</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>197200</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>174600</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3576900</v>
+        <v>3489200</v>
       </c>
       <c r="E17" s="3">
-        <v>622600</v>
+        <v>3289200</v>
       </c>
       <c r="F17" s="3">
-        <v>3772900</v>
+        <v>572500</v>
       </c>
       <c r="G17" s="3">
-        <v>3922800</v>
+        <v>3469500</v>
       </c>
       <c r="H17" s="3">
-        <v>3536300</v>
+        <v>2980700</v>
       </c>
       <c r="I17" s="3">
-        <v>4319600</v>
+        <v>3251900</v>
       </c>
       <c r="J17" s="3">
+        <v>3972200</v>
+      </c>
+      <c r="K17" s="3">
         <v>4488800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4454100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4252500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4310600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3857600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3914800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3978300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3970800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2370900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2506300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2542000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2378000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2317800</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>268800</v>
+        <v>335800</v>
       </c>
       <c r="E18" s="3">
-        <v>829800</v>
+        <v>247100</v>
       </c>
       <c r="F18" s="3">
-        <v>219300</v>
+        <v>763000</v>
       </c>
       <c r="G18" s="3">
-        <v>-199900</v>
+        <v>201700</v>
       </c>
       <c r="H18" s="3">
-        <v>268200</v>
+        <v>-175800</v>
       </c>
       <c r="I18" s="3">
-        <v>-48000</v>
+        <v>246600</v>
       </c>
       <c r="J18" s="3">
+        <v>-44200</v>
+      </c>
+      <c r="K18" s="3">
         <v>26700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>75900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>20100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>210400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>305500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>358100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>522300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>269000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>341100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>297200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>242200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>169700</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,318 +1413,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>79600</v>
+        <v>63500</v>
       </c>
       <c r="E20" s="3">
-        <v>214200</v>
+        <v>73200</v>
       </c>
       <c r="F20" s="3">
-        <v>-183300</v>
+        <v>197000</v>
       </c>
       <c r="G20" s="3">
-        <v>92200</v>
+        <v>-168600</v>
       </c>
       <c r="H20" s="3">
-        <v>-506700</v>
+        <v>68500</v>
       </c>
       <c r="I20" s="3">
-        <v>57300</v>
+        <v>-466000</v>
       </c>
       <c r="J20" s="3">
+        <v>52700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-170700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-51800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>20800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-51000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-27200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-30000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-38200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-77500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>60900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-102800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>27100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-3800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>44600</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>574100</v>
+        <v>608700</v>
       </c>
       <c r="E21" s="3">
-        <v>1527000</v>
+        <v>527900</v>
       </c>
       <c r="F21" s="3">
-        <v>286900</v>
+        <v>1404200</v>
       </c>
       <c r="G21" s="3">
-        <v>403300</v>
+        <v>329900</v>
       </c>
       <c r="H21" s="3">
-        <v>-8800</v>
+        <v>296600</v>
       </c>
       <c r="I21" s="3">
-        <v>375800</v>
+        <v>-8100</v>
       </c>
       <c r="J21" s="3">
+        <v>345500</v>
+      </c>
+      <c r="K21" s="3">
         <v>125200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>267600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>260600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>163000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>372600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>468800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>527000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>673000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>497900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>399100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>491000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>435600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>388800</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>28500</v>
+        <v>24200</v>
       </c>
       <c r="E22" s="3">
-        <v>30500</v>
+        <v>26200</v>
       </c>
       <c r="F22" s="3">
-        <v>31800</v>
+        <v>28000</v>
       </c>
       <c r="G22" s="3">
-        <v>28200</v>
+        <v>29200</v>
       </c>
       <c r="H22" s="3">
-        <v>26200</v>
+        <v>25600</v>
       </c>
       <c r="I22" s="3">
-        <v>29400</v>
+        <v>24100</v>
       </c>
       <c r="J22" s="3">
+        <v>27000</v>
+      </c>
+      <c r="K22" s="3">
         <v>25400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>25000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>20200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>30300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>16100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>15100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>13300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>12400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>4700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>8200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>10400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>13400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>319800</v>
+        <v>375100</v>
       </c>
       <c r="E23" s="3">
-        <v>1013600</v>
+        <v>294100</v>
       </c>
       <c r="F23" s="3">
-        <v>4200</v>
+        <v>932000</v>
       </c>
       <c r="G23" s="3">
-        <v>-135900</v>
+        <v>3900</v>
       </c>
       <c r="H23" s="3">
-        <v>-264800</v>
+        <v>-132800</v>
       </c>
       <c r="I23" s="3">
-        <v>-20100</v>
+        <v>-243500</v>
       </c>
       <c r="J23" s="3">
+        <v>-18500</v>
+      </c>
+      <c r="K23" s="3">
         <v>-169300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-61300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>167200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>260400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>306600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>432500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>325100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>230100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>313900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>224900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>208700</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>93400</v>
+        <v>109800</v>
       </c>
       <c r="E24" s="3">
-        <v>98500</v>
+        <v>85900</v>
       </c>
       <c r="F24" s="3">
-        <v>30800</v>
+        <v>90500</v>
       </c>
       <c r="G24" s="3">
-        <v>41200</v>
+        <v>28300</v>
       </c>
       <c r="H24" s="3">
-        <v>-55000</v>
+        <v>31800</v>
       </c>
       <c r="I24" s="3">
-        <v>59800</v>
+        <v>-50600</v>
       </c>
       <c r="J24" s="3">
+        <v>55000</v>
+      </c>
+      <c r="K24" s="3">
         <v>-1900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>21200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>17000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>23500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>72600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>48400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>81300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>15600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>72300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>49100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>87200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>100500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>70800</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>226400</v>
+        <v>265300</v>
       </c>
       <c r="E26" s="3">
-        <v>915100</v>
+        <v>208200</v>
       </c>
       <c r="F26" s="3">
-        <v>-26600</v>
+        <v>841500</v>
       </c>
       <c r="G26" s="3">
-        <v>-177000</v>
+        <v>-24500</v>
       </c>
       <c r="H26" s="3">
-        <v>-209800</v>
+        <v>-164600</v>
       </c>
       <c r="I26" s="3">
-        <v>-79900</v>
+        <v>-192900</v>
       </c>
       <c r="J26" s="3">
+        <v>-73500</v>
+      </c>
+      <c r="K26" s="3">
         <v>-167400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-22100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-14000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-84700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>94500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>212000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>225300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>416800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>252900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>181000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>226700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>124400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>138000</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>219200</v>
+        <v>241100</v>
       </c>
       <c r="E27" s="3">
-        <v>884900</v>
+        <v>201500</v>
       </c>
       <c r="F27" s="3">
-        <v>-26700</v>
+        <v>813700</v>
       </c>
       <c r="G27" s="3">
-        <v>-150200</v>
+        <v>-24600</v>
       </c>
       <c r="H27" s="3">
-        <v>-184000</v>
+        <v>-139900</v>
       </c>
       <c r="I27" s="3">
-        <v>-57300</v>
+        <v>-169200</v>
       </c>
       <c r="J27" s="3">
+        <v>-52700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-151500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-9800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-78200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>76800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>215600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>226900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>405100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>235900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>171800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>217300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>130700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>133800</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,34 +1996,37 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-45700</v>
+        <v>45000</v>
       </c>
       <c r="E29" s="3">
-        <v>-267900</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
+        <v>-42100</v>
+      </c>
+      <c r="F29" s="3">
+        <v>-246400</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H29" s="3">
-        <v>-33900</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
+        <v>1800</v>
+      </c>
+      <c r="I29" s="3">
+        <v>-31200</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-79600</v>
+        <v>-63500</v>
       </c>
       <c r="E32" s="3">
-        <v>-214200</v>
+        <v>-73200</v>
       </c>
       <c r="F32" s="3">
-        <v>183300</v>
+        <v>-197000</v>
       </c>
       <c r="G32" s="3">
-        <v>-92200</v>
+        <v>168600</v>
       </c>
       <c r="H32" s="3">
-        <v>506700</v>
+        <v>-68500</v>
       </c>
       <c r="I32" s="3">
-        <v>-57300</v>
+        <v>466000</v>
       </c>
       <c r="J32" s="3">
+        <v>-52700</v>
+      </c>
+      <c r="K32" s="3">
         <v>170700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>51800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-20800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>51000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>27200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>30000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>38200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>77500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-60900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>102800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-27100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>3800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-44600</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>173400</v>
+        <v>286100</v>
       </c>
       <c r="E33" s="3">
-        <v>617000</v>
+        <v>159500</v>
       </c>
       <c r="F33" s="3">
-        <v>-26700</v>
+        <v>567300</v>
       </c>
       <c r="G33" s="3">
-        <v>-150200</v>
+        <v>-24600</v>
       </c>
       <c r="H33" s="3">
-        <v>-218000</v>
+        <v>-138100</v>
       </c>
       <c r="I33" s="3">
-        <v>-57300</v>
+        <v>-200400</v>
       </c>
       <c r="J33" s="3">
+        <v>-52700</v>
+      </c>
+      <c r="K33" s="3">
         <v>-151500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-9800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-78200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>76800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>215600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>226900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>405100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>235900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>171800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>217300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>130700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>133800</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>173400</v>
+        <v>286100</v>
       </c>
       <c r="E35" s="3">
-        <v>617000</v>
+        <v>159500</v>
       </c>
       <c r="F35" s="3">
-        <v>-26700</v>
+        <v>567300</v>
       </c>
       <c r="G35" s="3">
-        <v>-150200</v>
+        <v>-24600</v>
       </c>
       <c r="H35" s="3">
-        <v>-218000</v>
+        <v>-138100</v>
       </c>
       <c r="I35" s="3">
-        <v>-57300</v>
+        <v>-200400</v>
       </c>
       <c r="J35" s="3">
+        <v>-52700</v>
+      </c>
+      <c r="K35" s="3">
         <v>-151500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-9800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-78200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>76800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>215600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>226900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>405100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>235900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>171800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>217300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>130700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>133800</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,256 +2573,269 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1806700</v>
+        <v>2229900</v>
       </c>
       <c r="E41" s="3">
-        <v>2122900</v>
+        <v>1661400</v>
       </c>
       <c r="F41" s="3">
-        <v>2105700</v>
+        <v>1952200</v>
       </c>
       <c r="G41" s="3">
-        <v>1851700</v>
+        <v>1936300</v>
       </c>
       <c r="H41" s="3">
-        <v>1463600</v>
+        <v>1702800</v>
       </c>
       <c r="I41" s="3">
-        <v>1478700</v>
+        <v>1345900</v>
       </c>
       <c r="J41" s="3">
+        <v>1359800</v>
+      </c>
+      <c r="K41" s="3">
         <v>1273500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1224500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>690500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>676400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>700300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>581300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1016700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1369600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2067200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>925500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1027500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>991000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>980500</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>562800</v>
+        <v>472200</v>
       </c>
       <c r="E42" s="3">
-        <v>549000</v>
+        <v>517500</v>
       </c>
       <c r="F42" s="3">
-        <v>716400</v>
+        <v>504800</v>
       </c>
       <c r="G42" s="3">
-        <v>697700</v>
+        <v>658800</v>
       </c>
       <c r="H42" s="3">
-        <v>332200</v>
+        <v>641600</v>
       </c>
       <c r="I42" s="3">
-        <v>193100</v>
+        <v>305500</v>
       </c>
       <c r="J42" s="3">
+        <v>177500</v>
+      </c>
+      <c r="K42" s="3">
         <v>196100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>180500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>183700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>200400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>195800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>216300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>200600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>244200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>259400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>600500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>580000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>624900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>572400</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2021400</v>
+        <v>2195700</v>
       </c>
       <c r="E43" s="3">
-        <v>2210300</v>
+        <v>1858900</v>
       </c>
       <c r="F43" s="3">
-        <v>2439500</v>
+        <v>2032500</v>
       </c>
       <c r="G43" s="3">
-        <v>2276700</v>
+        <v>2243300</v>
       </c>
       <c r="H43" s="3">
-        <v>2953500</v>
+        <v>2093600</v>
       </c>
       <c r="I43" s="3">
-        <v>2281900</v>
+        <v>2716000</v>
       </c>
       <c r="J43" s="3">
+        <v>2098400</v>
+      </c>
+      <c r="K43" s="3">
         <v>2769100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2681000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2665200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2340300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2222700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2398100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2471900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2313800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1523300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1559100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1584500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1342000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1417300</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1723100</v>
+        <v>1821100</v>
       </c>
       <c r="E44" s="3">
-        <v>2346100</v>
+        <v>1584500</v>
       </c>
       <c r="F44" s="3">
-        <v>2321500</v>
+        <v>2157400</v>
       </c>
       <c r="G44" s="3">
-        <v>2453200</v>
+        <v>2134800</v>
       </c>
       <c r="H44" s="3">
-        <v>2703800</v>
+        <v>2255900</v>
       </c>
       <c r="I44" s="3">
-        <v>2505400</v>
+        <v>2486300</v>
       </c>
       <c r="J44" s="3">
+        <v>2303900</v>
+      </c>
+      <c r="K44" s="3">
         <v>2609300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2626900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2830700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2987800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2446600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2285100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2237700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2398100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1573000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1498300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1548300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1526600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1420000</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2746,11 +2845,11 @@
       <c r="E45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" s="3">
         <v>100</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>8</v>
@@ -2758,11 +2857,11 @@
       <c r="I45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J45" s="3">
+      <c r="J45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K45" s="3">
         <v>100</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>8</v>
@@ -2779,8 +2878,8 @@
       <c r="P45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
+      <c r="Q45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
@@ -2788,265 +2887,280 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-      <c r="T45" s="3" t="s">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>100</v>
       </c>
-      <c r="V45" s="3" t="s">
+      <c r="W45" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6114000</v>
+        <v>6718800</v>
       </c>
       <c r="E46" s="3">
-        <v>7228200</v>
+        <v>5622300</v>
       </c>
       <c r="F46" s="3">
-        <v>7583200</v>
+        <v>6646900</v>
       </c>
       <c r="G46" s="3">
-        <v>7279400</v>
+        <v>6973300</v>
       </c>
       <c r="H46" s="3">
-        <v>7453100</v>
+        <v>6693900</v>
       </c>
       <c r="I46" s="3">
-        <v>6459100</v>
+        <v>6853600</v>
       </c>
       <c r="J46" s="3">
+        <v>5939600</v>
+      </c>
+      <c r="K46" s="3">
         <v>6848100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6712900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6370100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6204900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5565400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5480700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5926900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>6325700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5422900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4583400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4740300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4484500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4390100</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2073400</v>
+        <v>1928700</v>
       </c>
       <c r="E47" s="3">
-        <v>2080800</v>
+        <v>1906700</v>
       </c>
       <c r="F47" s="3">
-        <v>1450100</v>
+        <v>1913400</v>
       </c>
       <c r="G47" s="3">
-        <v>1518800</v>
+        <v>1333500</v>
       </c>
       <c r="H47" s="3">
-        <v>1666400</v>
+        <v>1396700</v>
       </c>
       <c r="I47" s="3">
-        <v>1384300</v>
+        <v>1532400</v>
       </c>
       <c r="J47" s="3">
+        <v>1272900</v>
+      </c>
+      <c r="K47" s="3">
         <v>1421300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1264500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1284800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1305300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1134900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1139600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1144700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1299300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2104800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2176900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2458200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2442200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2383800</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6486200</v>
+        <v>6237200</v>
       </c>
       <c r="E48" s="3">
-        <v>7732500</v>
+        <v>5964500</v>
       </c>
       <c r="F48" s="3">
-        <v>8263600</v>
+        <v>7110600</v>
       </c>
       <c r="G48" s="3">
-        <v>8482700</v>
+        <v>7599000</v>
       </c>
       <c r="H48" s="3">
-        <v>9377100</v>
+        <v>7800500</v>
       </c>
       <c r="I48" s="3">
-        <v>8935900</v>
+        <v>8623000</v>
       </c>
       <c r="J48" s="3">
+        <v>8217200</v>
+      </c>
+      <c r="K48" s="3">
         <v>8909600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8463300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>8251000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>8390300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6777500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6821700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>7588300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>8444900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>6542100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>6670700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>7352000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>7241900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>6716900</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1058700</v>
+        <v>1015400</v>
       </c>
       <c r="E49" s="3">
-        <v>1126200</v>
+        <v>973500</v>
       </c>
       <c r="F49" s="3">
-        <v>1191900</v>
+        <v>1035600</v>
       </c>
       <c r="G49" s="3">
-        <v>1235100</v>
+        <v>1096100</v>
       </c>
       <c r="H49" s="3">
-        <v>1522400</v>
+        <v>1135800</v>
       </c>
       <c r="I49" s="3">
-        <v>1384300</v>
+        <v>1400000</v>
       </c>
       <c r="J49" s="3">
+        <v>1272900</v>
+      </c>
+      <c r="K49" s="3">
         <v>1407600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1328000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1260400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1291000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1094100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1192800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1316300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1471900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>628400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>645800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>729800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>716500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>674300</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3793400</v>
+        <v>1856000</v>
       </c>
       <c r="E52" s="3">
-        <v>1620400</v>
+        <v>3488300</v>
       </c>
       <c r="F52" s="3">
-        <v>1474800</v>
+        <v>1490100</v>
       </c>
       <c r="G52" s="3">
-        <v>1481200</v>
+        <v>1356200</v>
       </c>
       <c r="H52" s="3">
-        <v>1553400</v>
+        <v>1362000</v>
       </c>
       <c r="I52" s="3">
-        <v>1623800</v>
+        <v>1428400</v>
       </c>
       <c r="J52" s="3">
+        <v>1493200</v>
+      </c>
+      <c r="K52" s="3">
         <v>1516400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1538900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1473100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1415700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1311300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1237900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1249900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1550800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1229500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1189000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1275900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1241600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1207000</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>19525800</v>
+        <v>17756100</v>
       </c>
       <c r="E54" s="3">
-        <v>19788100</v>
+        <v>17955400</v>
       </c>
       <c r="F54" s="3">
-        <v>19963500</v>
+        <v>18196700</v>
       </c>
       <c r="G54" s="3">
-        <v>19997200</v>
+        <v>18357900</v>
       </c>
       <c r="H54" s="3">
-        <v>21572400</v>
+        <v>18388900</v>
       </c>
       <c r="I54" s="3">
-        <v>19787300</v>
+        <v>19837400</v>
       </c>
       <c r="J54" s="3">
+        <v>18195900</v>
+      </c>
+      <c r="K54" s="3">
         <v>20103100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>19307700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>18639300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>18607200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>15883200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>15872800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>17226200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>18905400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>15927700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>15265800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>16556200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>16126800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>15372100</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,380 +3533,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2101700</v>
+        <v>2247000</v>
       </c>
       <c r="E57" s="3">
-        <v>2280600</v>
+        <v>1932700</v>
       </c>
       <c r="F57" s="3">
-        <v>2150200</v>
+        <v>2097200</v>
       </c>
       <c r="G57" s="3">
-        <v>2009200</v>
+        <v>1977300</v>
       </c>
       <c r="H57" s="3">
-        <v>2594700</v>
+        <v>1847600</v>
       </c>
       <c r="I57" s="3">
-        <v>2249800</v>
+        <v>2386000</v>
       </c>
       <c r="J57" s="3">
+        <v>2068800</v>
+      </c>
+      <c r="K57" s="3">
         <v>2373000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2429800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2507100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2299400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2036400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2184200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2237200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2266100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1198100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1212600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1260600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1246300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1125900</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>565800</v>
+        <v>463000</v>
       </c>
       <c r="E58" s="3">
-        <v>571500</v>
+        <v>520300</v>
       </c>
       <c r="F58" s="3">
-        <v>832300</v>
+        <v>525500</v>
       </c>
       <c r="G58" s="3">
-        <v>853800</v>
+        <v>765400</v>
       </c>
       <c r="H58" s="3">
-        <v>930100</v>
+        <v>785200</v>
       </c>
       <c r="I58" s="3">
-        <v>741100</v>
+        <v>855300</v>
       </c>
       <c r="J58" s="3">
+        <v>681500</v>
+      </c>
+      <c r="K58" s="3">
         <v>731100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>945500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1009000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1057500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>675900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>508300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>571600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>954700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1049600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>433200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>429200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>404800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>439200</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>485800</v>
+        <v>574500</v>
       </c>
       <c r="E59" s="3">
-        <v>644200</v>
+        <v>446700</v>
       </c>
       <c r="F59" s="3">
-        <v>440400</v>
+        <v>592400</v>
       </c>
       <c r="G59" s="3">
-        <v>447900</v>
+        <v>405000</v>
       </c>
       <c r="H59" s="3">
-        <v>574200</v>
+        <v>411800</v>
       </c>
       <c r="I59" s="3">
-        <v>582800</v>
+        <v>528100</v>
       </c>
       <c r="J59" s="3">
+        <v>535900</v>
+      </c>
+      <c r="K59" s="3">
         <v>492900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>426400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>529000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>684000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>603300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>509000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>526400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1202600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>410100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>337100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>411300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>458100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>516900</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3153300</v>
+        <v>3284500</v>
       </c>
       <c r="E60" s="3">
-        <v>3496200</v>
+        <v>2899700</v>
       </c>
       <c r="F60" s="3">
-        <v>3422900</v>
+        <v>3215000</v>
       </c>
       <c r="G60" s="3">
-        <v>3310900</v>
+        <v>3147600</v>
       </c>
       <c r="H60" s="3">
-        <v>4099100</v>
+        <v>3044600</v>
       </c>
       <c r="I60" s="3">
-        <v>3573600</v>
+        <v>3769400</v>
       </c>
       <c r="J60" s="3">
+        <v>3286200</v>
+      </c>
+      <c r="K60" s="3">
         <v>3597000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3801800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4045200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4040900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3315500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3201600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3335200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3860100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2657800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1982800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2101200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2109200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2081900</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2847500</v>
+        <v>2718500</v>
       </c>
       <c r="E61" s="3">
-        <v>2986300</v>
+        <v>2618500</v>
       </c>
       <c r="F61" s="3">
-        <v>3114100</v>
+        <v>2746100</v>
       </c>
       <c r="G61" s="3">
-        <v>3201000</v>
+        <v>2863600</v>
       </c>
       <c r="H61" s="3">
-        <v>2562500</v>
+        <v>2943500</v>
       </c>
       <c r="I61" s="3">
-        <v>2269700</v>
+        <v>2356400</v>
       </c>
       <c r="J61" s="3">
+        <v>2087200</v>
+      </c>
+      <c r="K61" s="3">
         <v>2405400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2153000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1195400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1054000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>806700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>959300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>948900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1043500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>356300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>368600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>415900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>550400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>420300</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4172600</v>
+        <v>2727600</v>
       </c>
       <c r="E62" s="3">
-        <v>3984500</v>
+        <v>3837100</v>
       </c>
       <c r="F62" s="3">
-        <v>4171400</v>
+        <v>3664100</v>
       </c>
       <c r="G62" s="3">
-        <v>3993400</v>
+        <v>3835900</v>
       </c>
       <c r="H62" s="3">
-        <v>4418800</v>
+        <v>3672300</v>
       </c>
       <c r="I62" s="3">
-        <v>3824000</v>
+        <v>4063400</v>
       </c>
       <c r="J62" s="3">
+        <v>3516400</v>
+      </c>
+      <c r="K62" s="3">
         <v>3912800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3455400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3278400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3547300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2811300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2795200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3056100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3561200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2735700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2775600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2844800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2661200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>2833800</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10529500</v>
+        <v>9133200</v>
       </c>
       <c r="E66" s="3">
-        <v>10847900</v>
+        <v>9682600</v>
       </c>
       <c r="F66" s="3">
-        <v>11077000</v>
+        <v>9975500</v>
       </c>
       <c r="G66" s="3">
-        <v>10894000</v>
+        <v>10186100</v>
       </c>
       <c r="H66" s="3">
-        <v>11556800</v>
+        <v>10017900</v>
       </c>
       <c r="I66" s="3">
-        <v>10166600</v>
+        <v>10627400</v>
       </c>
       <c r="J66" s="3">
+        <v>9348900</v>
+      </c>
+      <c r="K66" s="3">
         <v>10441200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9925000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9051500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8925000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7391100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7415000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7870700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>8828100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6353700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5731300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6081600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6027600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>6016400</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6435500</v>
+        <v>5739200</v>
       </c>
       <c r="E72" s="3">
-        <v>6262100</v>
+        <v>5917900</v>
       </c>
       <c r="F72" s="3">
-        <v>5953600</v>
+        <v>5758500</v>
       </c>
       <c r="G72" s="3">
-        <v>5980300</v>
+        <v>5474800</v>
       </c>
       <c r="H72" s="3">
-        <v>6130400</v>
+        <v>5499400</v>
       </c>
       <c r="I72" s="3">
-        <v>6348400</v>
+        <v>5637400</v>
       </c>
       <c r="J72" s="3">
+        <v>5837800</v>
+      </c>
+      <c r="K72" s="3">
         <v>6405600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6299500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6466900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>6443600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5915000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>5838300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>6351300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>6534600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>6130800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>5895000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>6408300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>6190900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>6060300</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8996300</v>
+        <v>8622900</v>
       </c>
       <c r="E76" s="3">
-        <v>8940200</v>
+        <v>8272800</v>
       </c>
       <c r="F76" s="3">
-        <v>8886500</v>
+        <v>8221200</v>
       </c>
       <c r="G76" s="3">
-        <v>9103200</v>
+        <v>8171800</v>
       </c>
       <c r="H76" s="3">
-        <v>10015500</v>
+        <v>8371100</v>
       </c>
       <c r="I76" s="3">
-        <v>9620700</v>
+        <v>9210000</v>
       </c>
       <c r="J76" s="3">
+        <v>8847000</v>
+      </c>
+      <c r="K76" s="3">
         <v>9661900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9382700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9587900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9682200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8492100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8457800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>9355400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>10077300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>9574000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>9534500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>10474600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>10099100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>9355600</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>173400</v>
+        <v>286100</v>
       </c>
       <c r="E81" s="3">
-        <v>617000</v>
+        <v>159500</v>
       </c>
       <c r="F81" s="3">
-        <v>-26700</v>
+        <v>567300</v>
       </c>
       <c r="G81" s="3">
-        <v>-150200</v>
+        <v>-24600</v>
       </c>
       <c r="H81" s="3">
-        <v>-218000</v>
+        <v>-138100</v>
       </c>
       <c r="I81" s="3">
-        <v>-57300</v>
+        <v>-200400</v>
       </c>
       <c r="J81" s="3">
+        <v>-52700</v>
+      </c>
+      <c r="K81" s="3">
         <v>-151500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-9800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-78200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>76800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>215600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>226900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>405100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>235900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>171800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>217300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>130700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>133800</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5018,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>225800</v>
+        <v>209400</v>
       </c>
       <c r="E83" s="3">
-        <v>483000</v>
+        <v>207600</v>
       </c>
       <c r="F83" s="3">
-        <v>251000</v>
+        <v>444200</v>
       </c>
       <c r="G83" s="3">
-        <v>476100</v>
+        <v>230800</v>
       </c>
       <c r="H83" s="3">
-        <v>264700</v>
+        <v>437900</v>
       </c>
       <c r="I83" s="3">
-        <v>366500</v>
+        <v>243400</v>
       </c>
       <c r="J83" s="3">
+        <v>337000</v>
+      </c>
+      <c r="K83" s="3">
         <v>269100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>243500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>237500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>193900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>189400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>193300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>207100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>228100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>168000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>160800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>166700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>197300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>174500</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-65500</v>
+        <v>723600</v>
       </c>
       <c r="E89" s="3">
-        <v>655200</v>
+        <v>-60200</v>
       </c>
       <c r="F89" s="3">
-        <v>543900</v>
+        <v>602500</v>
       </c>
       <c r="G89" s="3">
-        <v>263600</v>
+        <v>500200</v>
       </c>
       <c r="H89" s="3">
-        <v>163900</v>
+        <v>242400</v>
       </c>
       <c r="I89" s="3">
-        <v>683600</v>
+        <v>150700</v>
       </c>
       <c r="J89" s="3">
+        <v>628700</v>
+      </c>
+      <c r="K89" s="3">
         <v>420200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>300600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>88200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>106500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>263300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>155300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>215800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>740900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>341600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>501400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>82400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>523700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>284800</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-122400</v>
+        <v>-151500</v>
       </c>
       <c r="E91" s="3">
-        <v>-251700</v>
+        <v>-112600</v>
       </c>
       <c r="F91" s="3">
-        <v>-173100</v>
+        <v>-231400</v>
       </c>
       <c r="G91" s="3">
-        <v>-169300</v>
+        <v>-187700</v>
       </c>
       <c r="H91" s="3">
-        <v>-162600</v>
+        <v>-127200</v>
       </c>
       <c r="I91" s="3">
-        <v>-348200</v>
+        <v>-149500</v>
       </c>
       <c r="J91" s="3">
+        <v>-320200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-237200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-258000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-184600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-284000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-183700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-157200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-148500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-353000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-173800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-156300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-172100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-315900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-198600</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-156200</v>
+        <v>100800</v>
       </c>
       <c r="E94" s="3">
-        <v>-24900</v>
+        <v>-143700</v>
       </c>
       <c r="F94" s="3">
-        <v>-174600</v>
+        <v>-22900</v>
       </c>
       <c r="G94" s="3">
-        <v>-571300</v>
+        <v>-186800</v>
       </c>
       <c r="H94" s="3">
-        <v>-231100</v>
+        <v>-499200</v>
       </c>
       <c r="I94" s="3">
-        <v>-352300</v>
+        <v>-212500</v>
       </c>
       <c r="J94" s="3">
+        <v>-324000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-234000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-310700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-182800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-292200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-154800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-165900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-159600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1571400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>220100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-244300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-80900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-331100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-397400</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,19 +5783,20 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-283800</v>
       </c>
       <c r="E96" s="3">
-        <v>-316300</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-290900</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -5571,49 +5805,52 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-11000</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-10100</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-295800</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-2500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1900</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-366300</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-8700</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-42700</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-303900</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-14300</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,190 +6041,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-59800</v>
+        <v>-294400</v>
       </c>
       <c r="E100" s="3">
-        <v>-574400</v>
+        <v>-55000</v>
       </c>
       <c r="F100" s="3">
-        <v>-88800</v>
+        <v>-528200</v>
       </c>
       <c r="G100" s="3">
-        <v>792600</v>
+        <v>-83800</v>
       </c>
       <c r="H100" s="3">
+        <v>730900</v>
+      </c>
+      <c r="I100" s="3">
         <v>-700</v>
       </c>
-      <c r="I100" s="3">
-        <v>-116700</v>
-      </c>
       <c r="J100" s="3">
+        <v>-107400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-208300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>531200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>115200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>45700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>22200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-344300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-292100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>101800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>602000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-283600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>26000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-212400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-22300</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-34500</v>
+        <v>38300</v>
       </c>
       <c r="E101" s="3">
-        <v>-38800</v>
+        <v>-31800</v>
       </c>
       <c r="F101" s="3">
-        <v>-26500</v>
+        <v>-35600</v>
       </c>
       <c r="G101" s="3">
-        <v>-113400</v>
+        <v>-24300</v>
       </c>
       <c r="H101" s="3">
-        <v>69400</v>
+        <v>-104300</v>
       </c>
       <c r="I101" s="3">
-        <v>-9400</v>
+        <v>63900</v>
       </c>
       <c r="J101" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="K101" s="3">
         <v>21100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-8800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>44000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-11700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-22400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-30700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>31000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-22000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-12900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>9000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>30300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-21500</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-316100</v>
+        <v>568300</v>
       </c>
       <c r="E102" s="3">
-        <v>17200</v>
+        <v>-290600</v>
       </c>
       <c r="F102" s="3">
-        <v>254000</v>
+        <v>15800</v>
       </c>
       <c r="G102" s="3">
-        <v>388200</v>
+        <v>233500</v>
       </c>
       <c r="H102" s="3">
-        <v>-15200</v>
+        <v>356900</v>
       </c>
       <c r="I102" s="3">
-        <v>205200</v>
+        <v>-13900</v>
       </c>
       <c r="J102" s="3">
+        <v>188700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>519300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>11800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-96000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>119100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-377400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-266600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-697600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1141700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-39400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>36500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>10500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-156300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NHYDY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NHYDY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>NHYDY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3825000</v>
+        <v>4073300</v>
       </c>
       <c r="E8" s="3">
-        <v>3536300</v>
+        <v>3834700</v>
       </c>
       <c r="F8" s="3">
-        <v>1335600</v>
+        <v>3545300</v>
       </c>
       <c r="G8" s="3">
-        <v>3671100</v>
+        <v>1339000</v>
       </c>
       <c r="H8" s="3">
-        <v>2805000</v>
+        <v>3053200</v>
       </c>
       <c r="I8" s="3">
-        <v>3498500</v>
+        <v>2812100</v>
       </c>
       <c r="J8" s="3">
+        <v>3507300</v>
+      </c>
+      <c r="K8" s="3">
         <v>3928000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4515500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4529900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4254800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4330700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4068100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4220300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4336500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4493100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2639900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2847400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2839100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2620100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2487500</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2347900</v>
+        <v>2629900</v>
       </c>
       <c r="E9" s="3">
-        <v>2116900</v>
+        <v>2353800</v>
       </c>
       <c r="F9" s="3">
-        <v>668700</v>
+        <v>2122200</v>
       </c>
       <c r="G9" s="3">
-        <v>2239700</v>
+        <v>670400</v>
       </c>
       <c r="H9" s="3">
-        <v>1752200</v>
+        <v>1835900</v>
       </c>
       <c r="I9" s="3">
-        <v>2069800</v>
+        <v>1756600</v>
       </c>
       <c r="J9" s="3">
+        <v>2075100</v>
+      </c>
+      <c r="K9" s="3">
         <v>2471300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2899500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2997100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2845600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2839000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2625700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2710500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2733500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2826500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1710000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1835000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1827600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1651100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1588800</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1477100</v>
+        <v>1443500</v>
       </c>
       <c r="E10" s="3">
-        <v>1419500</v>
+        <v>1480900</v>
       </c>
       <c r="F10" s="3">
-        <v>666800</v>
+        <v>1423100</v>
       </c>
       <c r="G10" s="3">
-        <v>1431400</v>
+        <v>668500</v>
       </c>
       <c r="H10" s="3">
-        <v>1052800</v>
+        <v>1217200</v>
       </c>
       <c r="I10" s="3">
-        <v>1428700</v>
+        <v>1055500</v>
       </c>
       <c r="J10" s="3">
+        <v>1432300</v>
+      </c>
+      <c r="K10" s="3">
         <v>1456800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1616100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1532800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1409100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1491700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1442300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1509700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1602900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1666600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>929900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1012400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1011600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>969000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>898600</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,34 +1124,37 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E14" s="3">
         <v>800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>13500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>7000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>8300</v>
       </c>
-      <c r="H14" s="3">
-        <v>202400</v>
-      </c>
       <c r="I14" s="3">
+        <v>202900</v>
+      </c>
+      <c r="J14" s="3">
         <v>1300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>100900</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1151,11 +1171,11 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
@@ -1172,73 +1192,79 @@
       <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>208600</v>
+        <v>231700</v>
       </c>
       <c r="E15" s="3">
-        <v>194100</v>
+        <v>209200</v>
       </c>
       <c r="F15" s="3">
-        <v>94200</v>
+        <v>194600</v>
       </c>
       <c r="G15" s="3">
-        <v>222500</v>
+        <v>94400</v>
       </c>
       <c r="H15" s="3">
-        <v>201400</v>
+        <v>189900</v>
       </c>
       <c r="I15" s="3">
-        <v>209800</v>
+        <v>201900</v>
       </c>
       <c r="J15" s="3">
+        <v>210400</v>
+      </c>
+      <c r="K15" s="3">
         <v>236000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>269100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>243400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>237500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>193900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>189400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>193400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>207100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>228100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>167900</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>160800</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>166700</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>197200</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>174600</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3489200</v>
+        <v>3792300</v>
       </c>
       <c r="E17" s="3">
-        <v>3289200</v>
+        <v>3498000</v>
       </c>
       <c r="F17" s="3">
-        <v>572500</v>
+        <v>3297500</v>
       </c>
       <c r="G17" s="3">
-        <v>3469500</v>
+        <v>574000</v>
       </c>
       <c r="H17" s="3">
-        <v>2980700</v>
+        <v>2843100</v>
       </c>
       <c r="I17" s="3">
-        <v>3251900</v>
+        <v>2988300</v>
       </c>
       <c r="J17" s="3">
+        <v>3260100</v>
+      </c>
+      <c r="K17" s="3">
         <v>3972200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4488800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4454100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4252500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4310600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3857600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3914800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3978300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3970800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2370900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2506300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2542000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2378000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2317800</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>335800</v>
+        <v>281100</v>
       </c>
       <c r="E18" s="3">
-        <v>247100</v>
+        <v>336700</v>
       </c>
       <c r="F18" s="3">
-        <v>763000</v>
+        <v>247800</v>
       </c>
       <c r="G18" s="3">
-        <v>201700</v>
+        <v>765000</v>
       </c>
       <c r="H18" s="3">
-        <v>-175800</v>
+        <v>210000</v>
       </c>
       <c r="I18" s="3">
-        <v>246600</v>
+        <v>-176200</v>
       </c>
       <c r="J18" s="3">
+        <v>247200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-44200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>26700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>75900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>20100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>210400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>305500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>358100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>522300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>269000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>341100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>297200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>242200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>169700</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,333 +1447,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>63500</v>
+        <v>-73100</v>
       </c>
       <c r="E20" s="3">
-        <v>73200</v>
+        <v>63700</v>
       </c>
       <c r="F20" s="3">
-        <v>197000</v>
+        <v>73300</v>
       </c>
       <c r="G20" s="3">
-        <v>-168600</v>
+        <v>197500</v>
       </c>
       <c r="H20" s="3">
-        <v>68500</v>
+        <v>-166400</v>
       </c>
       <c r="I20" s="3">
-        <v>-466000</v>
+        <v>68700</v>
       </c>
       <c r="J20" s="3">
+        <v>-467100</v>
+      </c>
+      <c r="K20" s="3">
         <v>52700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-170700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-51800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>20800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-51000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-27200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-30000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-38200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-77500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>60900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-102800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>27100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-3800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>44600</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>608700</v>
+        <v>441200</v>
       </c>
       <c r="E21" s="3">
-        <v>527900</v>
+        <v>610300</v>
       </c>
       <c r="F21" s="3">
-        <v>1404200</v>
+        <v>529300</v>
       </c>
       <c r="G21" s="3">
-        <v>329900</v>
+        <v>1507300</v>
       </c>
       <c r="H21" s="3">
-        <v>296600</v>
+        <v>241700</v>
       </c>
       <c r="I21" s="3">
+        <v>297400</v>
+      </c>
+      <c r="J21" s="3">
         <v>-8100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>345500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>125200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>267600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>260600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>163000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>372600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>468800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>527000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>673000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>497900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>399100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>491000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>435600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>388800</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>28200</v>
+      </c>
+      <c r="E22" s="3">
+        <v>24300</v>
+      </c>
+      <c r="F22" s="3">
+        <v>26300</v>
+      </c>
+      <c r="G22" s="3">
+        <v>28100</v>
+      </c>
+      <c r="H22" s="3">
+        <v>29000</v>
+      </c>
+      <c r="I22" s="3">
+        <v>25600</v>
+      </c>
+      <c r="J22" s="3">
         <v>24200</v>
       </c>
-      <c r="E22" s="3">
-        <v>26200</v>
-      </c>
-      <c r="F22" s="3">
-        <v>28000</v>
-      </c>
-      <c r="G22" s="3">
-        <v>29200</v>
-      </c>
-      <c r="H22" s="3">
-        <v>25600</v>
-      </c>
-      <c r="I22" s="3">
-        <v>24100</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>27000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>25400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>25000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>20200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>30300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>16100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>15100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>13300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>12400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>4700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>8200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>10400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>13400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>375100</v>
+        <v>179800</v>
       </c>
       <c r="E23" s="3">
-        <v>294100</v>
+        <v>376000</v>
       </c>
       <c r="F23" s="3">
-        <v>932000</v>
+        <v>294800</v>
       </c>
       <c r="G23" s="3">
-        <v>3900</v>
+        <v>934400</v>
       </c>
       <c r="H23" s="3">
-        <v>-132800</v>
+        <v>14600</v>
       </c>
       <c r="I23" s="3">
-        <v>-243500</v>
+        <v>-133200</v>
       </c>
       <c r="J23" s="3">
+        <v>-244100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-18500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-169300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-61300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>167200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>260400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>306600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>432500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>325100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>230100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>313900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>224900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>208700</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>109800</v>
+        <v>54800</v>
       </c>
       <c r="E24" s="3">
-        <v>85900</v>
+        <v>110100</v>
       </c>
       <c r="F24" s="3">
-        <v>90500</v>
+        <v>86100</v>
       </c>
       <c r="G24" s="3">
-        <v>28300</v>
+        <v>90800</v>
       </c>
       <c r="H24" s="3">
+        <v>26900</v>
+      </c>
+      <c r="I24" s="3">
         <v>31800</v>
       </c>
-      <c r="I24" s="3">
-        <v>-50600</v>
-      </c>
       <c r="J24" s="3">
+        <v>-50700</v>
+      </c>
+      <c r="K24" s="3">
         <v>55000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>21200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>17000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>23500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>72600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>48400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>81300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>15600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>72300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>49100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>87200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>100500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>70800</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>265300</v>
+        <v>124900</v>
       </c>
       <c r="E26" s="3">
-        <v>208200</v>
+        <v>266000</v>
       </c>
       <c r="F26" s="3">
-        <v>841500</v>
+        <v>208700</v>
       </c>
       <c r="G26" s="3">
-        <v>-24500</v>
+        <v>843600</v>
       </c>
       <c r="H26" s="3">
-        <v>-164600</v>
+        <v>-12200</v>
       </c>
       <c r="I26" s="3">
-        <v>-192900</v>
+        <v>-165000</v>
       </c>
       <c r="J26" s="3">
+        <v>-193400</v>
+      </c>
+      <c r="K26" s="3">
         <v>-73500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-167400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-22100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-14000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-84700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>94500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>212000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>225300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>416800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>252900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>181000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>226700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>124400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>138000</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>241100</v>
+        <v>114100</v>
       </c>
       <c r="E27" s="3">
-        <v>201500</v>
+        <v>241700</v>
       </c>
       <c r="F27" s="3">
-        <v>813700</v>
+        <v>202100</v>
       </c>
       <c r="G27" s="3">
-        <v>-24600</v>
+        <v>815800</v>
       </c>
       <c r="H27" s="3">
-        <v>-139900</v>
+        <v>-12400</v>
       </c>
       <c r="I27" s="3">
-        <v>-169200</v>
+        <v>-140300</v>
       </c>
       <c r="J27" s="3">
+        <v>-169700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-52700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-151500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-9800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-78200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>76800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>215600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>226900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>405100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>235900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>171800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>217300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>130700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>133800</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,37 +2057,40 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>45000</v>
+        <v>-2100</v>
       </c>
       <c r="E29" s="3">
-        <v>-42100</v>
+        <v>45200</v>
       </c>
       <c r="F29" s="3">
-        <v>-246400</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
+        <v>-42200</v>
+      </c>
+      <c r="G29" s="3">
+        <v>-247000</v>
       </c>
       <c r="H29" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="I29" s="3">
         <v>1800</v>
       </c>
-      <c r="I29" s="3">
-        <v>-31200</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="J29" s="3">
+        <v>-31300</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-63500</v>
+        <v>73100</v>
       </c>
       <c r="E32" s="3">
-        <v>-73200</v>
+        <v>-63700</v>
       </c>
       <c r="F32" s="3">
-        <v>-197000</v>
+        <v>-73300</v>
       </c>
       <c r="G32" s="3">
-        <v>168600</v>
+        <v>-197500</v>
       </c>
       <c r="H32" s="3">
-        <v>-68500</v>
+        <v>166400</v>
       </c>
       <c r="I32" s="3">
-        <v>466000</v>
+        <v>-68700</v>
       </c>
       <c r="J32" s="3">
+        <v>467100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-52700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>170700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>51800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-20800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>51000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>27200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>30000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>38200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>77500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-60900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>102800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-27100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>3800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-44600</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>286100</v>
+        <v>112000</v>
       </c>
       <c r="E33" s="3">
-        <v>159500</v>
+        <v>286800</v>
       </c>
       <c r="F33" s="3">
-        <v>567300</v>
+        <v>159900</v>
       </c>
       <c r="G33" s="3">
-        <v>-24600</v>
+        <v>568800</v>
       </c>
       <c r="H33" s="3">
-        <v>-138100</v>
+        <v>-24700</v>
       </c>
       <c r="I33" s="3">
-        <v>-200400</v>
+        <v>-138500</v>
       </c>
       <c r="J33" s="3">
+        <v>-200900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-52700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-151500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-9800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-78200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>76800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>215600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>226900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>405100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>235900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>171800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>217300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>130700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>133800</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>286100</v>
+        <v>112000</v>
       </c>
       <c r="E35" s="3">
-        <v>159500</v>
+        <v>286800</v>
       </c>
       <c r="F35" s="3">
-        <v>567300</v>
+        <v>159900</v>
       </c>
       <c r="G35" s="3">
-        <v>-24600</v>
+        <v>568800</v>
       </c>
       <c r="H35" s="3">
-        <v>-138100</v>
+        <v>-24700</v>
       </c>
       <c r="I35" s="3">
-        <v>-200400</v>
+        <v>-138500</v>
       </c>
       <c r="J35" s="3">
+        <v>-200900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-52700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-151500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-9800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-78200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>76800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>215600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>226900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>405100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>235900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>171800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>217300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>130700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>133800</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,268 +2660,281 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2229900</v>
+        <v>2085200</v>
       </c>
       <c r="E41" s="3">
-        <v>1661400</v>
+        <v>2235500</v>
       </c>
       <c r="F41" s="3">
-        <v>1952200</v>
+        <v>1665600</v>
       </c>
       <c r="G41" s="3">
-        <v>1936300</v>
+        <v>1957100</v>
       </c>
       <c r="H41" s="3">
-        <v>1702800</v>
+        <v>1941200</v>
       </c>
       <c r="I41" s="3">
-        <v>1345900</v>
+        <v>1707100</v>
       </c>
       <c r="J41" s="3">
+        <v>1349300</v>
+      </c>
+      <c r="K41" s="3">
         <v>1359800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1273500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1224500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>690500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>676400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>700300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>581300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1016700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1369600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2067200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>925500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1027500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>991000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>980500</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>472200</v>
+        <v>873700</v>
       </c>
       <c r="E42" s="3">
-        <v>517500</v>
+        <v>473400</v>
       </c>
       <c r="F42" s="3">
-        <v>504800</v>
+        <v>518800</v>
       </c>
       <c r="G42" s="3">
-        <v>658800</v>
+        <v>506100</v>
       </c>
       <c r="H42" s="3">
-        <v>641600</v>
+        <v>660400</v>
       </c>
       <c r="I42" s="3">
-        <v>305500</v>
+        <v>643200</v>
       </c>
       <c r="J42" s="3">
+        <v>306200</v>
+      </c>
+      <c r="K42" s="3">
         <v>177500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>196100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>180500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>183700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>200400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>195800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>216300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>200600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>244200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>259400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>600500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>580000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>624900</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>572400</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2195700</v>
+        <v>2204700</v>
       </c>
       <c r="E43" s="3">
-        <v>1858900</v>
+        <v>2201200</v>
       </c>
       <c r="F43" s="3">
-        <v>2032500</v>
+        <v>1863600</v>
       </c>
       <c r="G43" s="3">
-        <v>2243300</v>
+        <v>2037700</v>
       </c>
       <c r="H43" s="3">
-        <v>2093600</v>
+        <v>2248900</v>
       </c>
       <c r="I43" s="3">
-        <v>2716000</v>
+        <v>2098900</v>
       </c>
       <c r="J43" s="3">
+        <v>2722800</v>
+      </c>
+      <c r="K43" s="3">
         <v>2098400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2769100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2681000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2665200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2340300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2222700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2398100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2471900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2313800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1523300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1559100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1584500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1342000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1417300</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1821100</v>
+        <v>2104500</v>
       </c>
       <c r="E44" s="3">
-        <v>1584500</v>
+        <v>1825700</v>
       </c>
       <c r="F44" s="3">
-        <v>2157400</v>
+        <v>1588500</v>
       </c>
       <c r="G44" s="3">
-        <v>2134800</v>
+        <v>2162800</v>
       </c>
       <c r="H44" s="3">
-        <v>2255900</v>
+        <v>2140200</v>
       </c>
       <c r="I44" s="3">
-        <v>2486300</v>
+        <v>2261600</v>
       </c>
       <c r="J44" s="3">
+        <v>2492600</v>
+      </c>
+      <c r="K44" s="3">
         <v>2303900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2609300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2626900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2830700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2987800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2446600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2285100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2237700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2398100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1573000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1498300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1548300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1526600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1420000</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2848,11 +2947,11 @@
       <c r="F45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G45" s="3">
+      <c r="G45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" s="3">
         <v>100</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>8</v>
@@ -2860,11 +2959,11 @@
       <c r="J45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K45" s="3">
+      <c r="K45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L45" s="3">
         <v>100</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>8</v>
@@ -2881,8 +2980,8 @@
       <c r="Q45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
+      <c r="R45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
@@ -2890,277 +2989,292 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-      <c r="U45" s="3" t="s">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>100</v>
       </c>
-      <c r="W45" s="3" t="s">
+      <c r="X45" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6718800</v>
+        <v>7268000</v>
       </c>
       <c r="E46" s="3">
-        <v>5622300</v>
+        <v>6735800</v>
       </c>
       <c r="F46" s="3">
-        <v>6646900</v>
+        <v>5636500</v>
       </c>
       <c r="G46" s="3">
-        <v>6973300</v>
+        <v>6663700</v>
       </c>
       <c r="H46" s="3">
-        <v>6693900</v>
+        <v>6990900</v>
       </c>
       <c r="I46" s="3">
-        <v>6853600</v>
+        <v>6710900</v>
       </c>
       <c r="J46" s="3">
+        <v>6871000</v>
+      </c>
+      <c r="K46" s="3">
         <v>5939600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6848100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6712900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6370100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6204900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5565400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5480700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5926900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>6325700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5422900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4583400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4740300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4484500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>4390100</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1928700</v>
+        <v>1959700</v>
       </c>
       <c r="E47" s="3">
-        <v>1906700</v>
+        <v>1933600</v>
       </c>
       <c r="F47" s="3">
-        <v>1913400</v>
+        <v>1911500</v>
       </c>
       <c r="G47" s="3">
-        <v>1333500</v>
+        <v>1918300</v>
       </c>
       <c r="H47" s="3">
-        <v>1396700</v>
+        <v>1336800</v>
       </c>
       <c r="I47" s="3">
-        <v>1532400</v>
+        <v>1400200</v>
       </c>
       <c r="J47" s="3">
+        <v>1536200</v>
+      </c>
+      <c r="K47" s="3">
         <v>1272900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1421300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1264500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1284800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1305300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1134900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1139600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1144700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1299300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2104800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2176900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2458200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2442200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>2383800</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6237200</v>
+        <v>6063100</v>
       </c>
       <c r="E48" s="3">
-        <v>5964500</v>
+        <v>6252900</v>
       </c>
       <c r="F48" s="3">
-        <v>7110600</v>
+        <v>5979600</v>
       </c>
       <c r="G48" s="3">
-        <v>7599000</v>
+        <v>7128600</v>
       </c>
       <c r="H48" s="3">
-        <v>7800500</v>
+        <v>7618200</v>
       </c>
       <c r="I48" s="3">
-        <v>8623000</v>
+        <v>7820200</v>
       </c>
       <c r="J48" s="3">
+        <v>8644800</v>
+      </c>
+      <c r="K48" s="3">
         <v>8217200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8909600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>8463300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>8251000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>8390300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6777500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6821700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>7588300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>8444900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>6542100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>6670700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>7352000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>7241900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>6716900</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1015400</v>
+        <v>982200</v>
       </c>
       <c r="E49" s="3">
-        <v>973500</v>
+        <v>1017900</v>
       </c>
       <c r="F49" s="3">
-        <v>1035600</v>
+        <v>976000</v>
       </c>
       <c r="G49" s="3">
-        <v>1096100</v>
+        <v>1038300</v>
       </c>
       <c r="H49" s="3">
-        <v>1135800</v>
+        <v>1098800</v>
       </c>
       <c r="I49" s="3">
-        <v>1400000</v>
+        <v>1138700</v>
       </c>
       <c r="J49" s="3">
+        <v>1403500</v>
+      </c>
+      <c r="K49" s="3">
         <v>1272900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1407600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1328000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1260400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1291000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1094100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1192800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1316300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1471900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>628400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>645800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>729800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>716500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>674300</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1856000</v>
+        <v>2028100</v>
       </c>
       <c r="E52" s="3">
-        <v>3488300</v>
+        <v>1860700</v>
       </c>
       <c r="F52" s="3">
-        <v>1490100</v>
+        <v>3497100</v>
       </c>
       <c r="G52" s="3">
-        <v>1356200</v>
+        <v>1493900</v>
       </c>
       <c r="H52" s="3">
-        <v>1362000</v>
+        <v>1359600</v>
       </c>
       <c r="I52" s="3">
-        <v>1428400</v>
+        <v>1365500</v>
       </c>
       <c r="J52" s="3">
+        <v>1432000</v>
+      </c>
+      <c r="K52" s="3">
         <v>1493200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1516400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1538900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1473100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1415700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1311300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1237900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1249900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1550800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1229500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1189000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1275900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1241600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1207000</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>17756100</v>
+        <v>18301100</v>
       </c>
       <c r="E54" s="3">
-        <v>17955400</v>
+        <v>17801000</v>
       </c>
       <c r="F54" s="3">
-        <v>18196700</v>
+        <v>18000800</v>
       </c>
       <c r="G54" s="3">
-        <v>18357900</v>
+        <v>18242700</v>
       </c>
       <c r="H54" s="3">
-        <v>18388900</v>
+        <v>18404400</v>
       </c>
       <c r="I54" s="3">
-        <v>19837400</v>
+        <v>18435400</v>
       </c>
       <c r="J54" s="3">
+        <v>19887600</v>
+      </c>
+      <c r="K54" s="3">
         <v>18195900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>20103100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>19307700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>18639300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>18607200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>15883200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>15872800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>17226200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>18905400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>15927700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>15265800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>16556200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>16126800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>15372100</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,398 +3664,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2247000</v>
+        <v>2243500</v>
       </c>
       <c r="E57" s="3">
-        <v>1932700</v>
+        <v>2252700</v>
       </c>
       <c r="F57" s="3">
-        <v>2097200</v>
+        <v>1937600</v>
       </c>
       <c r="G57" s="3">
-        <v>1977300</v>
+        <v>2102500</v>
       </c>
       <c r="H57" s="3">
-        <v>1847600</v>
+        <v>1982300</v>
       </c>
       <c r="I57" s="3">
-        <v>2386000</v>
+        <v>1852300</v>
       </c>
       <c r="J57" s="3">
+        <v>2392100</v>
+      </c>
+      <c r="K57" s="3">
         <v>2068800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2373000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2429800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2507100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2299400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2036400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2184200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2237200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2266100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1198100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1212600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1260600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1246300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1125900</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>463000</v>
+        <v>464500</v>
       </c>
       <c r="E58" s="3">
-        <v>520300</v>
+        <v>464100</v>
       </c>
       <c r="F58" s="3">
-        <v>525500</v>
+        <v>521600</v>
       </c>
       <c r="G58" s="3">
-        <v>765400</v>
+        <v>526800</v>
       </c>
       <c r="H58" s="3">
-        <v>785200</v>
+        <v>767300</v>
       </c>
       <c r="I58" s="3">
-        <v>855300</v>
+        <v>787200</v>
       </c>
       <c r="J58" s="3">
+        <v>857500</v>
+      </c>
+      <c r="K58" s="3">
         <v>681500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>731100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>945500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1009000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1057500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>675900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>508300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>571600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>954700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1049600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>433200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>429200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>404800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>439200</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>574500</v>
+        <v>783200</v>
       </c>
       <c r="E59" s="3">
-        <v>446700</v>
+        <v>576000</v>
       </c>
       <c r="F59" s="3">
-        <v>592400</v>
+        <v>447800</v>
       </c>
       <c r="G59" s="3">
-        <v>405000</v>
+        <v>593900</v>
       </c>
       <c r="H59" s="3">
-        <v>411800</v>
+        <v>406000</v>
       </c>
       <c r="I59" s="3">
-        <v>528100</v>
+        <v>412900</v>
       </c>
       <c r="J59" s="3">
+        <v>529400</v>
+      </c>
+      <c r="K59" s="3">
         <v>535900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>492900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>426400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>529000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>684000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>603300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>509000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>526400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1202600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>410100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>337100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>411300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>458100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>516900</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3284500</v>
+        <v>3491100</v>
       </c>
       <c r="E60" s="3">
-        <v>2899700</v>
+        <v>3292800</v>
       </c>
       <c r="F60" s="3">
-        <v>3215000</v>
+        <v>2907000</v>
       </c>
       <c r="G60" s="3">
-        <v>3147600</v>
+        <v>3223200</v>
       </c>
       <c r="H60" s="3">
-        <v>3044600</v>
+        <v>3155600</v>
       </c>
       <c r="I60" s="3">
-        <v>3769400</v>
+        <v>3052300</v>
       </c>
       <c r="J60" s="3">
+        <v>3779000</v>
+      </c>
+      <c r="K60" s="3">
         <v>3286200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3597000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3801800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4045200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4040900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3315500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3201600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3335200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3860100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2657800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1982800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2101200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2109200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2081900</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2718500</v>
+        <v>2828900</v>
       </c>
       <c r="E61" s="3">
-        <v>2618500</v>
+        <v>2725400</v>
       </c>
       <c r="F61" s="3">
-        <v>2746100</v>
+        <v>2625100</v>
       </c>
       <c r="G61" s="3">
-        <v>2863600</v>
+        <v>2753000</v>
       </c>
       <c r="H61" s="3">
-        <v>2943500</v>
+        <v>2870900</v>
       </c>
       <c r="I61" s="3">
-        <v>2356400</v>
+        <v>2951000</v>
       </c>
       <c r="J61" s="3">
+        <v>2362300</v>
+      </c>
+      <c r="K61" s="3">
         <v>2087200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2405400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2153000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1195400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1054000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>806700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>959300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>948900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1043500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>356300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>368600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>415900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>550400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>420300</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2727600</v>
+        <v>2998100</v>
       </c>
       <c r="E62" s="3">
-        <v>3837100</v>
+        <v>2734500</v>
       </c>
       <c r="F62" s="3">
-        <v>3664100</v>
+        <v>3846800</v>
       </c>
       <c r="G62" s="3">
-        <v>3835900</v>
+        <v>3673300</v>
       </c>
       <c r="H62" s="3">
-        <v>3672300</v>
+        <v>3845700</v>
       </c>
       <c r="I62" s="3">
-        <v>4063400</v>
+        <v>3681500</v>
       </c>
       <c r="J62" s="3">
+        <v>4073700</v>
+      </c>
+      <c r="K62" s="3">
         <v>3516400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3912800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3455400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3278400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3547300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2811300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2795200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3056100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3561200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2735700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2775600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2844800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>2661200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>2833800</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9133200</v>
+        <v>9697800</v>
       </c>
       <c r="E66" s="3">
-        <v>9682600</v>
+        <v>9156300</v>
       </c>
       <c r="F66" s="3">
-        <v>9975500</v>
+        <v>9707100</v>
       </c>
       <c r="G66" s="3">
-        <v>10186100</v>
+        <v>10000700</v>
       </c>
       <c r="H66" s="3">
-        <v>10017900</v>
+        <v>10211900</v>
       </c>
       <c r="I66" s="3">
-        <v>10627400</v>
+        <v>10043200</v>
       </c>
       <c r="J66" s="3">
+        <v>10654300</v>
+      </c>
+      <c r="K66" s="3">
         <v>9348900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10441200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9925000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9051500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8925000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7391100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7415000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7870700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>8828100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6353700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5731300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6081600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>6027600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>6016400</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5739200</v>
+        <v>5865700</v>
       </c>
       <c r="E72" s="3">
-        <v>5917900</v>
+        <v>5753700</v>
       </c>
       <c r="F72" s="3">
-        <v>5758500</v>
+        <v>5932900</v>
       </c>
       <c r="G72" s="3">
-        <v>5474800</v>
+        <v>5773000</v>
       </c>
       <c r="H72" s="3">
-        <v>5499400</v>
+        <v>5488600</v>
       </c>
       <c r="I72" s="3">
-        <v>5637400</v>
+        <v>5513300</v>
       </c>
       <c r="J72" s="3">
+        <v>5651600</v>
+      </c>
+      <c r="K72" s="3">
         <v>5837800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6405600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6299500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>6466900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>6443600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>5915000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>5838300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>6351300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>6534600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>6130800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>5895000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>6408300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>6190900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>6060300</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8622900</v>
+        <v>8603300</v>
       </c>
       <c r="E76" s="3">
-        <v>8272800</v>
+        <v>8644700</v>
       </c>
       <c r="F76" s="3">
-        <v>8221200</v>
+        <v>8293700</v>
       </c>
       <c r="G76" s="3">
-        <v>8171800</v>
+        <v>8242000</v>
       </c>
       <c r="H76" s="3">
-        <v>8371100</v>
+        <v>8192500</v>
       </c>
       <c r="I76" s="3">
-        <v>9210000</v>
+        <v>8392200</v>
       </c>
       <c r="J76" s="3">
+        <v>9233300</v>
+      </c>
+      <c r="K76" s="3">
         <v>8847000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9661900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9382700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9587900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>9682200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8492100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>8457800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>9355400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>10077300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>9574000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>9534500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>10474600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>10099100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>9355600</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>286100</v>
+        <v>112000</v>
       </c>
       <c r="E81" s="3">
-        <v>159500</v>
+        <v>286800</v>
       </c>
       <c r="F81" s="3">
-        <v>567300</v>
+        <v>159900</v>
       </c>
       <c r="G81" s="3">
-        <v>-24600</v>
+        <v>568800</v>
       </c>
       <c r="H81" s="3">
-        <v>-138100</v>
+        <v>-24700</v>
       </c>
       <c r="I81" s="3">
-        <v>-200400</v>
+        <v>-138500</v>
       </c>
       <c r="J81" s="3">
+        <v>-200900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-52700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-151500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-9800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-78200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>76800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>215600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>226900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>405100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>235900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>171800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>217300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>130700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>133800</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,73 +5217,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>209400</v>
+        <v>233200</v>
       </c>
       <c r="E83" s="3">
-        <v>207600</v>
+        <v>209900</v>
       </c>
       <c r="F83" s="3">
-        <v>444200</v>
+        <v>208200</v>
       </c>
       <c r="G83" s="3">
-        <v>230800</v>
+        <v>445300</v>
       </c>
       <c r="H83" s="3">
-        <v>437900</v>
+        <v>231400</v>
       </c>
       <c r="I83" s="3">
-        <v>243400</v>
+        <v>439000</v>
       </c>
       <c r="J83" s="3">
+        <v>244000</v>
+      </c>
+      <c r="K83" s="3">
         <v>337000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>269100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>243500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>237500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>193900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>189400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>193300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>207100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>228100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>168000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>160800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>166700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>197300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>174500</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>723600</v>
+        <v>-9200</v>
       </c>
       <c r="E89" s="3">
-        <v>-60200</v>
+        <v>725500</v>
       </c>
       <c r="F89" s="3">
-        <v>602500</v>
+        <v>-60400</v>
       </c>
       <c r="G89" s="3">
-        <v>500200</v>
+        <v>604100</v>
       </c>
       <c r="H89" s="3">
-        <v>242400</v>
+        <v>501400</v>
       </c>
       <c r="I89" s="3">
-        <v>150700</v>
+        <v>243000</v>
       </c>
       <c r="J89" s="3">
+        <v>151100</v>
+      </c>
+      <c r="K89" s="3">
         <v>628700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>420200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>300600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>88200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>106500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>263300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>155300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>215800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>740900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>341600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>501400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>82400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>523700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>284800</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-151500</v>
+        <v>-144200</v>
       </c>
       <c r="E91" s="3">
-        <v>-112600</v>
+        <v>-151900</v>
       </c>
       <c r="F91" s="3">
-        <v>-231400</v>
+        <v>-112800</v>
       </c>
       <c r="G91" s="3">
-        <v>-187700</v>
+        <v>-280300</v>
       </c>
       <c r="H91" s="3">
-        <v>-127200</v>
+        <v>-139900</v>
       </c>
       <c r="I91" s="3">
-        <v>-149500</v>
+        <v>-127500</v>
       </c>
       <c r="J91" s="3">
+        <v>-149900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-320200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-237200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-258000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-184600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-284000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-183700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-157200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-148500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-353000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-173800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-156300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-172100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-315900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-198600</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>100800</v>
+        <v>-163800</v>
       </c>
       <c r="E94" s="3">
-        <v>-143700</v>
+        <v>101100</v>
       </c>
       <c r="F94" s="3">
-        <v>-22900</v>
+        <v>-144000</v>
       </c>
       <c r="G94" s="3">
-        <v>-186800</v>
+        <v>-66000</v>
       </c>
       <c r="H94" s="3">
-        <v>-499200</v>
+        <v>-144200</v>
       </c>
       <c r="I94" s="3">
-        <v>-212500</v>
+        <v>-500400</v>
       </c>
       <c r="J94" s="3">
+        <v>-213000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-324000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-234000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-310700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-182800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-292200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-154800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-165900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-159600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1571400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>220100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-244300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-80900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-331100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-397400</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,22 +6017,23 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-283800</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-284500</v>
       </c>
       <c r="F96" s="3">
-        <v>-290900</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-291600</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -5808,49 +6042,52 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-10100</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-295800</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-2500</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1900</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-366300</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-8700</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-42700</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-303900</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-14300</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,199 +6287,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-294400</v>
+        <v>45000</v>
       </c>
       <c r="E100" s="3">
-        <v>-55000</v>
+        <v>-295200</v>
       </c>
       <c r="F100" s="3">
-        <v>-528200</v>
+        <v>-55100</v>
       </c>
       <c r="G100" s="3">
-        <v>-83800</v>
+        <v>-532500</v>
       </c>
       <c r="H100" s="3">
-        <v>730900</v>
+        <v>-81000</v>
       </c>
       <c r="I100" s="3">
+        <v>732800</v>
+      </c>
+      <c r="J100" s="3">
         <v>-700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-107400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-208300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>531200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>115200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>45700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>22200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-344300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-292100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>101800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>602000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-283600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>26000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-212400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-22300</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>38300</v>
+        <v>-22400</v>
       </c>
       <c r="E101" s="3">
+        <v>38400</v>
+      </c>
+      <c r="F101" s="3">
         <v>-31800</v>
       </c>
-      <c r="F101" s="3">
-        <v>-35600</v>
-      </c>
       <c r="G101" s="3">
-        <v>-24300</v>
+        <v>-35700</v>
       </c>
       <c r="H101" s="3">
-        <v>-104300</v>
+        <v>-24400</v>
       </c>
       <c r="I101" s="3">
-        <v>63900</v>
+        <v>-104500</v>
       </c>
       <c r="J101" s="3">
+        <v>64000</v>
+      </c>
+      <c r="K101" s="3">
         <v>-8600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>21100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-8800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>44000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-11700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-22400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-30700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>31000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-22000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-12900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>9000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>30300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-21500</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>568300</v>
+        <v>-150400</v>
       </c>
       <c r="E102" s="3">
-        <v>-290600</v>
+        <v>569800</v>
       </c>
       <c r="F102" s="3">
-        <v>15800</v>
+        <v>-291400</v>
       </c>
       <c r="G102" s="3">
-        <v>233500</v>
+        <v>15900</v>
       </c>
       <c r="H102" s="3">
-        <v>356900</v>
+        <v>234100</v>
       </c>
       <c r="I102" s="3">
-        <v>-13900</v>
+        <v>357800</v>
       </c>
       <c r="J102" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="K102" s="3">
         <v>188700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>519300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>11800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-96000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>119100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-377400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-266600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-697600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1141700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-39400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>36500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>10500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-156300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NHYDY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NHYDY_QTR_FIN.xlsx
@@ -767,25 +767,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4073300</v>
+        <v>4078500</v>
       </c>
       <c r="E8" s="3">
-        <v>3834700</v>
+        <v>3839500</v>
       </c>
       <c r="F8" s="3">
-        <v>3545300</v>
+        <v>3549800</v>
       </c>
       <c r="G8" s="3">
-        <v>1339000</v>
+        <v>1340600</v>
       </c>
       <c r="H8" s="3">
-        <v>3053200</v>
+        <v>3057000</v>
       </c>
       <c r="I8" s="3">
-        <v>2812100</v>
+        <v>2815600</v>
       </c>
       <c r="J8" s="3">
-        <v>3507300</v>
+        <v>3511800</v>
       </c>
       <c r="K8" s="3">
         <v>3928000</v>
@@ -835,25 +835,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2629900</v>
+        <v>2633200</v>
       </c>
       <c r="E9" s="3">
-        <v>2353800</v>
+        <v>2356800</v>
       </c>
       <c r="F9" s="3">
-        <v>2122200</v>
+        <v>2124900</v>
       </c>
       <c r="G9" s="3">
-        <v>670400</v>
+        <v>671300</v>
       </c>
       <c r="H9" s="3">
-        <v>1835900</v>
+        <v>1838300</v>
       </c>
       <c r="I9" s="3">
-        <v>1756600</v>
+        <v>1758800</v>
       </c>
       <c r="J9" s="3">
-        <v>2075100</v>
+        <v>2077700</v>
       </c>
       <c r="K9" s="3">
         <v>2471300</v>
@@ -903,25 +903,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1443500</v>
+        <v>1445300</v>
       </c>
       <c r="E10" s="3">
-        <v>1480900</v>
+        <v>1482700</v>
       </c>
       <c r="F10" s="3">
-        <v>1423100</v>
+        <v>1424900</v>
       </c>
       <c r="G10" s="3">
-        <v>668500</v>
+        <v>669400</v>
       </c>
       <c r="H10" s="3">
-        <v>1217200</v>
+        <v>1218800</v>
       </c>
       <c r="I10" s="3">
-        <v>1055500</v>
+        <v>1056800</v>
       </c>
       <c r="J10" s="3">
-        <v>1432300</v>
+        <v>1434100</v>
       </c>
       <c r="K10" s="3">
         <v>1456800</v>
@@ -1139,7 +1139,7 @@
         <v>800</v>
       </c>
       <c r="F14" s="3">
-        <v>13500</v>
+        <v>13600</v>
       </c>
       <c r="G14" s="3">
         <v>7000</v>
@@ -1148,7 +1148,7 @@
         <v>8300</v>
       </c>
       <c r="I14" s="3">
-        <v>202900</v>
+        <v>203200</v>
       </c>
       <c r="J14" s="3">
         <v>1300</v>
@@ -1201,25 +1201,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>231700</v>
+        <v>232000</v>
       </c>
       <c r="E15" s="3">
-        <v>209200</v>
+        <v>209400</v>
       </c>
       <c r="F15" s="3">
-        <v>194600</v>
+        <v>194900</v>
       </c>
       <c r="G15" s="3">
-        <v>94400</v>
+        <v>94500</v>
       </c>
       <c r="H15" s="3">
-        <v>189900</v>
+        <v>190100</v>
       </c>
       <c r="I15" s="3">
-        <v>201900</v>
+        <v>202200</v>
       </c>
       <c r="J15" s="3">
-        <v>210400</v>
+        <v>210600</v>
       </c>
       <c r="K15" s="3">
         <v>236000</v>
@@ -1292,25 +1292,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3792300</v>
+        <v>3797100</v>
       </c>
       <c r="E17" s="3">
-        <v>3498000</v>
+        <v>3502400</v>
       </c>
       <c r="F17" s="3">
-        <v>3297500</v>
+        <v>3301700</v>
       </c>
       <c r="G17" s="3">
-        <v>574000</v>
+        <v>574700</v>
       </c>
       <c r="H17" s="3">
-        <v>2843100</v>
+        <v>2846700</v>
       </c>
       <c r="I17" s="3">
-        <v>2988300</v>
+        <v>2992000</v>
       </c>
       <c r="J17" s="3">
-        <v>3260100</v>
+        <v>3264200</v>
       </c>
       <c r="K17" s="3">
         <v>3972200</v>
@@ -1360,25 +1360,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>281100</v>
+        <v>281400</v>
       </c>
       <c r="E18" s="3">
-        <v>336700</v>
+        <v>337100</v>
       </c>
       <c r="F18" s="3">
-        <v>247800</v>
+        <v>248100</v>
       </c>
       <c r="G18" s="3">
-        <v>765000</v>
+        <v>765900</v>
       </c>
       <c r="H18" s="3">
-        <v>210000</v>
+        <v>210300</v>
       </c>
       <c r="I18" s="3">
-        <v>-176200</v>
+        <v>-176400</v>
       </c>
       <c r="J18" s="3">
-        <v>247200</v>
+        <v>247500</v>
       </c>
       <c r="K18" s="3">
         <v>-44200</v>
@@ -1454,25 +1454,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-73100</v>
+        <v>-73200</v>
       </c>
       <c r="E20" s="3">
-        <v>63700</v>
+        <v>63800</v>
       </c>
       <c r="F20" s="3">
-        <v>73300</v>
+        <v>73400</v>
       </c>
       <c r="G20" s="3">
-        <v>197500</v>
+        <v>197800</v>
       </c>
       <c r="H20" s="3">
-        <v>-166400</v>
+        <v>-166700</v>
       </c>
       <c r="I20" s="3">
-        <v>68700</v>
+        <v>68800</v>
       </c>
       <c r="J20" s="3">
-        <v>-467100</v>
+        <v>-467700</v>
       </c>
       <c r="K20" s="3">
         <v>52700</v>
@@ -1522,22 +1522,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>441200</v>
+        <v>441700</v>
       </c>
       <c r="E21" s="3">
-        <v>610300</v>
+        <v>611100</v>
       </c>
       <c r="F21" s="3">
-        <v>529300</v>
+        <v>529900</v>
       </c>
       <c r="G21" s="3">
-        <v>1507300</v>
+        <v>1509200</v>
       </c>
       <c r="H21" s="3">
-        <v>241700</v>
+        <v>242000</v>
       </c>
       <c r="I21" s="3">
-        <v>297400</v>
+        <v>297700</v>
       </c>
       <c r="J21" s="3">
         <v>-8100</v>
@@ -1605,7 +1605,7 @@
         <v>29000</v>
       </c>
       <c r="I22" s="3">
-        <v>25600</v>
+        <v>25700</v>
       </c>
       <c r="J22" s="3">
         <v>24200</v>
@@ -1658,25 +1658,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>179800</v>
+        <v>180000</v>
       </c>
       <c r="E23" s="3">
-        <v>376000</v>
+        <v>376500</v>
       </c>
       <c r="F23" s="3">
-        <v>294800</v>
+        <v>295200</v>
       </c>
       <c r="G23" s="3">
-        <v>934400</v>
+        <v>935600</v>
       </c>
       <c r="H23" s="3">
-        <v>14600</v>
+        <v>14700</v>
       </c>
       <c r="I23" s="3">
-        <v>-133200</v>
+        <v>-133300</v>
       </c>
       <c r="J23" s="3">
-        <v>-244100</v>
+        <v>-244400</v>
       </c>
       <c r="K23" s="3">
         <v>-18500</v>
@@ -1726,25 +1726,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>54800</v>
+        <v>54900</v>
       </c>
       <c r="E24" s="3">
-        <v>110100</v>
+        <v>110200</v>
       </c>
       <c r="F24" s="3">
-        <v>86100</v>
+        <v>86200</v>
       </c>
       <c r="G24" s="3">
-        <v>90800</v>
+        <v>90900</v>
       </c>
       <c r="H24" s="3">
         <v>26900</v>
       </c>
       <c r="I24" s="3">
-        <v>31800</v>
+        <v>31900</v>
       </c>
       <c r="J24" s="3">
-        <v>-50700</v>
+        <v>-50800</v>
       </c>
       <c r="K24" s="3">
         <v>55000</v>
@@ -1862,25 +1862,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>124900</v>
+        <v>125100</v>
       </c>
       <c r="E26" s="3">
-        <v>266000</v>
+        <v>266300</v>
       </c>
       <c r="F26" s="3">
-        <v>208700</v>
+        <v>209000</v>
       </c>
       <c r="G26" s="3">
-        <v>843600</v>
+        <v>844700</v>
       </c>
       <c r="H26" s="3">
         <v>-12200</v>
       </c>
       <c r="I26" s="3">
-        <v>-165000</v>
+        <v>-165200</v>
       </c>
       <c r="J26" s="3">
-        <v>-193400</v>
+        <v>-193600</v>
       </c>
       <c r="K26" s="3">
         <v>-73500</v>
@@ -1930,25 +1930,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>114100</v>
+        <v>114200</v>
       </c>
       <c r="E27" s="3">
-        <v>241700</v>
+        <v>242000</v>
       </c>
       <c r="F27" s="3">
-        <v>202100</v>
+        <v>202300</v>
       </c>
       <c r="G27" s="3">
-        <v>815800</v>
+        <v>816800</v>
       </c>
       <c r="H27" s="3">
         <v>-12400</v>
       </c>
       <c r="I27" s="3">
-        <v>-140300</v>
+        <v>-140400</v>
       </c>
       <c r="J27" s="3">
-        <v>-169700</v>
+        <v>-169900</v>
       </c>
       <c r="K27" s="3">
         <v>-52700</v>
@@ -2075,7 +2075,7 @@
         <v>-42200</v>
       </c>
       <c r="G29" s="3">
-        <v>-247000</v>
+        <v>-247300</v>
       </c>
       <c r="H29" s="3">
         <v>-12300</v>
@@ -2270,25 +2270,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>73100</v>
+        <v>73200</v>
       </c>
       <c r="E32" s="3">
-        <v>-63700</v>
+        <v>-63800</v>
       </c>
       <c r="F32" s="3">
-        <v>-73300</v>
+        <v>-73400</v>
       </c>
       <c r="G32" s="3">
-        <v>-197500</v>
+        <v>-197800</v>
       </c>
       <c r="H32" s="3">
-        <v>166400</v>
+        <v>166700</v>
       </c>
       <c r="I32" s="3">
-        <v>-68700</v>
+        <v>-68800</v>
       </c>
       <c r="J32" s="3">
-        <v>467100</v>
+        <v>467700</v>
       </c>
       <c r="K32" s="3">
         <v>-52700</v>
@@ -2338,25 +2338,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>112000</v>
+        <v>112100</v>
       </c>
       <c r="E33" s="3">
-        <v>286800</v>
+        <v>287200</v>
       </c>
       <c r="F33" s="3">
-        <v>159900</v>
+        <v>160100</v>
       </c>
       <c r="G33" s="3">
-        <v>568800</v>
+        <v>569500</v>
       </c>
       <c r="H33" s="3">
-        <v>-24700</v>
+        <v>-24800</v>
       </c>
       <c r="I33" s="3">
-        <v>-138500</v>
+        <v>-138700</v>
       </c>
       <c r="J33" s="3">
-        <v>-200900</v>
+        <v>-201200</v>
       </c>
       <c r="K33" s="3">
         <v>-52700</v>
@@ -2474,25 +2474,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>112000</v>
+        <v>112100</v>
       </c>
       <c r="E35" s="3">
-        <v>286800</v>
+        <v>287200</v>
       </c>
       <c r="F35" s="3">
-        <v>159900</v>
+        <v>160100</v>
       </c>
       <c r="G35" s="3">
-        <v>568800</v>
+        <v>569500</v>
       </c>
       <c r="H35" s="3">
-        <v>-24700</v>
+        <v>-24800</v>
       </c>
       <c r="I35" s="3">
-        <v>-138500</v>
+        <v>-138700</v>
       </c>
       <c r="J35" s="3">
-        <v>-200900</v>
+        <v>-201200</v>
       </c>
       <c r="K35" s="3">
         <v>-52700</v>
@@ -2667,25 +2667,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2085200</v>
+        <v>2087800</v>
       </c>
       <c r="E41" s="3">
-        <v>2235500</v>
+        <v>2238300</v>
       </c>
       <c r="F41" s="3">
-        <v>1665600</v>
+        <v>1667700</v>
       </c>
       <c r="G41" s="3">
-        <v>1957100</v>
+        <v>1959600</v>
       </c>
       <c r="H41" s="3">
-        <v>1941200</v>
+        <v>1943700</v>
       </c>
       <c r="I41" s="3">
-        <v>1707100</v>
+        <v>1709300</v>
       </c>
       <c r="J41" s="3">
-        <v>1349300</v>
+        <v>1351000</v>
       </c>
       <c r="K41" s="3">
         <v>1359800</v>
@@ -2735,25 +2735,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>873700</v>
+        <v>874800</v>
       </c>
       <c r="E42" s="3">
-        <v>473400</v>
+        <v>474000</v>
       </c>
       <c r="F42" s="3">
-        <v>518800</v>
+        <v>519500</v>
       </c>
       <c r="G42" s="3">
-        <v>506100</v>
+        <v>506700</v>
       </c>
       <c r="H42" s="3">
-        <v>660400</v>
+        <v>661300</v>
       </c>
       <c r="I42" s="3">
-        <v>643200</v>
+        <v>644000</v>
       </c>
       <c r="J42" s="3">
-        <v>306200</v>
+        <v>306600</v>
       </c>
       <c r="K42" s="3">
         <v>177500</v>
@@ -2803,25 +2803,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2204700</v>
+        <v>2207400</v>
       </c>
       <c r="E43" s="3">
-        <v>2201200</v>
+        <v>2204000</v>
       </c>
       <c r="F43" s="3">
-        <v>1863600</v>
+        <v>1865900</v>
       </c>
       <c r="G43" s="3">
-        <v>2037700</v>
+        <v>2040200</v>
       </c>
       <c r="H43" s="3">
-        <v>2248900</v>
+        <v>2251800</v>
       </c>
       <c r="I43" s="3">
-        <v>2098900</v>
+        <v>2101600</v>
       </c>
       <c r="J43" s="3">
-        <v>2722800</v>
+        <v>2726300</v>
       </c>
       <c r="K43" s="3">
         <v>2098400</v>
@@ -2871,25 +2871,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2104500</v>
+        <v>2107100</v>
       </c>
       <c r="E44" s="3">
-        <v>1825700</v>
+        <v>1828000</v>
       </c>
       <c r="F44" s="3">
-        <v>1588500</v>
+        <v>1590500</v>
       </c>
       <c r="G44" s="3">
-        <v>2162800</v>
+        <v>2165600</v>
       </c>
       <c r="H44" s="3">
-        <v>2140200</v>
+        <v>2142900</v>
       </c>
       <c r="I44" s="3">
-        <v>2261600</v>
+        <v>2264400</v>
       </c>
       <c r="J44" s="3">
-        <v>2492600</v>
+        <v>2495800</v>
       </c>
       <c r="K44" s="3">
         <v>2303900</v>
@@ -3007,25 +3007,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7268000</v>
+        <v>7277200</v>
       </c>
       <c r="E46" s="3">
-        <v>6735800</v>
+        <v>6744300</v>
       </c>
       <c r="F46" s="3">
-        <v>5636500</v>
+        <v>5643700</v>
       </c>
       <c r="G46" s="3">
-        <v>6663700</v>
+        <v>6672100</v>
       </c>
       <c r="H46" s="3">
-        <v>6990900</v>
+        <v>6999700</v>
       </c>
       <c r="I46" s="3">
-        <v>6710900</v>
+        <v>6719300</v>
       </c>
       <c r="J46" s="3">
-        <v>6871000</v>
+        <v>6879600</v>
       </c>
       <c r="K46" s="3">
         <v>5939600</v>
@@ -3075,25 +3075,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1959700</v>
+        <v>1962100</v>
       </c>
       <c r="E47" s="3">
-        <v>1933600</v>
+        <v>1936000</v>
       </c>
       <c r="F47" s="3">
-        <v>1911500</v>
+        <v>1913900</v>
       </c>
       <c r="G47" s="3">
-        <v>1918300</v>
+        <v>1920700</v>
       </c>
       <c r="H47" s="3">
-        <v>1336800</v>
+        <v>1338500</v>
       </c>
       <c r="I47" s="3">
-        <v>1400200</v>
+        <v>1402000</v>
       </c>
       <c r="J47" s="3">
-        <v>1536200</v>
+        <v>1538200</v>
       </c>
       <c r="K47" s="3">
         <v>1272900</v>
@@ -3143,25 +3143,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6063100</v>
+        <v>6070700</v>
       </c>
       <c r="E48" s="3">
-        <v>6252900</v>
+        <v>6260800</v>
       </c>
       <c r="F48" s="3">
-        <v>5979600</v>
+        <v>5987200</v>
       </c>
       <c r="G48" s="3">
-        <v>7128600</v>
+        <v>7137600</v>
       </c>
       <c r="H48" s="3">
-        <v>7618200</v>
+        <v>7627800</v>
       </c>
       <c r="I48" s="3">
-        <v>7820200</v>
+        <v>7830100</v>
       </c>
       <c r="J48" s="3">
-        <v>8644800</v>
+        <v>8655700</v>
       </c>
       <c r="K48" s="3">
         <v>8217200</v>
@@ -3211,25 +3211,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>982200</v>
+        <v>983500</v>
       </c>
       <c r="E49" s="3">
-        <v>1017900</v>
+        <v>1019200</v>
       </c>
       <c r="F49" s="3">
-        <v>976000</v>
+        <v>977200</v>
       </c>
       <c r="G49" s="3">
-        <v>1038300</v>
+        <v>1039600</v>
       </c>
       <c r="H49" s="3">
-        <v>1098800</v>
+        <v>1100200</v>
       </c>
       <c r="I49" s="3">
-        <v>1138700</v>
+        <v>1140100</v>
       </c>
       <c r="J49" s="3">
-        <v>1403500</v>
+        <v>1405300</v>
       </c>
       <c r="K49" s="3">
         <v>1272900</v>
@@ -3415,25 +3415,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2028100</v>
+        <v>2030700</v>
       </c>
       <c r="E52" s="3">
-        <v>1860700</v>
+        <v>1863000</v>
       </c>
       <c r="F52" s="3">
-        <v>3497100</v>
+        <v>3501500</v>
       </c>
       <c r="G52" s="3">
-        <v>1493900</v>
+        <v>1495700</v>
       </c>
       <c r="H52" s="3">
-        <v>1359600</v>
+        <v>1361300</v>
       </c>
       <c r="I52" s="3">
-        <v>1365500</v>
+        <v>1367200</v>
       </c>
       <c r="J52" s="3">
-        <v>1432000</v>
+        <v>1433900</v>
       </c>
       <c r="K52" s="3">
         <v>1493200</v>
@@ -3551,25 +3551,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>18301100</v>
+        <v>18324200</v>
       </c>
       <c r="E54" s="3">
-        <v>17801000</v>
+        <v>17823400</v>
       </c>
       <c r="F54" s="3">
-        <v>18000800</v>
+        <v>18023500</v>
       </c>
       <c r="G54" s="3">
-        <v>18242700</v>
+        <v>18265700</v>
       </c>
       <c r="H54" s="3">
-        <v>18404400</v>
+        <v>18427600</v>
       </c>
       <c r="I54" s="3">
-        <v>18435400</v>
+        <v>18458700</v>
       </c>
       <c r="J54" s="3">
-        <v>19887600</v>
+        <v>19912700</v>
       </c>
       <c r="K54" s="3">
         <v>18195900</v>
@@ -3671,25 +3671,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2243500</v>
+        <v>2246300</v>
       </c>
       <c r="E57" s="3">
-        <v>2252700</v>
+        <v>2255600</v>
       </c>
       <c r="F57" s="3">
-        <v>1937600</v>
+        <v>1940000</v>
       </c>
       <c r="G57" s="3">
-        <v>2102500</v>
+        <v>2105100</v>
       </c>
       <c r="H57" s="3">
-        <v>1982300</v>
+        <v>1984800</v>
       </c>
       <c r="I57" s="3">
-        <v>1852300</v>
+        <v>1854600</v>
       </c>
       <c r="J57" s="3">
-        <v>2392100</v>
+        <v>2395100</v>
       </c>
       <c r="K57" s="3">
         <v>2068800</v>
@@ -3739,25 +3739,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>464500</v>
+        <v>465100</v>
       </c>
       <c r="E58" s="3">
-        <v>464100</v>
+        <v>464700</v>
       </c>
       <c r="F58" s="3">
-        <v>521600</v>
+        <v>522300</v>
       </c>
       <c r="G58" s="3">
-        <v>526800</v>
+        <v>527500</v>
       </c>
       <c r="H58" s="3">
-        <v>767300</v>
+        <v>768300</v>
       </c>
       <c r="I58" s="3">
-        <v>787200</v>
+        <v>788100</v>
       </c>
       <c r="J58" s="3">
-        <v>857500</v>
+        <v>858600</v>
       </c>
       <c r="K58" s="3">
         <v>681500</v>
@@ -3807,25 +3807,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>783200</v>
+        <v>784100</v>
       </c>
       <c r="E59" s="3">
-        <v>576000</v>
+        <v>576700</v>
       </c>
       <c r="F59" s="3">
-        <v>447800</v>
+        <v>448400</v>
       </c>
       <c r="G59" s="3">
-        <v>593900</v>
+        <v>594600</v>
       </c>
       <c r="H59" s="3">
-        <v>406000</v>
+        <v>406500</v>
       </c>
       <c r="I59" s="3">
-        <v>412900</v>
+        <v>413400</v>
       </c>
       <c r="J59" s="3">
-        <v>529400</v>
+        <v>530100</v>
       </c>
       <c r="K59" s="3">
         <v>535900</v>
@@ -3875,25 +3875,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3491100</v>
+        <v>3495500</v>
       </c>
       <c r="E60" s="3">
-        <v>3292800</v>
+        <v>3297000</v>
       </c>
       <c r="F60" s="3">
-        <v>2907000</v>
+        <v>2910700</v>
       </c>
       <c r="G60" s="3">
-        <v>3223200</v>
+        <v>3227200</v>
       </c>
       <c r="H60" s="3">
-        <v>3155600</v>
+        <v>3159600</v>
       </c>
       <c r="I60" s="3">
-        <v>3052300</v>
+        <v>3056100</v>
       </c>
       <c r="J60" s="3">
-        <v>3779000</v>
+        <v>3783700</v>
       </c>
       <c r="K60" s="3">
         <v>3286200</v>
@@ -3943,25 +3943,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2828900</v>
+        <v>2832500</v>
       </c>
       <c r="E61" s="3">
-        <v>2725400</v>
+        <v>2728800</v>
       </c>
       <c r="F61" s="3">
-        <v>2625100</v>
+        <v>2628400</v>
       </c>
       <c r="G61" s="3">
-        <v>2753000</v>
+        <v>2756500</v>
       </c>
       <c r="H61" s="3">
-        <v>2870900</v>
+        <v>2874500</v>
       </c>
       <c r="I61" s="3">
-        <v>2951000</v>
+        <v>2954700</v>
       </c>
       <c r="J61" s="3">
-        <v>2362300</v>
+        <v>2365300</v>
       </c>
       <c r="K61" s="3">
         <v>2087200</v>
@@ -4011,25 +4011,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2998100</v>
+        <v>3001900</v>
       </c>
       <c r="E62" s="3">
-        <v>2734500</v>
+        <v>2737900</v>
       </c>
       <c r="F62" s="3">
-        <v>3846800</v>
+        <v>3851600</v>
       </c>
       <c r="G62" s="3">
-        <v>3673300</v>
+        <v>3678000</v>
       </c>
       <c r="H62" s="3">
-        <v>3845700</v>
+        <v>3850500</v>
       </c>
       <c r="I62" s="3">
-        <v>3681500</v>
+        <v>3686200</v>
       </c>
       <c r="J62" s="3">
-        <v>4073700</v>
+        <v>4078800</v>
       </c>
       <c r="K62" s="3">
         <v>3516400</v>
@@ -4283,25 +4283,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9697800</v>
+        <v>9710000</v>
       </c>
       <c r="E66" s="3">
-        <v>9156300</v>
+        <v>9167900</v>
       </c>
       <c r="F66" s="3">
-        <v>9707100</v>
+        <v>9719400</v>
       </c>
       <c r="G66" s="3">
-        <v>10000700</v>
+        <v>10013300</v>
       </c>
       <c r="H66" s="3">
-        <v>10211900</v>
+        <v>10224800</v>
       </c>
       <c r="I66" s="3">
-        <v>10043200</v>
+        <v>10055900</v>
       </c>
       <c r="J66" s="3">
-        <v>10654300</v>
+        <v>10667700</v>
       </c>
       <c r="K66" s="3">
         <v>9348900</v>
@@ -4649,25 +4649,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5865700</v>
+        <v>5873100</v>
       </c>
       <c r="E72" s="3">
-        <v>5753700</v>
+        <v>5761000</v>
       </c>
       <c r="F72" s="3">
-        <v>5932900</v>
+        <v>5940400</v>
       </c>
       <c r="G72" s="3">
-        <v>5773000</v>
+        <v>5780300</v>
       </c>
       <c r="H72" s="3">
-        <v>5488600</v>
+        <v>5495600</v>
       </c>
       <c r="I72" s="3">
-        <v>5513300</v>
+        <v>5520200</v>
       </c>
       <c r="J72" s="3">
-        <v>5651600</v>
+        <v>5658800</v>
       </c>
       <c r="K72" s="3">
         <v>5837800</v>
@@ -4921,25 +4921,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8603300</v>
+        <v>8614100</v>
       </c>
       <c r="E76" s="3">
-        <v>8644700</v>
+        <v>8655600</v>
       </c>
       <c r="F76" s="3">
-        <v>8293700</v>
+        <v>8304200</v>
       </c>
       <c r="G76" s="3">
-        <v>8242000</v>
+        <v>8252400</v>
       </c>
       <c r="H76" s="3">
-        <v>8192500</v>
+        <v>8202800</v>
       </c>
       <c r="I76" s="3">
-        <v>8392200</v>
+        <v>8402800</v>
       </c>
       <c r="J76" s="3">
-        <v>9233300</v>
+        <v>9245000</v>
       </c>
       <c r="K76" s="3">
         <v>8847000</v>
@@ -5130,25 +5130,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>112000</v>
+        <v>112100</v>
       </c>
       <c r="E81" s="3">
-        <v>286800</v>
+        <v>287200</v>
       </c>
       <c r="F81" s="3">
-        <v>159900</v>
+        <v>160100</v>
       </c>
       <c r="G81" s="3">
-        <v>568800</v>
+        <v>569500</v>
       </c>
       <c r="H81" s="3">
-        <v>-24700</v>
+        <v>-24800</v>
       </c>
       <c r="I81" s="3">
-        <v>-138500</v>
+        <v>-138700</v>
       </c>
       <c r="J81" s="3">
-        <v>-200900</v>
+        <v>-201200</v>
       </c>
       <c r="K81" s="3">
         <v>-52700</v>
@@ -5224,25 +5224,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>233200</v>
+        <v>233500</v>
       </c>
       <c r="E83" s="3">
-        <v>209900</v>
+        <v>210200</v>
       </c>
       <c r="F83" s="3">
-        <v>208200</v>
+        <v>208400</v>
       </c>
       <c r="G83" s="3">
-        <v>445300</v>
+        <v>445800</v>
       </c>
       <c r="H83" s="3">
-        <v>231400</v>
+        <v>231600</v>
       </c>
       <c r="I83" s="3">
-        <v>439000</v>
+        <v>439500</v>
       </c>
       <c r="J83" s="3">
-        <v>244000</v>
+        <v>244300</v>
       </c>
       <c r="K83" s="3">
         <v>337000</v>
@@ -5635,22 +5635,22 @@
         <v>-9200</v>
       </c>
       <c r="E89" s="3">
-        <v>725500</v>
+        <v>726400</v>
       </c>
       <c r="F89" s="3">
         <v>-60400</v>
       </c>
       <c r="G89" s="3">
-        <v>604100</v>
+        <v>604800</v>
       </c>
       <c r="H89" s="3">
-        <v>501400</v>
+        <v>502100</v>
       </c>
       <c r="I89" s="3">
-        <v>243000</v>
+        <v>243300</v>
       </c>
       <c r="J89" s="3">
-        <v>151100</v>
+        <v>151300</v>
       </c>
       <c r="K89" s="3">
         <v>628700</v>
@@ -5726,25 +5726,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-144200</v>
+        <v>-144400</v>
       </c>
       <c r="E91" s="3">
-        <v>-151900</v>
+        <v>-152100</v>
       </c>
       <c r="F91" s="3">
-        <v>-112800</v>
+        <v>-113000</v>
       </c>
       <c r="G91" s="3">
-        <v>-280300</v>
+        <v>-280600</v>
       </c>
       <c r="H91" s="3">
-        <v>-139900</v>
+        <v>-140100</v>
       </c>
       <c r="I91" s="3">
-        <v>-127500</v>
+        <v>-127700</v>
       </c>
       <c r="J91" s="3">
-        <v>-149900</v>
+        <v>-150100</v>
       </c>
       <c r="K91" s="3">
         <v>-320200</v>
@@ -5930,25 +5930,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-163800</v>
+        <v>-164000</v>
       </c>
       <c r="E94" s="3">
-        <v>101100</v>
+        <v>101200</v>
       </c>
       <c r="F94" s="3">
-        <v>-144000</v>
+        <v>-144200</v>
       </c>
       <c r="G94" s="3">
-        <v>-66000</v>
+        <v>-66100</v>
       </c>
       <c r="H94" s="3">
-        <v>-144200</v>
+        <v>-144400</v>
       </c>
       <c r="I94" s="3">
-        <v>-500400</v>
+        <v>-501100</v>
       </c>
       <c r="J94" s="3">
-        <v>-213000</v>
+        <v>-213300</v>
       </c>
       <c r="K94" s="3">
         <v>-324000</v>
@@ -6027,13 +6027,13 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-284500</v>
+        <v>-284900</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-291600</v>
+        <v>-292000</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -6296,22 +6296,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>45000</v>
+        <v>45100</v>
       </c>
       <c r="E100" s="3">
-        <v>-295200</v>
+        <v>-295500</v>
       </c>
       <c r="F100" s="3">
-        <v>-55100</v>
+        <v>-55200</v>
       </c>
       <c r="G100" s="3">
-        <v>-532500</v>
+        <v>-533200</v>
       </c>
       <c r="H100" s="3">
-        <v>-81000</v>
+        <v>-81100</v>
       </c>
       <c r="I100" s="3">
-        <v>732800</v>
+        <v>733700</v>
       </c>
       <c r="J100" s="3">
         <v>-700</v>
@@ -6370,19 +6370,19 @@
         <v>38400</v>
       </c>
       <c r="F101" s="3">
-        <v>-31800</v>
+        <v>-31900</v>
       </c>
       <c r="G101" s="3">
-        <v>-35700</v>
+        <v>-35800</v>
       </c>
       <c r="H101" s="3">
         <v>-24400</v>
       </c>
       <c r="I101" s="3">
-        <v>-104500</v>
+        <v>-104700</v>
       </c>
       <c r="J101" s="3">
-        <v>64000</v>
+        <v>64100</v>
       </c>
       <c r="K101" s="3">
         <v>-8600</v>
@@ -6432,22 +6432,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-150400</v>
+        <v>-150500</v>
       </c>
       <c r="E102" s="3">
-        <v>569800</v>
+        <v>570500</v>
       </c>
       <c r="F102" s="3">
-        <v>-291400</v>
+        <v>-291700</v>
       </c>
       <c r="G102" s="3">
         <v>15900</v>
       </c>
       <c r="H102" s="3">
-        <v>234100</v>
+        <v>234400</v>
       </c>
       <c r="I102" s="3">
-        <v>357800</v>
+        <v>358300</v>
       </c>
       <c r="J102" s="3">
         <v>-14000</v>

--- a/AAII_Financials/Quarterly/NHYDY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NHYDY_QTR_FIN.xlsx
@@ -767,25 +767,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4078500</v>
+        <v>3718700</v>
       </c>
       <c r="E8" s="3">
-        <v>3839500</v>
+        <v>3500800</v>
       </c>
       <c r="F8" s="3">
-        <v>3549800</v>
+        <v>3236600</v>
       </c>
       <c r="G8" s="3">
-        <v>1340600</v>
+        <v>1222400</v>
       </c>
       <c r="H8" s="3">
-        <v>3057000</v>
+        <v>2787400</v>
       </c>
       <c r="I8" s="3">
-        <v>2815600</v>
+        <v>2567200</v>
       </c>
       <c r="J8" s="3">
-        <v>3511800</v>
+        <v>3202000</v>
       </c>
       <c r="K8" s="3">
         <v>3928000</v>
@@ -835,25 +835,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2633200</v>
+        <v>2400900</v>
       </c>
       <c r="E9" s="3">
-        <v>2356800</v>
+        <v>2148900</v>
       </c>
       <c r="F9" s="3">
-        <v>2124900</v>
+        <v>1937500</v>
       </c>
       <c r="G9" s="3">
-        <v>671300</v>
+        <v>612100</v>
       </c>
       <c r="H9" s="3">
-        <v>1838300</v>
+        <v>1676100</v>
       </c>
       <c r="I9" s="3">
-        <v>1758800</v>
+        <v>1603700</v>
       </c>
       <c r="J9" s="3">
-        <v>2077700</v>
+        <v>1894400</v>
       </c>
       <c r="K9" s="3">
         <v>2471300</v>
@@ -903,25 +903,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1445300</v>
+        <v>1317800</v>
       </c>
       <c r="E10" s="3">
-        <v>1482700</v>
+        <v>1351900</v>
       </c>
       <c r="F10" s="3">
-        <v>1424900</v>
+        <v>1299200</v>
       </c>
       <c r="G10" s="3">
-        <v>669400</v>
+        <v>610300</v>
       </c>
       <c r="H10" s="3">
-        <v>1218800</v>
+        <v>1111300</v>
       </c>
       <c r="I10" s="3">
-        <v>1056800</v>
+        <v>963600</v>
       </c>
       <c r="J10" s="3">
-        <v>1434100</v>
+        <v>1307600</v>
       </c>
       <c r="K10" s="3">
         <v>1456800</v>
@@ -1133,25 +1133,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="E14" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F14" s="3">
-        <v>13600</v>
+        <v>12400</v>
       </c>
       <c r="G14" s="3">
-        <v>7000</v>
+        <v>6400</v>
       </c>
       <c r="H14" s="3">
-        <v>8300</v>
+        <v>7600</v>
       </c>
       <c r="I14" s="3">
-        <v>203200</v>
+        <v>185300</v>
       </c>
       <c r="J14" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="K14" s="3">
         <v>100900</v>
@@ -1201,25 +1201,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>232000</v>
+        <v>211500</v>
       </c>
       <c r="E15" s="3">
-        <v>209400</v>
+        <v>191000</v>
       </c>
       <c r="F15" s="3">
-        <v>194900</v>
+        <v>177700</v>
       </c>
       <c r="G15" s="3">
-        <v>94500</v>
+        <v>86200</v>
       </c>
       <c r="H15" s="3">
-        <v>190100</v>
+        <v>173300</v>
       </c>
       <c r="I15" s="3">
-        <v>202200</v>
+        <v>184400</v>
       </c>
       <c r="J15" s="3">
-        <v>210600</v>
+        <v>192100</v>
       </c>
       <c r="K15" s="3">
         <v>236000</v>
@@ -1292,25 +1292,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3797100</v>
+        <v>3462100</v>
       </c>
       <c r="E17" s="3">
-        <v>3502400</v>
+        <v>3193500</v>
       </c>
       <c r="F17" s="3">
-        <v>3301700</v>
+        <v>3010400</v>
       </c>
       <c r="G17" s="3">
-        <v>574700</v>
+        <v>524000</v>
       </c>
       <c r="H17" s="3">
-        <v>2846700</v>
+        <v>2595600</v>
       </c>
       <c r="I17" s="3">
-        <v>2992000</v>
+        <v>2728100</v>
       </c>
       <c r="J17" s="3">
-        <v>3264200</v>
+        <v>2976300</v>
       </c>
       <c r="K17" s="3">
         <v>3972200</v>
@@ -1360,25 +1360,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>281400</v>
+        <v>256600</v>
       </c>
       <c r="E18" s="3">
-        <v>337100</v>
+        <v>307300</v>
       </c>
       <c r="F18" s="3">
-        <v>248100</v>
+        <v>226200</v>
       </c>
       <c r="G18" s="3">
-        <v>765900</v>
+        <v>698400</v>
       </c>
       <c r="H18" s="3">
-        <v>210300</v>
+        <v>191800</v>
       </c>
       <c r="I18" s="3">
-        <v>-176400</v>
+        <v>-160900</v>
       </c>
       <c r="J18" s="3">
-        <v>247500</v>
+        <v>225700</v>
       </c>
       <c r="K18" s="3">
         <v>-44200</v>
@@ -1454,25 +1454,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-73200</v>
+        <v>-66800</v>
       </c>
       <c r="E20" s="3">
-        <v>63800</v>
+        <v>58100</v>
       </c>
       <c r="F20" s="3">
-        <v>73400</v>
+        <v>67000</v>
       </c>
       <c r="G20" s="3">
-        <v>197800</v>
+        <v>180300</v>
       </c>
       <c r="H20" s="3">
-        <v>-166700</v>
+        <v>-152000</v>
       </c>
       <c r="I20" s="3">
-        <v>68800</v>
+        <v>62700</v>
       </c>
       <c r="J20" s="3">
-        <v>-467700</v>
+        <v>-426500</v>
       </c>
       <c r="K20" s="3">
         <v>52700</v>
@@ -1522,25 +1522,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>441700</v>
+        <v>402800</v>
       </c>
       <c r="E21" s="3">
-        <v>611100</v>
+        <v>557200</v>
       </c>
       <c r="F21" s="3">
-        <v>529900</v>
+        <v>483200</v>
       </c>
       <c r="G21" s="3">
-        <v>1509200</v>
+        <v>1376100</v>
       </c>
       <c r="H21" s="3">
-        <v>242000</v>
+        <v>220600</v>
       </c>
       <c r="I21" s="3">
-        <v>297700</v>
+        <v>271500</v>
       </c>
       <c r="J21" s="3">
-        <v>-8100</v>
+        <v>-7400</v>
       </c>
       <c r="K21" s="3">
         <v>345500</v>
@@ -1590,25 +1590,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>28200</v>
+        <v>25700</v>
       </c>
       <c r="E22" s="3">
-        <v>24300</v>
+        <v>22200</v>
       </c>
       <c r="F22" s="3">
-        <v>26300</v>
+        <v>24000</v>
       </c>
       <c r="G22" s="3">
-        <v>28100</v>
+        <v>25600</v>
       </c>
       <c r="H22" s="3">
-        <v>29000</v>
+        <v>26400</v>
       </c>
       <c r="I22" s="3">
-        <v>25700</v>
+        <v>23400</v>
       </c>
       <c r="J22" s="3">
-        <v>24200</v>
+        <v>22100</v>
       </c>
       <c r="K22" s="3">
         <v>27000</v>
@@ -1658,25 +1658,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>180000</v>
+        <v>164100</v>
       </c>
       <c r="E23" s="3">
-        <v>376500</v>
+        <v>343300</v>
       </c>
       <c r="F23" s="3">
-        <v>295200</v>
+        <v>269200</v>
       </c>
       <c r="G23" s="3">
-        <v>935600</v>
+        <v>853000</v>
       </c>
       <c r="H23" s="3">
-        <v>14700</v>
+        <v>13400</v>
       </c>
       <c r="I23" s="3">
-        <v>-133300</v>
+        <v>-121600</v>
       </c>
       <c r="J23" s="3">
-        <v>-244400</v>
+        <v>-222900</v>
       </c>
       <c r="K23" s="3">
         <v>-18500</v>
@@ -1726,25 +1726,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>54900</v>
+        <v>50000</v>
       </c>
       <c r="E24" s="3">
-        <v>110200</v>
+        <v>100500</v>
       </c>
       <c r="F24" s="3">
-        <v>86200</v>
+        <v>78600</v>
       </c>
       <c r="G24" s="3">
-        <v>90900</v>
+        <v>82900</v>
       </c>
       <c r="H24" s="3">
-        <v>26900</v>
+        <v>24500</v>
       </c>
       <c r="I24" s="3">
-        <v>31900</v>
+        <v>29100</v>
       </c>
       <c r="J24" s="3">
-        <v>-50800</v>
+        <v>-46300</v>
       </c>
       <c r="K24" s="3">
         <v>55000</v>
@@ -1862,25 +1862,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>125100</v>
+        <v>114100</v>
       </c>
       <c r="E26" s="3">
-        <v>266300</v>
+        <v>242800</v>
       </c>
       <c r="F26" s="3">
-        <v>209000</v>
+        <v>190500</v>
       </c>
       <c r="G26" s="3">
-        <v>844700</v>
+        <v>770200</v>
       </c>
       <c r="H26" s="3">
-        <v>-12200</v>
+        <v>-11100</v>
       </c>
       <c r="I26" s="3">
-        <v>-165200</v>
+        <v>-150600</v>
       </c>
       <c r="J26" s="3">
-        <v>-193600</v>
+        <v>-176600</v>
       </c>
       <c r="K26" s="3">
         <v>-73500</v>
@@ -1930,25 +1930,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>114200</v>
+        <v>104100</v>
       </c>
       <c r="E27" s="3">
-        <v>242000</v>
+        <v>220600</v>
       </c>
       <c r="F27" s="3">
-        <v>202300</v>
+        <v>184500</v>
       </c>
       <c r="G27" s="3">
-        <v>816800</v>
+        <v>744800</v>
       </c>
       <c r="H27" s="3">
-        <v>-12400</v>
+        <v>-11300</v>
       </c>
       <c r="I27" s="3">
-        <v>-140400</v>
+        <v>-128000</v>
       </c>
       <c r="J27" s="3">
-        <v>-169900</v>
+        <v>-154900</v>
       </c>
       <c r="K27" s="3">
         <v>-52700</v>
@@ -2066,25 +2066,25 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-2100</v>
+        <v>-1900</v>
       </c>
       <c r="E29" s="3">
-        <v>45200</v>
+        <v>41200</v>
       </c>
       <c r="F29" s="3">
-        <v>-42200</v>
+        <v>-38500</v>
       </c>
       <c r="G29" s="3">
-        <v>-247300</v>
+        <v>-225500</v>
       </c>
       <c r="H29" s="3">
-        <v>-12300</v>
+        <v>-11200</v>
       </c>
       <c r="I29" s="3">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="J29" s="3">
-        <v>-31300</v>
+        <v>-28600</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -2270,25 +2270,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>73200</v>
+        <v>66800</v>
       </c>
       <c r="E32" s="3">
-        <v>-63800</v>
+        <v>-58100</v>
       </c>
       <c r="F32" s="3">
-        <v>-73400</v>
+        <v>-67000</v>
       </c>
       <c r="G32" s="3">
-        <v>-197800</v>
+        <v>-180300</v>
       </c>
       <c r="H32" s="3">
-        <v>166700</v>
+        <v>152000</v>
       </c>
       <c r="I32" s="3">
-        <v>-68800</v>
+        <v>-62700</v>
       </c>
       <c r="J32" s="3">
-        <v>467700</v>
+        <v>426500</v>
       </c>
       <c r="K32" s="3">
         <v>-52700</v>
@@ -2338,25 +2338,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>112100</v>
+        <v>102200</v>
       </c>
       <c r="E33" s="3">
-        <v>287200</v>
+        <v>261900</v>
       </c>
       <c r="F33" s="3">
-        <v>160100</v>
+        <v>146000</v>
       </c>
       <c r="G33" s="3">
-        <v>569500</v>
+        <v>519300</v>
       </c>
       <c r="H33" s="3">
-        <v>-24800</v>
+        <v>-22600</v>
       </c>
       <c r="I33" s="3">
-        <v>-138700</v>
+        <v>-126400</v>
       </c>
       <c r="J33" s="3">
-        <v>-201200</v>
+        <v>-183500</v>
       </c>
       <c r="K33" s="3">
         <v>-52700</v>
@@ -2474,25 +2474,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>112100</v>
+        <v>102200</v>
       </c>
       <c r="E35" s="3">
-        <v>287200</v>
+        <v>261900</v>
       </c>
       <c r="F35" s="3">
-        <v>160100</v>
+        <v>146000</v>
       </c>
       <c r="G35" s="3">
-        <v>569500</v>
+        <v>519300</v>
       </c>
       <c r="H35" s="3">
-        <v>-24800</v>
+        <v>-22600</v>
       </c>
       <c r="I35" s="3">
-        <v>-138700</v>
+        <v>-126400</v>
       </c>
       <c r="J35" s="3">
-        <v>-201200</v>
+        <v>-183500</v>
       </c>
       <c r="K35" s="3">
         <v>-52700</v>
@@ -2667,25 +2667,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2087800</v>
+        <v>1903600</v>
       </c>
       <c r="E41" s="3">
-        <v>2238300</v>
+        <v>2040900</v>
       </c>
       <c r="F41" s="3">
-        <v>1667700</v>
+        <v>1520600</v>
       </c>
       <c r="G41" s="3">
-        <v>1959600</v>
+        <v>1786700</v>
       </c>
       <c r="H41" s="3">
-        <v>1943700</v>
+        <v>1772200</v>
       </c>
       <c r="I41" s="3">
-        <v>1709300</v>
+        <v>1558500</v>
       </c>
       <c r="J41" s="3">
-        <v>1351000</v>
+        <v>1231800</v>
       </c>
       <c r="K41" s="3">
         <v>1359800</v>
@@ -2735,25 +2735,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>874800</v>
+        <v>797600</v>
       </c>
       <c r="E42" s="3">
-        <v>474000</v>
+        <v>432100</v>
       </c>
       <c r="F42" s="3">
-        <v>519500</v>
+        <v>473700</v>
       </c>
       <c r="G42" s="3">
-        <v>506700</v>
+        <v>462000</v>
       </c>
       <c r="H42" s="3">
-        <v>661300</v>
+        <v>602900</v>
       </c>
       <c r="I42" s="3">
-        <v>644000</v>
+        <v>587200</v>
       </c>
       <c r="J42" s="3">
-        <v>306600</v>
+        <v>279600</v>
       </c>
       <c r="K42" s="3">
         <v>177500</v>
@@ -2803,25 +2803,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2207400</v>
+        <v>2012700</v>
       </c>
       <c r="E43" s="3">
-        <v>2204000</v>
+        <v>2009600</v>
       </c>
       <c r="F43" s="3">
-        <v>1865900</v>
+        <v>1701300</v>
       </c>
       <c r="G43" s="3">
-        <v>2040200</v>
+        <v>1860300</v>
       </c>
       <c r="H43" s="3">
-        <v>2251800</v>
+        <v>2053100</v>
       </c>
       <c r="I43" s="3">
-        <v>2101600</v>
+        <v>1916200</v>
       </c>
       <c r="J43" s="3">
-        <v>2726300</v>
+        <v>2485800</v>
       </c>
       <c r="K43" s="3">
         <v>2098400</v>
@@ -2871,25 +2871,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2107100</v>
+        <v>1921300</v>
       </c>
       <c r="E44" s="3">
-        <v>1828000</v>
+        <v>1666800</v>
       </c>
       <c r="F44" s="3">
-        <v>1590500</v>
+        <v>1450200</v>
       </c>
       <c r="G44" s="3">
-        <v>2165600</v>
+        <v>1974500</v>
       </c>
       <c r="H44" s="3">
-        <v>2142900</v>
+        <v>1953900</v>
       </c>
       <c r="I44" s="3">
-        <v>2264400</v>
+        <v>2064700</v>
       </c>
       <c r="J44" s="3">
-        <v>2495800</v>
+        <v>2275600</v>
       </c>
       <c r="K44" s="3">
         <v>2303900</v>
@@ -3007,25 +3007,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7277200</v>
+        <v>6635300</v>
       </c>
       <c r="E46" s="3">
-        <v>6744300</v>
+        <v>6149400</v>
       </c>
       <c r="F46" s="3">
-        <v>5643700</v>
+        <v>5145800</v>
       </c>
       <c r="G46" s="3">
-        <v>6672100</v>
+        <v>6083600</v>
       </c>
       <c r="H46" s="3">
-        <v>6999700</v>
+        <v>6382300</v>
       </c>
       <c r="I46" s="3">
-        <v>6719300</v>
+        <v>6126600</v>
       </c>
       <c r="J46" s="3">
-        <v>6879600</v>
+        <v>6272800</v>
       </c>
       <c r="K46" s="3">
         <v>5939600</v>
@@ -3075,25 +3075,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1962100</v>
+        <v>1789100</v>
       </c>
       <c r="E47" s="3">
-        <v>1936000</v>
+        <v>1765300</v>
       </c>
       <c r="F47" s="3">
-        <v>1913900</v>
+        <v>1745100</v>
       </c>
       <c r="G47" s="3">
-        <v>1920700</v>
+        <v>1751300</v>
       </c>
       <c r="H47" s="3">
-        <v>1338500</v>
+        <v>1220500</v>
       </c>
       <c r="I47" s="3">
-        <v>1402000</v>
+        <v>1278300</v>
       </c>
       <c r="J47" s="3">
-        <v>1538200</v>
+        <v>1402500</v>
       </c>
       <c r="K47" s="3">
         <v>1272900</v>
@@ -3143,25 +3143,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6070700</v>
+        <v>5535200</v>
       </c>
       <c r="E48" s="3">
-        <v>6260800</v>
+        <v>5708600</v>
       </c>
       <c r="F48" s="3">
-        <v>5987200</v>
+        <v>5459100</v>
       </c>
       <c r="G48" s="3">
-        <v>7137600</v>
+        <v>6508000</v>
       </c>
       <c r="H48" s="3">
-        <v>7627800</v>
+        <v>6955000</v>
       </c>
       <c r="I48" s="3">
-        <v>7830100</v>
+        <v>7139400</v>
       </c>
       <c r="J48" s="3">
-        <v>8655700</v>
+        <v>7892200</v>
       </c>
       <c r="K48" s="3">
         <v>8217200</v>
@@ -3211,25 +3211,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>983500</v>
+        <v>896700</v>
       </c>
       <c r="E49" s="3">
-        <v>1019200</v>
+        <v>929300</v>
       </c>
       <c r="F49" s="3">
-        <v>977200</v>
+        <v>891000</v>
       </c>
       <c r="G49" s="3">
-        <v>1039600</v>
+        <v>947900</v>
       </c>
       <c r="H49" s="3">
-        <v>1100200</v>
+        <v>1003200</v>
       </c>
       <c r="I49" s="3">
-        <v>1140100</v>
+        <v>1039500</v>
       </c>
       <c r="J49" s="3">
-        <v>1405300</v>
+        <v>1281300</v>
       </c>
       <c r="K49" s="3">
         <v>1272900</v>
@@ -3415,25 +3415,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2030700</v>
+        <v>1851600</v>
       </c>
       <c r="E52" s="3">
-        <v>1863000</v>
+        <v>1698700</v>
       </c>
       <c r="F52" s="3">
-        <v>3501500</v>
+        <v>3192700</v>
       </c>
       <c r="G52" s="3">
-        <v>1495700</v>
+        <v>1363800</v>
       </c>
       <c r="H52" s="3">
-        <v>1361300</v>
+        <v>1241200</v>
       </c>
       <c r="I52" s="3">
-        <v>1367200</v>
+        <v>1246600</v>
       </c>
       <c r="J52" s="3">
-        <v>1433900</v>
+        <v>1307400</v>
       </c>
       <c r="K52" s="3">
         <v>1493200</v>
@@ -3551,25 +3551,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>18324200</v>
+        <v>16707800</v>
       </c>
       <c r="E54" s="3">
-        <v>17823400</v>
+        <v>16251300</v>
       </c>
       <c r="F54" s="3">
-        <v>18023500</v>
+        <v>16433700</v>
       </c>
       <c r="G54" s="3">
-        <v>18265700</v>
+        <v>16654500</v>
       </c>
       <c r="H54" s="3">
-        <v>18427600</v>
+        <v>16802100</v>
       </c>
       <c r="I54" s="3">
-        <v>18458700</v>
+        <v>16830500</v>
       </c>
       <c r="J54" s="3">
-        <v>19912700</v>
+        <v>18156200</v>
       </c>
       <c r="K54" s="3">
         <v>18195900</v>
@@ -3671,25 +3671,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2246300</v>
+        <v>2048200</v>
       </c>
       <c r="E57" s="3">
-        <v>2255600</v>
+        <v>2056600</v>
       </c>
       <c r="F57" s="3">
-        <v>1940000</v>
+        <v>1768900</v>
       </c>
       <c r="G57" s="3">
-        <v>2105100</v>
+        <v>1919400</v>
       </c>
       <c r="H57" s="3">
-        <v>1984800</v>
+        <v>1809700</v>
       </c>
       <c r="I57" s="3">
-        <v>1854600</v>
+        <v>1691000</v>
       </c>
       <c r="J57" s="3">
-        <v>2395100</v>
+        <v>2183800</v>
       </c>
       <c r="K57" s="3">
         <v>2068800</v>
@@ -3739,25 +3739,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>465100</v>
+        <v>424000</v>
       </c>
       <c r="E58" s="3">
-        <v>464700</v>
+        <v>423700</v>
       </c>
       <c r="F58" s="3">
-        <v>522300</v>
+        <v>476200</v>
       </c>
       <c r="G58" s="3">
-        <v>527500</v>
+        <v>481000</v>
       </c>
       <c r="H58" s="3">
-        <v>768300</v>
+        <v>700500</v>
       </c>
       <c r="I58" s="3">
-        <v>788100</v>
+        <v>718600</v>
       </c>
       <c r="J58" s="3">
-        <v>858600</v>
+        <v>782800</v>
       </c>
       <c r="K58" s="3">
         <v>681500</v>
@@ -3807,25 +3807,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>784100</v>
+        <v>715000</v>
       </c>
       <c r="E59" s="3">
-        <v>576700</v>
+        <v>525800</v>
       </c>
       <c r="F59" s="3">
-        <v>448400</v>
+        <v>408800</v>
       </c>
       <c r="G59" s="3">
-        <v>594600</v>
+        <v>542200</v>
       </c>
       <c r="H59" s="3">
-        <v>406500</v>
+        <v>370700</v>
       </c>
       <c r="I59" s="3">
-        <v>413400</v>
+        <v>376900</v>
       </c>
       <c r="J59" s="3">
-        <v>530100</v>
+        <v>483300</v>
       </c>
       <c r="K59" s="3">
         <v>535900</v>
@@ -3875,25 +3875,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3495500</v>
+        <v>3187200</v>
       </c>
       <c r="E60" s="3">
-        <v>3297000</v>
+        <v>3006200</v>
       </c>
       <c r="F60" s="3">
-        <v>2910700</v>
+        <v>2654000</v>
       </c>
       <c r="G60" s="3">
-        <v>3227200</v>
+        <v>2942600</v>
       </c>
       <c r="H60" s="3">
-        <v>3159600</v>
+        <v>2880900</v>
       </c>
       <c r="I60" s="3">
-        <v>3056100</v>
+        <v>2786600</v>
       </c>
       <c r="J60" s="3">
-        <v>3783700</v>
+        <v>3450000</v>
       </c>
       <c r="K60" s="3">
         <v>3286200</v>
@@ -3943,25 +3943,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2832500</v>
+        <v>2582600</v>
       </c>
       <c r="E61" s="3">
-        <v>2728800</v>
+        <v>2488100</v>
       </c>
       <c r="F61" s="3">
-        <v>2628400</v>
+        <v>2396600</v>
       </c>
       <c r="G61" s="3">
-        <v>2756500</v>
+        <v>2513400</v>
       </c>
       <c r="H61" s="3">
-        <v>2874500</v>
+        <v>2620900</v>
       </c>
       <c r="I61" s="3">
-        <v>2954700</v>
+        <v>2694100</v>
       </c>
       <c r="J61" s="3">
-        <v>2365300</v>
+        <v>2156700</v>
       </c>
       <c r="K61" s="3">
         <v>2087200</v>
@@ -4011,25 +4011,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3001900</v>
+        <v>2737100</v>
       </c>
       <c r="E62" s="3">
-        <v>2737900</v>
+        <v>2496400</v>
       </c>
       <c r="F62" s="3">
-        <v>3851600</v>
+        <v>3511900</v>
       </c>
       <c r="G62" s="3">
-        <v>3678000</v>
+        <v>3353500</v>
       </c>
       <c r="H62" s="3">
-        <v>3850500</v>
+        <v>3510900</v>
       </c>
       <c r="I62" s="3">
-        <v>3686200</v>
+        <v>3361000</v>
       </c>
       <c r="J62" s="3">
-        <v>4078800</v>
+        <v>3719000</v>
       </c>
       <c r="K62" s="3">
         <v>3516400</v>
@@ -4283,25 +4283,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9710000</v>
+        <v>8853500</v>
       </c>
       <c r="E66" s="3">
-        <v>9167900</v>
+        <v>8359200</v>
       </c>
       <c r="F66" s="3">
-        <v>9719400</v>
+        <v>8862000</v>
       </c>
       <c r="G66" s="3">
-        <v>10013300</v>
+        <v>9130100</v>
       </c>
       <c r="H66" s="3">
-        <v>10224800</v>
+        <v>9322800</v>
       </c>
       <c r="I66" s="3">
-        <v>10055900</v>
+        <v>9168900</v>
       </c>
       <c r="J66" s="3">
-        <v>10667700</v>
+        <v>9726700</v>
       </c>
       <c r="K66" s="3">
         <v>9348900</v>
@@ -4649,25 +4649,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5873100</v>
+        <v>5355000</v>
       </c>
       <c r="E72" s="3">
-        <v>5761000</v>
+        <v>5252800</v>
       </c>
       <c r="F72" s="3">
-        <v>5940400</v>
+        <v>5416400</v>
       </c>
       <c r="G72" s="3">
-        <v>5780300</v>
+        <v>5270400</v>
       </c>
       <c r="H72" s="3">
-        <v>5495600</v>
+        <v>5010800</v>
       </c>
       <c r="I72" s="3">
-        <v>5520200</v>
+        <v>5033300</v>
       </c>
       <c r="J72" s="3">
-        <v>5658800</v>
+        <v>5159600</v>
       </c>
       <c r="K72" s="3">
         <v>5837800</v>
@@ -4921,25 +4921,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8614100</v>
+        <v>7854300</v>
       </c>
       <c r="E76" s="3">
-        <v>8655600</v>
+        <v>7892100</v>
       </c>
       <c r="F76" s="3">
-        <v>8304200</v>
+        <v>7571700</v>
       </c>
       <c r="G76" s="3">
-        <v>8252400</v>
+        <v>7524500</v>
       </c>
       <c r="H76" s="3">
-        <v>8202800</v>
+        <v>7479300</v>
       </c>
       <c r="I76" s="3">
-        <v>8402800</v>
+        <v>7661600</v>
       </c>
       <c r="J76" s="3">
-        <v>9245000</v>
+        <v>8429500</v>
       </c>
       <c r="K76" s="3">
         <v>8847000</v>
@@ -5130,25 +5130,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>112100</v>
+        <v>102200</v>
       </c>
       <c r="E81" s="3">
-        <v>287200</v>
+        <v>261900</v>
       </c>
       <c r="F81" s="3">
-        <v>160100</v>
+        <v>146000</v>
       </c>
       <c r="G81" s="3">
-        <v>569500</v>
+        <v>519300</v>
       </c>
       <c r="H81" s="3">
-        <v>-24800</v>
+        <v>-22600</v>
       </c>
       <c r="I81" s="3">
-        <v>-138700</v>
+        <v>-126400</v>
       </c>
       <c r="J81" s="3">
-        <v>-201200</v>
+        <v>-183500</v>
       </c>
       <c r="K81" s="3">
         <v>-52700</v>
@@ -5224,25 +5224,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>233500</v>
+        <v>212900</v>
       </c>
       <c r="E83" s="3">
-        <v>210200</v>
+        <v>191700</v>
       </c>
       <c r="F83" s="3">
-        <v>208400</v>
+        <v>190000</v>
       </c>
       <c r="G83" s="3">
-        <v>445800</v>
+        <v>406500</v>
       </c>
       <c r="H83" s="3">
-        <v>231600</v>
+        <v>211200</v>
       </c>
       <c r="I83" s="3">
-        <v>439500</v>
+        <v>400700</v>
       </c>
       <c r="J83" s="3">
-        <v>244300</v>
+        <v>222800</v>
       </c>
       <c r="K83" s="3">
         <v>337000</v>
@@ -5632,25 +5632,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-9200</v>
+        <v>-8400</v>
       </c>
       <c r="E89" s="3">
-        <v>726400</v>
+        <v>662300</v>
       </c>
       <c r="F89" s="3">
-        <v>-60400</v>
+        <v>-55100</v>
       </c>
       <c r="G89" s="3">
-        <v>604800</v>
+        <v>551500</v>
       </c>
       <c r="H89" s="3">
-        <v>502100</v>
+        <v>457800</v>
       </c>
       <c r="I89" s="3">
-        <v>243300</v>
+        <v>221800</v>
       </c>
       <c r="J89" s="3">
-        <v>151300</v>
+        <v>138000</v>
       </c>
       <c r="K89" s="3">
         <v>628700</v>
@@ -5726,25 +5726,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-144400</v>
+        <v>-131700</v>
       </c>
       <c r="E91" s="3">
-        <v>-152100</v>
+        <v>-138700</v>
       </c>
       <c r="F91" s="3">
-        <v>-113000</v>
+        <v>-103000</v>
       </c>
       <c r="G91" s="3">
-        <v>-280600</v>
+        <v>-255900</v>
       </c>
       <c r="H91" s="3">
-        <v>-140100</v>
+        <v>-127700</v>
       </c>
       <c r="I91" s="3">
-        <v>-127700</v>
+        <v>-116400</v>
       </c>
       <c r="J91" s="3">
-        <v>-150100</v>
+        <v>-136900</v>
       </c>
       <c r="K91" s="3">
         <v>-320200</v>
@@ -5930,25 +5930,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-164000</v>
+        <v>-149500</v>
       </c>
       <c r="E94" s="3">
-        <v>101200</v>
+        <v>92300</v>
       </c>
       <c r="F94" s="3">
-        <v>-144200</v>
+        <v>-131500</v>
       </c>
       <c r="G94" s="3">
-        <v>-66100</v>
+        <v>-60300</v>
       </c>
       <c r="H94" s="3">
-        <v>-144400</v>
+        <v>-131700</v>
       </c>
       <c r="I94" s="3">
-        <v>-501100</v>
+        <v>-456900</v>
       </c>
       <c r="J94" s="3">
-        <v>-213300</v>
+        <v>-194500</v>
       </c>
       <c r="K94" s="3">
         <v>-324000</v>
@@ -6027,13 +6027,13 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-284900</v>
+        <v>-259700</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-292000</v>
+        <v>-266200</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -6296,25 +6296,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>45100</v>
+        <v>41100</v>
       </c>
       <c r="E100" s="3">
-        <v>-295500</v>
+        <v>-269500</v>
       </c>
       <c r="F100" s="3">
-        <v>-55200</v>
+        <v>-50300</v>
       </c>
       <c r="G100" s="3">
-        <v>-533200</v>
+        <v>-486100</v>
       </c>
       <c r="H100" s="3">
-        <v>-81100</v>
+        <v>-73900</v>
       </c>
       <c r="I100" s="3">
-        <v>733700</v>
+        <v>669000</v>
       </c>
       <c r="J100" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="K100" s="3">
         <v>-107400</v>
@@ -6364,25 +6364,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-22400</v>
+        <v>-20500</v>
       </c>
       <c r="E101" s="3">
-        <v>38400</v>
+        <v>35000</v>
       </c>
       <c r="F101" s="3">
-        <v>-31900</v>
+        <v>-29100</v>
       </c>
       <c r="G101" s="3">
-        <v>-35800</v>
+        <v>-32600</v>
       </c>
       <c r="H101" s="3">
-        <v>-24400</v>
+        <v>-22300</v>
       </c>
       <c r="I101" s="3">
-        <v>-104700</v>
+        <v>-95400</v>
       </c>
       <c r="J101" s="3">
-        <v>64100</v>
+        <v>58500</v>
       </c>
       <c r="K101" s="3">
         <v>-8600</v>
@@ -6432,25 +6432,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-150500</v>
+        <v>-137300</v>
       </c>
       <c r="E102" s="3">
-        <v>570500</v>
+        <v>520200</v>
       </c>
       <c r="F102" s="3">
-        <v>-291700</v>
+        <v>-266000</v>
       </c>
       <c r="G102" s="3">
-        <v>15900</v>
+        <v>14500</v>
       </c>
       <c r="H102" s="3">
-        <v>234400</v>
+        <v>213700</v>
       </c>
       <c r="I102" s="3">
-        <v>358300</v>
+        <v>326700</v>
       </c>
       <c r="J102" s="3">
-        <v>-14000</v>
+        <v>-12800</v>
       </c>
       <c r="K102" s="3">
         <v>188700</v>

--- a/AAII_Financials/Quarterly/NHYDY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NHYDY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
   <si>
     <t>NHYDY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,346 @@
     <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3718700</v>
+        <v>6711300</v>
       </c>
       <c r="E8" s="3">
-        <v>3500800</v>
+        <v>4828500</v>
       </c>
       <c r="F8" s="3">
-        <v>3236600</v>
+        <v>4809500</v>
       </c>
       <c r="G8" s="3">
-        <v>1222400</v>
+        <v>3802400</v>
       </c>
       <c r="H8" s="3">
+        <v>3579600</v>
+      </c>
+      <c r="I8" s="3">
+        <v>3309500</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1249900</v>
+      </c>
+      <c r="K8" s="3">
         <v>2787400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="L8" s="3">
         <v>2567200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="M8" s="3">
         <v>3202000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="N8" s="3">
         <v>3928000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="O8" s="3">
         <v>4515500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="P8" s="3">
         <v>4529900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="Q8" s="3">
         <v>4254800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="R8" s="3">
         <v>4330700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="S8" s="3">
         <v>4068100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="T8" s="3">
         <v>4220300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="U8" s="3">
         <v>4336500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="V8" s="3">
         <v>4493100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="W8" s="3">
         <v>2639900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="X8" s="3">
         <v>2847400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="Y8" s="3">
         <v>2839100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Z8" s="3">
         <v>2620100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="AA8" s="3">
         <v>2487500</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2400900</v>
+        <v>3835700</v>
       </c>
       <c r="E9" s="3">
-        <v>2148900</v>
+        <v>3020400</v>
       </c>
       <c r="F9" s="3">
-        <v>1937500</v>
+        <v>2569200</v>
       </c>
       <c r="G9" s="3">
-        <v>612100</v>
+        <v>2454900</v>
       </c>
       <c r="H9" s="3">
+        <v>2197200</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1981100</v>
+      </c>
+      <c r="J9" s="3">
+        <v>625800</v>
+      </c>
+      <c r="K9" s="3">
         <v>1676100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="L9" s="3">
         <v>1603700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="M9" s="3">
         <v>1894400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="N9" s="3">
         <v>2471300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="O9" s="3">
         <v>2899500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="P9" s="3">
         <v>2997100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="Q9" s="3">
         <v>2845600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="R9" s="3">
         <v>2839000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="S9" s="3">
         <v>2625700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="T9" s="3">
         <v>2710500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="U9" s="3">
         <v>2733500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="V9" s="3">
         <v>2826500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="W9" s="3">
         <v>1710000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="X9" s="3">
         <v>1835000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="Y9" s="3">
         <v>1827600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Z9" s="3">
         <v>1651100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="AA9" s="3">
         <v>1588800</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1317800</v>
+        <v>2875600</v>
       </c>
       <c r="E10" s="3">
-        <v>1351900</v>
+        <v>1808100</v>
       </c>
       <c r="F10" s="3">
-        <v>1299200</v>
+        <v>2240300</v>
       </c>
       <c r="G10" s="3">
-        <v>610300</v>
+        <v>1347500</v>
       </c>
       <c r="H10" s="3">
+        <v>1382400</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1328400</v>
+      </c>
+      <c r="J10" s="3">
+        <v>624100</v>
+      </c>
+      <c r="K10" s="3">
         <v>1111300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="L10" s="3">
         <v>963600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="M10" s="3">
         <v>1307600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="N10" s="3">
         <v>1456800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="O10" s="3">
         <v>1616100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="P10" s="3">
         <v>1532800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="Q10" s="3">
         <v>1409100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="R10" s="3">
         <v>1491700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="S10" s="3">
         <v>1442300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="T10" s="3">
         <v>1509700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="U10" s="3">
         <v>1602900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="V10" s="3">
         <v>1666600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="W10" s="3">
         <v>929900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="X10" s="3">
         <v>1012400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="Y10" s="3">
         <v>1011600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Z10" s="3">
         <v>969000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="AA10" s="3">
         <v>898600</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1029,11 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1100,17 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,43 +1177,52 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>30500</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H14" s="3">
         <v>700</v>
       </c>
-      <c r="F14" s="3">
-        <v>12400</v>
-      </c>
-      <c r="G14" s="3">
-        <v>6400</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
+        <v>12600</v>
+      </c>
+      <c r="J14" s="3">
+        <v>6500</v>
+      </c>
+      <c r="K14" s="3">
         <v>7600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="L14" s="3">
         <v>185300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="M14" s="3">
         <v>1200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="N14" s="3">
         <v>100900</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1174,8 +1233,8 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
@@ -1183,8 +1242,8 @@
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>8</v>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>8</v>
@@ -1195,76 +1254,94 @@
       <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>211500</v>
+        <v>224500</v>
       </c>
       <c r="E15" s="3">
-        <v>191000</v>
+        <v>209200</v>
       </c>
       <c r="F15" s="3">
-        <v>177700</v>
+        <v>219300</v>
       </c>
       <c r="G15" s="3">
-        <v>86200</v>
+        <v>216300</v>
       </c>
       <c r="H15" s="3">
+        <v>195200</v>
+      </c>
+      <c r="I15" s="3">
+        <v>181700</v>
+      </c>
+      <c r="J15" s="3">
+        <v>88100</v>
+      </c>
+      <c r="K15" s="3">
         <v>173300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="L15" s="3">
         <v>184400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="M15" s="3">
         <v>192100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="N15" s="3">
         <v>236000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="O15" s="3">
         <v>269100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="P15" s="3">
         <v>243400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="Q15" s="3">
         <v>237500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="R15" s="3">
         <v>193900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="S15" s="3">
         <v>189400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="T15" s="3">
         <v>193400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="U15" s="3">
         <v>207100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="V15" s="3">
         <v>228100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="W15" s="3">
         <v>167900</v>
       </c>
-      <c r="U15" s="3">
+      <c r="X15" s="3">
         <v>160800</v>
       </c>
-      <c r="V15" s="3">
+      <c r="Y15" s="3">
         <v>166700</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Z15" s="3">
         <v>197200</v>
       </c>
-      <c r="X15" s="3">
+      <c r="AA15" s="3">
         <v>174600</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1363,165 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3462100</v>
+        <v>5114300</v>
       </c>
       <c r="E17" s="3">
-        <v>3193500</v>
+        <v>4184000</v>
       </c>
       <c r="F17" s="3">
-        <v>3010400</v>
+        <v>3764800</v>
       </c>
       <c r="G17" s="3">
-        <v>524000</v>
+        <v>3540100</v>
       </c>
       <c r="H17" s="3">
+        <v>3265400</v>
+      </c>
+      <c r="I17" s="3">
+        <v>3078200</v>
+      </c>
+      <c r="J17" s="3">
+        <v>535800</v>
+      </c>
+      <c r="K17" s="3">
         <v>2595600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>2728100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>2976300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>3972200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="O17" s="3">
         <v>4488800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="P17" s="3">
         <v>4454100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="Q17" s="3">
         <v>4252500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="R17" s="3">
         <v>4310600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="S17" s="3">
         <v>3857600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="T17" s="3">
         <v>3914800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="U17" s="3">
         <v>3978300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="V17" s="3">
         <v>3970800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="W17" s="3">
         <v>2370900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="X17" s="3">
         <v>2506300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="Y17" s="3">
         <v>2542000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Z17" s="3">
         <v>2378000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="AA17" s="3">
         <v>2317800</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>256600</v>
+        <v>1597000</v>
       </c>
       <c r="E18" s="3">
-        <v>307300</v>
+        <v>644500</v>
       </c>
       <c r="F18" s="3">
-        <v>226200</v>
+        <v>1044700</v>
       </c>
       <c r="G18" s="3">
-        <v>698400</v>
+        <v>262400</v>
       </c>
       <c r="H18" s="3">
+        <v>314300</v>
+      </c>
+      <c r="I18" s="3">
+        <v>231300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>714100</v>
+      </c>
+      <c r="K18" s="3">
         <v>191800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>-160900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="M18" s="3">
         <v>225700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="N18" s="3">
         <v>-44200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="O18" s="3">
         <v>26700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="P18" s="3">
         <v>75900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="Q18" s="3">
         <v>2300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="R18" s="3">
         <v>20100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="S18" s="3">
         <v>210400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="T18" s="3">
         <v>305500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="U18" s="3">
         <v>358100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="V18" s="3">
         <v>522300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="W18" s="3">
         <v>269000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="X18" s="3">
         <v>341100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="Y18" s="3">
         <v>297200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Z18" s="3">
         <v>242200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="AA18" s="3">
         <v>169700</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,348 +1546,396 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-66800</v>
+        <v>-105100</v>
       </c>
       <c r="E20" s="3">
-        <v>58100</v>
+        <v>250200</v>
       </c>
       <c r="F20" s="3">
-        <v>67000</v>
+        <v>92200</v>
       </c>
       <c r="G20" s="3">
-        <v>180300</v>
+        <v>-68300</v>
       </c>
       <c r="H20" s="3">
+        <v>59500</v>
+      </c>
+      <c r="I20" s="3">
+        <v>68500</v>
+      </c>
+      <c r="J20" s="3">
+        <v>184400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-152000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="L20" s="3">
         <v>62700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="M20" s="3">
         <v>-426500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="N20" s="3">
         <v>52700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="O20" s="3">
         <v>-170700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="P20" s="3">
         <v>-51800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="Q20" s="3">
         <v>20800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="R20" s="3">
         <v>-51000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="S20" s="3">
         <v>-27200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="T20" s="3">
         <v>-30000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="U20" s="3">
         <v>-38200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="V20" s="3">
         <v>-77500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="W20" s="3">
         <v>60900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="X20" s="3">
         <v>-102800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="Y20" s="3">
         <v>27100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Z20" s="3">
         <v>-3800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="AA20" s="3">
         <v>44600</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>402800</v>
+        <v>1716400</v>
       </c>
       <c r="E21" s="3">
-        <v>557200</v>
+        <v>1104000</v>
       </c>
       <c r="F21" s="3">
-        <v>483200</v>
+        <v>1386600</v>
       </c>
       <c r="G21" s="3">
-        <v>1376100</v>
+        <v>411800</v>
       </c>
       <c r="H21" s="3">
+        <v>569700</v>
+      </c>
+      <c r="I21" s="3">
+        <v>494100</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1085900</v>
+      </c>
+      <c r="K21" s="3">
         <v>220600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="L21" s="3">
         <v>271500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="M21" s="3">
         <v>-7400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="N21" s="3">
         <v>345500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="O21" s="3">
         <v>125200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="P21" s="3">
         <v>267600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="Q21" s="3">
         <v>260600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="R21" s="3">
         <v>163000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="S21" s="3">
         <v>372600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="T21" s="3">
         <v>468800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="U21" s="3">
         <v>527000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="V21" s="3">
         <v>673000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="W21" s="3">
         <v>497900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="X21" s="3">
         <v>399100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="Y21" s="3">
         <v>491000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Z21" s="3">
         <v>435600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="AA21" s="3">
         <v>388800</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>25700</v>
+        <v>30600</v>
       </c>
       <c r="E22" s="3">
-        <v>22200</v>
+        <v>23000</v>
       </c>
       <c r="F22" s="3">
-        <v>24000</v>
+        <v>25500</v>
       </c>
       <c r="G22" s="3">
-        <v>25600</v>
+        <v>26300</v>
       </c>
       <c r="H22" s="3">
+        <v>22700</v>
+      </c>
+      <c r="I22" s="3">
+        <v>24500</v>
+      </c>
+      <c r="J22" s="3">
+        <v>26200</v>
+      </c>
+      <c r="K22" s="3">
         <v>26400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="L22" s="3">
         <v>23400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="M22" s="3">
         <v>22100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="N22" s="3">
         <v>27000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="O22" s="3">
         <v>25400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="P22" s="3">
         <v>25000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="Q22" s="3">
         <v>20200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="R22" s="3">
         <v>30300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="S22" s="3">
         <v>16100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="T22" s="3">
         <v>15100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="U22" s="3">
         <v>13300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="V22" s="3">
         <v>12400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="W22" s="3">
         <v>4700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="X22" s="3">
         <v>8200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="Y22" s="3">
         <v>10400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Z22" s="3">
         <v>13400</v>
       </c>
-      <c r="X22" s="3">
+      <c r="AA22" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>164100</v>
+        <v>1461300</v>
       </c>
       <c r="E23" s="3">
-        <v>343300</v>
+        <v>871700</v>
       </c>
       <c r="F23" s="3">
-        <v>269200</v>
+        <v>1111400</v>
       </c>
       <c r="G23" s="3">
-        <v>853000</v>
+        <v>167800</v>
       </c>
       <c r="H23" s="3">
+        <v>351000</v>
+      </c>
+      <c r="I23" s="3">
+        <v>275200</v>
+      </c>
+      <c r="J23" s="3">
+        <v>872200</v>
+      </c>
+      <c r="K23" s="3">
         <v>13400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>-121600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>-222900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="N23" s="3">
         <v>-18500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="O23" s="3">
         <v>-169300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="P23" s="3">
         <v>-900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="Q23" s="3">
         <v>2900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="R23" s="3">
         <v>-61300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="S23" s="3">
         <v>167200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="T23" s="3">
         <v>260400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="U23" s="3">
         <v>306600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="V23" s="3">
         <v>432500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="W23" s="3">
         <v>325100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="X23" s="3">
         <v>230100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="Y23" s="3">
         <v>313900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Z23" s="3">
         <v>224900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="AA23" s="3">
         <v>208700</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>50000</v>
+        <v>307700</v>
       </c>
       <c r="E24" s="3">
+        <v>207700</v>
+      </c>
+      <c r="F24" s="3">
+        <v>228400</v>
+      </c>
+      <c r="G24" s="3">
+        <v>51200</v>
+      </c>
+      <c r="H24" s="3">
+        <v>102800</v>
+      </c>
+      <c r="I24" s="3">
+        <v>80400</v>
+      </c>
+      <c r="J24" s="3">
+        <v>84700</v>
+      </c>
+      <c r="K24" s="3">
+        <v>24500</v>
+      </c>
+      <c r="L24" s="3">
+        <v>29100</v>
+      </c>
+      <c r="M24" s="3">
+        <v>-46300</v>
+      </c>
+      <c r="N24" s="3">
+        <v>55000</v>
+      </c>
+      <c r="O24" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="P24" s="3">
+        <v>21200</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>17000</v>
+      </c>
+      <c r="R24" s="3">
+        <v>23500</v>
+      </c>
+      <c r="S24" s="3">
+        <v>72600</v>
+      </c>
+      <c r="T24" s="3">
+        <v>48400</v>
+      </c>
+      <c r="U24" s="3">
+        <v>81300</v>
+      </c>
+      <c r="V24" s="3">
+        <v>15600</v>
+      </c>
+      <c r="W24" s="3">
+        <v>72300</v>
+      </c>
+      <c r="X24" s="3">
+        <v>49100</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>87200</v>
+      </c>
+      <c r="Z24" s="3">
         <v>100500</v>
       </c>
-      <c r="F24" s="3">
-        <v>78600</v>
-      </c>
-      <c r="G24" s="3">
-        <v>82900</v>
-      </c>
-      <c r="H24" s="3">
-        <v>24500</v>
-      </c>
-      <c r="I24" s="3">
-        <v>29100</v>
-      </c>
-      <c r="J24" s="3">
-        <v>-46300</v>
-      </c>
-      <c r="K24" s="3">
-        <v>55000</v>
-      </c>
-      <c r="L24" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="M24" s="3">
-        <v>21200</v>
-      </c>
-      <c r="N24" s="3">
-        <v>17000</v>
-      </c>
-      <c r="O24" s="3">
-        <v>23500</v>
-      </c>
-      <c r="P24" s="3">
-        <v>72600</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>48400</v>
-      </c>
-      <c r="R24" s="3">
-        <v>81300</v>
-      </c>
-      <c r="S24" s="3">
-        <v>15600</v>
-      </c>
-      <c r="T24" s="3">
-        <v>72300</v>
-      </c>
-      <c r="U24" s="3">
-        <v>49100</v>
-      </c>
-      <c r="V24" s="3">
-        <v>87200</v>
-      </c>
-      <c r="W24" s="3">
-        <v>100500</v>
-      </c>
-      <c r="X24" s="3">
+      <c r="AA24" s="3">
         <v>70800</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +2002,171 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>114100</v>
+        <v>1153600</v>
       </c>
       <c r="E26" s="3">
-        <v>242800</v>
+        <v>664100</v>
       </c>
       <c r="F26" s="3">
-        <v>190500</v>
+        <v>883000</v>
       </c>
       <c r="G26" s="3">
-        <v>770200</v>
+        <v>116600</v>
       </c>
       <c r="H26" s="3">
+        <v>248300</v>
+      </c>
+      <c r="I26" s="3">
+        <v>194800</v>
+      </c>
+      <c r="J26" s="3">
+        <v>787500</v>
+      </c>
+      <c r="K26" s="3">
         <v>-11100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>-150600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <v>-176600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="N26" s="3">
         <v>-73500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="O26" s="3">
         <v>-167400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="P26" s="3">
         <v>-22100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="Q26" s="3">
         <v>-14000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="R26" s="3">
         <v>-84700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="S26" s="3">
         <v>94500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="T26" s="3">
         <v>212000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="U26" s="3">
         <v>225300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="V26" s="3">
         <v>416800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="W26" s="3">
         <v>252900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="X26" s="3">
         <v>181000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="Y26" s="3">
         <v>226700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Z26" s="3">
         <v>124400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="AA26" s="3">
         <v>138000</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>104100</v>
+        <v>1168100</v>
       </c>
       <c r="E27" s="3">
-        <v>220600</v>
+        <v>594400</v>
       </c>
       <c r="F27" s="3">
-        <v>184500</v>
+        <v>737700</v>
       </c>
       <c r="G27" s="3">
-        <v>744800</v>
+        <v>106500</v>
       </c>
       <c r="H27" s="3">
+        <v>225600</v>
+      </c>
+      <c r="I27" s="3">
+        <v>188600</v>
+      </c>
+      <c r="J27" s="3">
+        <v>761500</v>
+      </c>
+      <c r="K27" s="3">
         <v>-11300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>-128000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
         <v>-154900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="N27" s="3">
         <v>-52700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="O27" s="3">
         <v>-151500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="P27" s="3">
         <v>-9800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="Q27" s="3">
         <v>1000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="R27" s="3">
         <v>-78200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="S27" s="3">
         <v>76800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="T27" s="3">
         <v>215600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="U27" s="3">
         <v>226900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="V27" s="3">
         <v>405100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="W27" s="3">
         <v>235900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="X27" s="3">
         <v>171800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="Y27" s="3">
         <v>217300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Z27" s="3">
         <v>130700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="AA27" s="3">
         <v>133800</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,47 +2233,56 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-1900</v>
+        <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>41200</v>
+        <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>-38500</v>
+        <v>400</v>
       </c>
       <c r="G29" s="3">
-        <v>-225500</v>
+        <v>-2000</v>
       </c>
       <c r="H29" s="3">
+        <v>42200</v>
+      </c>
+      <c r="I29" s="3">
+        <v>-39400</v>
+      </c>
+      <c r="J29" s="3">
+        <v>-230600</v>
+      </c>
+      <c r="K29" s="3">
         <v>-11200</v>
       </c>
-      <c r="I29" s="3">
+      <c r="L29" s="3">
         <v>1600</v>
       </c>
-      <c r="J29" s="3">
+      <c r="M29" s="3">
         <v>-28600</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
@@ -2128,8 +2310,17 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2387,17 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2464,171 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>66800</v>
+        <v>105100</v>
       </c>
       <c r="E32" s="3">
-        <v>-58100</v>
+        <v>-250200</v>
       </c>
       <c r="F32" s="3">
-        <v>-67000</v>
+        <v>-92200</v>
       </c>
       <c r="G32" s="3">
-        <v>-180300</v>
+        <v>68300</v>
       </c>
       <c r="H32" s="3">
+        <v>-59500</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-68500</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-184400</v>
+      </c>
+      <c r="K32" s="3">
         <v>152000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="L32" s="3">
         <v>-62700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="M32" s="3">
         <v>426500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="N32" s="3">
         <v>-52700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="O32" s="3">
         <v>170700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="P32" s="3">
         <v>51800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="Q32" s="3">
         <v>-20800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="R32" s="3">
         <v>51000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="S32" s="3">
         <v>27200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="T32" s="3">
         <v>30000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="U32" s="3">
         <v>38200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="V32" s="3">
         <v>77500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="W32" s="3">
         <v>-60900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="X32" s="3">
         <v>102800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="Y32" s="3">
         <v>-27100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Z32" s="3">
         <v>3800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="AA32" s="3">
         <v>-44600</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>102200</v>
+        <v>1168100</v>
       </c>
       <c r="E33" s="3">
-        <v>261900</v>
+        <v>594400</v>
       </c>
       <c r="F33" s="3">
-        <v>146000</v>
+        <v>738100</v>
       </c>
       <c r="G33" s="3">
-        <v>519300</v>
+        <v>104500</v>
       </c>
       <c r="H33" s="3">
+        <v>267800</v>
+      </c>
+      <c r="I33" s="3">
+        <v>149300</v>
+      </c>
+      <c r="J33" s="3">
+        <v>531000</v>
+      </c>
+      <c r="K33" s="3">
         <v>-22600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>-126400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="M33" s="3">
         <v>-183500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="N33" s="3">
         <v>-52700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="O33" s="3">
         <v>-151500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="P33" s="3">
         <v>-9800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="Q33" s="3">
         <v>1000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="R33" s="3">
         <v>-78200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="S33" s="3">
         <v>76800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="T33" s="3">
         <v>215600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="U33" s="3">
         <v>226900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="V33" s="3">
         <v>405100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="W33" s="3">
         <v>235900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="X33" s="3">
         <v>171800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="Y33" s="3">
         <v>217300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Z33" s="3">
         <v>130700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="AA33" s="3">
         <v>133800</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2695,176 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>102200</v>
+        <v>1168100</v>
       </c>
       <c r="E35" s="3">
-        <v>261900</v>
+        <v>594400</v>
       </c>
       <c r="F35" s="3">
-        <v>146000</v>
+        <v>738100</v>
       </c>
       <c r="G35" s="3">
-        <v>519300</v>
+        <v>104500</v>
       </c>
       <c r="H35" s="3">
+        <v>267800</v>
+      </c>
+      <c r="I35" s="3">
+        <v>149300</v>
+      </c>
+      <c r="J35" s="3">
+        <v>531000</v>
+      </c>
+      <c r="K35" s="3">
         <v>-22600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>-126400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="M35" s="3">
         <v>-183500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="N35" s="3">
         <v>-52700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="O35" s="3">
         <v>-151500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="P35" s="3">
         <v>-9800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="Q35" s="3">
         <v>1000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="R35" s="3">
         <v>-78200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="S35" s="3">
         <v>76800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="T35" s="3">
         <v>215600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="U35" s="3">
         <v>226900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="V35" s="3">
         <v>405100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="W35" s="3">
         <v>235900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="X35" s="3">
         <v>171800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="Y35" s="3">
         <v>217300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Z35" s="3">
         <v>130700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="AA35" s="3">
         <v>133800</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2889,11 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,280 +2918,319 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1903600</v>
+        <v>2538400</v>
       </c>
       <c r="E41" s="3">
-        <v>2040900</v>
+        <v>2191900</v>
       </c>
       <c r="F41" s="3">
-        <v>1520600</v>
+        <v>2374400</v>
       </c>
       <c r="G41" s="3">
-        <v>1786700</v>
+        <v>1946500</v>
       </c>
       <c r="H41" s="3">
+        <v>2086800</v>
+      </c>
+      <c r="I41" s="3">
+        <v>1554800</v>
+      </c>
+      <c r="J41" s="3">
+        <v>1826900</v>
+      </c>
+      <c r="K41" s="3">
         <v>1772200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="L41" s="3">
         <v>1558500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="M41" s="3">
         <v>1231800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="N41" s="3">
         <v>1359800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="O41" s="3">
         <v>1273500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="P41" s="3">
         <v>1224500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="Q41" s="3">
         <v>690500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="R41" s="3">
         <v>676400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="S41" s="3">
         <v>700300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="T41" s="3">
         <v>581300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="U41" s="3">
         <v>1016700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="V41" s="3">
         <v>1369600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="W41" s="3">
         <v>2067200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="X41" s="3">
         <v>925500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="Y41" s="3">
         <v>1027500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Z41" s="3">
         <v>991000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="AA41" s="3">
         <v>980500</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>797600</v>
+        <v>872700</v>
       </c>
       <c r="E42" s="3">
-        <v>432100</v>
+        <v>1378300</v>
       </c>
       <c r="F42" s="3">
-        <v>473700</v>
+        <v>1079200</v>
       </c>
       <c r="G42" s="3">
-        <v>462000</v>
+        <v>815600</v>
       </c>
       <c r="H42" s="3">
+        <v>441900</v>
+      </c>
+      <c r="I42" s="3">
+        <v>484300</v>
+      </c>
+      <c r="J42" s="3">
+        <v>472400</v>
+      </c>
+      <c r="K42" s="3">
         <v>602900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="L42" s="3">
         <v>587200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="M42" s="3">
         <v>279600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="N42" s="3">
         <v>177500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="O42" s="3">
         <v>196100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="P42" s="3">
         <v>180500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="Q42" s="3">
         <v>183700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="R42" s="3">
         <v>200400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="S42" s="3">
         <v>195800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="T42" s="3">
         <v>216300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="U42" s="3">
         <v>200600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="V42" s="3">
         <v>244200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="W42" s="3">
         <v>259400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="X42" s="3">
         <v>600500</v>
       </c>
-      <c r="V42" s="3">
+      <c r="Y42" s="3">
         <v>580000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Z42" s="3">
         <v>624900</v>
       </c>
-      <c r="X42" s="3">
+      <c r="AA42" s="3">
         <v>572400</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2012700</v>
+        <v>0</v>
       </c>
       <c r="E43" s="3">
-        <v>2009600</v>
+        <v>0</v>
       </c>
       <c r="F43" s="3">
-        <v>1701300</v>
+        <v>0</v>
       </c>
       <c r="G43" s="3">
-        <v>1860300</v>
+        <v>0</v>
       </c>
       <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
         <v>2053100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="L43" s="3">
         <v>1916200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="M43" s="3">
         <v>2485800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="N43" s="3">
         <v>2098400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="O43" s="3">
         <v>2769100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="P43" s="3">
         <v>2681000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="Q43" s="3">
         <v>2665200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="R43" s="3">
         <v>2340300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="S43" s="3">
         <v>2222700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="T43" s="3">
         <v>2398100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="U43" s="3">
         <v>2471900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="V43" s="3">
         <v>2313800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="W43" s="3">
         <v>1523300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="X43" s="3">
         <v>1559100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="Y43" s="3">
         <v>1584500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Z43" s="3">
         <v>1342000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="AA43" s="3">
         <v>1417300</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1921300</v>
+        <v>3046800</v>
       </c>
       <c r="E44" s="3">
-        <v>1666800</v>
+        <v>2614000</v>
       </c>
       <c r="F44" s="3">
-        <v>1450200</v>
+        <v>2257100</v>
       </c>
       <c r="G44" s="3">
-        <v>1974500</v>
+        <v>1964500</v>
       </c>
       <c r="H44" s="3">
+        <v>1704300</v>
+      </c>
+      <c r="I44" s="3">
+        <v>1482900</v>
+      </c>
+      <c r="J44" s="3">
+        <v>2019000</v>
+      </c>
+      <c r="K44" s="3">
         <v>1953900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="L44" s="3">
         <v>2064700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="M44" s="3">
         <v>2275600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="N44" s="3">
         <v>2303900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="O44" s="3">
         <v>2609300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="P44" s="3">
         <v>2626900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="Q44" s="3">
         <v>2830700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="R44" s="3">
         <v>2987800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="S44" s="3">
         <v>2446600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="T44" s="3">
         <v>2285100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="U44" s="3">
         <v>2237700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="V44" s="3">
         <v>2398100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="W44" s="3">
         <v>1573000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="X44" s="3">
         <v>1498300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="Y44" s="3">
         <v>1548300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Z44" s="3">
         <v>1526600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="AA44" s="3">
         <v>1420000</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2944,14 +3240,14 @@
       <c r="E45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>8</v>
+      <c r="F45" s="3">
+        <v>100</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H45" s="3">
-        <v>100</v>
+      <c r="H45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>8</v>
@@ -2959,11 +3255,11 @@
       <c r="J45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K45" s="3" t="s">
+      <c r="K45" s="3">
+        <v>100</v>
+      </c>
+      <c r="L45" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="L45" s="3">
-        <v>100</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>8</v>
@@ -2971,8 +3267,8 @@
       <c r="N45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>8</v>
+      <c r="O45" s="3">
+        <v>100</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>8</v>
@@ -2983,298 +3279,343 @@
       <c r="R45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
-      <c r="T45" s="3">
-        <v>0</v>
-      </c>
-      <c r="U45" s="3">
-        <v>0</v>
-      </c>
-      <c r="V45" s="3" t="s">
+      <c r="S45" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="T45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
       <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z45" s="3">
         <v>100</v>
       </c>
-      <c r="X45" s="3" t="s">
+      <c r="AA45" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6635300</v>
+        <v>9478700</v>
       </c>
       <c r="E46" s="3">
-        <v>6149400</v>
+        <v>8872700</v>
       </c>
       <c r="F46" s="3">
-        <v>5145800</v>
+        <v>7842400</v>
       </c>
       <c r="G46" s="3">
-        <v>6083600</v>
+        <v>6784600</v>
       </c>
       <c r="H46" s="3">
+        <v>6287800</v>
+      </c>
+      <c r="I46" s="3">
+        <v>5261700</v>
+      </c>
+      <c r="J46" s="3">
+        <v>6220500</v>
+      </c>
+      <c r="K46" s="3">
         <v>6382300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="L46" s="3">
         <v>6126600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="M46" s="3">
         <v>6272800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="N46" s="3">
         <v>5939600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="O46" s="3">
         <v>6848100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="P46" s="3">
         <v>6712900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="Q46" s="3">
         <v>6370100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="R46" s="3">
         <v>6204900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="S46" s="3">
         <v>5565400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="T46" s="3">
         <v>5480700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="U46" s="3">
         <v>5926900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="V46" s="3">
         <v>6325700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="W46" s="3">
         <v>5422900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="X46" s="3">
         <v>4583400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="Y46" s="3">
         <v>4740300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Z46" s="3">
         <v>4484500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="AA46" s="3">
         <v>4390100</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1789100</v>
+        <v>2077300</v>
       </c>
       <c r="E47" s="3">
-        <v>1765300</v>
+        <v>1891100</v>
       </c>
       <c r="F47" s="3">
-        <v>1745100</v>
+        <v>1858400</v>
       </c>
       <c r="G47" s="3">
-        <v>1751300</v>
+        <v>1829300</v>
       </c>
       <c r="H47" s="3">
+        <v>1805000</v>
+      </c>
+      <c r="I47" s="3">
+        <v>1784400</v>
+      </c>
+      <c r="J47" s="3">
+        <v>1790700</v>
+      </c>
+      <c r="K47" s="3">
         <v>1220500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="L47" s="3">
         <v>1278300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="M47" s="3">
         <v>1402500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="N47" s="3">
         <v>1272900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="O47" s="3">
         <v>1421300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="P47" s="3">
         <v>1264500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="Q47" s="3">
         <v>1284800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="R47" s="3">
         <v>1305300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="S47" s="3">
         <v>1134900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="T47" s="3">
         <v>1139600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="U47" s="3">
         <v>1144700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="V47" s="3">
         <v>1299300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="W47" s="3">
         <v>2104800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="X47" s="3">
         <v>2176900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="Y47" s="3">
         <v>2458200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Z47" s="3">
         <v>2442200</v>
       </c>
-      <c r="X47" s="3">
+      <c r="AA47" s="3">
         <v>2383800</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5535200</v>
+        <v>6102900</v>
       </c>
       <c r="E48" s="3">
-        <v>5708600</v>
+        <v>5862500</v>
       </c>
       <c r="F48" s="3">
-        <v>5459100</v>
+        <v>5656000</v>
       </c>
       <c r="G48" s="3">
-        <v>6508000</v>
+        <v>5659800</v>
       </c>
       <c r="H48" s="3">
+        <v>5837000</v>
+      </c>
+      <c r="I48" s="3">
+        <v>5581900</v>
+      </c>
+      <c r="J48" s="3">
+        <v>6654500</v>
+      </c>
+      <c r="K48" s="3">
         <v>6955000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="L48" s="3">
         <v>7139400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="M48" s="3">
         <v>7892200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="N48" s="3">
         <v>8217200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="O48" s="3">
         <v>8909600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="P48" s="3">
         <v>8463300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="Q48" s="3">
         <v>8251000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="R48" s="3">
         <v>8390300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="S48" s="3">
         <v>6777500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="T48" s="3">
         <v>6821700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="U48" s="3">
         <v>7588300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="V48" s="3">
         <v>8444900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="W48" s="3">
         <v>6542100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="X48" s="3">
         <v>6670700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="Y48" s="3">
         <v>7352000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Z48" s="3">
         <v>7241900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="AA48" s="3">
         <v>6716900</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>896700</v>
+        <v>971000</v>
       </c>
       <c r="E49" s="3">
-        <v>929300</v>
+        <v>930800</v>
       </c>
       <c r="F49" s="3">
-        <v>891000</v>
+        <v>903700</v>
       </c>
       <c r="G49" s="3">
-        <v>947900</v>
+        <v>916900</v>
       </c>
       <c r="H49" s="3">
+        <v>950200</v>
+      </c>
+      <c r="I49" s="3">
+        <v>911100</v>
+      </c>
+      <c r="J49" s="3">
+        <v>969200</v>
+      </c>
+      <c r="K49" s="3">
         <v>1003200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="L49" s="3">
         <v>1039500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="M49" s="3">
         <v>1281300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="N49" s="3">
         <v>1272900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="O49" s="3">
         <v>1407600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="P49" s="3">
         <v>1328000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="Q49" s="3">
         <v>1260400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="R49" s="3">
         <v>1291000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="S49" s="3">
         <v>1094100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="T49" s="3">
         <v>1192800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="U49" s="3">
         <v>1316300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="V49" s="3">
         <v>1471900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="W49" s="3">
         <v>628400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="X49" s="3">
         <v>645800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="Y49" s="3">
         <v>729800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Z49" s="3">
         <v>716500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="AA49" s="3">
         <v>674300</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3682,17 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3759,94 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1851600</v>
+        <v>1886600</v>
       </c>
       <c r="E52" s="3">
-        <v>1698700</v>
+        <v>2303100</v>
       </c>
       <c r="F52" s="3">
-        <v>3192700</v>
+        <v>1815400</v>
       </c>
       <c r="G52" s="3">
-        <v>1363800</v>
+        <v>1893200</v>
       </c>
       <c r="H52" s="3">
+        <v>1736900</v>
+      </c>
+      <c r="I52" s="3">
+        <v>3264500</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1394500</v>
+      </c>
+      <c r="K52" s="3">
         <v>1241200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="L52" s="3">
         <v>1246600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="M52" s="3">
         <v>1307400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="N52" s="3">
         <v>1493200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="O52" s="3">
         <v>1516400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="P52" s="3">
         <v>1538900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="Q52" s="3">
         <v>1473100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="R52" s="3">
         <v>1415700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="S52" s="3">
         <v>1311300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="T52" s="3">
         <v>1237900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="U52" s="3">
         <v>1249900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="V52" s="3">
         <v>1550800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="W52" s="3">
         <v>1229500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="X52" s="3">
         <v>1189000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="Y52" s="3">
         <v>1275900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Z52" s="3">
         <v>1241600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="AA52" s="3">
         <v>1207000</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3913,94 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>16707800</v>
+        <v>20516500</v>
       </c>
       <c r="E54" s="3">
-        <v>16251300</v>
+        <v>19860100</v>
       </c>
       <c r="F54" s="3">
-        <v>16433700</v>
+        <v>18076000</v>
       </c>
       <c r="G54" s="3">
-        <v>16654500</v>
+        <v>17083900</v>
       </c>
       <c r="H54" s="3">
+        <v>16617000</v>
+      </c>
+      <c r="I54" s="3">
+        <v>16803600</v>
+      </c>
+      <c r="J54" s="3">
+        <v>17029400</v>
+      </c>
+      <c r="K54" s="3">
         <v>16802100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>16830500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="M54" s="3">
         <v>18156200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="N54" s="3">
         <v>18195900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="O54" s="3">
         <v>20103100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="P54" s="3">
         <v>19307700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="Q54" s="3">
         <v>18639300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="R54" s="3">
         <v>18607200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="S54" s="3">
         <v>15883200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="T54" s="3">
         <v>15872800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="U54" s="3">
         <v>17226200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="V54" s="3">
         <v>18905400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="W54" s="3">
         <v>15927700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="X54" s="3">
         <v>15265800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="Y54" s="3">
         <v>16556200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Z54" s="3">
         <v>16126800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="AA54" s="3">
         <v>15372100</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +4025,11 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,416 +4054,473 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2048200</v>
+        <v>3020000</v>
       </c>
       <c r="E57" s="3">
-        <v>2056600</v>
+        <v>2603000</v>
       </c>
       <c r="F57" s="3">
-        <v>1768900</v>
+        <v>2352300</v>
       </c>
       <c r="G57" s="3">
-        <v>1919400</v>
+        <v>2094300</v>
       </c>
       <c r="H57" s="3">
+        <v>2102900</v>
+      </c>
+      <c r="I57" s="3">
+        <v>1808700</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1962600</v>
+      </c>
+      <c r="K57" s="3">
         <v>1809700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="L57" s="3">
         <v>1691000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="M57" s="3">
         <v>2183800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="N57" s="3">
         <v>2068800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="O57" s="3">
         <v>2373000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="P57" s="3">
         <v>2429800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="Q57" s="3">
         <v>2507100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="R57" s="3">
         <v>2299400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="S57" s="3">
         <v>2036400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="T57" s="3">
         <v>2184200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="U57" s="3">
         <v>2237200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="V57" s="3">
         <v>2266100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="W57" s="3">
         <v>1198100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="X57" s="3">
         <v>1212600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="Y57" s="3">
         <v>1260600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Z57" s="3">
         <v>1246300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="AA57" s="3">
         <v>1125900</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>424000</v>
+        <v>807500</v>
       </c>
       <c r="E58" s="3">
-        <v>423700</v>
+        <v>732500</v>
       </c>
       <c r="F58" s="3">
-        <v>476200</v>
+        <v>665800</v>
       </c>
       <c r="G58" s="3">
-        <v>481000</v>
+        <v>433600</v>
       </c>
       <c r="H58" s="3">
+        <v>433300</v>
+      </c>
+      <c r="I58" s="3">
+        <v>486900</v>
+      </c>
+      <c r="J58" s="3">
+        <v>491800</v>
+      </c>
+      <c r="K58" s="3">
         <v>700500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="L58" s="3">
         <v>718600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="M58" s="3">
         <v>782800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="N58" s="3">
         <v>681500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="O58" s="3">
         <v>731100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="P58" s="3">
         <v>945500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="Q58" s="3">
         <v>1009000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="R58" s="3">
         <v>1057500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="S58" s="3">
         <v>675900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="T58" s="3">
         <v>508300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="U58" s="3">
         <v>571600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="V58" s="3">
         <v>954700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="W58" s="3">
         <v>1049600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="X58" s="3">
         <v>433200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="Y58" s="3">
         <v>429200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Z58" s="3">
         <v>404800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="AA58" s="3">
         <v>439200</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>715000</v>
+        <v>1110800</v>
       </c>
       <c r="E59" s="3">
-        <v>525800</v>
+        <v>1298500</v>
       </c>
       <c r="F59" s="3">
-        <v>408800</v>
+        <v>1080400</v>
       </c>
       <c r="G59" s="3">
-        <v>542200</v>
+        <v>731100</v>
       </c>
       <c r="H59" s="3">
+        <v>537700</v>
+      </c>
+      <c r="I59" s="3">
+        <v>418000</v>
+      </c>
+      <c r="J59" s="3">
+        <v>554400</v>
+      </c>
+      <c r="K59" s="3">
         <v>370700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="L59" s="3">
         <v>376900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="M59" s="3">
         <v>483300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="N59" s="3">
         <v>535900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="O59" s="3">
         <v>492900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="P59" s="3">
         <v>426400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="Q59" s="3">
         <v>529000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="R59" s="3">
         <v>684000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="S59" s="3">
         <v>603300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="T59" s="3">
         <v>509000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="U59" s="3">
         <v>526400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="V59" s="3">
         <v>1202600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="W59" s="3">
         <v>410100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="X59" s="3">
         <v>337100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="Y59" s="3">
         <v>411300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Z59" s="3">
         <v>458100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="AA59" s="3">
         <v>516900</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3187200</v>
+        <v>4938300</v>
       </c>
       <c r="E60" s="3">
-        <v>3006200</v>
+        <v>4634000</v>
       </c>
       <c r="F60" s="3">
-        <v>2654000</v>
+        <v>4098600</v>
       </c>
       <c r="G60" s="3">
-        <v>2942600</v>
+        <v>3258900</v>
       </c>
       <c r="H60" s="3">
+        <v>3073800</v>
+      </c>
+      <c r="I60" s="3">
+        <v>2713700</v>
+      </c>
+      <c r="J60" s="3">
+        <v>3008800</v>
+      </c>
+      <c r="K60" s="3">
         <v>2880900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>2786600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="M60" s="3">
         <v>3450000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="N60" s="3">
         <v>3286200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="O60" s="3">
         <v>3597000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="P60" s="3">
         <v>3801800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="Q60" s="3">
         <v>4045200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="R60" s="3">
         <v>4040900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="S60" s="3">
         <v>3315500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="T60" s="3">
         <v>3201600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="U60" s="3">
         <v>3335200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="V60" s="3">
         <v>3860100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="W60" s="3">
         <v>2657800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="X60" s="3">
         <v>1982800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="Y60" s="3">
         <v>2101200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Z60" s="3">
         <v>2109200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="AA60" s="3">
         <v>2081900</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2582600</v>
+        <v>2180800</v>
       </c>
       <c r="E61" s="3">
-        <v>2488100</v>
+        <v>2182700</v>
       </c>
       <c r="F61" s="3">
-        <v>2396600</v>
+        <v>2277600</v>
       </c>
       <c r="G61" s="3">
-        <v>2513400</v>
+        <v>2640800</v>
       </c>
       <c r="H61" s="3">
+        <v>2544100</v>
+      </c>
+      <c r="I61" s="3">
+        <v>2450500</v>
+      </c>
+      <c r="J61" s="3">
+        <v>2569900</v>
+      </c>
+      <c r="K61" s="3">
         <v>2620900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="L61" s="3">
         <v>2694100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="M61" s="3">
         <v>2156700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="N61" s="3">
         <v>2087200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="O61" s="3">
         <v>2405400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="P61" s="3">
         <v>2153000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="Q61" s="3">
         <v>1195400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="R61" s="3">
         <v>1054000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="S61" s="3">
         <v>806700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="T61" s="3">
         <v>959300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="U61" s="3">
         <v>948900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="V61" s="3">
         <v>1043500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="W61" s="3">
         <v>356300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="X61" s="3">
         <v>368600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="Y61" s="3">
         <v>415900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Z61" s="3">
         <v>550400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="AA61" s="3">
         <v>420300</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2737100</v>
+        <v>2517900</v>
       </c>
       <c r="E62" s="3">
-        <v>2496400</v>
+        <v>2736300</v>
       </c>
       <c r="F62" s="3">
-        <v>3511900</v>
+        <v>2545400</v>
       </c>
       <c r="G62" s="3">
-        <v>3353500</v>
+        <v>2798700</v>
       </c>
       <c r="H62" s="3">
+        <v>2552600</v>
+      </c>
+      <c r="I62" s="3">
+        <v>3590900</v>
+      </c>
+      <c r="J62" s="3">
+        <v>3429000</v>
+      </c>
+      <c r="K62" s="3">
         <v>3510900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="L62" s="3">
         <v>3361000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="M62" s="3">
         <v>3719000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="N62" s="3">
         <v>3516400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="O62" s="3">
         <v>3912800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="P62" s="3">
         <v>3455400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="Q62" s="3">
         <v>3278400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="R62" s="3">
         <v>3547300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="S62" s="3">
         <v>2811300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="T62" s="3">
         <v>2795200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="U62" s="3">
         <v>3056100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="V62" s="3">
         <v>3561200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="W62" s="3">
         <v>2735700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="X62" s="3">
         <v>2775600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="Y62" s="3">
         <v>2844800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Z62" s="3">
         <v>2661200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="AA62" s="3">
         <v>2833800</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4587,17 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4664,17 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4741,94 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>8853500</v>
+        <v>10226100</v>
       </c>
       <c r="E66" s="3">
-        <v>8359200</v>
+        <v>10133300</v>
       </c>
       <c r="F66" s="3">
-        <v>8862000</v>
+        <v>9368600</v>
       </c>
       <c r="G66" s="3">
-        <v>9130100</v>
+        <v>9052800</v>
       </c>
       <c r="H66" s="3">
+        <v>8547300</v>
+      </c>
+      <c r="I66" s="3">
+        <v>9061500</v>
+      </c>
+      <c r="J66" s="3">
+        <v>9335600</v>
+      </c>
+      <c r="K66" s="3">
         <v>9322800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>9168900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>9726700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>9348900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>10441200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>9925000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="Q66" s="3">
         <v>9051500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="R66" s="3">
         <v>8925000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="S66" s="3">
         <v>7391100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="T66" s="3">
         <v>7415000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="U66" s="3">
         <v>7870700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="V66" s="3">
         <v>8828100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="W66" s="3">
         <v>6353700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="X66" s="3">
         <v>5731300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="Y66" s="3">
         <v>6081600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Z66" s="3">
         <v>6027600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="AA66" s="3">
         <v>6016400</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4853,11 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4924,17 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +5001,17 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +5078,17 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +5155,94 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5355000</v>
+        <v>6840900</v>
       </c>
       <c r="E72" s="3">
-        <v>5252800</v>
+        <v>6820800</v>
       </c>
       <c r="F72" s="3">
-        <v>5416400</v>
+        <v>6226400</v>
       </c>
       <c r="G72" s="3">
-        <v>5270400</v>
+        <v>5475500</v>
       </c>
       <c r="H72" s="3">
+        <v>5371000</v>
+      </c>
+      <c r="I72" s="3">
+        <v>5538300</v>
+      </c>
+      <c r="J72" s="3">
+        <v>5389100</v>
+      </c>
+      <c r="K72" s="3">
         <v>5010800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>5033300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>5159600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>5837800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>6405600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>6299500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="Q72" s="3">
         <v>6466900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="R72" s="3">
         <v>6443600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="S72" s="3">
         <v>5915000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="T72" s="3">
         <v>5838300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="U72" s="3">
         <v>6351300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="V72" s="3">
         <v>6534600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="W72" s="3">
         <v>6130800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="X72" s="3">
         <v>5895000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="Y72" s="3">
         <v>6408300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Z72" s="3">
         <v>6190900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="AA72" s="3">
         <v>6060300</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +5309,17 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5386,17 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5463,94 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7854300</v>
+        <v>10290400</v>
       </c>
       <c r="E76" s="3">
-        <v>7892100</v>
+        <v>9726800</v>
       </c>
       <c r="F76" s="3">
-        <v>7571700</v>
+        <v>8707300</v>
       </c>
       <c r="G76" s="3">
-        <v>7524500</v>
+        <v>8031100</v>
       </c>
       <c r="H76" s="3">
+        <v>8069700</v>
+      </c>
+      <c r="I76" s="3">
+        <v>7742100</v>
+      </c>
+      <c r="J76" s="3">
+        <v>7693800</v>
+      </c>
+      <c r="K76" s="3">
         <v>7479300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>7661600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>8429500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>8847000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>9661900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>9382700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="Q76" s="3">
         <v>9587900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="R76" s="3">
         <v>9682200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="S76" s="3">
         <v>8492100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="T76" s="3">
         <v>8457800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="U76" s="3">
         <v>9355400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="V76" s="3">
         <v>10077300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="W76" s="3">
         <v>9574000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="X76" s="3">
         <v>9534500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="Y76" s="3">
         <v>10474600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Z76" s="3">
         <v>10099100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="AA76" s="3">
         <v>9355600</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5617,176 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>102200</v>
+        <v>1168100</v>
       </c>
       <c r="E81" s="3">
-        <v>261900</v>
+        <v>594400</v>
       </c>
       <c r="F81" s="3">
-        <v>146000</v>
+        <v>738100</v>
       </c>
       <c r="G81" s="3">
-        <v>519300</v>
+        <v>104500</v>
       </c>
       <c r="H81" s="3">
+        <v>267800</v>
+      </c>
+      <c r="I81" s="3">
+        <v>149300</v>
+      </c>
+      <c r="J81" s="3">
+        <v>531000</v>
+      </c>
+      <c r="K81" s="3">
         <v>-22600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>-126400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="M81" s="3">
         <v>-183500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="N81" s="3">
         <v>-52700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="O81" s="3">
         <v>-151500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="P81" s="3">
         <v>-9800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="Q81" s="3">
         <v>1000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="R81" s="3">
         <v>-78200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="S81" s="3">
         <v>76800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="T81" s="3">
         <v>215600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="U81" s="3">
         <v>226900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="V81" s="3">
         <v>405100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="W81" s="3">
         <v>235900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="X81" s="3">
         <v>171800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="Y81" s="3">
         <v>217300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Z81" s="3">
         <v>130700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="AA81" s="3">
         <v>133800</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,76 +5811,88 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>212900</v>
+        <v>224600</v>
       </c>
       <c r="E83" s="3">
-        <v>191700</v>
+        <v>209200</v>
       </c>
       <c r="F83" s="3">
-        <v>190000</v>
+        <v>249700</v>
       </c>
       <c r="G83" s="3">
-        <v>406500</v>
+        <v>217700</v>
       </c>
       <c r="H83" s="3">
+        <v>196000</v>
+      </c>
+      <c r="I83" s="3">
+        <v>194300</v>
+      </c>
+      <c r="J83" s="3">
+        <v>415700</v>
+      </c>
+      <c r="K83" s="3">
         <v>211200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="L83" s="3">
         <v>400700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="M83" s="3">
         <v>222800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="N83" s="3">
         <v>337000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="O83" s="3">
         <v>269100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="P83" s="3">
         <v>243500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="Q83" s="3">
         <v>237500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="R83" s="3">
         <v>193900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="S83" s="3">
         <v>189400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="T83" s="3">
         <v>193300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="U83" s="3">
         <v>207100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="V83" s="3">
         <v>228100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="W83" s="3">
         <v>168000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="X83" s="3">
         <v>160800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="Y83" s="3">
         <v>166700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Z83" s="3">
         <v>197300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="AA83" s="3">
         <v>174500</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5959,17 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +6036,17 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +6113,17 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +6190,17 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +6267,94 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-8400</v>
+        <v>1563900</v>
       </c>
       <c r="E89" s="3">
-        <v>662300</v>
+        <v>-19400</v>
       </c>
       <c r="F89" s="3">
-        <v>-55100</v>
+        <v>872000</v>
       </c>
       <c r="G89" s="3">
-        <v>551500</v>
+        <v>-8600</v>
       </c>
       <c r="H89" s="3">
+        <v>677200</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-56300</v>
+      </c>
+      <c r="J89" s="3">
+        <v>563900</v>
+      </c>
+      <c r="K89" s="3">
         <v>457800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="L89" s="3">
         <v>221800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="M89" s="3">
         <v>138000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="N89" s="3">
         <v>628700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="O89" s="3">
         <v>420200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="P89" s="3">
         <v>300600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="Q89" s="3">
         <v>88200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="R89" s="3">
         <v>106500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="S89" s="3">
         <v>263300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="T89" s="3">
         <v>155300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="U89" s="3">
         <v>215800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="V89" s="3">
         <v>740900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="W89" s="3">
         <v>341600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="X89" s="3">
         <v>501400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="Y89" s="3">
         <v>82400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Z89" s="3">
         <v>523700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="AA89" s="3">
         <v>284800</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +6379,88 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-131700</v>
+        <v>-213700</v>
       </c>
       <c r="E91" s="3">
-        <v>-138700</v>
+        <v>-135600</v>
       </c>
       <c r="F91" s="3">
-        <v>-103000</v>
+        <v>-241800</v>
       </c>
       <c r="G91" s="3">
-        <v>-255900</v>
+        <v>-134700</v>
       </c>
       <c r="H91" s="3">
+        <v>-141800</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-105300</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-182900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-127700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="L91" s="3">
         <v>-116400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="M91" s="3">
         <v>-136900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="N91" s="3">
         <v>-320200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="O91" s="3">
         <v>-237200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="P91" s="3">
         <v>-258000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="Q91" s="3">
         <v>-184600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="R91" s="3">
         <v>-284000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="S91" s="3">
         <v>-183700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="T91" s="3">
         <v>-157200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="U91" s="3">
         <v>-148500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="V91" s="3">
         <v>-353000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="W91" s="3">
         <v>-173800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="X91" s="3">
         <v>-156300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="Y91" s="3">
         <v>-172100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Z91" s="3">
         <v>-315900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="AA91" s="3">
         <v>-198600</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6527,17 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6604,94 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-149500</v>
+        <v>-49900</v>
       </c>
       <c r="E94" s="3">
-        <v>92300</v>
+        <v>-174500</v>
       </c>
       <c r="F94" s="3">
-        <v>-131500</v>
+        <v>-292200</v>
       </c>
       <c r="G94" s="3">
-        <v>-60300</v>
+        <v>-152900</v>
       </c>
       <c r="H94" s="3">
+        <v>94400</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-134400</v>
+      </c>
+      <c r="J94" s="3">
+        <v>12700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-131700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="L94" s="3">
         <v>-456900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="M94" s="3">
         <v>-194500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="N94" s="3">
         <v>-324000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="O94" s="3">
         <v>-234000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="P94" s="3">
         <v>-310700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="Q94" s="3">
         <v>-182800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="R94" s="3">
         <v>-292200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="S94" s="3">
         <v>-154800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="T94" s="3">
         <v>-165900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="U94" s="3">
         <v>-159600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="V94" s="3">
         <v>-1571400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="W94" s="3">
         <v>220100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="X94" s="3">
         <v>-244300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="Y94" s="3">
         <v>-80900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Z94" s="3">
         <v>-331100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="AA94" s="3">
         <v>-397400</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,76 +6716,88 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-1148100</v>
       </c>
       <c r="E96" s="3">
-        <v>-259700</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-26700</v>
       </c>
       <c r="G96" s="3">
-        <v>-266200</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-265600</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-272200</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-10100</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-295800</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-2500</v>
       </c>
-      <c r="P96" s="3">
+      <c r="S96" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="T96" s="3">
         <v>-366300</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-8700</v>
       </c>
-      <c r="T96" s="3">
+      <c r="W96" s="3">
         <v>-42700</v>
       </c>
-      <c r="U96" s="3">
+      <c r="X96" s="3">
         <v>-303900</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
-      <c r="W96" s="3">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-14300</v>
       </c>
-      <c r="X96" s="3">
+      <c r="AA96" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6864,17 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6941,17 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,208 +7018,244 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>41100</v>
+        <v>-1251300</v>
       </c>
       <c r="E100" s="3">
-        <v>-269500</v>
+        <v>-15600</v>
       </c>
       <c r="F100" s="3">
-        <v>-50300</v>
+        <v>-167300</v>
       </c>
       <c r="G100" s="3">
-        <v>-486100</v>
+        <v>42100</v>
       </c>
       <c r="H100" s="3">
+        <v>-275500</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-51500</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-493200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-73900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="L100" s="3">
         <v>669000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="M100" s="3">
         <v>-600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="N100" s="3">
         <v>-107400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="O100" s="3">
         <v>-208300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="P100" s="3">
         <v>531200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="Q100" s="3">
         <v>115200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="R100" s="3">
         <v>45700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="S100" s="3">
         <v>22200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="T100" s="3">
         <v>-344300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="U100" s="3">
         <v>-292100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="V100" s="3">
         <v>101800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="W100" s="3">
         <v>602000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="X100" s="3">
         <v>-283600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="Y100" s="3">
         <v>26000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Z100" s="3">
         <v>-212400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="AA100" s="3">
         <v>-22300</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-20500</v>
+        <v>84000</v>
       </c>
       <c r="E101" s="3">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="F101" s="3">
-        <v>-29100</v>
+        <v>15300</v>
       </c>
       <c r="G101" s="3">
-        <v>-32600</v>
+        <v>-20900</v>
       </c>
       <c r="H101" s="3">
+        <v>35800</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-29700</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-33400</v>
+      </c>
+      <c r="K101" s="3">
         <v>-22300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="L101" s="3">
         <v>-95400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="M101" s="3">
         <v>58500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="N101" s="3">
         <v>-8600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="O101" s="3">
         <v>21100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="P101" s="3">
         <v>-1900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="Q101" s="3">
         <v>-8800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="R101" s="3">
         <v>44000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="S101" s="3">
         <v>-11700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="T101" s="3">
         <v>-22400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="U101" s="3">
         <v>-30700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="V101" s="3">
         <v>31000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="W101" s="3">
         <v>-22000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="X101" s="3">
         <v>-12900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="Y101" s="3">
         <v>9000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Z101" s="3">
         <v>30300</v>
       </c>
-      <c r="X101" s="3">
+      <c r="AA101" s="3">
         <v>-21500</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-137300</v>
+        <v>346600</v>
       </c>
       <c r="E102" s="3">
-        <v>520200</v>
+        <v>-182500</v>
       </c>
       <c r="F102" s="3">
-        <v>-266000</v>
+        <v>427900</v>
       </c>
       <c r="G102" s="3">
-        <v>14500</v>
+        <v>-140400</v>
       </c>
       <c r="H102" s="3">
+        <v>531900</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-272000</v>
+      </c>
+      <c r="J102" s="3">
+        <v>14800</v>
+      </c>
+      <c r="K102" s="3">
         <v>213700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="L102" s="3">
         <v>326700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="M102" s="3">
         <v>-12800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="N102" s="3">
         <v>188700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="O102" s="3">
         <v>-1100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="P102" s="3">
         <v>519300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="Q102" s="3">
         <v>11800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="R102" s="3">
         <v>-96000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="S102" s="3">
         <v>119100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="T102" s="3">
         <v>-377400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="U102" s="3">
         <v>-266600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="V102" s="3">
         <v>-697600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="W102" s="3">
         <v>1141700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="X102" s="3">
         <v>-39400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="Y102" s="3">
         <v>36500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Z102" s="3">
         <v>10500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="AA102" s="3">
         <v>-156300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NHYDY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NHYDY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
   <si>
     <t>NHYDY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,359 @@
     <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6711300</v>
+        <v>5203100</v>
       </c>
       <c r="E8" s="3">
-        <v>4828500</v>
+        <v>6428100</v>
       </c>
       <c r="F8" s="3">
-        <v>4809500</v>
+        <v>4624800</v>
       </c>
       <c r="G8" s="3">
-        <v>3802400</v>
+        <v>4606600</v>
       </c>
       <c r="H8" s="3">
-        <v>3579600</v>
+        <v>3642000</v>
       </c>
       <c r="I8" s="3">
-        <v>3309500</v>
+        <v>3428600</v>
       </c>
       <c r="J8" s="3">
+        <v>3169900</v>
+      </c>
+      <c r="K8" s="3">
         <v>1249900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2787400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2567200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3202000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3928000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4515500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4529900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4254800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4330700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4068100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4220300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4336500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4493100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2639900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2847400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2839100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2620100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>2487500</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3835700</v>
+        <v>3405400</v>
       </c>
       <c r="E9" s="3">
-        <v>3020400</v>
+        <v>3673800</v>
       </c>
       <c r="F9" s="3">
-        <v>2569200</v>
+        <v>2893000</v>
       </c>
       <c r="G9" s="3">
-        <v>2454900</v>
+        <v>2460800</v>
       </c>
       <c r="H9" s="3">
-        <v>2197200</v>
+        <v>2351400</v>
       </c>
       <c r="I9" s="3">
-        <v>1981100</v>
+        <v>2104500</v>
       </c>
       <c r="J9" s="3">
+        <v>1897500</v>
+      </c>
+      <c r="K9" s="3">
         <v>625800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1676100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1603700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1894400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2471300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2899500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2997100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2845600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2839000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2625700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2710500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2733500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2826500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1710000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1835000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1827600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1651100</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1588800</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2875600</v>
+        <v>1797700</v>
       </c>
       <c r="E10" s="3">
-        <v>1808100</v>
+        <v>2754300</v>
       </c>
       <c r="F10" s="3">
-        <v>2240300</v>
+        <v>1731800</v>
       </c>
       <c r="G10" s="3">
-        <v>1347500</v>
+        <v>2145800</v>
       </c>
       <c r="H10" s="3">
-        <v>1382400</v>
+        <v>1290600</v>
       </c>
       <c r="I10" s="3">
-        <v>1328400</v>
+        <v>1324100</v>
       </c>
       <c r="J10" s="3">
+        <v>1272400</v>
+      </c>
+      <c r="K10" s="3">
         <v>624100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1111300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>963600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1307600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1456800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1616100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1532800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1409100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1491700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1442300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1509700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1602900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1666600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>929900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1012400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1011600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>969000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>898600</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,46 +1203,49 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>4900</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>30500</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>1500</v>
+        <v>29200</v>
       </c>
       <c r="H14" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I14" s="3">
         <v>700</v>
       </c>
-      <c r="I14" s="3">
-        <v>12600</v>
-      </c>
       <c r="J14" s="3">
+        <v>12100</v>
+      </c>
+      <c r="K14" s="3">
         <v>6500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>7600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>185300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>100900</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1242,11 +1262,11 @@
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>8</v>
@@ -1263,85 +1283,91 @@
       <c r="AA14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>224500</v>
+        <v>211900</v>
       </c>
       <c r="E15" s="3">
-        <v>209200</v>
+        <v>215000</v>
       </c>
       <c r="F15" s="3">
-        <v>219300</v>
+        <v>200400</v>
       </c>
       <c r="G15" s="3">
-        <v>216300</v>
+        <v>210000</v>
       </c>
       <c r="H15" s="3">
-        <v>195200</v>
+        <v>207200</v>
       </c>
       <c r="I15" s="3">
-        <v>181700</v>
+        <v>187000</v>
       </c>
       <c r="J15" s="3">
+        <v>174000</v>
+      </c>
+      <c r="K15" s="3">
         <v>88100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>173300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>184400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>192100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>236000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>269100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>243400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>237500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>193900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>189400</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>193400</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>207100</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>228100</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>167900</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>160800</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>166700</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>197200</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>174600</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5114300</v>
+        <v>4442100</v>
       </c>
       <c r="E17" s="3">
-        <v>4184000</v>
+        <v>4898500</v>
       </c>
       <c r="F17" s="3">
-        <v>3764800</v>
+        <v>4007500</v>
       </c>
       <c r="G17" s="3">
-        <v>3540100</v>
+        <v>3606000</v>
       </c>
       <c r="H17" s="3">
-        <v>3265400</v>
+        <v>3390700</v>
       </c>
       <c r="I17" s="3">
-        <v>3078200</v>
+        <v>3127600</v>
       </c>
       <c r="J17" s="3">
+        <v>2948300</v>
+      </c>
+      <c r="K17" s="3">
         <v>535800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2595600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2728100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2976300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3972200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4488800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4454100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4252500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4310600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3857600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3914800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3978300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3970800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2370900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2506300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2542000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2378000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2317800</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1597000</v>
+        <v>760900</v>
       </c>
       <c r="E18" s="3">
-        <v>644500</v>
+        <v>1529600</v>
       </c>
       <c r="F18" s="3">
-        <v>1044700</v>
+        <v>617300</v>
       </c>
       <c r="G18" s="3">
-        <v>262400</v>
+        <v>1000600</v>
       </c>
       <c r="H18" s="3">
-        <v>314300</v>
+        <v>251300</v>
       </c>
       <c r="I18" s="3">
-        <v>231300</v>
+        <v>301000</v>
       </c>
       <c r="J18" s="3">
+        <v>221500</v>
+      </c>
+      <c r="K18" s="3">
         <v>714100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>191800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-160900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>225700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-44200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>26700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>75900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>20100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>210400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>305500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>358100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>522300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>269000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>341100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>297200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>242200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>169700</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,393 +1582,409 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-105100</v>
+        <v>75900</v>
       </c>
       <c r="E20" s="3">
-        <v>250200</v>
+        <v>-100700</v>
       </c>
       <c r="F20" s="3">
-        <v>92200</v>
+        <v>239700</v>
       </c>
       <c r="G20" s="3">
-        <v>-68300</v>
+        <v>88300</v>
       </c>
       <c r="H20" s="3">
-        <v>59500</v>
+        <v>-65400</v>
       </c>
       <c r="I20" s="3">
-        <v>68500</v>
+        <v>56900</v>
       </c>
       <c r="J20" s="3">
+        <v>65600</v>
+      </c>
+      <c r="K20" s="3">
         <v>184400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-152000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>62700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-426500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>52700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-170700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-51800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>20800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-51000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-27200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-30000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-38200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-77500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>60900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-102800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>27100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-3800</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>44600</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1716400</v>
+        <v>1053600</v>
       </c>
       <c r="E21" s="3">
-        <v>1104000</v>
+        <v>1644000</v>
       </c>
       <c r="F21" s="3">
-        <v>1386600</v>
+        <v>1057400</v>
       </c>
       <c r="G21" s="3">
-        <v>411800</v>
+        <v>1328100</v>
       </c>
       <c r="H21" s="3">
-        <v>569700</v>
+        <v>394500</v>
       </c>
       <c r="I21" s="3">
-        <v>494100</v>
+        <v>545700</v>
       </c>
       <c r="J21" s="3">
+        <v>473200</v>
+      </c>
+      <c r="K21" s="3">
         <v>1085900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>220600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>271500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-7400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>345500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>125200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>267600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>260600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>163000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>372600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>468800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>527000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>673000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>497900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>399100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>491000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>435600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>388800</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>30600</v>
+        <v>26700</v>
       </c>
       <c r="E22" s="3">
-        <v>23000</v>
+        <v>29300</v>
       </c>
       <c r="F22" s="3">
-        <v>25500</v>
+        <v>22000</v>
       </c>
       <c r="G22" s="3">
-        <v>26300</v>
+        <v>24400</v>
       </c>
       <c r="H22" s="3">
-        <v>22700</v>
+        <v>25200</v>
       </c>
       <c r="I22" s="3">
-        <v>24500</v>
+        <v>21700</v>
       </c>
       <c r="J22" s="3">
+        <v>23500</v>
+      </c>
+      <c r="K22" s="3">
         <v>26200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>26400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>23400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>22100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>27000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>25400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>25000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>20200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>30300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>16100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>15100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>13300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>12400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>4700</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>8200</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>10400</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>13400</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1461300</v>
+        <v>810100</v>
       </c>
       <c r="E23" s="3">
-        <v>871700</v>
+        <v>1399700</v>
       </c>
       <c r="F23" s="3">
-        <v>1111400</v>
+        <v>835000</v>
       </c>
       <c r="G23" s="3">
-        <v>167800</v>
+        <v>1064500</v>
       </c>
       <c r="H23" s="3">
-        <v>351000</v>
+        <v>160700</v>
       </c>
       <c r="I23" s="3">
-        <v>275200</v>
+        <v>336200</v>
       </c>
       <c r="J23" s="3">
+        <v>263600</v>
+      </c>
+      <c r="K23" s="3">
         <v>872200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>13400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-121600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-222900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-18500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-169300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-61300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>167200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>260400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>306600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>432500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>325100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>230100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>313900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>224900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>208700</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>307700</v>
+        <v>147700</v>
       </c>
       <c r="E24" s="3">
-        <v>207700</v>
+        <v>294800</v>
       </c>
       <c r="F24" s="3">
-        <v>228400</v>
+        <v>198900</v>
       </c>
       <c r="G24" s="3">
-        <v>51200</v>
+        <v>218800</v>
       </c>
       <c r="H24" s="3">
-        <v>102800</v>
+        <v>49000</v>
       </c>
       <c r="I24" s="3">
-        <v>80400</v>
+        <v>98400</v>
       </c>
       <c r="J24" s="3">
+        <v>77000</v>
+      </c>
+      <c r="K24" s="3">
         <v>84700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>24500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>29100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-46300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>55000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-1900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>21200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>17000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>23500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>72600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>48400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>81300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>15600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>72300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>49100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>87200</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>100500</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>70800</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1153600</v>
+        <v>662400</v>
       </c>
       <c r="E26" s="3">
-        <v>664100</v>
+        <v>1104900</v>
       </c>
       <c r="F26" s="3">
-        <v>883000</v>
+        <v>636000</v>
       </c>
       <c r="G26" s="3">
-        <v>116600</v>
+        <v>845800</v>
       </c>
       <c r="H26" s="3">
-        <v>248300</v>
+        <v>111700</v>
       </c>
       <c r="I26" s="3">
-        <v>194800</v>
+        <v>237800</v>
       </c>
       <c r="J26" s="3">
+        <v>186600</v>
+      </c>
+      <c r="K26" s="3">
         <v>787500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-11100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-150600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-176600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-73500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-167400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-22100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-14000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-84700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>94500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>212000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>225300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>416800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>252900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>181000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>226700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>124400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>138000</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1168100</v>
+        <v>679700</v>
       </c>
       <c r="E27" s="3">
-        <v>594400</v>
+        <v>1118800</v>
       </c>
       <c r="F27" s="3">
-        <v>737700</v>
+        <v>569400</v>
       </c>
       <c r="G27" s="3">
-        <v>106500</v>
+        <v>706600</v>
       </c>
       <c r="H27" s="3">
-        <v>225600</v>
+        <v>102000</v>
       </c>
       <c r="I27" s="3">
-        <v>188600</v>
+        <v>216100</v>
       </c>
       <c r="J27" s="3">
+        <v>180700</v>
+      </c>
+      <c r="K27" s="3">
         <v>761500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-11300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-128000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-154900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-52700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-151500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-9800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-78200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>76800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>215600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>226900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>405100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>235900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>171800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>217300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>130700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>133800</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2254,37 +2315,37 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>400</v>
       </c>
-      <c r="G29" s="3">
-        <v>-2000</v>
-      </c>
       <c r="H29" s="3">
-        <v>42200</v>
+        <v>-1900</v>
       </c>
       <c r="I29" s="3">
-        <v>-39400</v>
+        <v>40400</v>
       </c>
       <c r="J29" s="3">
+        <v>-37700</v>
+      </c>
+      <c r="K29" s="3">
         <v>-230600</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-11200</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>1600</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-28600</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="P29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2540,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>105100</v>
+        <v>-75900</v>
       </c>
       <c r="E32" s="3">
-        <v>-250200</v>
+        <v>100700</v>
       </c>
       <c r="F32" s="3">
-        <v>-92200</v>
+        <v>-239700</v>
       </c>
       <c r="G32" s="3">
-        <v>68300</v>
+        <v>-88300</v>
       </c>
       <c r="H32" s="3">
-        <v>-59500</v>
+        <v>65400</v>
       </c>
       <c r="I32" s="3">
-        <v>-68500</v>
+        <v>-56900</v>
       </c>
       <c r="J32" s="3">
+        <v>-65600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-184400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>152000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-62700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>426500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-52700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>170700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>51800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-20800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>51000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>27200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>30000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>38200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>77500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-60900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>102800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-27100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>3800</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-44600</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1168100</v>
+        <v>679700</v>
       </c>
       <c r="E33" s="3">
-        <v>594400</v>
+        <v>1118800</v>
       </c>
       <c r="F33" s="3">
-        <v>738100</v>
+        <v>569400</v>
       </c>
       <c r="G33" s="3">
-        <v>104500</v>
+        <v>707000</v>
       </c>
       <c r="H33" s="3">
-        <v>267800</v>
+        <v>100100</v>
       </c>
       <c r="I33" s="3">
-        <v>149300</v>
+        <v>256500</v>
       </c>
       <c r="J33" s="3">
+        <v>143000</v>
+      </c>
+      <c r="K33" s="3">
         <v>531000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-22600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-126400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-183500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-52700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-151500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-9800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-78200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>76800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>215600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>226900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>405100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>235900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>171800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>217300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>130700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>133800</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1168100</v>
+        <v>679700</v>
       </c>
       <c r="E35" s="3">
-        <v>594400</v>
+        <v>1118800</v>
       </c>
       <c r="F35" s="3">
-        <v>738100</v>
+        <v>569400</v>
       </c>
       <c r="G35" s="3">
-        <v>104500</v>
+        <v>707000</v>
       </c>
       <c r="H35" s="3">
-        <v>267800</v>
+        <v>100100</v>
       </c>
       <c r="I35" s="3">
-        <v>149300</v>
+        <v>256500</v>
       </c>
       <c r="J35" s="3">
+        <v>143000</v>
+      </c>
+      <c r="K35" s="3">
         <v>531000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-22600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-126400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-183500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-52700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-151500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-9800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-78200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>76800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>215600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>226900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>405100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>235900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>171800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>217300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>130700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>133800</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,162 +3007,169 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2538400</v>
+        <v>2564800</v>
       </c>
       <c r="E41" s="3">
-        <v>2191900</v>
+        <v>2431300</v>
       </c>
       <c r="F41" s="3">
-        <v>2374400</v>
+        <v>2099400</v>
       </c>
       <c r="G41" s="3">
-        <v>1946500</v>
+        <v>2274200</v>
       </c>
       <c r="H41" s="3">
-        <v>2086800</v>
+        <v>1864400</v>
       </c>
       <c r="I41" s="3">
-        <v>1554800</v>
+        <v>1998800</v>
       </c>
       <c r="J41" s="3">
+        <v>1489200</v>
+      </c>
+      <c r="K41" s="3">
         <v>1826900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1772200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1558500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1231800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1359800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1273500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1224500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>690500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>676400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>700300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>581300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1016700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1369600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2067200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>925500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1027500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>991000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>980500</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>872700</v>
+        <v>734000</v>
       </c>
       <c r="E42" s="3">
-        <v>1378300</v>
+        <v>835800</v>
       </c>
       <c r="F42" s="3">
-        <v>1079200</v>
+        <v>1320200</v>
       </c>
       <c r="G42" s="3">
-        <v>815600</v>
+        <v>1033700</v>
       </c>
       <c r="H42" s="3">
-        <v>441900</v>
+        <v>781200</v>
       </c>
       <c r="I42" s="3">
-        <v>484300</v>
+        <v>423200</v>
       </c>
       <c r="J42" s="3">
+        <v>463900</v>
+      </c>
+      <c r="K42" s="3">
         <v>472400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>602900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>587200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>279600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>177500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>196100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>180500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>183700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>200400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>195800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>216300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>200600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>244200</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>259400</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>600500</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>580000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>624900</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>572400</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3102,135 +3195,141 @@
         <v>0</v>
       </c>
       <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
         <v>2053100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1916200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2485800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2098400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2769100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2681000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2665200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2340300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2222700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2398100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2471900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2313800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1523300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1559100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1584500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1342000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1417300</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3046800</v>
+        <v>3114600</v>
       </c>
       <c r="E44" s="3">
-        <v>2614000</v>
+        <v>2918300</v>
       </c>
       <c r="F44" s="3">
-        <v>2257100</v>
+        <v>2503800</v>
       </c>
       <c r="G44" s="3">
-        <v>1964500</v>
+        <v>2161900</v>
       </c>
       <c r="H44" s="3">
-        <v>1704300</v>
+        <v>1881600</v>
       </c>
       <c r="I44" s="3">
-        <v>1482900</v>
+        <v>1632400</v>
       </c>
       <c r="J44" s="3">
+        <v>1420300</v>
+      </c>
+      <c r="K44" s="3">
         <v>2019000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1953900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2064700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2275600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2303900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2609300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2626900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2830700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2987800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2446600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2285100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2237700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2398100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1573000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1498300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1548300</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1526600</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1420000</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3240,11 +3339,11 @@
       <c r="E45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" s="3">
         <v>100</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>8</v>
@@ -3255,11 +3354,11 @@
       <c r="J45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K45" s="3">
+      <c r="K45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L45" s="3">
         <v>100</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>8</v>
@@ -3267,11 +3366,11 @@
       <c r="N45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O45" s="3">
+      <c r="O45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P45" s="3">
         <v>100</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>8</v>
@@ -3288,8 +3387,8 @@
       <c r="U45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V45" s="3">
-        <v>0</v>
+      <c r="V45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W45" s="3">
         <v>0</v>
@@ -3297,325 +3396,340 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-      <c r="Y45" s="3" t="s">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>100</v>
       </c>
-      <c r="AA45" s="3" t="s">
+      <c r="AB45" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9478700</v>
+        <v>9235100</v>
       </c>
       <c r="E46" s="3">
-        <v>8872700</v>
+        <v>9078800</v>
       </c>
       <c r="F46" s="3">
-        <v>7842400</v>
+        <v>8498300</v>
       </c>
       <c r="G46" s="3">
-        <v>6784600</v>
+        <v>7511500</v>
       </c>
       <c r="H46" s="3">
-        <v>6287800</v>
+        <v>6498400</v>
       </c>
       <c r="I46" s="3">
-        <v>5261700</v>
+        <v>6022500</v>
       </c>
       <c r="J46" s="3">
+        <v>5039700</v>
+      </c>
+      <c r="K46" s="3">
         <v>6220500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6382300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6126600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6272800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5939600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6848100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6712900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>6370100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>6204900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5565400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5480700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>5926900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>6325700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>5422900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>4583400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>4740300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>4484500</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>4390100</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2077300</v>
+        <v>2243400</v>
       </c>
       <c r="E47" s="3">
-        <v>1891100</v>
+        <v>1989700</v>
       </c>
       <c r="F47" s="3">
-        <v>1858400</v>
+        <v>1811300</v>
       </c>
       <c r="G47" s="3">
-        <v>1829300</v>
+        <v>1780000</v>
       </c>
       <c r="H47" s="3">
-        <v>1805000</v>
+        <v>1752100</v>
       </c>
       <c r="I47" s="3">
-        <v>1784400</v>
+        <v>1728800</v>
       </c>
       <c r="J47" s="3">
+        <v>1709100</v>
+      </c>
+      <c r="K47" s="3">
         <v>1790700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1220500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1278300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1402500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1272900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1421300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1264500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1284800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1305300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1134900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1139600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1144700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1299300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>2104800</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>2176900</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>2458200</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>2442200</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>2383800</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6102900</v>
+        <v>6187600</v>
       </c>
       <c r="E48" s="3">
-        <v>5862500</v>
+        <v>5845500</v>
       </c>
       <c r="F48" s="3">
-        <v>5656000</v>
+        <v>5615200</v>
       </c>
       <c r="G48" s="3">
-        <v>5659800</v>
+        <v>5417400</v>
       </c>
       <c r="H48" s="3">
-        <v>5837000</v>
+        <v>5421000</v>
       </c>
       <c r="I48" s="3">
-        <v>5581900</v>
+        <v>5590800</v>
       </c>
       <c r="J48" s="3">
+        <v>5346400</v>
+      </c>
+      <c r="K48" s="3">
         <v>6654500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6955000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7139400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>7892200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>8217200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>8909600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>8463300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>8251000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>8390300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>6777500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>6821700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>7588300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>8444900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>6542100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>6670700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>7352000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>7241900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>6716900</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>971000</v>
+        <v>973300</v>
       </c>
       <c r="E49" s="3">
-        <v>930800</v>
+        <v>930000</v>
       </c>
       <c r="F49" s="3">
-        <v>903700</v>
+        <v>891500</v>
       </c>
       <c r="G49" s="3">
-        <v>916900</v>
+        <v>865600</v>
       </c>
       <c r="H49" s="3">
-        <v>950200</v>
+        <v>878200</v>
       </c>
       <c r="I49" s="3">
-        <v>911100</v>
+        <v>910200</v>
       </c>
       <c r="J49" s="3">
+        <v>872700</v>
+      </c>
+      <c r="K49" s="3">
         <v>969200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1003200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1039500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1281300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1272900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1407600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1328000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1260400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1291000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1094100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1192800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1316300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1471900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>628400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>645800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>729800</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>716500</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>674300</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +3885,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1886600</v>
+        <v>1880100</v>
       </c>
       <c r="E52" s="3">
-        <v>2303100</v>
+        <v>1807000</v>
       </c>
       <c r="F52" s="3">
-        <v>1815400</v>
+        <v>2205900</v>
       </c>
       <c r="G52" s="3">
-        <v>1893200</v>
+        <v>1738900</v>
       </c>
       <c r="H52" s="3">
-        <v>1736900</v>
+        <v>1813400</v>
       </c>
       <c r="I52" s="3">
-        <v>3264500</v>
+        <v>1663700</v>
       </c>
       <c r="J52" s="3">
+        <v>3126800</v>
+      </c>
+      <c r="K52" s="3">
         <v>1394500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1241200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1246600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1307400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1493200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1516400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1538900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1473100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1415700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1311300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1237900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1249900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1550800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1229500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1189000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1275900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1241600</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1207000</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>20516500</v>
+        <v>20519500</v>
       </c>
       <c r="E54" s="3">
-        <v>19860100</v>
+        <v>19650900</v>
       </c>
       <c r="F54" s="3">
-        <v>18076000</v>
+        <v>19022200</v>
       </c>
       <c r="G54" s="3">
-        <v>17083900</v>
+        <v>17313300</v>
       </c>
       <c r="H54" s="3">
-        <v>16617000</v>
+        <v>16363100</v>
       </c>
       <c r="I54" s="3">
-        <v>16803600</v>
+        <v>15916000</v>
       </c>
       <c r="J54" s="3">
+        <v>16094600</v>
+      </c>
+      <c r="K54" s="3">
         <v>17029400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>16802100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>16830500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>18156200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>18195900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>20103100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>19307700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>18639300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>18607200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>15883200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>15872800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>17226200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>18905400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>15927700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>15265800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>16556200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>16126800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>15372100</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,470 +4187,489 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3020000</v>
+        <v>2649200</v>
       </c>
       <c r="E57" s="3">
-        <v>2603000</v>
+        <v>2892600</v>
       </c>
       <c r="F57" s="3">
-        <v>2352300</v>
+        <v>2493100</v>
       </c>
       <c r="G57" s="3">
-        <v>2094300</v>
+        <v>2253100</v>
       </c>
       <c r="H57" s="3">
-        <v>2102900</v>
+        <v>2005900</v>
       </c>
       <c r="I57" s="3">
-        <v>1808700</v>
+        <v>2014200</v>
       </c>
       <c r="J57" s="3">
+        <v>1732400</v>
+      </c>
+      <c r="K57" s="3">
         <v>1962600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1809700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1691000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2183800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2068800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2373000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2429800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2507100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2299400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2036400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2184200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2237200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2266100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1198100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1212600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1260600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1246300</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1125900</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>807500</v>
+        <v>1099700</v>
       </c>
       <c r="E58" s="3">
-        <v>732500</v>
+        <v>773400</v>
       </c>
       <c r="F58" s="3">
-        <v>665800</v>
+        <v>701600</v>
       </c>
       <c r="G58" s="3">
-        <v>433600</v>
+        <v>637700</v>
       </c>
       <c r="H58" s="3">
-        <v>433300</v>
+        <v>415300</v>
       </c>
       <c r="I58" s="3">
-        <v>486900</v>
+        <v>415000</v>
       </c>
       <c r="J58" s="3">
+        <v>466400</v>
+      </c>
+      <c r="K58" s="3">
         <v>491800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>700500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>718600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>782800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>681500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>731100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>945500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1009000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1057500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>675900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>508300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>571600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>954700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1049600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>433200</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>429200</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>404800</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>439200</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1110800</v>
+        <v>1156100</v>
       </c>
       <c r="E59" s="3">
-        <v>1298500</v>
+        <v>1063900</v>
       </c>
       <c r="F59" s="3">
-        <v>1080400</v>
+        <v>1243700</v>
       </c>
       <c r="G59" s="3">
-        <v>731100</v>
+        <v>1034900</v>
       </c>
       <c r="H59" s="3">
-        <v>537700</v>
+        <v>700200</v>
       </c>
       <c r="I59" s="3">
-        <v>418000</v>
+        <v>515000</v>
       </c>
       <c r="J59" s="3">
+        <v>400400</v>
+      </c>
+      <c r="K59" s="3">
         <v>554400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>370700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>376900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>483300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>535900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>492900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>426400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>529000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>684000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>603300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>509000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>526400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1202600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>410100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>337100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>411300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>458100</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>516900</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4938300</v>
+        <v>4905000</v>
       </c>
       <c r="E60" s="3">
-        <v>4634000</v>
+        <v>4729900</v>
       </c>
       <c r="F60" s="3">
-        <v>4098600</v>
+        <v>4438500</v>
       </c>
       <c r="G60" s="3">
-        <v>3258900</v>
+        <v>3925600</v>
       </c>
       <c r="H60" s="3">
-        <v>3073800</v>
+        <v>3121400</v>
       </c>
       <c r="I60" s="3">
-        <v>2713700</v>
+        <v>2944200</v>
       </c>
       <c r="J60" s="3">
+        <v>2599200</v>
+      </c>
+      <c r="K60" s="3">
         <v>3008800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2880900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2786600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3450000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3286200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3597000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3801800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4045200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4040900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3315500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3201600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3335200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3860100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2657800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1982800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2101200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>2109200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>2081900</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2180800</v>
+        <v>2062600</v>
       </c>
       <c r="E61" s="3">
-        <v>2182700</v>
+        <v>2088800</v>
       </c>
       <c r="F61" s="3">
-        <v>2277600</v>
+        <v>2090700</v>
       </c>
       <c r="G61" s="3">
-        <v>2640800</v>
+        <v>2181500</v>
       </c>
       <c r="H61" s="3">
-        <v>2544100</v>
+        <v>2529400</v>
       </c>
       <c r="I61" s="3">
-        <v>2450500</v>
+        <v>2436800</v>
       </c>
       <c r="J61" s="3">
+        <v>2347100</v>
+      </c>
+      <c r="K61" s="3">
         <v>2569900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2620900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2694100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2156700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2087200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2405400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2153000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1195400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1054000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>806700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>959300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>948900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1043500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>356300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>368600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>415900</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>550400</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>420300</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2517900</v>
+        <v>2331600</v>
       </c>
       <c r="E62" s="3">
-        <v>2736300</v>
+        <v>2411700</v>
       </c>
       <c r="F62" s="3">
-        <v>2545400</v>
+        <v>2620800</v>
       </c>
       <c r="G62" s="3">
-        <v>2798700</v>
+        <v>2438000</v>
       </c>
       <c r="H62" s="3">
-        <v>2552600</v>
+        <v>2680700</v>
       </c>
       <c r="I62" s="3">
-        <v>3590900</v>
+        <v>2444900</v>
       </c>
       <c r="J62" s="3">
+        <v>3439400</v>
+      </c>
+      <c r="K62" s="3">
         <v>3429000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3510900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3361000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3719000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3516400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3912800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3455400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3278400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3547300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2811300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2795200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>3056100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>3561200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>2735700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>2775600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>2844800</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>2661200</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>2833800</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10226100</v>
+        <v>9891200</v>
       </c>
       <c r="E66" s="3">
-        <v>10133300</v>
+        <v>9794700</v>
       </c>
       <c r="F66" s="3">
-        <v>9368600</v>
+        <v>9705800</v>
       </c>
       <c r="G66" s="3">
-        <v>9052800</v>
+        <v>8973300</v>
       </c>
       <c r="H66" s="3">
-        <v>8547300</v>
+        <v>8670900</v>
       </c>
       <c r="I66" s="3">
-        <v>9061500</v>
+        <v>8186700</v>
       </c>
       <c r="J66" s="3">
+        <v>8679200</v>
+      </c>
+      <c r="K66" s="3">
         <v>9335600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9322800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9168900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9726700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9348900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>10441200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>9925000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>9051500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>8925000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7391100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>7415000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>7870700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>8828100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>6353700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>5731300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>6081600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>6027600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>6016400</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6840900</v>
+        <v>6936700</v>
       </c>
       <c r="E72" s="3">
-        <v>6820800</v>
+        <v>6552300</v>
       </c>
       <c r="F72" s="3">
-        <v>6226400</v>
+        <v>6533100</v>
       </c>
       <c r="G72" s="3">
-        <v>5475500</v>
+        <v>5963700</v>
       </c>
       <c r="H72" s="3">
-        <v>5371000</v>
+        <v>5244500</v>
       </c>
       <c r="I72" s="3">
-        <v>5538300</v>
+        <v>5144400</v>
       </c>
       <c r="J72" s="3">
+        <v>5304700</v>
+      </c>
+      <c r="K72" s="3">
         <v>5389100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5010800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5033300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5159600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5837800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>6405600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>6299500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>6466900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>6443600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>5915000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>5838300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>6351300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>6534600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>6130800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>5895000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>6408300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>6190900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>6060300</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10290400</v>
+        <v>10628300</v>
       </c>
       <c r="E76" s="3">
-        <v>9726800</v>
+        <v>9856200</v>
       </c>
       <c r="F76" s="3">
-        <v>8707300</v>
+        <v>9316400</v>
       </c>
       <c r="G76" s="3">
-        <v>8031100</v>
+        <v>8340000</v>
       </c>
       <c r="H76" s="3">
-        <v>8069700</v>
+        <v>7692200</v>
       </c>
       <c r="I76" s="3">
-        <v>7742100</v>
+        <v>7729300</v>
       </c>
       <c r="J76" s="3">
+        <v>7415500</v>
+      </c>
+      <c r="K76" s="3">
         <v>7693800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7479300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7661600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8429500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8847000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9661900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>9382700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>9587900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>9682200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>8492100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>8457800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>9355400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>10077300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>9574000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>9534500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>10474600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>10099100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>9355600</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1168100</v>
+        <v>679700</v>
       </c>
       <c r="E81" s="3">
-        <v>594400</v>
+        <v>1118800</v>
       </c>
       <c r="F81" s="3">
-        <v>738100</v>
+        <v>569400</v>
       </c>
       <c r="G81" s="3">
-        <v>104500</v>
+        <v>707000</v>
       </c>
       <c r="H81" s="3">
-        <v>267800</v>
+        <v>100100</v>
       </c>
       <c r="I81" s="3">
-        <v>149300</v>
+        <v>256500</v>
       </c>
       <c r="J81" s="3">
+        <v>143000</v>
+      </c>
+      <c r="K81" s="3">
         <v>531000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-22600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-126400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-183500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-52700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-151500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-9800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-78200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>76800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>215600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>226900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>405100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>235900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>171800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>217300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>130700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>133800</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,85 +6012,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>224600</v>
+        <v>216800</v>
       </c>
       <c r="E83" s="3">
-        <v>209200</v>
+        <v>215100</v>
       </c>
       <c r="F83" s="3">
-        <v>249700</v>
+        <v>200400</v>
       </c>
       <c r="G83" s="3">
-        <v>217700</v>
+        <v>239200</v>
       </c>
       <c r="H83" s="3">
-        <v>196000</v>
+        <v>208500</v>
       </c>
       <c r="I83" s="3">
-        <v>194300</v>
+        <v>187700</v>
       </c>
       <c r="J83" s="3">
+        <v>186100</v>
+      </c>
+      <c r="K83" s="3">
         <v>415700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>211200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>400700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>222800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>337000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>269100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>243500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>237500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>193900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>189400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>193300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>207100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>228100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>168000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>160800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>166700</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>197300</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>174500</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1563900</v>
+        <v>596900</v>
       </c>
       <c r="E89" s="3">
-        <v>-19400</v>
+        <v>1497900</v>
       </c>
       <c r="F89" s="3">
-        <v>872000</v>
+        <v>-18600</v>
       </c>
       <c r="G89" s="3">
-        <v>-8600</v>
+        <v>835200</v>
       </c>
       <c r="H89" s="3">
-        <v>677200</v>
+        <v>-8200</v>
       </c>
       <c r="I89" s="3">
-        <v>-56300</v>
+        <v>648600</v>
       </c>
       <c r="J89" s="3">
+        <v>-54000</v>
+      </c>
+      <c r="K89" s="3">
         <v>563900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>457800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>221800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>138000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>628700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>420200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>300600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>88200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>106500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>263300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>155300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>215800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>740900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>341600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>501400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>82400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>523700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>284800</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6602,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-213700</v>
+        <v>-252200</v>
       </c>
       <c r="E91" s="3">
-        <v>-135600</v>
+        <v>-204700</v>
       </c>
       <c r="F91" s="3">
-        <v>-241800</v>
+        <v>-129900</v>
       </c>
       <c r="G91" s="3">
-        <v>-134700</v>
+        <v>-231600</v>
       </c>
       <c r="H91" s="3">
-        <v>-141800</v>
+        <v>-129000</v>
       </c>
       <c r="I91" s="3">
-        <v>-105300</v>
+        <v>-135800</v>
       </c>
       <c r="J91" s="3">
+        <v>-100900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-182900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-127700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-116400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-136900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-320200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-237200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-258000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-184600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-284000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-183700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-157200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-148500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-353000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-173800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-156300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-172100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-315900</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-198600</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +6840,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-49900</v>
+        <v>-412700</v>
       </c>
       <c r="E94" s="3">
-        <v>-174500</v>
+        <v>-47800</v>
       </c>
       <c r="F94" s="3">
+        <v>-167200</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-279900</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-146400</v>
+      </c>
+      <c r="I94" s="3">
+        <v>90400</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-128800</v>
+      </c>
+      <c r="K94" s="3">
+        <v>12700</v>
+      </c>
+      <c r="L94" s="3">
+        <v>-131700</v>
+      </c>
+      <c r="M94" s="3">
+        <v>-456900</v>
+      </c>
+      <c r="N94" s="3">
+        <v>-194500</v>
+      </c>
+      <c r="O94" s="3">
+        <v>-324000</v>
+      </c>
+      <c r="P94" s="3">
+        <v>-234000</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>-310700</v>
+      </c>
+      <c r="R94" s="3">
+        <v>-182800</v>
+      </c>
+      <c r="S94" s="3">
         <v>-292200</v>
       </c>
-      <c r="G94" s="3">
-        <v>-152900</v>
-      </c>
-      <c r="H94" s="3">
-        <v>94400</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-134400</v>
-      </c>
-      <c r="J94" s="3">
-        <v>12700</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-131700</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-456900</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-194500</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-324000</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-234000</v>
-      </c>
-      <c r="P94" s="3">
-        <v>-310700</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>-182800</v>
-      </c>
-      <c r="R94" s="3">
-        <v>-292200</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-154800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-165900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-159600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1571400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>220100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-244300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-80900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-331100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-397400</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,35 +6952,36 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1148100</v>
+        <v>-295200</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-1099600</v>
       </c>
       <c r="F96" s="3">
-        <v>-26700</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-25600</v>
       </c>
       <c r="H96" s="3">
-        <v>-265600</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-254400</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-272200</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -6755,49 +6989,52 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-10100</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-295800</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-2500</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-1900</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-366300</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-8700</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-42700</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-303900</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-14300</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,235 +7270,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1251300</v>
+        <v>-123800</v>
       </c>
       <c r="E100" s="3">
-        <v>-15600</v>
+        <v>-1198600</v>
       </c>
       <c r="F100" s="3">
-        <v>-167300</v>
+        <v>-15000</v>
       </c>
       <c r="G100" s="3">
-        <v>42100</v>
+        <v>-160200</v>
       </c>
       <c r="H100" s="3">
-        <v>-275500</v>
+        <v>40300</v>
       </c>
       <c r="I100" s="3">
-        <v>-51500</v>
+        <v>-263900</v>
       </c>
       <c r="J100" s="3">
+        <v>-49300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-493200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-73900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>669000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-107400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-208300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>531200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>115200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>45700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>22200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-344300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-292100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>101800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>602000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-283600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>26000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-212400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-22300</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>84000</v>
+        <v>73000</v>
       </c>
       <c r="E101" s="3">
-        <v>27000</v>
+        <v>80500</v>
       </c>
       <c r="F101" s="3">
-        <v>15300</v>
+        <v>25900</v>
       </c>
       <c r="G101" s="3">
-        <v>-20900</v>
+        <v>14700</v>
       </c>
       <c r="H101" s="3">
-        <v>35800</v>
+        <v>-20000</v>
       </c>
       <c r="I101" s="3">
-        <v>-29700</v>
+        <v>34300</v>
       </c>
       <c r="J101" s="3">
+        <v>-28500</v>
+      </c>
+      <c r="K101" s="3">
         <v>-33400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-22300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-95400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>58500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-8600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>21100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-8800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>44000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-11700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-22400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-30700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>31000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-22000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-12900</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>9000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>30300</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-21500</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>346600</v>
+        <v>133400</v>
       </c>
       <c r="E102" s="3">
-        <v>-182500</v>
+        <v>332000</v>
       </c>
       <c r="F102" s="3">
-        <v>427900</v>
+        <v>-174800</v>
       </c>
       <c r="G102" s="3">
-        <v>-140400</v>
+        <v>409800</v>
       </c>
       <c r="H102" s="3">
-        <v>531900</v>
+        <v>-134400</v>
       </c>
       <c r="I102" s="3">
-        <v>-272000</v>
+        <v>509400</v>
       </c>
       <c r="J102" s="3">
+        <v>-260500</v>
+      </c>
+      <c r="K102" s="3">
         <v>14800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>213700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>326700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-12800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>188700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>519300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>11800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-96000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>119100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-377400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-266600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-697600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1141700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-39400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>36500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>10500</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-156300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NHYDY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NHYDY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
   <si>
     <t>NHYDY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,371 @@
     <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5203100</v>
+        <v>4138600</v>
       </c>
       <c r="E8" s="3">
-        <v>6428100</v>
+        <v>4924600</v>
       </c>
       <c r="F8" s="3">
-        <v>4624800</v>
+        <v>6084100</v>
       </c>
       <c r="G8" s="3">
-        <v>4606600</v>
+        <v>4377200</v>
       </c>
       <c r="H8" s="3">
-        <v>3642000</v>
+        <v>4360100</v>
       </c>
       <c r="I8" s="3">
-        <v>3428600</v>
+        <v>3447100</v>
       </c>
       <c r="J8" s="3">
+        <v>3245100</v>
+      </c>
+      <c r="K8" s="3">
         <v>3169900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1249900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2787400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2567200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3202000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3928000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4515500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4529900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4254800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4330700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4068100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4220300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4336500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4493100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2639900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2847400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2839100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>2620100</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>2487500</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3405400</v>
+        <v>2709700</v>
       </c>
       <c r="E9" s="3">
-        <v>3673800</v>
+        <v>3223100</v>
       </c>
       <c r="F9" s="3">
-        <v>2893000</v>
+        <v>3477200</v>
       </c>
       <c r="G9" s="3">
-        <v>2460800</v>
+        <v>2738100</v>
       </c>
       <c r="H9" s="3">
-        <v>2351400</v>
+        <v>2329100</v>
       </c>
       <c r="I9" s="3">
-        <v>2104500</v>
+        <v>2225500</v>
       </c>
       <c r="J9" s="3">
+        <v>1991900</v>
+      </c>
+      <c r="K9" s="3">
         <v>1897500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>625800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1676100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1603700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1894400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2471300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2899500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2997100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2845600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2839000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2625700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2710500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2733500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2826500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1710000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1835000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1827600</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1651100</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1588800</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1797700</v>
+        <v>1429000</v>
       </c>
       <c r="E10" s="3">
-        <v>2754300</v>
+        <v>1701500</v>
       </c>
       <c r="F10" s="3">
-        <v>1731800</v>
+        <v>2606900</v>
       </c>
       <c r="G10" s="3">
-        <v>2145800</v>
+        <v>1639100</v>
       </c>
       <c r="H10" s="3">
-        <v>1290600</v>
+        <v>2031000</v>
       </c>
       <c r="I10" s="3">
-        <v>1324100</v>
+        <v>1221500</v>
       </c>
       <c r="J10" s="3">
+        <v>1253200</v>
+      </c>
+      <c r="K10" s="3">
         <v>1272400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>624100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1111300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>963600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1307600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1456800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1616100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1532800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1409100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1491700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1442300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1509700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1602900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1666600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>929900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1012400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1011600</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>969000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>898600</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,8 +1058,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1126,8 +1139,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,49 +1222,52 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>4900</v>
+        <v>26900</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>4600</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>29200</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>1400</v>
+        <v>27600</v>
       </c>
       <c r="I14" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J14" s="3">
         <v>700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>12100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>6500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>7600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>185300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>100900</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
@@ -1265,11 +1284,11 @@
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3" t="s">
+      <c r="V14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>8</v>
@@ -1286,88 +1305,94 @@
       <c r="AB14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>211900</v>
+        <v>213200</v>
       </c>
       <c r="E15" s="3">
-        <v>215000</v>
+        <v>200600</v>
       </c>
       <c r="F15" s="3">
-        <v>200400</v>
+        <v>203500</v>
       </c>
       <c r="G15" s="3">
-        <v>210000</v>
+        <v>189700</v>
       </c>
       <c r="H15" s="3">
-        <v>207200</v>
+        <v>198800</v>
       </c>
       <c r="I15" s="3">
-        <v>187000</v>
+        <v>196100</v>
       </c>
       <c r="J15" s="3">
+        <v>177000</v>
+      </c>
+      <c r="K15" s="3">
         <v>174000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>88100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>173300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>184400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>192100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>236000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>269100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>243400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>237500</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>193900</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>189400</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>193400</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>207100</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>228100</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>167900</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>160800</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>166700</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>197200</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>174600</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1418,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4442100</v>
+        <v>4117600</v>
       </c>
       <c r="E17" s="3">
-        <v>4898500</v>
+        <v>4204400</v>
       </c>
       <c r="F17" s="3">
-        <v>4007500</v>
+        <v>4636300</v>
       </c>
       <c r="G17" s="3">
-        <v>3606000</v>
+        <v>3793000</v>
       </c>
       <c r="H17" s="3">
-        <v>3390700</v>
+        <v>3413000</v>
       </c>
       <c r="I17" s="3">
-        <v>3127600</v>
+        <v>3209200</v>
       </c>
       <c r="J17" s="3">
+        <v>2960200</v>
+      </c>
+      <c r="K17" s="3">
         <v>2948300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>535800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2595600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2728100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2976300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3972200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4488800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4454100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4252500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4310600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3857600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3914800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3978300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3970800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2370900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2506300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2542000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2378000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>2317800</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>760900</v>
+        <v>21000</v>
       </c>
       <c r="E18" s="3">
-        <v>1529600</v>
+        <v>720200</v>
       </c>
       <c r="F18" s="3">
-        <v>617300</v>
+        <v>1447800</v>
       </c>
       <c r="G18" s="3">
-        <v>1000600</v>
+        <v>584200</v>
       </c>
       <c r="H18" s="3">
-        <v>251300</v>
+        <v>947100</v>
       </c>
       <c r="I18" s="3">
-        <v>301000</v>
+        <v>237800</v>
       </c>
       <c r="J18" s="3">
+        <v>284900</v>
+      </c>
+      <c r="K18" s="3">
         <v>221500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>714100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>191800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-160900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>225700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-44200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>26700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>75900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>20100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>210400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>305500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>358100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>522300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>269000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>341100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>297200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>242200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>169700</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,408 +1615,424 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>75900</v>
+        <v>136300</v>
       </c>
       <c r="E20" s="3">
-        <v>-100700</v>
+        <v>71800</v>
       </c>
       <c r="F20" s="3">
-        <v>239700</v>
+        <v>-95300</v>
       </c>
       <c r="G20" s="3">
-        <v>88300</v>
+        <v>226900</v>
       </c>
       <c r="H20" s="3">
-        <v>-65400</v>
+        <v>83600</v>
       </c>
       <c r="I20" s="3">
-        <v>56900</v>
+        <v>-61900</v>
       </c>
       <c r="J20" s="3">
+        <v>53900</v>
+      </c>
+      <c r="K20" s="3">
         <v>65600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>184400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-152000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>62700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-426500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>52700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-170700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-51800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>20800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-51000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-27200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-30000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-38200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-77500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>60900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-102800</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>27100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-3800</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>44600</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1053600</v>
+        <v>397400</v>
       </c>
       <c r="E21" s="3">
-        <v>1644000</v>
+        <v>997200</v>
       </c>
       <c r="F21" s="3">
-        <v>1057400</v>
+        <v>1556000</v>
       </c>
       <c r="G21" s="3">
-        <v>1328100</v>
+        <v>1000800</v>
       </c>
       <c r="H21" s="3">
-        <v>394500</v>
+        <v>1257000</v>
       </c>
       <c r="I21" s="3">
-        <v>545700</v>
+        <v>373300</v>
       </c>
       <c r="J21" s="3">
+        <v>516500</v>
+      </c>
+      <c r="K21" s="3">
         <v>473200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1085900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>220600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>271500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-7400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>345500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>125200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>267600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>260600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>163000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>372600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>468800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>527000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>673000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>497900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>399100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>491000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>435600</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>388800</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>26700</v>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E22" s="3">
-        <v>29300</v>
+        <v>25300</v>
       </c>
       <c r="F22" s="3">
-        <v>22000</v>
+        <v>27700</v>
       </c>
       <c r="G22" s="3">
-        <v>24400</v>
+        <v>20800</v>
       </c>
       <c r="H22" s="3">
-        <v>25200</v>
+        <v>23100</v>
       </c>
       <c r="I22" s="3">
-        <v>21700</v>
+        <v>23900</v>
       </c>
       <c r="J22" s="3">
+        <v>20600</v>
+      </c>
+      <c r="K22" s="3">
         <v>23500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>26200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>26400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>23400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>22100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>27000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>25400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>25000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>20200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>30300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>16100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>15100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>13300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>12400</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>4700</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>8200</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>10400</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>13400</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>810100</v>
+        <v>157400</v>
       </c>
       <c r="E23" s="3">
-        <v>1399700</v>
+        <v>766800</v>
       </c>
       <c r="F23" s="3">
-        <v>835000</v>
+        <v>1324700</v>
       </c>
       <c r="G23" s="3">
-        <v>1064500</v>
+        <v>790300</v>
       </c>
       <c r="H23" s="3">
-        <v>160700</v>
+        <v>1007500</v>
       </c>
       <c r="I23" s="3">
-        <v>336200</v>
+        <v>152100</v>
       </c>
       <c r="J23" s="3">
+        <v>318200</v>
+      </c>
+      <c r="K23" s="3">
         <v>263600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>872200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>13400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-121600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-222900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-18500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-169300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-61300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>167200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>260400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>306600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>432500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>325100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>230100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>313900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>224900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>208700</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>147700</v>
+        <v>142600</v>
       </c>
       <c r="E24" s="3">
-        <v>294800</v>
+        <v>139800</v>
       </c>
       <c r="F24" s="3">
-        <v>198900</v>
+        <v>279000</v>
       </c>
       <c r="G24" s="3">
-        <v>218800</v>
+        <v>188300</v>
       </c>
       <c r="H24" s="3">
-        <v>49000</v>
+        <v>207000</v>
       </c>
       <c r="I24" s="3">
-        <v>98400</v>
+        <v>46400</v>
       </c>
       <c r="J24" s="3">
+        <v>93100</v>
+      </c>
+      <c r="K24" s="3">
         <v>77000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>84700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>24500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>29100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-46300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>55000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>21200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>17000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>23500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>72600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>48400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>81300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>15600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>72300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>49100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>87200</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>100500</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>70800</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2111,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>662400</v>
+        <v>14800</v>
       </c>
       <c r="E26" s="3">
-        <v>1104900</v>
+        <v>627000</v>
       </c>
       <c r="F26" s="3">
-        <v>636000</v>
+        <v>1045800</v>
       </c>
       <c r="G26" s="3">
-        <v>845800</v>
+        <v>602000</v>
       </c>
       <c r="H26" s="3">
-        <v>111700</v>
+        <v>800500</v>
       </c>
       <c r="I26" s="3">
-        <v>237800</v>
+        <v>105700</v>
       </c>
       <c r="J26" s="3">
+        <v>225100</v>
+      </c>
+      <c r="K26" s="3">
         <v>186600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>787500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-11100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-150600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-176600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-73500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-167400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-22100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-14000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-84700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>94500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>212000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>225300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>416800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>252900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>181000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>226700</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>124400</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>138000</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>679700</v>
+        <v>23600</v>
       </c>
       <c r="E27" s="3">
-        <v>1118800</v>
+        <v>643300</v>
       </c>
       <c r="F27" s="3">
-        <v>569400</v>
+        <v>1058900</v>
       </c>
       <c r="G27" s="3">
-        <v>706600</v>
+        <v>538900</v>
       </c>
       <c r="H27" s="3">
-        <v>102000</v>
+        <v>668800</v>
       </c>
       <c r="I27" s="3">
-        <v>216100</v>
+        <v>96500</v>
       </c>
       <c r="J27" s="3">
+        <v>204500</v>
+      </c>
+      <c r="K27" s="3">
         <v>180700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>761500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-11300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-128000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-154900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-52700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-151500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-9800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-78200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>76800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>215600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>226900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>405100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>235900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>171800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>217300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>130700</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>133800</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,13 +2360,16 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>3400</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -2318,37 +2378,37 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>400</v>
       </c>
-      <c r="H29" s="3">
-        <v>-1900</v>
-      </c>
       <c r="I29" s="3">
-        <v>40400</v>
+        <v>-1800</v>
       </c>
       <c r="J29" s="3">
+        <v>38200</v>
+      </c>
+      <c r="K29" s="3">
         <v>-37700</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-230600</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-11200</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>1600</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-28600</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R29" s="3">
         <v>0</v>
@@ -2383,8 +2443,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,168 +2609,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-75900</v>
+        <v>-136300</v>
       </c>
       <c r="E32" s="3">
-        <v>100700</v>
+        <v>-71800</v>
       </c>
       <c r="F32" s="3">
-        <v>-239700</v>
+        <v>95300</v>
       </c>
       <c r="G32" s="3">
-        <v>-88300</v>
+        <v>-226900</v>
       </c>
       <c r="H32" s="3">
-        <v>65400</v>
+        <v>-83600</v>
       </c>
       <c r="I32" s="3">
-        <v>-56900</v>
+        <v>61900</v>
       </c>
       <c r="J32" s="3">
+        <v>-53900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-65600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-184400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>152000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-62700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>426500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-52700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>170700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>51800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-20800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>51000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>27200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>30000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>38200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>77500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-60900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>102800</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-27100</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>3800</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-44600</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>679700</v>
+        <v>26900</v>
       </c>
       <c r="E33" s="3">
-        <v>1118800</v>
+        <v>643300</v>
       </c>
       <c r="F33" s="3">
-        <v>569400</v>
+        <v>1058900</v>
       </c>
       <c r="G33" s="3">
-        <v>707000</v>
+        <v>538900</v>
       </c>
       <c r="H33" s="3">
-        <v>100100</v>
+        <v>669100</v>
       </c>
       <c r="I33" s="3">
-        <v>256500</v>
+        <v>94700</v>
       </c>
       <c r="J33" s="3">
+        <v>242700</v>
+      </c>
+      <c r="K33" s="3">
         <v>143000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>531000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-22600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-126400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-183500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-52700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-151500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-9800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-78200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>76800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>215600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>226900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>405100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>235900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>171800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>217300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>130700</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>133800</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2858,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>679700</v>
+        <v>26900</v>
       </c>
       <c r="E35" s="3">
-        <v>1118800</v>
+        <v>643300</v>
       </c>
       <c r="F35" s="3">
-        <v>569400</v>
+        <v>1058900</v>
       </c>
       <c r="G35" s="3">
-        <v>707000</v>
+        <v>538900</v>
       </c>
       <c r="H35" s="3">
-        <v>100100</v>
+        <v>669100</v>
       </c>
       <c r="I35" s="3">
-        <v>256500</v>
+        <v>94700</v>
       </c>
       <c r="J35" s="3">
+        <v>242700</v>
+      </c>
+      <c r="K35" s="3">
         <v>143000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>531000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-22600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-126400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-183500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-52700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-151500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-9800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-78200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>76800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>215600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>226900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>405100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>235900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>171800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>217300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>130700</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>133800</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,168 +3093,175 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2564800</v>
+        <v>2427500</v>
       </c>
       <c r="E41" s="3">
-        <v>2431300</v>
+        <v>2301200</v>
       </c>
       <c r="F41" s="3">
-        <v>2099400</v>
+        <v>1987000</v>
       </c>
       <c r="G41" s="3">
-        <v>2274200</v>
+        <v>2152500</v>
       </c>
       <c r="H41" s="3">
-        <v>1864400</v>
+        <v>1764600</v>
       </c>
       <c r="I41" s="3">
-        <v>1998800</v>
+        <v>1891800</v>
       </c>
       <c r="J41" s="3">
+        <v>1409500</v>
+      </c>
+      <c r="K41" s="3">
         <v>1489200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1826900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1772200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1558500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1231800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1359800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1273500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1224500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>690500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>676400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>700300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>581300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1016700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1369600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2067200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>925500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1027500</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>991000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>980500</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>734000</v>
+        <v>694700</v>
       </c>
       <c r="E42" s="3">
-        <v>835800</v>
+        <v>791100</v>
       </c>
       <c r="F42" s="3">
-        <v>1320200</v>
+        <v>1249500</v>
       </c>
       <c r="G42" s="3">
-        <v>1033700</v>
+        <v>978300</v>
       </c>
       <c r="H42" s="3">
-        <v>781200</v>
+        <v>739400</v>
       </c>
       <c r="I42" s="3">
-        <v>423200</v>
+        <v>400600</v>
       </c>
       <c r="J42" s="3">
+        <v>439100</v>
+      </c>
+      <c r="K42" s="3">
         <v>463900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>472400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>602900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>587200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>279600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>177500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>196100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>180500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>183700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>200400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>195800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>216300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>200600</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>244200</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>259400</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>600500</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>580000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>624900</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>572400</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3198,138 +3290,144 @@
         <v>0</v>
       </c>
       <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
         <v>2053100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1916200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2485800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2098400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2769100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2681000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2665200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2340300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2222700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2398100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2471900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2313800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1523300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1559100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1584500</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1342000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>1417300</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3114600</v>
+        <v>2947900</v>
       </c>
       <c r="E44" s="3">
-        <v>2918300</v>
+        <v>2762100</v>
       </c>
       <c r="F44" s="3">
-        <v>2503800</v>
+        <v>2369800</v>
       </c>
       <c r="G44" s="3">
-        <v>2161900</v>
+        <v>2046200</v>
       </c>
       <c r="H44" s="3">
-        <v>1881600</v>
+        <v>1780900</v>
       </c>
       <c r="I44" s="3">
-        <v>1632400</v>
+        <v>1545000</v>
       </c>
       <c r="J44" s="3">
+        <v>1344300</v>
+      </c>
+      <c r="K44" s="3">
         <v>1420300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2019000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1953900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2064700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2275600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2303900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2609300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2626900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2830700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2987800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2446600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2285100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2237700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>2398100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1573000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1498300</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1548300</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1526600</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>1420000</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3357,11 +3455,11 @@
       <c r="K45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L45" s="3">
+      <c r="L45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M45" s="3">
         <v>100</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>8</v>
@@ -3369,11 +3467,11 @@
       <c r="O45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P45" s="3">
+      <c r="P45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q45" s="3">
         <v>100</v>
-      </c>
-      <c r="Q45" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>8</v>
@@ -3390,8 +3488,8 @@
       <c r="V45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W45" s="3">
-        <v>0</v>
+      <c r="W45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X45" s="3">
         <v>0</v>
@@ -3399,337 +3497,352 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-      <c r="Z45" s="3" t="s">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>100</v>
       </c>
-      <c r="AB45" s="3" t="s">
+      <c r="AC45" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9235100</v>
+        <v>8740800</v>
       </c>
       <c r="E46" s="3">
-        <v>9078800</v>
+        <v>8592900</v>
       </c>
       <c r="F46" s="3">
-        <v>8498300</v>
+        <v>8043500</v>
       </c>
       <c r="G46" s="3">
-        <v>7511500</v>
+        <v>7109500</v>
       </c>
       <c r="H46" s="3">
-        <v>6498400</v>
+        <v>6150500</v>
       </c>
       <c r="I46" s="3">
-        <v>6022500</v>
+        <v>5700200</v>
       </c>
       <c r="J46" s="3">
+        <v>4769900</v>
+      </c>
+      <c r="K46" s="3">
         <v>5039700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6220500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6382300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6126600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6272800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5939600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6848100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>6712900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>6370100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>6204900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5565400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>5480700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>5926900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>6325700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>5422900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>4583400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>4740300</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>4484500</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>4390100</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2243400</v>
+        <v>2123400</v>
       </c>
       <c r="E47" s="3">
-        <v>1989700</v>
+        <v>1883200</v>
       </c>
       <c r="F47" s="3">
-        <v>1811300</v>
+        <v>1714300</v>
       </c>
       <c r="G47" s="3">
-        <v>1780000</v>
+        <v>1684800</v>
       </c>
       <c r="H47" s="3">
-        <v>1752100</v>
+        <v>1658400</v>
       </c>
       <c r="I47" s="3">
-        <v>1728800</v>
+        <v>1636300</v>
       </c>
       <c r="J47" s="3">
+        <v>1617600</v>
+      </c>
+      <c r="K47" s="3">
         <v>1709100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1790700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1220500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1278300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1402500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1272900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1421300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1264500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1284800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1305300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1134900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1139600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1144700</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1299300</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>2104800</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>2176900</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>2458200</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>2442200</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>2383800</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6187600</v>
+        <v>5856400</v>
       </c>
       <c r="E48" s="3">
-        <v>5845500</v>
+        <v>5532600</v>
       </c>
       <c r="F48" s="3">
-        <v>5615200</v>
+        <v>5314600</v>
       </c>
       <c r="G48" s="3">
-        <v>5417400</v>
+        <v>5127400</v>
       </c>
       <c r="H48" s="3">
-        <v>5421000</v>
+        <v>5130900</v>
       </c>
       <c r="I48" s="3">
-        <v>5590800</v>
+        <v>5291500</v>
       </c>
       <c r="J48" s="3">
+        <v>5060300</v>
+      </c>
+      <c r="K48" s="3">
         <v>5346400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6654500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6955000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>7139400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>7892200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>8217200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>8909600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>8463300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>8251000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>8390300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>6777500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>6821700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>7588300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>8444900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>6542100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>6670700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>7352000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>7241900</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>6716900</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>973300</v>
+        <v>921200</v>
       </c>
       <c r="E49" s="3">
-        <v>930000</v>
+        <v>880200</v>
       </c>
       <c r="F49" s="3">
-        <v>891500</v>
+        <v>843800</v>
       </c>
       <c r="G49" s="3">
-        <v>865600</v>
+        <v>819300</v>
       </c>
       <c r="H49" s="3">
-        <v>878200</v>
+        <v>831200</v>
       </c>
       <c r="I49" s="3">
-        <v>910200</v>
+        <v>861400</v>
       </c>
       <c r="J49" s="3">
+        <v>825900</v>
+      </c>
+      <c r="K49" s="3">
         <v>872700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>969200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1003200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1039500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1281300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1272900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1407600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1328000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1260400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1291000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1094100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1192800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1316300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1471900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>628400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>645800</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>729800</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>716500</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>674300</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,88 +4004,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1880100</v>
+        <v>1779500</v>
       </c>
       <c r="E52" s="3">
-        <v>1807000</v>
+        <v>1710300</v>
       </c>
       <c r="F52" s="3">
-        <v>2205900</v>
+        <v>2087900</v>
       </c>
       <c r="G52" s="3">
-        <v>1738900</v>
+        <v>1645800</v>
       </c>
       <c r="H52" s="3">
-        <v>1813400</v>
+        <v>1716300</v>
       </c>
       <c r="I52" s="3">
-        <v>1663700</v>
+        <v>1574600</v>
       </c>
       <c r="J52" s="3">
+        <v>2959400</v>
+      </c>
+      <c r="K52" s="3">
         <v>3126800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1394500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1241200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1246600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1307400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1493200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1516400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1538900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1473100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1415700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1311300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1237900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1249900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1550800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1229500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1189000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1275900</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1241600</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>1207000</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4170,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>20519500</v>
+        <v>19421200</v>
       </c>
       <c r="E54" s="3">
-        <v>19650900</v>
+        <v>18599100</v>
       </c>
       <c r="F54" s="3">
-        <v>19022200</v>
+        <v>18004100</v>
       </c>
       <c r="G54" s="3">
-        <v>17313300</v>
+        <v>16386700</v>
       </c>
       <c r="H54" s="3">
-        <v>16363100</v>
+        <v>15487300</v>
       </c>
       <c r="I54" s="3">
-        <v>15916000</v>
+        <v>15064100</v>
       </c>
       <c r="J54" s="3">
+        <v>15233200</v>
+      </c>
+      <c r="K54" s="3">
         <v>16094600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>17029400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>16802100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>16830500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>18156200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>18195900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>20103100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>19307700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>18639300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>18607200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>15883200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>15872800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>17226200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>18905400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>15927700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>15265800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>16556200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>16126800</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>15372100</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,488 +4317,507 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2649200</v>
+        <v>2507400</v>
       </c>
       <c r="E57" s="3">
-        <v>2892600</v>
+        <v>2737700</v>
       </c>
       <c r="F57" s="3">
-        <v>2493100</v>
+        <v>2359700</v>
       </c>
       <c r="G57" s="3">
-        <v>2253100</v>
+        <v>2132500</v>
       </c>
       <c r="H57" s="3">
-        <v>2005900</v>
+        <v>1898600</v>
       </c>
       <c r="I57" s="3">
-        <v>2014200</v>
+        <v>1906400</v>
       </c>
       <c r="J57" s="3">
+        <v>1639700</v>
+      </c>
+      <c r="K57" s="3">
         <v>1732400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1962600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1809700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1691000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2183800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2068800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2373000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2429800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2507100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2299400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2036400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2184200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2237200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2266100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1198100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1212600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1260600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1246300</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>1125900</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1099700</v>
+        <v>1040900</v>
       </c>
       <c r="E58" s="3">
-        <v>773400</v>
+        <v>732000</v>
       </c>
       <c r="F58" s="3">
-        <v>701600</v>
+        <v>664100</v>
       </c>
       <c r="G58" s="3">
-        <v>637700</v>
+        <v>603600</v>
       </c>
       <c r="H58" s="3">
-        <v>415300</v>
+        <v>393100</v>
       </c>
       <c r="I58" s="3">
-        <v>415000</v>
+        <v>392800</v>
       </c>
       <c r="J58" s="3">
+        <v>441400</v>
+      </c>
+      <c r="K58" s="3">
         <v>466400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>491800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>700500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>718600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>782800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>681500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>731100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>945500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1009000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1057500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>675900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>508300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>571600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>954700</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1049600</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>433200</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>429200</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>404800</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>439200</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1156100</v>
+        <v>1094200</v>
       </c>
       <c r="E59" s="3">
-        <v>1063900</v>
+        <v>1007000</v>
       </c>
       <c r="F59" s="3">
-        <v>1243700</v>
+        <v>1177100</v>
       </c>
       <c r="G59" s="3">
-        <v>1034900</v>
+        <v>979500</v>
       </c>
       <c r="H59" s="3">
-        <v>700200</v>
+        <v>662700</v>
       </c>
       <c r="I59" s="3">
-        <v>515000</v>
+        <v>487400</v>
       </c>
       <c r="J59" s="3">
+        <v>379000</v>
+      </c>
+      <c r="K59" s="3">
         <v>400400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>554400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>370700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>376900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>483300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>535900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>492900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>426400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>529000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>684000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>603300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>509000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>526400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1202600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>410100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>337100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>411300</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>458100</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>516900</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4905000</v>
+        <v>4642500</v>
       </c>
       <c r="E60" s="3">
-        <v>4729900</v>
+        <v>4476800</v>
       </c>
       <c r="F60" s="3">
-        <v>4438500</v>
+        <v>4200900</v>
       </c>
       <c r="G60" s="3">
-        <v>3925600</v>
+        <v>3715500</v>
       </c>
       <c r="H60" s="3">
-        <v>3121400</v>
+        <v>2954400</v>
       </c>
       <c r="I60" s="3">
-        <v>2944200</v>
+        <v>2786600</v>
       </c>
       <c r="J60" s="3">
+        <v>2460100</v>
+      </c>
+      <c r="K60" s="3">
         <v>2599200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3008800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2880900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2786600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3450000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3286200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3597000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3801800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4045200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4040900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3315500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3201600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3335200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>3860100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2657800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1982800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>2101200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>2109200</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>2081900</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2062600</v>
+        <v>1952200</v>
       </c>
       <c r="E61" s="3">
-        <v>2088800</v>
+        <v>1977000</v>
       </c>
       <c r="F61" s="3">
-        <v>2090700</v>
+        <v>1978800</v>
       </c>
       <c r="G61" s="3">
-        <v>2181500</v>
+        <v>2064800</v>
       </c>
       <c r="H61" s="3">
-        <v>2529400</v>
+        <v>2394000</v>
       </c>
       <c r="I61" s="3">
-        <v>2436800</v>
+        <v>2306400</v>
       </c>
       <c r="J61" s="3">
+        <v>2221500</v>
+      </c>
+      <c r="K61" s="3">
         <v>2347100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2569900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2620900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2694100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2156700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2087200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2405400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2153000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1195400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1054000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>806700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>959300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>948900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1043500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>356300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>368600</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>415900</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>550400</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>420300</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2331600</v>
+        <v>2206800</v>
       </c>
       <c r="E62" s="3">
-        <v>2411700</v>
+        <v>2282600</v>
       </c>
       <c r="F62" s="3">
-        <v>2620800</v>
+        <v>2480600</v>
       </c>
       <c r="G62" s="3">
-        <v>2438000</v>
+        <v>2307500</v>
       </c>
       <c r="H62" s="3">
-        <v>2680700</v>
+        <v>2537200</v>
       </c>
       <c r="I62" s="3">
-        <v>2444900</v>
+        <v>2314100</v>
       </c>
       <c r="J62" s="3">
+        <v>3255300</v>
+      </c>
+      <c r="K62" s="3">
         <v>3439400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3429000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3510900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3361000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3719000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3516400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3912800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3455400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3278400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3547300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2811300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2795200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>3056100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>3561200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>2735700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>2775600</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>2844800</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>2661200</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>2833800</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5062,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9891200</v>
+        <v>9361800</v>
       </c>
       <c r="E66" s="3">
-        <v>9794700</v>
+        <v>9270500</v>
       </c>
       <c r="F66" s="3">
-        <v>9705800</v>
+        <v>9186300</v>
       </c>
       <c r="G66" s="3">
-        <v>8973300</v>
+        <v>8493100</v>
       </c>
       <c r="H66" s="3">
-        <v>8670900</v>
+        <v>8206800</v>
       </c>
       <c r="I66" s="3">
-        <v>8186700</v>
+        <v>7748500</v>
       </c>
       <c r="J66" s="3">
+        <v>8214700</v>
+      </c>
+      <c r="K66" s="3">
         <v>8679200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9335600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9322800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9168900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9726700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9348900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>10441200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>9925000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>9051500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>8925000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>7391100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>7415000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>7870700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>8828100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>6353700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>5731300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>6081600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>6027600</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>6016400</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5342,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5425,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5508,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6936700</v>
+        <v>6565400</v>
       </c>
       <c r="E72" s="3">
-        <v>6552300</v>
+        <v>6201600</v>
       </c>
       <c r="F72" s="3">
-        <v>6533100</v>
+        <v>6183400</v>
       </c>
       <c r="G72" s="3">
-        <v>5963700</v>
+        <v>5644500</v>
       </c>
       <c r="H72" s="3">
-        <v>5244500</v>
+        <v>4963800</v>
       </c>
       <c r="I72" s="3">
-        <v>5144400</v>
+        <v>4869100</v>
       </c>
       <c r="J72" s="3">
+        <v>5020700</v>
+      </c>
+      <c r="K72" s="3">
         <v>5304700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5389100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5010800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5033300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5159600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>5837800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>6405600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>6299500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>6466900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>6443600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>5915000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>5838300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>6351300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>6534600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>6130800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>5895000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>6408300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>6190900</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>6060300</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5840,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10628300</v>
+        <v>10059400</v>
       </c>
       <c r="E76" s="3">
-        <v>9856200</v>
+        <v>9328700</v>
       </c>
       <c r="F76" s="3">
-        <v>9316400</v>
+        <v>8817800</v>
       </c>
       <c r="G76" s="3">
-        <v>8340000</v>
+        <v>7893600</v>
       </c>
       <c r="H76" s="3">
-        <v>7692200</v>
+        <v>7280500</v>
       </c>
       <c r="I76" s="3">
-        <v>7729300</v>
+        <v>7315600</v>
       </c>
       <c r="J76" s="3">
+        <v>7018600</v>
+      </c>
+      <c r="K76" s="3">
         <v>7415500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7693800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7479300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7661600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8429500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8847000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>9661900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>9382700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>9587900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>9682200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>8492100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>8457800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>9355400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>10077300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>9574000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>9534500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>10474600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>10099100</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>9355600</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6006,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>679700</v>
+        <v>26900</v>
       </c>
       <c r="E81" s="3">
-        <v>1118800</v>
+        <v>643300</v>
       </c>
       <c r="F81" s="3">
-        <v>569400</v>
+        <v>1058900</v>
       </c>
       <c r="G81" s="3">
-        <v>707000</v>
+        <v>538900</v>
       </c>
       <c r="H81" s="3">
-        <v>100100</v>
+        <v>669100</v>
       </c>
       <c r="I81" s="3">
-        <v>256500</v>
+        <v>94700</v>
       </c>
       <c r="J81" s="3">
+        <v>242700</v>
+      </c>
+      <c r="K81" s="3">
         <v>143000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>531000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-22600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-126400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-183500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-52700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-151500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-9800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-78200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>76800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>215600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>226900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>405100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>235900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>171800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>217300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>130700</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>133800</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,88 +6210,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>216800</v>
+        <v>240000</v>
       </c>
       <c r="E83" s="3">
-        <v>215100</v>
+        <v>205200</v>
       </c>
       <c r="F83" s="3">
-        <v>200400</v>
+        <v>203600</v>
       </c>
       <c r="G83" s="3">
-        <v>239200</v>
+        <v>189700</v>
       </c>
       <c r="H83" s="3">
-        <v>208500</v>
+        <v>226400</v>
       </c>
       <c r="I83" s="3">
-        <v>187700</v>
+        <v>197400</v>
       </c>
       <c r="J83" s="3">
+        <v>177700</v>
+      </c>
+      <c r="K83" s="3">
         <v>186100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>415700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>211200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>400700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>222800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>337000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>269100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>243500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>237500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>193900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>189400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>193300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>207100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>228100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>168000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>160800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>166700</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>197300</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>174500</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6706,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>596900</v>
+        <v>794900</v>
       </c>
       <c r="E89" s="3">
-        <v>1497900</v>
+        <v>565000</v>
       </c>
       <c r="F89" s="3">
-        <v>-18600</v>
+        <v>1417700</v>
       </c>
       <c r="G89" s="3">
-        <v>835200</v>
+        <v>-17600</v>
       </c>
       <c r="H89" s="3">
-        <v>-8200</v>
+        <v>790500</v>
       </c>
       <c r="I89" s="3">
-        <v>648600</v>
+        <v>-7800</v>
       </c>
       <c r="J89" s="3">
+        <v>613900</v>
+      </c>
+      <c r="K89" s="3">
         <v>-54000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>563900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>457800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>221800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>138000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>628700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>420200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>300600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>88200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>106500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>263300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>155300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>215800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>740900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>341600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>501400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>82400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>523700</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>284800</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,88 +6822,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-252200</v>
+        <v>-346500</v>
       </c>
       <c r="E91" s="3">
-        <v>-204700</v>
+        <v>-238700</v>
       </c>
       <c r="F91" s="3">
-        <v>-129900</v>
+        <v>-193700</v>
       </c>
       <c r="G91" s="3">
-        <v>-231600</v>
+        <v>-122900</v>
       </c>
       <c r="H91" s="3">
-        <v>-129000</v>
+        <v>-219200</v>
       </c>
       <c r="I91" s="3">
-        <v>-135800</v>
+        <v>-122100</v>
       </c>
       <c r="J91" s="3">
+        <v>-128500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-182900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-127700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-116400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-136900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-320200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-237200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-258000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-184600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-284000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-183700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-157200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-148500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-353000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-173800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-156300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-172100</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-315900</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-198600</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,88 +7069,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-412700</v>
+        <v>-397600</v>
       </c>
       <c r="E94" s="3">
-        <v>-47800</v>
+        <v>-390600</v>
       </c>
       <c r="F94" s="3">
-        <v>-167200</v>
+        <v>-45300</v>
       </c>
       <c r="G94" s="3">
-        <v>-279900</v>
+        <v>-158200</v>
       </c>
       <c r="H94" s="3">
-        <v>-146400</v>
+        <v>-264900</v>
       </c>
       <c r="I94" s="3">
-        <v>90400</v>
+        <v>-138600</v>
       </c>
       <c r="J94" s="3">
+        <v>85500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-128800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>12700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-131700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-456900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-194500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-324000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-234000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-310700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-182800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-292200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-154800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-165900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-159600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1571400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>220100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-244300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-80900</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-331100</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-397400</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,38 +7185,39 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-295200</v>
+        <v>-11200</v>
       </c>
       <c r="E96" s="3">
-        <v>-1099600</v>
+        <v>-279400</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-1040800</v>
       </c>
       <c r="G96" s="3">
-        <v>-25600</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-24200</v>
       </c>
       <c r="I96" s="3">
-        <v>-254400</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-240800</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-272200</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -6992,49 +7225,52 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-10100</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-295800</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-2500</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-1900</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-366300</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-8700</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-42700</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-303900</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
       <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-14300</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,244 +7515,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-123800</v>
+        <v>21900</v>
       </c>
       <c r="E100" s="3">
-        <v>-1198600</v>
+        <v>-117200</v>
       </c>
       <c r="F100" s="3">
-        <v>-15000</v>
+        <v>-1134400</v>
       </c>
       <c r="G100" s="3">
-        <v>-160200</v>
+        <v>-14200</v>
       </c>
       <c r="H100" s="3">
-        <v>40300</v>
+        <v>-151600</v>
       </c>
       <c r="I100" s="3">
-        <v>-263900</v>
+        <v>38100</v>
       </c>
       <c r="J100" s="3">
+        <v>-249800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-49300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-493200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-73900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>669000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-107400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-208300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>531200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>115200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>45700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>22200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-344300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-292100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>101800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>602000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-283600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>26000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-212400</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-22300</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>73000</v>
+        <v>-42700</v>
       </c>
       <c r="E101" s="3">
-        <v>80500</v>
+        <v>69100</v>
       </c>
       <c r="F101" s="3">
-        <v>25900</v>
+        <v>76200</v>
       </c>
       <c r="G101" s="3">
-        <v>14700</v>
+        <v>24500</v>
       </c>
       <c r="H101" s="3">
-        <v>-20000</v>
+        <v>13900</v>
       </c>
       <c r="I101" s="3">
-        <v>34300</v>
+        <v>-19000</v>
       </c>
       <c r="J101" s="3">
+        <v>32500</v>
+      </c>
+      <c r="K101" s="3">
         <v>-28500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-33400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-22300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-95400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>58500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-8600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>21100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-8800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>44000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-11700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-22400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-30700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>31000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-22000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-12900</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>9000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>30300</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-21500</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>133400</v>
+        <v>371200</v>
       </c>
       <c r="E102" s="3">
-        <v>332000</v>
+        <v>126300</v>
       </c>
       <c r="F102" s="3">
-        <v>-174800</v>
+        <v>314200</v>
       </c>
       <c r="G102" s="3">
-        <v>409800</v>
+        <v>-165500</v>
       </c>
       <c r="H102" s="3">
-        <v>-134400</v>
+        <v>387900</v>
       </c>
       <c r="I102" s="3">
-        <v>509400</v>
+        <v>-127200</v>
       </c>
       <c r="J102" s="3">
+        <v>482200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-260500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>14800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>213700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>326700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-12800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>188700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>519300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>11800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-96000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>119100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-377400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-266600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-697600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1141700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-39400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>36500</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>10500</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-156300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NHYDY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NHYDY_QTR_FIN.xlsx
@@ -785,25 +785,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4138600</v>
+        <v>4043900</v>
       </c>
       <c r="E8" s="3">
-        <v>4924600</v>
+        <v>4811800</v>
       </c>
       <c r="F8" s="3">
-        <v>6084100</v>
+        <v>5944800</v>
       </c>
       <c r="G8" s="3">
-        <v>4377200</v>
+        <v>4277000</v>
       </c>
       <c r="H8" s="3">
-        <v>4360100</v>
+        <v>4260200</v>
       </c>
       <c r="I8" s="3">
-        <v>3447100</v>
+        <v>3368100</v>
       </c>
       <c r="J8" s="3">
-        <v>3245100</v>
+        <v>3170800</v>
       </c>
       <c r="K8" s="3">
         <v>3169900</v>
@@ -868,25 +868,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2709700</v>
+        <v>2647600</v>
       </c>
       <c r="E9" s="3">
-        <v>3223100</v>
+        <v>3149300</v>
       </c>
       <c r="F9" s="3">
-        <v>3477200</v>
+        <v>3397600</v>
       </c>
       <c r="G9" s="3">
-        <v>2738100</v>
+        <v>2675400</v>
       </c>
       <c r="H9" s="3">
-        <v>2329100</v>
+        <v>2275800</v>
       </c>
       <c r="I9" s="3">
-        <v>2225500</v>
+        <v>2174600</v>
       </c>
       <c r="J9" s="3">
-        <v>1991900</v>
+        <v>1946300</v>
       </c>
       <c r="K9" s="3">
         <v>1897500</v>
@@ -951,25 +951,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1429000</v>
+        <v>1396300</v>
       </c>
       <c r="E10" s="3">
-        <v>1701500</v>
+        <v>1662500</v>
       </c>
       <c r="F10" s="3">
-        <v>2606900</v>
+        <v>2547200</v>
       </c>
       <c r="G10" s="3">
-        <v>1639100</v>
+        <v>1601600</v>
       </c>
       <c r="H10" s="3">
-        <v>2031000</v>
+        <v>1984500</v>
       </c>
       <c r="I10" s="3">
-        <v>1221500</v>
+        <v>1193600</v>
       </c>
       <c r="J10" s="3">
-        <v>1253200</v>
+        <v>1224500</v>
       </c>
       <c r="K10" s="3">
         <v>1272400</v>
@@ -1231,10 +1231,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>26900</v>
+        <v>26200</v>
       </c>
       <c r="E14" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1243,13 +1243,13 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>27600</v>
+        <v>27000</v>
       </c>
       <c r="I14" s="3">
         <v>1300</v>
       </c>
       <c r="J14" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K14" s="3">
         <v>12100</v>
@@ -1314,25 +1314,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>213200</v>
+        <v>208300</v>
       </c>
       <c r="E15" s="3">
-        <v>200600</v>
+        <v>196000</v>
       </c>
       <c r="F15" s="3">
-        <v>203500</v>
+        <v>198800</v>
       </c>
       <c r="G15" s="3">
-        <v>189700</v>
+        <v>185300</v>
       </c>
       <c r="H15" s="3">
-        <v>198800</v>
+        <v>194200</v>
       </c>
       <c r="I15" s="3">
-        <v>196100</v>
+        <v>191600</v>
       </c>
       <c r="J15" s="3">
-        <v>177000</v>
+        <v>172900</v>
       </c>
       <c r="K15" s="3">
         <v>174000</v>
@@ -1425,25 +1425,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4117600</v>
+        <v>4023300</v>
       </c>
       <c r="E17" s="3">
-        <v>4204400</v>
+        <v>4108100</v>
       </c>
       <c r="F17" s="3">
-        <v>4636300</v>
+        <v>4530200</v>
       </c>
       <c r="G17" s="3">
-        <v>3793000</v>
+        <v>3706100</v>
       </c>
       <c r="H17" s="3">
-        <v>3413000</v>
+        <v>3334800</v>
       </c>
       <c r="I17" s="3">
-        <v>3209200</v>
+        <v>3135700</v>
       </c>
       <c r="J17" s="3">
-        <v>2960200</v>
+        <v>2892400</v>
       </c>
       <c r="K17" s="3">
         <v>2948300</v>
@@ -1508,25 +1508,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>21000</v>
+        <v>20600</v>
       </c>
       <c r="E18" s="3">
-        <v>720200</v>
+        <v>703700</v>
       </c>
       <c r="F18" s="3">
-        <v>1447800</v>
+        <v>1414600</v>
       </c>
       <c r="G18" s="3">
-        <v>584200</v>
+        <v>570900</v>
       </c>
       <c r="H18" s="3">
-        <v>947100</v>
+        <v>925400</v>
       </c>
       <c r="I18" s="3">
-        <v>237800</v>
+        <v>232400</v>
       </c>
       <c r="J18" s="3">
-        <v>284900</v>
+        <v>278400</v>
       </c>
       <c r="K18" s="3">
         <v>221500</v>
@@ -1622,25 +1622,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>136300</v>
+        <v>133200</v>
       </c>
       <c r="E20" s="3">
-        <v>71800</v>
+        <v>70200</v>
       </c>
       <c r="F20" s="3">
-        <v>-95300</v>
+        <v>-93100</v>
       </c>
       <c r="G20" s="3">
-        <v>226900</v>
+        <v>221700</v>
       </c>
       <c r="H20" s="3">
-        <v>83600</v>
+        <v>81700</v>
       </c>
       <c r="I20" s="3">
-        <v>-61900</v>
+        <v>-60500</v>
       </c>
       <c r="J20" s="3">
-        <v>53900</v>
+        <v>52700</v>
       </c>
       <c r="K20" s="3">
         <v>65600</v>
@@ -1705,25 +1705,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>397400</v>
+        <v>388300</v>
       </c>
       <c r="E21" s="3">
-        <v>997200</v>
+        <v>974400</v>
       </c>
       <c r="F21" s="3">
-        <v>1556000</v>
+        <v>1520400</v>
       </c>
       <c r="G21" s="3">
-        <v>1000800</v>
+        <v>977900</v>
       </c>
       <c r="H21" s="3">
-        <v>1257000</v>
+        <v>1228300</v>
       </c>
       <c r="I21" s="3">
-        <v>373300</v>
+        <v>364800</v>
       </c>
       <c r="J21" s="3">
-        <v>516500</v>
+        <v>504600</v>
       </c>
       <c r="K21" s="3">
         <v>473200</v>
@@ -1791,22 +1791,22 @@
         <v>8</v>
       </c>
       <c r="E22" s="3">
-        <v>25300</v>
+        <v>24700</v>
       </c>
       <c r="F22" s="3">
-        <v>27700</v>
+        <v>27100</v>
       </c>
       <c r="G22" s="3">
-        <v>20800</v>
+        <v>20400</v>
       </c>
       <c r="H22" s="3">
-        <v>23100</v>
+        <v>22600</v>
       </c>
       <c r="I22" s="3">
-        <v>23900</v>
+        <v>23300</v>
       </c>
       <c r="J22" s="3">
-        <v>20600</v>
+        <v>20100</v>
       </c>
       <c r="K22" s="3">
         <v>23500</v>
@@ -1871,25 +1871,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>157400</v>
+        <v>153800</v>
       </c>
       <c r="E23" s="3">
-        <v>766800</v>
+        <v>749200</v>
       </c>
       <c r="F23" s="3">
-        <v>1324700</v>
+        <v>1294400</v>
       </c>
       <c r="G23" s="3">
-        <v>790300</v>
+        <v>772200</v>
       </c>
       <c r="H23" s="3">
-        <v>1007500</v>
+        <v>984500</v>
       </c>
       <c r="I23" s="3">
-        <v>152100</v>
+        <v>148600</v>
       </c>
       <c r="J23" s="3">
-        <v>318200</v>
+        <v>310900</v>
       </c>
       <c r="K23" s="3">
         <v>263600</v>
@@ -1954,25 +1954,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>142600</v>
+        <v>139400</v>
       </c>
       <c r="E24" s="3">
-        <v>139800</v>
+        <v>136600</v>
       </c>
       <c r="F24" s="3">
-        <v>279000</v>
+        <v>272600</v>
       </c>
       <c r="G24" s="3">
-        <v>188300</v>
+        <v>184000</v>
       </c>
       <c r="H24" s="3">
-        <v>207000</v>
+        <v>202300</v>
       </c>
       <c r="I24" s="3">
-        <v>46400</v>
+        <v>45300</v>
       </c>
       <c r="J24" s="3">
-        <v>93100</v>
+        <v>91000</v>
       </c>
       <c r="K24" s="3">
         <v>77000</v>
@@ -2120,25 +2120,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>14800</v>
+        <v>14500</v>
       </c>
       <c r="E26" s="3">
-        <v>627000</v>
+        <v>612600</v>
       </c>
       <c r="F26" s="3">
-        <v>1045800</v>
+        <v>1021800</v>
       </c>
       <c r="G26" s="3">
-        <v>602000</v>
+        <v>588200</v>
       </c>
       <c r="H26" s="3">
-        <v>800500</v>
+        <v>782200</v>
       </c>
       <c r="I26" s="3">
-        <v>105700</v>
+        <v>103300</v>
       </c>
       <c r="J26" s="3">
-        <v>225100</v>
+        <v>219900</v>
       </c>
       <c r="K26" s="3">
         <v>186600</v>
@@ -2203,25 +2203,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>23600</v>
+        <v>23000</v>
       </c>
       <c r="E27" s="3">
-        <v>643300</v>
+        <v>628600</v>
       </c>
       <c r="F27" s="3">
-        <v>1058900</v>
+        <v>1034700</v>
       </c>
       <c r="G27" s="3">
-        <v>538900</v>
+        <v>526600</v>
       </c>
       <c r="H27" s="3">
-        <v>668800</v>
+        <v>653400</v>
       </c>
       <c r="I27" s="3">
-        <v>96500</v>
+        <v>94300</v>
       </c>
       <c r="J27" s="3">
-        <v>204500</v>
+        <v>199800</v>
       </c>
       <c r="K27" s="3">
         <v>180700</v>
@@ -2369,7 +2369,7 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -2384,10 +2384,10 @@
         <v>400</v>
       </c>
       <c r="I29" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="J29" s="3">
-        <v>38200</v>
+        <v>37300</v>
       </c>
       <c r="K29" s="3">
         <v>-37700</v>
@@ -2618,25 +2618,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-136300</v>
+        <v>-133200</v>
       </c>
       <c r="E32" s="3">
-        <v>-71800</v>
+        <v>-70200</v>
       </c>
       <c r="F32" s="3">
-        <v>95300</v>
+        <v>93100</v>
       </c>
       <c r="G32" s="3">
-        <v>-226900</v>
+        <v>-221700</v>
       </c>
       <c r="H32" s="3">
-        <v>-83600</v>
+        <v>-81700</v>
       </c>
       <c r="I32" s="3">
-        <v>61900</v>
+        <v>60500</v>
       </c>
       <c r="J32" s="3">
-        <v>-53900</v>
+        <v>-52700</v>
       </c>
       <c r="K32" s="3">
         <v>-65600</v>
@@ -2701,25 +2701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>26900</v>
+        <v>26300</v>
       </c>
       <c r="E33" s="3">
-        <v>643300</v>
+        <v>628600</v>
       </c>
       <c r="F33" s="3">
-        <v>1058900</v>
+        <v>1034700</v>
       </c>
       <c r="G33" s="3">
-        <v>538900</v>
+        <v>526600</v>
       </c>
       <c r="H33" s="3">
-        <v>669100</v>
+        <v>653800</v>
       </c>
       <c r="I33" s="3">
-        <v>94700</v>
+        <v>92600</v>
       </c>
       <c r="J33" s="3">
-        <v>242700</v>
+        <v>237200</v>
       </c>
       <c r="K33" s="3">
         <v>143000</v>
@@ -2867,25 +2867,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>26900</v>
+        <v>26300</v>
       </c>
       <c r="E35" s="3">
-        <v>643300</v>
+        <v>628600</v>
       </c>
       <c r="F35" s="3">
-        <v>1058900</v>
+        <v>1034700</v>
       </c>
       <c r="G35" s="3">
-        <v>538900</v>
+        <v>526600</v>
       </c>
       <c r="H35" s="3">
-        <v>669100</v>
+        <v>653800</v>
       </c>
       <c r="I35" s="3">
-        <v>94700</v>
+        <v>92600</v>
       </c>
       <c r="J35" s="3">
-        <v>242700</v>
+        <v>237200</v>
       </c>
       <c r="K35" s="3">
         <v>143000</v>
@@ -3100,25 +3100,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2427500</v>
+        <v>2371900</v>
       </c>
       <c r="E41" s="3">
-        <v>2301200</v>
+        <v>2248500</v>
       </c>
       <c r="F41" s="3">
-        <v>1987000</v>
+        <v>1941500</v>
       </c>
       <c r="G41" s="3">
-        <v>2152500</v>
+        <v>2103200</v>
       </c>
       <c r="H41" s="3">
-        <v>1764600</v>
+        <v>1724200</v>
       </c>
       <c r="I41" s="3">
-        <v>1891800</v>
+        <v>1848500</v>
       </c>
       <c r="J41" s="3">
-        <v>1409500</v>
+        <v>1377300</v>
       </c>
       <c r="K41" s="3">
         <v>1489200</v>
@@ -3183,25 +3183,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>694700</v>
+        <v>678800</v>
       </c>
       <c r="E42" s="3">
-        <v>791100</v>
+        <v>773000</v>
       </c>
       <c r="F42" s="3">
-        <v>1249500</v>
+        <v>1220900</v>
       </c>
       <c r="G42" s="3">
-        <v>978300</v>
+        <v>955900</v>
       </c>
       <c r="H42" s="3">
-        <v>739400</v>
+        <v>722400</v>
       </c>
       <c r="I42" s="3">
-        <v>400600</v>
+        <v>391400</v>
       </c>
       <c r="J42" s="3">
-        <v>439100</v>
+        <v>429000</v>
       </c>
       <c r="K42" s="3">
         <v>463900</v>
@@ -3349,25 +3349,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2947900</v>
+        <v>2880400</v>
       </c>
       <c r="E44" s="3">
-        <v>2762100</v>
+        <v>2698800</v>
       </c>
       <c r="F44" s="3">
-        <v>2369800</v>
+        <v>2315500</v>
       </c>
       <c r="G44" s="3">
-        <v>2046200</v>
+        <v>1999300</v>
       </c>
       <c r="H44" s="3">
-        <v>1780900</v>
+        <v>1740100</v>
       </c>
       <c r="I44" s="3">
-        <v>1545000</v>
+        <v>1509700</v>
       </c>
       <c r="J44" s="3">
-        <v>1344300</v>
+        <v>1313500</v>
       </c>
       <c r="K44" s="3">
         <v>1420300</v>
@@ -3515,25 +3515,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8740800</v>
+        <v>8540600</v>
       </c>
       <c r="E46" s="3">
-        <v>8592900</v>
+        <v>8396100</v>
       </c>
       <c r="F46" s="3">
-        <v>8043500</v>
+        <v>7859300</v>
       </c>
       <c r="G46" s="3">
-        <v>7109500</v>
+        <v>6946700</v>
       </c>
       <c r="H46" s="3">
-        <v>6150500</v>
+        <v>6009700</v>
       </c>
       <c r="I46" s="3">
-        <v>5700200</v>
+        <v>5569700</v>
       </c>
       <c r="J46" s="3">
-        <v>4769900</v>
+        <v>4660700</v>
       </c>
       <c r="K46" s="3">
         <v>5039700</v>
@@ -3598,25 +3598,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2123400</v>
+        <v>2074700</v>
       </c>
       <c r="E47" s="3">
-        <v>1883200</v>
+        <v>1840000</v>
       </c>
       <c r="F47" s="3">
-        <v>1714300</v>
+        <v>1675100</v>
       </c>
       <c r="G47" s="3">
-        <v>1684800</v>
+        <v>1646200</v>
       </c>
       <c r="H47" s="3">
-        <v>1658400</v>
+        <v>1620400</v>
       </c>
       <c r="I47" s="3">
-        <v>1636300</v>
+        <v>1598800</v>
       </c>
       <c r="J47" s="3">
-        <v>1617600</v>
+        <v>1580600</v>
       </c>
       <c r="K47" s="3">
         <v>1709100</v>
@@ -3681,25 +3681,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5856400</v>
+        <v>5722400</v>
       </c>
       <c r="E48" s="3">
-        <v>5532600</v>
+        <v>5405900</v>
       </c>
       <c r="F48" s="3">
-        <v>5314600</v>
+        <v>5193000</v>
       </c>
       <c r="G48" s="3">
-        <v>5127400</v>
+        <v>5010000</v>
       </c>
       <c r="H48" s="3">
-        <v>5130900</v>
+        <v>5013400</v>
       </c>
       <c r="I48" s="3">
-        <v>5291500</v>
+        <v>5170400</v>
       </c>
       <c r="J48" s="3">
-        <v>5060300</v>
+        <v>4944400</v>
       </c>
       <c r="K48" s="3">
         <v>5346400</v>
@@ -3764,25 +3764,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>921200</v>
+        <v>900100</v>
       </c>
       <c r="E49" s="3">
-        <v>880200</v>
+        <v>860100</v>
       </c>
       <c r="F49" s="3">
-        <v>843800</v>
+        <v>824500</v>
       </c>
       <c r="G49" s="3">
-        <v>819300</v>
+        <v>800500</v>
       </c>
       <c r="H49" s="3">
-        <v>831200</v>
+        <v>812200</v>
       </c>
       <c r="I49" s="3">
-        <v>861400</v>
+        <v>841700</v>
       </c>
       <c r="J49" s="3">
-        <v>825900</v>
+        <v>807000</v>
       </c>
       <c r="K49" s="3">
         <v>872700</v>
@@ -4013,25 +4013,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1779500</v>
+        <v>1738800</v>
       </c>
       <c r="E52" s="3">
-        <v>1710300</v>
+        <v>1671100</v>
       </c>
       <c r="F52" s="3">
-        <v>2087900</v>
+        <v>2040100</v>
       </c>
       <c r="G52" s="3">
-        <v>1645800</v>
+        <v>1608100</v>
       </c>
       <c r="H52" s="3">
-        <v>1716300</v>
+        <v>1677000</v>
       </c>
       <c r="I52" s="3">
-        <v>1574600</v>
+        <v>1538600</v>
       </c>
       <c r="J52" s="3">
-        <v>2959400</v>
+        <v>2891700</v>
       </c>
       <c r="K52" s="3">
         <v>3126800</v>
@@ -4179,25 +4179,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>19421200</v>
+        <v>18976600</v>
       </c>
       <c r="E54" s="3">
-        <v>18599100</v>
+        <v>18173300</v>
       </c>
       <c r="F54" s="3">
-        <v>18004100</v>
+        <v>17591900</v>
       </c>
       <c r="G54" s="3">
-        <v>16386700</v>
+        <v>16011500</v>
       </c>
       <c r="H54" s="3">
-        <v>15487300</v>
+        <v>15132700</v>
       </c>
       <c r="I54" s="3">
-        <v>15064100</v>
+        <v>14719200</v>
       </c>
       <c r="J54" s="3">
-        <v>15233200</v>
+        <v>14884400</v>
       </c>
       <c r="K54" s="3">
         <v>16094600</v>
@@ -4324,25 +4324,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2507400</v>
+        <v>2450000</v>
       </c>
       <c r="E57" s="3">
-        <v>2737700</v>
+        <v>2675100</v>
       </c>
       <c r="F57" s="3">
-        <v>2359700</v>
+        <v>2305700</v>
       </c>
       <c r="G57" s="3">
-        <v>2132500</v>
+        <v>2083600</v>
       </c>
       <c r="H57" s="3">
-        <v>1898600</v>
+        <v>1855100</v>
       </c>
       <c r="I57" s="3">
-        <v>1906400</v>
+        <v>1862700</v>
       </c>
       <c r="J57" s="3">
-        <v>1639700</v>
+        <v>1602100</v>
       </c>
       <c r="K57" s="3">
         <v>1732400</v>
@@ -4407,25 +4407,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1040900</v>
+        <v>1017000</v>
       </c>
       <c r="E58" s="3">
-        <v>732000</v>
+        <v>715300</v>
       </c>
       <c r="F58" s="3">
-        <v>664100</v>
+        <v>648900</v>
       </c>
       <c r="G58" s="3">
-        <v>603600</v>
+        <v>589800</v>
       </c>
       <c r="H58" s="3">
-        <v>393100</v>
+        <v>384100</v>
       </c>
       <c r="I58" s="3">
-        <v>392800</v>
+        <v>383800</v>
       </c>
       <c r="J58" s="3">
-        <v>441400</v>
+        <v>431300</v>
       </c>
       <c r="K58" s="3">
         <v>466400</v>
@@ -4490,25 +4490,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1094200</v>
+        <v>1069200</v>
       </c>
       <c r="E59" s="3">
-        <v>1007000</v>
+        <v>983900</v>
       </c>
       <c r="F59" s="3">
-        <v>1177100</v>
+        <v>1150200</v>
       </c>
       <c r="G59" s="3">
-        <v>979500</v>
+        <v>957000</v>
       </c>
       <c r="H59" s="3">
-        <v>662700</v>
+        <v>647600</v>
       </c>
       <c r="I59" s="3">
-        <v>487400</v>
+        <v>476300</v>
       </c>
       <c r="J59" s="3">
-        <v>379000</v>
+        <v>370300</v>
       </c>
       <c r="K59" s="3">
         <v>400400</v>
@@ -4573,25 +4573,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4642500</v>
+        <v>4536200</v>
       </c>
       <c r="E60" s="3">
-        <v>4476800</v>
+        <v>4374300</v>
       </c>
       <c r="F60" s="3">
-        <v>4200900</v>
+        <v>4104700</v>
       </c>
       <c r="G60" s="3">
-        <v>3715500</v>
+        <v>3630500</v>
       </c>
       <c r="H60" s="3">
-        <v>2954400</v>
+        <v>2886700</v>
       </c>
       <c r="I60" s="3">
-        <v>2786600</v>
+        <v>2722800</v>
       </c>
       <c r="J60" s="3">
-        <v>2460100</v>
+        <v>2403800</v>
       </c>
       <c r="K60" s="3">
         <v>2599200</v>
@@ -4656,25 +4656,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1952200</v>
+        <v>1907500</v>
       </c>
       <c r="E61" s="3">
-        <v>1977000</v>
+        <v>1931700</v>
       </c>
       <c r="F61" s="3">
-        <v>1978800</v>
+        <v>1933400</v>
       </c>
       <c r="G61" s="3">
-        <v>2064800</v>
+        <v>2017500</v>
       </c>
       <c r="H61" s="3">
-        <v>2394000</v>
+        <v>2339200</v>
       </c>
       <c r="I61" s="3">
-        <v>2306400</v>
+        <v>2253600</v>
       </c>
       <c r="J61" s="3">
-        <v>2221500</v>
+        <v>2170600</v>
       </c>
       <c r="K61" s="3">
         <v>2347100</v>
@@ -4739,25 +4739,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2206800</v>
+        <v>2156300</v>
       </c>
       <c r="E62" s="3">
-        <v>2282600</v>
+        <v>2230400</v>
       </c>
       <c r="F62" s="3">
-        <v>2480600</v>
+        <v>2423800</v>
       </c>
       <c r="G62" s="3">
-        <v>2307500</v>
+        <v>2254700</v>
       </c>
       <c r="H62" s="3">
-        <v>2537200</v>
+        <v>2479100</v>
       </c>
       <c r="I62" s="3">
-        <v>2314100</v>
+        <v>2261100</v>
       </c>
       <c r="J62" s="3">
-        <v>3255300</v>
+        <v>3180800</v>
       </c>
       <c r="K62" s="3">
         <v>3439400</v>
@@ -5071,25 +5071,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9361800</v>
+        <v>9147500</v>
       </c>
       <c r="E66" s="3">
-        <v>9270500</v>
+        <v>9058200</v>
       </c>
       <c r="F66" s="3">
-        <v>9186300</v>
+        <v>8976000</v>
       </c>
       <c r="G66" s="3">
-        <v>8493100</v>
+        <v>8298600</v>
       </c>
       <c r="H66" s="3">
-        <v>8206800</v>
+        <v>8018900</v>
       </c>
       <c r="I66" s="3">
-        <v>7748500</v>
+        <v>7571100</v>
       </c>
       <c r="J66" s="3">
-        <v>8214700</v>
+        <v>8026600</v>
       </c>
       <c r="K66" s="3">
         <v>8679200</v>
@@ -5517,25 +5517,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6565400</v>
+        <v>6415100</v>
       </c>
       <c r="E72" s="3">
-        <v>6201600</v>
+        <v>6059600</v>
       </c>
       <c r="F72" s="3">
-        <v>6183400</v>
+        <v>6041800</v>
       </c>
       <c r="G72" s="3">
-        <v>5644500</v>
+        <v>5515300</v>
       </c>
       <c r="H72" s="3">
-        <v>4963800</v>
+        <v>4850200</v>
       </c>
       <c r="I72" s="3">
-        <v>4869100</v>
+        <v>4757600</v>
       </c>
       <c r="J72" s="3">
-        <v>5020700</v>
+        <v>4905800</v>
       </c>
       <c r="K72" s="3">
         <v>5304700</v>
@@ -5849,25 +5849,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10059400</v>
+        <v>9829100</v>
       </c>
       <c r="E76" s="3">
-        <v>9328700</v>
+        <v>9115100</v>
       </c>
       <c r="F76" s="3">
-        <v>8817800</v>
+        <v>8615900</v>
       </c>
       <c r="G76" s="3">
-        <v>7893600</v>
+        <v>7712900</v>
       </c>
       <c r="H76" s="3">
-        <v>7280500</v>
+        <v>7113800</v>
       </c>
       <c r="I76" s="3">
-        <v>7315600</v>
+        <v>7148100</v>
       </c>
       <c r="J76" s="3">
-        <v>7018600</v>
+        <v>6857900</v>
       </c>
       <c r="K76" s="3">
         <v>7415500</v>
@@ -6103,25 +6103,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>26900</v>
+        <v>26300</v>
       </c>
       <c r="E81" s="3">
-        <v>643300</v>
+        <v>628600</v>
       </c>
       <c r="F81" s="3">
-        <v>1058900</v>
+        <v>1034700</v>
       </c>
       <c r="G81" s="3">
-        <v>538900</v>
+        <v>526600</v>
       </c>
       <c r="H81" s="3">
-        <v>669100</v>
+        <v>653800</v>
       </c>
       <c r="I81" s="3">
-        <v>94700</v>
+        <v>92600</v>
       </c>
       <c r="J81" s="3">
-        <v>242700</v>
+        <v>237200</v>
       </c>
       <c r="K81" s="3">
         <v>143000</v>
@@ -6217,25 +6217,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>240000</v>
+        <v>234500</v>
       </c>
       <c r="E83" s="3">
-        <v>205200</v>
+        <v>200500</v>
       </c>
       <c r="F83" s="3">
-        <v>203600</v>
+        <v>198900</v>
       </c>
       <c r="G83" s="3">
-        <v>189700</v>
+        <v>185300</v>
       </c>
       <c r="H83" s="3">
-        <v>226400</v>
+        <v>221200</v>
       </c>
       <c r="I83" s="3">
-        <v>197400</v>
+        <v>192900</v>
       </c>
       <c r="J83" s="3">
-        <v>177700</v>
+        <v>173600</v>
       </c>
       <c r="K83" s="3">
         <v>186100</v>
@@ -6715,25 +6715,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>794900</v>
+        <v>776700</v>
       </c>
       <c r="E89" s="3">
-        <v>565000</v>
+        <v>552100</v>
       </c>
       <c r="F89" s="3">
-        <v>1417700</v>
+        <v>1385200</v>
       </c>
       <c r="G89" s="3">
-        <v>-17600</v>
+        <v>-17200</v>
       </c>
       <c r="H89" s="3">
-        <v>790500</v>
+        <v>772400</v>
       </c>
       <c r="I89" s="3">
-        <v>-7800</v>
+        <v>-7600</v>
       </c>
       <c r="J89" s="3">
-        <v>613900</v>
+        <v>599900</v>
       </c>
       <c r="K89" s="3">
         <v>-54000</v>
@@ -6829,25 +6829,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-346500</v>
+        <v>-3690000</v>
       </c>
       <c r="E91" s="3">
-        <v>-238700</v>
+        <v>-2542000</v>
       </c>
       <c r="F91" s="3">
-        <v>-193700</v>
+        <v>-2063000</v>
       </c>
       <c r="G91" s="3">
-        <v>-122900</v>
+        <v>-1309000</v>
       </c>
       <c r="H91" s="3">
-        <v>-219200</v>
+        <v>-2334000</v>
       </c>
       <c r="I91" s="3">
-        <v>-122100</v>
+        <v>-1300000</v>
       </c>
       <c r="J91" s="3">
-        <v>-128500</v>
+        <v>-1369000</v>
       </c>
       <c r="K91" s="3">
         <v>-100900</v>
@@ -7078,25 +7078,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-397600</v>
+        <v>-388500</v>
       </c>
       <c r="E94" s="3">
-        <v>-390600</v>
+        <v>-381700</v>
       </c>
       <c r="F94" s="3">
-        <v>-45300</v>
+        <v>-44200</v>
       </c>
       <c r="G94" s="3">
-        <v>-158200</v>
+        <v>-154600</v>
       </c>
       <c r="H94" s="3">
-        <v>-264900</v>
+        <v>-258800</v>
       </c>
       <c r="I94" s="3">
-        <v>-138600</v>
+        <v>-135400</v>
       </c>
       <c r="J94" s="3">
-        <v>85500</v>
+        <v>83600</v>
       </c>
       <c r="K94" s="3">
         <v>-128800</v>
@@ -7192,25 +7192,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-11200</v>
+        <v>-10900</v>
       </c>
       <c r="E96" s="3">
-        <v>-279400</v>
+        <v>-273000</v>
       </c>
       <c r="F96" s="3">
-        <v>-1040800</v>
+        <v>-1017000</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-24200</v>
+        <v>-23700</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>-240800</v>
+        <v>-235200</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -7524,25 +7524,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>21900</v>
+        <v>21400</v>
       </c>
       <c r="E100" s="3">
-        <v>-117200</v>
+        <v>-114500</v>
       </c>
       <c r="F100" s="3">
-        <v>-1134400</v>
+        <v>-1108400</v>
       </c>
       <c r="G100" s="3">
-        <v>-14200</v>
+        <v>-13900</v>
       </c>
       <c r="H100" s="3">
-        <v>-151600</v>
+        <v>-148200</v>
       </c>
       <c r="I100" s="3">
-        <v>38100</v>
+        <v>37300</v>
       </c>
       <c r="J100" s="3">
-        <v>-249800</v>
+        <v>-244100</v>
       </c>
       <c r="K100" s="3">
         <v>-49300</v>
@@ -7607,25 +7607,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-42700</v>
+        <v>-41700</v>
       </c>
       <c r="E101" s="3">
-        <v>69100</v>
+        <v>67500</v>
       </c>
       <c r="F101" s="3">
-        <v>76200</v>
+        <v>74400</v>
       </c>
       <c r="G101" s="3">
-        <v>24500</v>
+        <v>23900</v>
       </c>
       <c r="H101" s="3">
-        <v>13900</v>
+        <v>13600</v>
       </c>
       <c r="I101" s="3">
-        <v>-19000</v>
+        <v>-18500</v>
       </c>
       <c r="J101" s="3">
-        <v>32500</v>
+        <v>31700</v>
       </c>
       <c r="K101" s="3">
         <v>-28500</v>
@@ -7690,25 +7690,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>371200</v>
+        <v>362700</v>
       </c>
       <c r="E102" s="3">
-        <v>126300</v>
+        <v>123400</v>
       </c>
       <c r="F102" s="3">
-        <v>314200</v>
+        <v>307000</v>
       </c>
       <c r="G102" s="3">
-        <v>-165500</v>
+        <v>-161700</v>
       </c>
       <c r="H102" s="3">
-        <v>387900</v>
+        <v>379000</v>
       </c>
       <c r="I102" s="3">
-        <v>-127200</v>
+        <v>-124300</v>
       </c>
       <c r="J102" s="3">
-        <v>482200</v>
+        <v>471100</v>
       </c>
       <c r="K102" s="3">
         <v>-260500</v>

--- a/AAII_Financials/Quarterly/NHYDY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NHYDY_QTR_FIN.xlsx
@@ -785,25 +785,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4043900</v>
+        <v>4145700</v>
       </c>
       <c r="E8" s="3">
-        <v>4811800</v>
+        <v>4933000</v>
       </c>
       <c r="F8" s="3">
-        <v>5944800</v>
+        <v>6094400</v>
       </c>
       <c r="G8" s="3">
-        <v>4277000</v>
+        <v>4384700</v>
       </c>
       <c r="H8" s="3">
-        <v>4260200</v>
+        <v>4367500</v>
       </c>
       <c r="I8" s="3">
-        <v>3368100</v>
+        <v>3452900</v>
       </c>
       <c r="J8" s="3">
-        <v>3170800</v>
+        <v>3250600</v>
       </c>
       <c r="K8" s="3">
         <v>3169900</v>
@@ -868,25 +868,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2647600</v>
+        <v>2714300</v>
       </c>
       <c r="E9" s="3">
-        <v>3149300</v>
+        <v>3228600</v>
       </c>
       <c r="F9" s="3">
-        <v>3397600</v>
+        <v>3483100</v>
       </c>
       <c r="G9" s="3">
-        <v>2675400</v>
+        <v>2742800</v>
       </c>
       <c r="H9" s="3">
-        <v>2275800</v>
+        <v>2333100</v>
       </c>
       <c r="I9" s="3">
-        <v>2174600</v>
+        <v>2229300</v>
       </c>
       <c r="J9" s="3">
-        <v>1946300</v>
+        <v>1995300</v>
       </c>
       <c r="K9" s="3">
         <v>1897500</v>
@@ -951,25 +951,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1396300</v>
+        <v>1431400</v>
       </c>
       <c r="E10" s="3">
-        <v>1662500</v>
+        <v>1704400</v>
       </c>
       <c r="F10" s="3">
-        <v>2547200</v>
+        <v>2611300</v>
       </c>
       <c r="G10" s="3">
-        <v>1601600</v>
+        <v>1641900</v>
       </c>
       <c r="H10" s="3">
-        <v>1984500</v>
+        <v>2034400</v>
       </c>
       <c r="I10" s="3">
-        <v>1193600</v>
+        <v>1223600</v>
       </c>
       <c r="J10" s="3">
-        <v>1224500</v>
+        <v>1255300</v>
       </c>
       <c r="K10" s="3">
         <v>1272400</v>
@@ -1231,10 +1231,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>26200</v>
+        <v>26900</v>
       </c>
       <c r="E14" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1243,13 +1243,13 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>27000</v>
+        <v>27700</v>
       </c>
       <c r="I14" s="3">
         <v>1300</v>
       </c>
       <c r="J14" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K14" s="3">
         <v>12100</v>
@@ -1314,25 +1314,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>208300</v>
+        <v>213500</v>
       </c>
       <c r="E15" s="3">
-        <v>196000</v>
+        <v>200900</v>
       </c>
       <c r="F15" s="3">
-        <v>198800</v>
+        <v>203800</v>
       </c>
       <c r="G15" s="3">
-        <v>185300</v>
+        <v>190000</v>
       </c>
       <c r="H15" s="3">
-        <v>194200</v>
+        <v>199100</v>
       </c>
       <c r="I15" s="3">
-        <v>191600</v>
+        <v>196400</v>
       </c>
       <c r="J15" s="3">
-        <v>172900</v>
+        <v>177300</v>
       </c>
       <c r="K15" s="3">
         <v>174000</v>
@@ -1425,25 +1425,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4023300</v>
+        <v>4124600</v>
       </c>
       <c r="E17" s="3">
-        <v>4108100</v>
+        <v>4211500</v>
       </c>
       <c r="F17" s="3">
-        <v>4530200</v>
+        <v>4644200</v>
       </c>
       <c r="G17" s="3">
-        <v>3706100</v>
+        <v>3799500</v>
       </c>
       <c r="H17" s="3">
-        <v>3334800</v>
+        <v>3418800</v>
       </c>
       <c r="I17" s="3">
-        <v>3135700</v>
+        <v>3214700</v>
       </c>
       <c r="J17" s="3">
-        <v>2892400</v>
+        <v>2965200</v>
       </c>
       <c r="K17" s="3">
         <v>2948300</v>
@@ -1508,25 +1508,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>20600</v>
+        <v>21100</v>
       </c>
       <c r="E18" s="3">
-        <v>703700</v>
+        <v>721400</v>
       </c>
       <c r="F18" s="3">
-        <v>1414600</v>
+        <v>1450200</v>
       </c>
       <c r="G18" s="3">
-        <v>570900</v>
+        <v>585200</v>
       </c>
       <c r="H18" s="3">
-        <v>925400</v>
+        <v>948700</v>
       </c>
       <c r="I18" s="3">
-        <v>232400</v>
+        <v>238300</v>
       </c>
       <c r="J18" s="3">
-        <v>278400</v>
+        <v>285400</v>
       </c>
       <c r="K18" s="3">
         <v>221500</v>
@@ -1622,25 +1622,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>133200</v>
+        <v>136600</v>
       </c>
       <c r="E20" s="3">
-        <v>70200</v>
+        <v>72000</v>
       </c>
       <c r="F20" s="3">
-        <v>-93100</v>
+        <v>-95500</v>
       </c>
       <c r="G20" s="3">
-        <v>221700</v>
+        <v>227200</v>
       </c>
       <c r="H20" s="3">
-        <v>81700</v>
+        <v>83700</v>
       </c>
       <c r="I20" s="3">
-        <v>-60500</v>
+        <v>-62000</v>
       </c>
       <c r="J20" s="3">
-        <v>52700</v>
+        <v>54000</v>
       </c>
       <c r="K20" s="3">
         <v>65600</v>
@@ -1705,25 +1705,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>388300</v>
+        <v>398100</v>
       </c>
       <c r="E21" s="3">
-        <v>974400</v>
+        <v>998900</v>
       </c>
       <c r="F21" s="3">
-        <v>1520400</v>
+        <v>1558700</v>
       </c>
       <c r="G21" s="3">
-        <v>977900</v>
+        <v>1002500</v>
       </c>
       <c r="H21" s="3">
-        <v>1228300</v>
+        <v>1259200</v>
       </c>
       <c r="I21" s="3">
-        <v>364800</v>
+        <v>374000</v>
       </c>
       <c r="J21" s="3">
-        <v>504600</v>
+        <v>517300</v>
       </c>
       <c r="K21" s="3">
         <v>473200</v>
@@ -1791,22 +1791,22 @@
         <v>8</v>
       </c>
       <c r="E22" s="3">
-        <v>24700</v>
+        <v>25300</v>
       </c>
       <c r="F22" s="3">
-        <v>27100</v>
+        <v>27700</v>
       </c>
       <c r="G22" s="3">
-        <v>20400</v>
+        <v>20900</v>
       </c>
       <c r="H22" s="3">
-        <v>22600</v>
+        <v>23100</v>
       </c>
       <c r="I22" s="3">
-        <v>23300</v>
+        <v>23900</v>
       </c>
       <c r="J22" s="3">
-        <v>20100</v>
+        <v>20600</v>
       </c>
       <c r="K22" s="3">
         <v>23500</v>
@@ -1871,25 +1871,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>153800</v>
+        <v>157600</v>
       </c>
       <c r="E23" s="3">
-        <v>749200</v>
+        <v>768100</v>
       </c>
       <c r="F23" s="3">
-        <v>1294400</v>
+        <v>1327000</v>
       </c>
       <c r="G23" s="3">
-        <v>772200</v>
+        <v>791600</v>
       </c>
       <c r="H23" s="3">
-        <v>984500</v>
+        <v>1009300</v>
       </c>
       <c r="I23" s="3">
-        <v>148600</v>
+        <v>152400</v>
       </c>
       <c r="J23" s="3">
-        <v>310900</v>
+        <v>318800</v>
       </c>
       <c r="K23" s="3">
         <v>263600</v>
@@ -1954,25 +1954,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>139400</v>
+        <v>142900</v>
       </c>
       <c r="E24" s="3">
-        <v>136600</v>
+        <v>140100</v>
       </c>
       <c r="F24" s="3">
-        <v>272600</v>
+        <v>279500</v>
       </c>
       <c r="G24" s="3">
-        <v>184000</v>
+        <v>188600</v>
       </c>
       <c r="H24" s="3">
-        <v>202300</v>
+        <v>207400</v>
       </c>
       <c r="I24" s="3">
-        <v>45300</v>
+        <v>46500</v>
       </c>
       <c r="J24" s="3">
-        <v>91000</v>
+        <v>93300</v>
       </c>
       <c r="K24" s="3">
         <v>77000</v>
@@ -2120,25 +2120,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>14500</v>
+        <v>14900</v>
       </c>
       <c r="E26" s="3">
-        <v>612600</v>
+        <v>628000</v>
       </c>
       <c r="F26" s="3">
-        <v>1021800</v>
+        <v>1047500</v>
       </c>
       <c r="G26" s="3">
-        <v>588200</v>
+        <v>603000</v>
       </c>
       <c r="H26" s="3">
-        <v>782200</v>
+        <v>801900</v>
       </c>
       <c r="I26" s="3">
-        <v>103300</v>
+        <v>105900</v>
       </c>
       <c r="J26" s="3">
-        <v>219900</v>
+        <v>225500</v>
       </c>
       <c r="K26" s="3">
         <v>186600</v>
@@ -2203,25 +2203,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>23000</v>
+        <v>23600</v>
       </c>
       <c r="E27" s="3">
-        <v>628600</v>
+        <v>644400</v>
       </c>
       <c r="F27" s="3">
-        <v>1034700</v>
+        <v>1060700</v>
       </c>
       <c r="G27" s="3">
-        <v>526600</v>
+        <v>539800</v>
       </c>
       <c r="H27" s="3">
-        <v>653400</v>
+        <v>669900</v>
       </c>
       <c r="I27" s="3">
-        <v>94300</v>
+        <v>96700</v>
       </c>
       <c r="J27" s="3">
-        <v>199800</v>
+        <v>204900</v>
       </c>
       <c r="K27" s="3">
         <v>180700</v>
@@ -2369,7 +2369,7 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -2384,10 +2384,10 @@
         <v>400</v>
       </c>
       <c r="I29" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="J29" s="3">
-        <v>37300</v>
+        <v>38300</v>
       </c>
       <c r="K29" s="3">
         <v>-37700</v>
@@ -2618,25 +2618,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-133200</v>
+        <v>-136600</v>
       </c>
       <c r="E32" s="3">
-        <v>-70200</v>
+        <v>-72000</v>
       </c>
       <c r="F32" s="3">
-        <v>93100</v>
+        <v>95500</v>
       </c>
       <c r="G32" s="3">
-        <v>-221700</v>
+        <v>-227200</v>
       </c>
       <c r="H32" s="3">
-        <v>-81700</v>
+        <v>-83700</v>
       </c>
       <c r="I32" s="3">
-        <v>60500</v>
+        <v>62000</v>
       </c>
       <c r="J32" s="3">
-        <v>-52700</v>
+        <v>-54000</v>
       </c>
       <c r="K32" s="3">
         <v>-65600</v>
@@ -2701,25 +2701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>26300</v>
+        <v>27000</v>
       </c>
       <c r="E33" s="3">
-        <v>628600</v>
+        <v>644400</v>
       </c>
       <c r="F33" s="3">
-        <v>1034700</v>
+        <v>1060700</v>
       </c>
       <c r="G33" s="3">
-        <v>526600</v>
+        <v>539800</v>
       </c>
       <c r="H33" s="3">
-        <v>653800</v>
+        <v>670300</v>
       </c>
       <c r="I33" s="3">
-        <v>92600</v>
+        <v>94900</v>
       </c>
       <c r="J33" s="3">
-        <v>237200</v>
+        <v>243100</v>
       </c>
       <c r="K33" s="3">
         <v>143000</v>
@@ -2867,25 +2867,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>26300</v>
+        <v>27000</v>
       </c>
       <c r="E35" s="3">
-        <v>628600</v>
+        <v>644400</v>
       </c>
       <c r="F35" s="3">
-        <v>1034700</v>
+        <v>1060700</v>
       </c>
       <c r="G35" s="3">
-        <v>526600</v>
+        <v>539800</v>
       </c>
       <c r="H35" s="3">
-        <v>653800</v>
+        <v>670300</v>
       </c>
       <c r="I35" s="3">
-        <v>92600</v>
+        <v>94900</v>
       </c>
       <c r="J35" s="3">
-        <v>237200</v>
+        <v>243100</v>
       </c>
       <c r="K35" s="3">
         <v>143000</v>
@@ -3100,25 +3100,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2371900</v>
+        <v>2431600</v>
       </c>
       <c r="E41" s="3">
-        <v>2248500</v>
+        <v>2305100</v>
       </c>
       <c r="F41" s="3">
-        <v>1941500</v>
+        <v>1990400</v>
       </c>
       <c r="G41" s="3">
-        <v>2103200</v>
+        <v>2156100</v>
       </c>
       <c r="H41" s="3">
-        <v>1724200</v>
+        <v>1767600</v>
       </c>
       <c r="I41" s="3">
-        <v>1848500</v>
+        <v>1895000</v>
       </c>
       <c r="J41" s="3">
-        <v>1377300</v>
+        <v>1411900</v>
       </c>
       <c r="K41" s="3">
         <v>1489200</v>
@@ -3183,25 +3183,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>678800</v>
+        <v>695900</v>
       </c>
       <c r="E42" s="3">
-        <v>773000</v>
+        <v>792500</v>
       </c>
       <c r="F42" s="3">
-        <v>1220900</v>
+        <v>1251700</v>
       </c>
       <c r="G42" s="3">
-        <v>955900</v>
+        <v>980000</v>
       </c>
       <c r="H42" s="3">
-        <v>722400</v>
+        <v>740600</v>
       </c>
       <c r="I42" s="3">
-        <v>391400</v>
+        <v>401300</v>
       </c>
       <c r="J42" s="3">
-        <v>429000</v>
+        <v>439800</v>
       </c>
       <c r="K42" s="3">
         <v>463900</v>
@@ -3349,25 +3349,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2880400</v>
+        <v>2952900</v>
       </c>
       <c r="E44" s="3">
-        <v>2698800</v>
+        <v>2766800</v>
       </c>
       <c r="F44" s="3">
-        <v>2315500</v>
+        <v>2373800</v>
       </c>
       <c r="G44" s="3">
-        <v>1999300</v>
+        <v>2049700</v>
       </c>
       <c r="H44" s="3">
-        <v>1740100</v>
+        <v>1783900</v>
       </c>
       <c r="I44" s="3">
-        <v>1509700</v>
+        <v>1547700</v>
       </c>
       <c r="J44" s="3">
-        <v>1313500</v>
+        <v>1346600</v>
       </c>
       <c r="K44" s="3">
         <v>1420300</v>
@@ -3515,25 +3515,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8540600</v>
+        <v>8755700</v>
       </c>
       <c r="E46" s="3">
-        <v>8396100</v>
+        <v>8607500</v>
       </c>
       <c r="F46" s="3">
-        <v>7859300</v>
+        <v>8057200</v>
       </c>
       <c r="G46" s="3">
-        <v>6946700</v>
+        <v>7121600</v>
       </c>
       <c r="H46" s="3">
-        <v>6009700</v>
+        <v>6161000</v>
       </c>
       <c r="I46" s="3">
-        <v>5569700</v>
+        <v>5709900</v>
       </c>
       <c r="J46" s="3">
-        <v>4660700</v>
+        <v>4778100</v>
       </c>
       <c r="K46" s="3">
         <v>5039700</v>
@@ -3598,25 +3598,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2074700</v>
+        <v>2127000</v>
       </c>
       <c r="E47" s="3">
-        <v>1840000</v>
+        <v>1886400</v>
       </c>
       <c r="F47" s="3">
-        <v>1675100</v>
+        <v>1717300</v>
       </c>
       <c r="G47" s="3">
-        <v>1646200</v>
+        <v>1687600</v>
       </c>
       <c r="H47" s="3">
+        <v>1661200</v>
+      </c>
+      <c r="I47" s="3">
+        <v>1639100</v>
+      </c>
+      <c r="J47" s="3">
         <v>1620400</v>
-      </c>
-      <c r="I47" s="3">
-        <v>1598800</v>
-      </c>
-      <c r="J47" s="3">
-        <v>1580600</v>
       </c>
       <c r="K47" s="3">
         <v>1709100</v>
@@ -3681,25 +3681,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5722400</v>
+        <v>5866400</v>
       </c>
       <c r="E48" s="3">
-        <v>5405900</v>
+        <v>5542000</v>
       </c>
       <c r="F48" s="3">
-        <v>5193000</v>
+        <v>5323700</v>
       </c>
       <c r="G48" s="3">
-        <v>5010000</v>
+        <v>5136100</v>
       </c>
       <c r="H48" s="3">
-        <v>5013400</v>
+        <v>5139600</v>
       </c>
       <c r="I48" s="3">
-        <v>5170400</v>
+        <v>5300600</v>
       </c>
       <c r="J48" s="3">
-        <v>4944400</v>
+        <v>5068900</v>
       </c>
       <c r="K48" s="3">
         <v>5346400</v>
@@ -3764,25 +3764,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>900100</v>
+        <v>922700</v>
       </c>
       <c r="E49" s="3">
-        <v>860100</v>
+        <v>881700</v>
       </c>
       <c r="F49" s="3">
-        <v>824500</v>
+        <v>845200</v>
       </c>
       <c r="G49" s="3">
-        <v>800500</v>
+        <v>820700</v>
       </c>
       <c r="H49" s="3">
-        <v>812200</v>
+        <v>832600</v>
       </c>
       <c r="I49" s="3">
-        <v>841700</v>
+        <v>862900</v>
       </c>
       <c r="J49" s="3">
-        <v>807000</v>
+        <v>827400</v>
       </c>
       <c r="K49" s="3">
         <v>872700</v>
@@ -4013,25 +4013,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1738800</v>
+        <v>1782500</v>
       </c>
       <c r="E52" s="3">
-        <v>1671100</v>
+        <v>1713200</v>
       </c>
       <c r="F52" s="3">
-        <v>2040100</v>
+        <v>2091400</v>
       </c>
       <c r="G52" s="3">
-        <v>1608100</v>
+        <v>1648600</v>
       </c>
       <c r="H52" s="3">
-        <v>1677000</v>
+        <v>1719200</v>
       </c>
       <c r="I52" s="3">
-        <v>1538600</v>
+        <v>1577300</v>
       </c>
       <c r="J52" s="3">
-        <v>2891700</v>
+        <v>2964500</v>
       </c>
       <c r="K52" s="3">
         <v>3126800</v>
@@ -4179,25 +4179,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>18976600</v>
+        <v>19454300</v>
       </c>
       <c r="E54" s="3">
-        <v>18173300</v>
+        <v>18630800</v>
       </c>
       <c r="F54" s="3">
-        <v>17591900</v>
+        <v>18034800</v>
       </c>
       <c r="G54" s="3">
-        <v>16011500</v>
+        <v>16414600</v>
       </c>
       <c r="H54" s="3">
-        <v>15132700</v>
+        <v>15513700</v>
       </c>
       <c r="I54" s="3">
-        <v>14719200</v>
+        <v>15089800</v>
       </c>
       <c r="J54" s="3">
-        <v>14884400</v>
+        <v>15259200</v>
       </c>
       <c r="K54" s="3">
         <v>16094600</v>
@@ -4324,25 +4324,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2450000</v>
+        <v>2511700</v>
       </c>
       <c r="E57" s="3">
-        <v>2675100</v>
+        <v>2742400</v>
       </c>
       <c r="F57" s="3">
-        <v>2305700</v>
+        <v>2363700</v>
       </c>
       <c r="G57" s="3">
-        <v>2083600</v>
+        <v>2136100</v>
       </c>
       <c r="H57" s="3">
-        <v>1855100</v>
+        <v>1901800</v>
       </c>
       <c r="I57" s="3">
-        <v>1862700</v>
+        <v>1909600</v>
       </c>
       <c r="J57" s="3">
-        <v>1602100</v>
+        <v>1642500</v>
       </c>
       <c r="K57" s="3">
         <v>1732400</v>
@@ -4407,25 +4407,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1017000</v>
+        <v>1042700</v>
       </c>
       <c r="E58" s="3">
-        <v>715300</v>
+        <v>733300</v>
       </c>
       <c r="F58" s="3">
-        <v>648900</v>
+        <v>665200</v>
       </c>
       <c r="G58" s="3">
-        <v>589800</v>
+        <v>604600</v>
       </c>
       <c r="H58" s="3">
-        <v>384100</v>
+        <v>393700</v>
       </c>
       <c r="I58" s="3">
-        <v>383800</v>
+        <v>393500</v>
       </c>
       <c r="J58" s="3">
-        <v>431300</v>
+        <v>442200</v>
       </c>
       <c r="K58" s="3">
         <v>466400</v>
@@ -4490,25 +4490,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1069200</v>
+        <v>1096100</v>
       </c>
       <c r="E59" s="3">
-        <v>983900</v>
+        <v>1008700</v>
       </c>
       <c r="F59" s="3">
-        <v>1150200</v>
+        <v>1179100</v>
       </c>
       <c r="G59" s="3">
-        <v>957000</v>
+        <v>981100</v>
       </c>
       <c r="H59" s="3">
-        <v>647600</v>
+        <v>663900</v>
       </c>
       <c r="I59" s="3">
-        <v>476300</v>
+        <v>488300</v>
       </c>
       <c r="J59" s="3">
-        <v>370300</v>
+        <v>379600</v>
       </c>
       <c r="K59" s="3">
         <v>400400</v>
@@ -4573,25 +4573,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4536200</v>
+        <v>4650400</v>
       </c>
       <c r="E60" s="3">
-        <v>4374300</v>
+        <v>4484400</v>
       </c>
       <c r="F60" s="3">
-        <v>4104700</v>
+        <v>4208100</v>
       </c>
       <c r="G60" s="3">
-        <v>3630500</v>
+        <v>3721900</v>
       </c>
       <c r="H60" s="3">
-        <v>2886700</v>
+        <v>2959400</v>
       </c>
       <c r="I60" s="3">
-        <v>2722800</v>
+        <v>2791300</v>
       </c>
       <c r="J60" s="3">
-        <v>2403800</v>
+        <v>2464300</v>
       </c>
       <c r="K60" s="3">
         <v>2599200</v>
@@ -4656,25 +4656,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1907500</v>
+        <v>1955500</v>
       </c>
       <c r="E61" s="3">
-        <v>1931700</v>
+        <v>1980300</v>
       </c>
       <c r="F61" s="3">
-        <v>1933400</v>
+        <v>1982100</v>
       </c>
       <c r="G61" s="3">
-        <v>2017500</v>
+        <v>2068300</v>
       </c>
       <c r="H61" s="3">
-        <v>2339200</v>
+        <v>2398100</v>
       </c>
       <c r="I61" s="3">
-        <v>2253600</v>
+        <v>2310300</v>
       </c>
       <c r="J61" s="3">
-        <v>2170600</v>
+        <v>2225300</v>
       </c>
       <c r="K61" s="3">
         <v>2347100</v>
@@ -4739,25 +4739,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2156300</v>
+        <v>2210600</v>
       </c>
       <c r="E62" s="3">
-        <v>2230400</v>
+        <v>2286500</v>
       </c>
       <c r="F62" s="3">
-        <v>2423800</v>
+        <v>2484800</v>
       </c>
       <c r="G62" s="3">
-        <v>2254700</v>
+        <v>2311400</v>
       </c>
       <c r="H62" s="3">
-        <v>2479100</v>
+        <v>2541500</v>
       </c>
       <c r="I62" s="3">
-        <v>2261100</v>
+        <v>2318000</v>
       </c>
       <c r="J62" s="3">
-        <v>3180800</v>
+        <v>3260900</v>
       </c>
       <c r="K62" s="3">
         <v>3439400</v>
@@ -5071,25 +5071,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9147500</v>
+        <v>9377800</v>
       </c>
       <c r="E66" s="3">
-        <v>9058200</v>
+        <v>9286300</v>
       </c>
       <c r="F66" s="3">
-        <v>8976000</v>
+        <v>9202000</v>
       </c>
       <c r="G66" s="3">
-        <v>8298600</v>
+        <v>8507500</v>
       </c>
       <c r="H66" s="3">
-        <v>8018900</v>
+        <v>8220700</v>
       </c>
       <c r="I66" s="3">
-        <v>7571100</v>
+        <v>7761700</v>
       </c>
       <c r="J66" s="3">
-        <v>8026600</v>
+        <v>8228700</v>
       </c>
       <c r="K66" s="3">
         <v>8679200</v>
@@ -5517,25 +5517,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6415100</v>
+        <v>6576600</v>
       </c>
       <c r="E72" s="3">
-        <v>6059600</v>
+        <v>6212200</v>
       </c>
       <c r="F72" s="3">
-        <v>6041800</v>
+        <v>6193900</v>
       </c>
       <c r="G72" s="3">
-        <v>5515300</v>
+        <v>5654100</v>
       </c>
       <c r="H72" s="3">
-        <v>4850200</v>
+        <v>4972300</v>
       </c>
       <c r="I72" s="3">
-        <v>4757600</v>
+        <v>4877400</v>
       </c>
       <c r="J72" s="3">
-        <v>4905800</v>
+        <v>5029300</v>
       </c>
       <c r="K72" s="3">
         <v>5304700</v>
@@ -5849,25 +5849,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9829100</v>
+        <v>10076600</v>
       </c>
       <c r="E76" s="3">
-        <v>9115100</v>
+        <v>9344600</v>
       </c>
       <c r="F76" s="3">
-        <v>8615900</v>
+        <v>8832800</v>
       </c>
       <c r="G76" s="3">
-        <v>7712900</v>
+        <v>7907100</v>
       </c>
       <c r="H76" s="3">
-        <v>7113800</v>
+        <v>7292900</v>
       </c>
       <c r="I76" s="3">
-        <v>7148100</v>
+        <v>7328000</v>
       </c>
       <c r="J76" s="3">
-        <v>6857900</v>
+        <v>7030500</v>
       </c>
       <c r="K76" s="3">
         <v>7415500</v>
@@ -6103,25 +6103,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>26300</v>
+        <v>27000</v>
       </c>
       <c r="E81" s="3">
-        <v>628600</v>
+        <v>644400</v>
       </c>
       <c r="F81" s="3">
-        <v>1034700</v>
+        <v>1060700</v>
       </c>
       <c r="G81" s="3">
-        <v>526600</v>
+        <v>539800</v>
       </c>
       <c r="H81" s="3">
-        <v>653800</v>
+        <v>670300</v>
       </c>
       <c r="I81" s="3">
-        <v>92600</v>
+        <v>94900</v>
       </c>
       <c r="J81" s="3">
-        <v>237200</v>
+        <v>243100</v>
       </c>
       <c r="K81" s="3">
         <v>143000</v>
@@ -6217,25 +6217,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>234500</v>
+        <v>240400</v>
       </c>
       <c r="E83" s="3">
-        <v>200500</v>
+        <v>205500</v>
       </c>
       <c r="F83" s="3">
-        <v>198900</v>
+        <v>203900</v>
       </c>
       <c r="G83" s="3">
-        <v>185300</v>
+        <v>190000</v>
       </c>
       <c r="H83" s="3">
-        <v>221200</v>
+        <v>226800</v>
       </c>
       <c r="I83" s="3">
-        <v>192900</v>
+        <v>197700</v>
       </c>
       <c r="J83" s="3">
-        <v>173600</v>
+        <v>178000</v>
       </c>
       <c r="K83" s="3">
         <v>186100</v>
@@ -6715,25 +6715,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>776700</v>
+        <v>796200</v>
       </c>
       <c r="E89" s="3">
-        <v>552100</v>
+        <v>566000</v>
       </c>
       <c r="F89" s="3">
-        <v>1385200</v>
+        <v>1420100</v>
       </c>
       <c r="G89" s="3">
-        <v>-17200</v>
+        <v>-17600</v>
       </c>
       <c r="H89" s="3">
-        <v>772400</v>
+        <v>791900</v>
       </c>
       <c r="I89" s="3">
-        <v>-7600</v>
+        <v>-7800</v>
       </c>
       <c r="J89" s="3">
-        <v>599900</v>
+        <v>615000</v>
       </c>
       <c r="K89" s="3">
         <v>-54000</v>
@@ -7078,25 +7078,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-388500</v>
+        <v>-398300</v>
       </c>
       <c r="E94" s="3">
-        <v>-381700</v>
+        <v>-391300</v>
       </c>
       <c r="F94" s="3">
-        <v>-44200</v>
+        <v>-45300</v>
       </c>
       <c r="G94" s="3">
-        <v>-154600</v>
+        <v>-158500</v>
       </c>
       <c r="H94" s="3">
-        <v>-258800</v>
+        <v>-265300</v>
       </c>
       <c r="I94" s="3">
-        <v>-135400</v>
+        <v>-138800</v>
       </c>
       <c r="J94" s="3">
-        <v>83600</v>
+        <v>85700</v>
       </c>
       <c r="K94" s="3">
         <v>-128800</v>
@@ -7192,25 +7192,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-10900</v>
+        <v>-11200</v>
       </c>
       <c r="E96" s="3">
-        <v>-273000</v>
+        <v>-279900</v>
       </c>
       <c r="F96" s="3">
-        <v>-1017000</v>
+        <v>-1042600</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-23700</v>
+        <v>-24300</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>-235200</v>
+        <v>-241200</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -7524,25 +7524,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>21400</v>
+        <v>21900</v>
       </c>
       <c r="E100" s="3">
-        <v>-114500</v>
+        <v>-117400</v>
       </c>
       <c r="F100" s="3">
-        <v>-1108400</v>
+        <v>-1136300</v>
       </c>
       <c r="G100" s="3">
-        <v>-13900</v>
+        <v>-14200</v>
       </c>
       <c r="H100" s="3">
-        <v>-148200</v>
+        <v>-151900</v>
       </c>
       <c r="I100" s="3">
-        <v>37300</v>
+        <v>38200</v>
       </c>
       <c r="J100" s="3">
-        <v>-244100</v>
+        <v>-250200</v>
       </c>
       <c r="K100" s="3">
         <v>-49300</v>
@@ -7607,25 +7607,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-41700</v>
+        <v>-42800</v>
       </c>
       <c r="E101" s="3">
-        <v>67500</v>
+        <v>69200</v>
       </c>
       <c r="F101" s="3">
-        <v>74400</v>
+        <v>76300</v>
       </c>
       <c r="G101" s="3">
-        <v>23900</v>
+        <v>24500</v>
       </c>
       <c r="H101" s="3">
-        <v>13600</v>
+        <v>13900</v>
       </c>
       <c r="I101" s="3">
-        <v>-18500</v>
+        <v>-19000</v>
       </c>
       <c r="J101" s="3">
-        <v>31700</v>
+        <v>32500</v>
       </c>
       <c r="K101" s="3">
         <v>-28500</v>
@@ -7690,25 +7690,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>362700</v>
+        <v>371800</v>
       </c>
       <c r="E102" s="3">
-        <v>123400</v>
+        <v>126500</v>
       </c>
       <c r="F102" s="3">
-        <v>307000</v>
+        <v>314700</v>
       </c>
       <c r="G102" s="3">
-        <v>-161700</v>
+        <v>-165700</v>
       </c>
       <c r="H102" s="3">
-        <v>379000</v>
+        <v>388600</v>
       </c>
       <c r="I102" s="3">
-        <v>-124300</v>
+        <v>-127500</v>
       </c>
       <c r="J102" s="3">
-        <v>471100</v>
+        <v>483000</v>
       </c>
       <c r="K102" s="3">
         <v>-260500</v>

--- a/AAII_Financials/Quarterly/NHYDY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NHYDY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
   <si>
     <t>NHYDY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,371 +665,410 @@
     <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="F7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4145700</v>
+        <v>4088400</v>
       </c>
       <c r="E8" s="3">
-        <v>4933000</v>
+        <v>4905000</v>
       </c>
       <c r="F8" s="3">
-        <v>6094400</v>
+        <v>4438900</v>
       </c>
       <c r="G8" s="3">
-        <v>4384700</v>
+        <v>4031100</v>
       </c>
       <c r="H8" s="3">
+        <v>4796600</v>
+      </c>
+      <c r="I8" s="3">
+        <v>5926000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>4263500</v>
+      </c>
+      <c r="K8" s="3">
         <v>4367500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="L8" s="3">
         <v>3452900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="M8" s="3">
         <v>3250600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="N8" s="3">
         <v>3169900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="O8" s="3">
         <v>1249900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="P8" s="3">
         <v>2787400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="Q8" s="3">
         <v>2567200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="R8" s="3">
         <v>3202000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="S8" s="3">
         <v>3928000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="T8" s="3">
         <v>4515500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="U8" s="3">
         <v>4529900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="V8" s="3">
         <v>4254800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="W8" s="3">
         <v>4330700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="X8" s="3">
         <v>4068100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="Y8" s="3">
         <v>4220300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Z8" s="3">
         <v>4336500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="AA8" s="3">
         <v>4493100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AB8" s="3">
         <v>2639900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AC8" s="3">
         <v>2847400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AD8" s="3">
         <v>2839100</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AE8" s="3">
         <v>2620100</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AF8" s="3">
         <v>2487500</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2714300</v>
+        <v>2789600</v>
       </c>
       <c r="E9" s="3">
-        <v>3228600</v>
+        <v>2936700</v>
       </c>
       <c r="F9" s="3">
-        <v>3483100</v>
+        <v>2862200</v>
       </c>
       <c r="G9" s="3">
-        <v>2742800</v>
+        <v>2639300</v>
       </c>
       <c r="H9" s="3">
+        <v>3139400</v>
+      </c>
+      <c r="I9" s="3">
+        <v>3386900</v>
+      </c>
+      <c r="J9" s="3">
+        <v>2667000</v>
+      </c>
+      <c r="K9" s="3">
         <v>2333100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="L9" s="3">
         <v>2229300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="M9" s="3">
         <v>1995300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="N9" s="3">
         <v>1897500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="O9" s="3">
         <v>625800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="P9" s="3">
         <v>1676100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="Q9" s="3">
         <v>1603700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="R9" s="3">
         <v>1894400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="S9" s="3">
         <v>2471300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="T9" s="3">
         <v>2899500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="U9" s="3">
         <v>2997100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="V9" s="3">
         <v>2845600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="W9" s="3">
         <v>2839000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="X9" s="3">
         <v>2625700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="Y9" s="3">
         <v>2710500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Z9" s="3">
         <v>2733500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="AA9" s="3">
         <v>2826500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AB9" s="3">
         <v>1710000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AC9" s="3">
         <v>1835000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AD9" s="3">
         <v>1827600</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AE9" s="3">
         <v>1651100</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AF9" s="3">
         <v>1588800</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1431400</v>
+        <v>1298800</v>
       </c>
       <c r="E10" s="3">
-        <v>1704400</v>
+        <v>1968300</v>
       </c>
       <c r="F10" s="3">
-        <v>2611300</v>
+        <v>1576700</v>
       </c>
       <c r="G10" s="3">
-        <v>1641900</v>
+        <v>1391800</v>
       </c>
       <c r="H10" s="3">
+        <v>1657300</v>
+      </c>
+      <c r="I10" s="3">
+        <v>2539100</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1596500</v>
+      </c>
+      <c r="K10" s="3">
         <v>2034400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="L10" s="3">
         <v>1223600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="M10" s="3">
         <v>1255300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="N10" s="3">
         <v>1272400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="O10" s="3">
         <v>624100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="P10" s="3">
         <v>1111300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="Q10" s="3">
         <v>963600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="R10" s="3">
         <v>1307600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="S10" s="3">
         <v>1456800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="T10" s="3">
         <v>1616100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="U10" s="3">
         <v>1532800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="V10" s="3">
         <v>1409100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="W10" s="3">
         <v>1491700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="X10" s="3">
         <v>1442300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="Y10" s="3">
         <v>1509700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Z10" s="3">
         <v>1602900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="AA10" s="3">
         <v>1666600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AB10" s="3">
         <v>929900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AC10" s="3">
         <v>1012400</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AD10" s="3">
         <v>1011600</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AE10" s="3">
         <v>969000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AF10" s="3">
         <v>898600</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,8 +1098,11 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1142,8 +1184,17 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,58 +1276,67 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>26900</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>4600</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>26200</v>
       </c>
       <c r="H14" s="3">
+        <v>4500</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>27700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="L14" s="3">
         <v>1300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="M14" s="3">
         <v>700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="N14" s="3">
         <v>12100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="O14" s="3">
         <v>6500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="P14" s="3">
         <v>7600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="Q14" s="3">
         <v>185300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="R14" s="3">
         <v>1200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="S14" s="3">
         <v>100900</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
@@ -1287,8 +1347,8 @@
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
+      <c r="W14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>8</v>
@@ -1296,8 +1356,8 @@
       <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z14" s="3" t="s">
-        <v>8</v>
+      <c r="Z14" s="3">
+        <v>0</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>8</v>
@@ -1308,91 +1368,109 @@
       <c r="AC14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>213500</v>
+        <v>212800</v>
       </c>
       <c r="E15" s="3">
-        <v>200900</v>
+        <v>214000</v>
       </c>
       <c r="F15" s="3">
-        <v>203800</v>
+        <v>200200</v>
       </c>
       <c r="G15" s="3">
-        <v>190000</v>
+        <v>207600</v>
       </c>
       <c r="H15" s="3">
+        <v>195400</v>
+      </c>
+      <c r="I15" s="3">
+        <v>198200</v>
+      </c>
+      <c r="J15" s="3">
+        <v>184700</v>
+      </c>
+      <c r="K15" s="3">
         <v>199100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="L15" s="3">
         <v>196400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="M15" s="3">
         <v>177300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="N15" s="3">
         <v>174000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="O15" s="3">
         <v>88100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="P15" s="3">
         <v>173300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="Q15" s="3">
         <v>184400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="R15" s="3">
         <v>192100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="S15" s="3">
         <v>236000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="T15" s="3">
         <v>269100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="U15" s="3">
         <v>243400</v>
       </c>
-      <c r="S15" s="3">
+      <c r="V15" s="3">
         <v>237500</v>
       </c>
-      <c r="T15" s="3">
+      <c r="W15" s="3">
         <v>193900</v>
       </c>
-      <c r="U15" s="3">
+      <c r="X15" s="3">
         <v>189400</v>
       </c>
-      <c r="V15" s="3">
+      <c r="Y15" s="3">
         <v>193400</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Z15" s="3">
         <v>207100</v>
       </c>
-      <c r="X15" s="3">
+      <c r="AA15" s="3">
         <v>228100</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="AB15" s="3">
         <v>167900</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AC15" s="3">
         <v>160800</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AD15" s="3">
         <v>166700</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AE15" s="3">
         <v>197200</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AF15" s="3">
         <v>174600</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,174 +1497,195 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4124600</v>
+        <v>4118000</v>
       </c>
       <c r="E17" s="3">
-        <v>4211500</v>
+        <v>4178900</v>
       </c>
       <c r="F17" s="3">
-        <v>4644200</v>
+        <v>4051800</v>
       </c>
       <c r="G17" s="3">
-        <v>3799500</v>
+        <v>3902600</v>
       </c>
       <c r="H17" s="3">
+        <v>4095100</v>
+      </c>
+      <c r="I17" s="3">
+        <v>4515800</v>
+      </c>
+      <c r="J17" s="3">
+        <v>3694400</v>
+      </c>
+      <c r="K17" s="3">
         <v>3418800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>3214700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>2965200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>2948300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="O17" s="3">
         <v>535800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="P17" s="3">
         <v>2595600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="Q17" s="3">
         <v>2728100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="R17" s="3">
         <v>2976300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="S17" s="3">
         <v>3972200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="T17" s="3">
         <v>4488800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="U17" s="3">
         <v>4454100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="V17" s="3">
         <v>4252500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="W17" s="3">
         <v>4310600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="X17" s="3">
         <v>3857600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="Y17" s="3">
         <v>3914800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Z17" s="3">
         <v>3978300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="AA17" s="3">
         <v>3970800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AB17" s="3">
         <v>2370900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AC17" s="3">
         <v>2506300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AD17" s="3">
         <v>2542000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AE17" s="3">
         <v>2378000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AF17" s="3">
         <v>2317800</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>21100</v>
+        <v>-29500</v>
       </c>
       <c r="E18" s="3">
-        <v>721400</v>
+        <v>726100</v>
       </c>
       <c r="F18" s="3">
-        <v>1450200</v>
+        <v>387200</v>
       </c>
       <c r="G18" s="3">
-        <v>585200</v>
+        <v>128500</v>
       </c>
       <c r="H18" s="3">
+        <v>701500</v>
+      </c>
+      <c r="I18" s="3">
+        <v>1410100</v>
+      </c>
+      <c r="J18" s="3">
+        <v>569100</v>
+      </c>
+      <c r="K18" s="3">
         <v>948700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>238300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="M18" s="3">
         <v>285400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="N18" s="3">
         <v>221500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="O18" s="3">
         <v>714100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="P18" s="3">
         <v>191800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="Q18" s="3">
         <v>-160900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="R18" s="3">
         <v>225700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="S18" s="3">
         <v>-44200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="T18" s="3">
         <v>26700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="U18" s="3">
         <v>75900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="V18" s="3">
         <v>2300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="W18" s="3">
         <v>20100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="X18" s="3">
         <v>210400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="Y18" s="3">
         <v>305500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Z18" s="3">
         <v>358100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="AA18" s="3">
         <v>522300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AB18" s="3">
         <v>269000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AC18" s="3">
         <v>341100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AD18" s="3">
         <v>297200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AE18" s="3">
         <v>242200</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AF18" s="3">
         <v>169700</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,423 +1715,471 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>136600</v>
+        <v>81100</v>
       </c>
       <c r="E20" s="3">
-        <v>72000</v>
+        <v>-43500</v>
       </c>
       <c r="F20" s="3">
-        <v>-95500</v>
+        <v>-158800</v>
       </c>
       <c r="G20" s="3">
-        <v>227200</v>
+        <v>52600</v>
       </c>
       <c r="H20" s="3">
+        <v>70000</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-92800</v>
+      </c>
+      <c r="J20" s="3">
+        <v>221000</v>
+      </c>
+      <c r="K20" s="3">
         <v>83700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="L20" s="3">
         <v>-62000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="M20" s="3">
         <v>54000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="N20" s="3">
         <v>65600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="O20" s="3">
         <v>184400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="P20" s="3">
         <v>-152000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="Q20" s="3">
         <v>62700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="R20" s="3">
         <v>-426500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="S20" s="3">
         <v>52700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="T20" s="3">
         <v>-170700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="U20" s="3">
         <v>-51800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="V20" s="3">
         <v>20800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="W20" s="3">
         <v>-51000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="X20" s="3">
         <v>-27200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="Y20" s="3">
         <v>-30000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Z20" s="3">
         <v>-38200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="AA20" s="3">
         <v>-77500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AB20" s="3">
         <v>60900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AC20" s="3">
         <v>-102800</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AD20" s="3">
         <v>27100</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AE20" s="3">
         <v>-3800</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AF20" s="3">
         <v>44600</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>398100</v>
+        <v>264400</v>
       </c>
       <c r="E21" s="3">
-        <v>998900</v>
+        <v>896600</v>
       </c>
       <c r="F21" s="3">
-        <v>1558700</v>
+        <v>428300</v>
       </c>
       <c r="G21" s="3">
-        <v>1002500</v>
+        <v>414900</v>
       </c>
       <c r="H21" s="3">
+        <v>971300</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1515600</v>
+      </c>
+      <c r="J21" s="3">
+        <v>974800</v>
+      </c>
+      <c r="K21" s="3">
         <v>1259200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="L21" s="3">
         <v>374000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="M21" s="3">
         <v>517300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="N21" s="3">
         <v>473200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="O21" s="3">
         <v>1085900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="P21" s="3">
         <v>220600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="Q21" s="3">
         <v>271500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="R21" s="3">
         <v>-7400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="S21" s="3">
         <v>345500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="T21" s="3">
         <v>125200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="U21" s="3">
         <v>267600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="V21" s="3">
         <v>260600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="W21" s="3">
         <v>163000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="X21" s="3">
         <v>372600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="Y21" s="3">
         <v>468800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Z21" s="3">
         <v>527000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="AA21" s="3">
         <v>673000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AB21" s="3">
         <v>497900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AC21" s="3">
         <v>399100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AD21" s="3">
         <v>491000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AE21" s="3">
         <v>435600</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AF21" s="3">
         <v>388800</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
+      <c r="D22" s="3">
+        <v>46600</v>
       </c>
       <c r="E22" s="3">
-        <v>25300</v>
+        <v>43600</v>
       </c>
       <c r="F22" s="3">
-        <v>27700</v>
+        <v>43500</v>
       </c>
       <c r="G22" s="3">
-        <v>20900</v>
+        <v>27800</v>
       </c>
       <c r="H22" s="3">
+        <v>24600</v>
+      </c>
+      <c r="I22" s="3">
+        <v>27000</v>
+      </c>
+      <c r="J22" s="3">
+        <v>20300</v>
+      </c>
+      <c r="K22" s="3">
         <v>23100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="L22" s="3">
         <v>23900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="M22" s="3">
         <v>20600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="N22" s="3">
         <v>23500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="O22" s="3">
         <v>26200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="P22" s="3">
         <v>26400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="Q22" s="3">
         <v>23400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="R22" s="3">
         <v>22100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="S22" s="3">
         <v>27000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="T22" s="3">
         <v>25400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="U22" s="3">
         <v>25000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="V22" s="3">
         <v>20200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="W22" s="3">
         <v>30300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="X22" s="3">
         <v>16100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="Y22" s="3">
         <v>15100</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Z22" s="3">
         <v>13300</v>
       </c>
-      <c r="X22" s="3">
+      <c r="AA22" s="3">
         <v>12400</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AB22" s="3">
         <v>4700</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AC22" s="3">
         <v>8200</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AD22" s="3">
         <v>10400</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AE22" s="3">
         <v>13400</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AF22" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>157600</v>
+        <v>5000</v>
       </c>
       <c r="E23" s="3">
-        <v>768100</v>
+        <v>638900</v>
       </c>
       <c r="F23" s="3">
-        <v>1327000</v>
+        <v>184800</v>
       </c>
       <c r="G23" s="3">
-        <v>791600</v>
+        <v>153300</v>
       </c>
       <c r="H23" s="3">
+        <v>746900</v>
+      </c>
+      <c r="I23" s="3">
+        <v>1290300</v>
+      </c>
+      <c r="J23" s="3">
+        <v>769700</v>
+      </c>
+      <c r="K23" s="3">
         <v>1009300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>152400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>318800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="N23" s="3">
         <v>263600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="O23" s="3">
         <v>872200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="P23" s="3">
         <v>13400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="Q23" s="3">
         <v>-121600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="R23" s="3">
         <v>-222900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="S23" s="3">
         <v>-18500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="T23" s="3">
         <v>-169300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="U23" s="3">
         <v>-900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="V23" s="3">
         <v>2900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="W23" s="3">
         <v>-61300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="X23" s="3">
         <v>167200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="Y23" s="3">
         <v>260400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Z23" s="3">
         <v>306600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="AA23" s="3">
         <v>432500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AB23" s="3">
         <v>325100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AC23" s="3">
         <v>230100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AD23" s="3">
         <v>313900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AE23" s="3">
         <v>224900</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AF23" s="3">
         <v>208700</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>142900</v>
+        <v>62200</v>
       </c>
       <c r="E24" s="3">
-        <v>140100</v>
+        <v>176500</v>
       </c>
       <c r="F24" s="3">
-        <v>279500</v>
+        <v>80200</v>
       </c>
       <c r="G24" s="3">
-        <v>188600</v>
+        <v>138900</v>
       </c>
       <c r="H24" s="3">
+        <v>136200</v>
+      </c>
+      <c r="I24" s="3">
+        <v>271700</v>
+      </c>
+      <c r="J24" s="3">
+        <v>183400</v>
+      </c>
+      <c r="K24" s="3">
         <v>207400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="L24" s="3">
         <v>46500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="M24" s="3">
         <v>93300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="N24" s="3">
         <v>77000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="O24" s="3">
         <v>84700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="P24" s="3">
         <v>24500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="Q24" s="3">
         <v>29100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="R24" s="3">
         <v>-46300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="S24" s="3">
         <v>55000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="T24" s="3">
         <v>-1900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="U24" s="3">
         <v>21200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="V24" s="3">
         <v>17000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="W24" s="3">
         <v>23500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="X24" s="3">
         <v>72600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="Y24" s="3">
         <v>48400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Z24" s="3">
         <v>81300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="AA24" s="3">
         <v>15600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AB24" s="3">
         <v>72300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AC24" s="3">
         <v>49100</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AD24" s="3">
         <v>87200</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AE24" s="3">
         <v>100500</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AF24" s="3">
         <v>70800</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,174 +2261,201 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>14900</v>
+        <v>-57200</v>
       </c>
       <c r="E26" s="3">
-        <v>628000</v>
+        <v>462400</v>
       </c>
       <c r="F26" s="3">
-        <v>1047500</v>
+        <v>104600</v>
       </c>
       <c r="G26" s="3">
-        <v>603000</v>
+        <v>14400</v>
       </c>
       <c r="H26" s="3">
+        <v>610700</v>
+      </c>
+      <c r="I26" s="3">
+        <v>1018600</v>
+      </c>
+      <c r="J26" s="3">
+        <v>586400</v>
+      </c>
+      <c r="K26" s="3">
         <v>801900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>105900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <v>225500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="N26" s="3">
         <v>186600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="O26" s="3">
         <v>787500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="P26" s="3">
         <v>-11100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="Q26" s="3">
         <v>-150600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="R26" s="3">
         <v>-176600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="S26" s="3">
         <v>-73500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="T26" s="3">
         <v>-167400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="U26" s="3">
         <v>-22100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="V26" s="3">
         <v>-14000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="W26" s="3">
         <v>-84700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="X26" s="3">
         <v>94500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="Y26" s="3">
         <v>212000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Z26" s="3">
         <v>225300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="AA26" s="3">
         <v>416800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AB26" s="3">
         <v>252900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AC26" s="3">
         <v>181000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AD26" s="3">
         <v>226700</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AE26" s="3">
         <v>124400</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AF26" s="3">
         <v>138000</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>23600</v>
+        <v>-32700</v>
       </c>
       <c r="E27" s="3">
-        <v>644400</v>
+        <v>476700</v>
       </c>
       <c r="F27" s="3">
-        <v>1060700</v>
+        <v>115700</v>
       </c>
       <c r="G27" s="3">
-        <v>539800</v>
+        <v>23000</v>
       </c>
       <c r="H27" s="3">
+        <v>626600</v>
+      </c>
+      <c r="I27" s="3">
+        <v>1031400</v>
+      </c>
+      <c r="J27" s="3">
+        <v>524900</v>
+      </c>
+      <c r="K27" s="3">
         <v>669900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>96700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
         <v>204900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="N27" s="3">
         <v>180700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="O27" s="3">
         <v>761500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="P27" s="3">
         <v>-11300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="Q27" s="3">
         <v>-128000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="R27" s="3">
         <v>-154900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="S27" s="3">
         <v>-52700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="T27" s="3">
         <v>-151500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="U27" s="3">
         <v>-9800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="V27" s="3">
         <v>1000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="W27" s="3">
         <v>-78200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="X27" s="3">
         <v>76800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="Y27" s="3">
         <v>215600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Z27" s="3">
         <v>226900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="AA27" s="3">
         <v>405100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AB27" s="3">
         <v>235900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AC27" s="3">
         <v>171800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AD27" s="3">
         <v>217300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AE27" s="3">
         <v>130700</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AF27" s="3">
         <v>133800</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,13 +2537,22 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>3400</v>
+        <v>0</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -2378,47 +2561,47 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>0</v>
+        <v>3300</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>400</v>
       </c>
-      <c r="I29" s="3">
+      <c r="L29" s="3">
         <v>-1800</v>
       </c>
-      <c r="J29" s="3">
+      <c r="M29" s="3">
         <v>38300</v>
       </c>
-      <c r="K29" s="3">
+      <c r="N29" s="3">
         <v>-37700</v>
       </c>
-      <c r="L29" s="3">
+      <c r="O29" s="3">
         <v>-230600</v>
       </c>
-      <c r="M29" s="3">
+      <c r="P29" s="3">
         <v>-11200</v>
       </c>
-      <c r="N29" s="3">
+      <c r="Q29" s="3">
         <v>1600</v>
       </c>
-      <c r="O29" s="3">
+      <c r="R29" s="3">
         <v>-28600</v>
       </c>
-      <c r="P29" s="3" t="s">
+      <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3" t="s">
+      <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
       <c r="U29" s="3">
         <v>0</v>
       </c>
@@ -2446,8 +2629,17 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2721,17 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,174 +2813,201 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-136600</v>
+        <v>-81100</v>
       </c>
       <c r="E32" s="3">
-        <v>-72000</v>
+        <v>43500</v>
       </c>
       <c r="F32" s="3">
-        <v>95500</v>
+        <v>158800</v>
       </c>
       <c r="G32" s="3">
-        <v>-227200</v>
+        <v>-52600</v>
       </c>
       <c r="H32" s="3">
+        <v>-70000</v>
+      </c>
+      <c r="I32" s="3">
+        <v>92800</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-221000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-83700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="L32" s="3">
         <v>62000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="M32" s="3">
         <v>-54000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="N32" s="3">
         <v>-65600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="O32" s="3">
         <v>-184400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="P32" s="3">
         <v>152000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="Q32" s="3">
         <v>-62700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="R32" s="3">
         <v>426500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="S32" s="3">
         <v>-52700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="T32" s="3">
         <v>170700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="U32" s="3">
         <v>51800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="V32" s="3">
         <v>-20800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="W32" s="3">
         <v>51000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="X32" s="3">
         <v>27200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="Y32" s="3">
         <v>30000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Z32" s="3">
         <v>38200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="AA32" s="3">
         <v>77500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AB32" s="3">
         <v>-60900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AC32" s="3">
         <v>102800</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AD32" s="3">
         <v>-27100</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AE32" s="3">
         <v>3800</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AF32" s="3">
         <v>-44600</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>27000</v>
+        <v>-32700</v>
       </c>
       <c r="E33" s="3">
-        <v>644400</v>
+        <v>476700</v>
       </c>
       <c r="F33" s="3">
-        <v>1060700</v>
+        <v>115700</v>
       </c>
       <c r="G33" s="3">
-        <v>539800</v>
+        <v>26200</v>
       </c>
       <c r="H33" s="3">
+        <v>626600</v>
+      </c>
+      <c r="I33" s="3">
+        <v>1031400</v>
+      </c>
+      <c r="J33" s="3">
+        <v>524900</v>
+      </c>
+      <c r="K33" s="3">
         <v>670300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>94900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="M33" s="3">
         <v>243100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="N33" s="3">
         <v>143000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="O33" s="3">
         <v>531000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="P33" s="3">
         <v>-22600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="Q33" s="3">
         <v>-126400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="R33" s="3">
         <v>-183500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="S33" s="3">
         <v>-52700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="T33" s="3">
         <v>-151500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="U33" s="3">
         <v>-9800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="V33" s="3">
         <v>1000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="W33" s="3">
         <v>-78200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="X33" s="3">
         <v>76800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="Y33" s="3">
         <v>215600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Z33" s="3">
         <v>226900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="AA33" s="3">
         <v>405100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AB33" s="3">
         <v>235900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AC33" s="3">
         <v>171800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AD33" s="3">
         <v>217300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AE33" s="3">
         <v>130700</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AF33" s="3">
         <v>133800</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +3089,206 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>27000</v>
+        <v>-32700</v>
       </c>
       <c r="E35" s="3">
-        <v>644400</v>
+        <v>476700</v>
       </c>
       <c r="F35" s="3">
-        <v>1060700</v>
+        <v>115700</v>
       </c>
       <c r="G35" s="3">
-        <v>539800</v>
+        <v>26200</v>
       </c>
       <c r="H35" s="3">
+        <v>626600</v>
+      </c>
+      <c r="I35" s="3">
+        <v>1031400</v>
+      </c>
+      <c r="J35" s="3">
+        <v>524900</v>
+      </c>
+      <c r="K35" s="3">
         <v>670300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>94900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="M35" s="3">
         <v>243100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="N35" s="3">
         <v>143000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="O35" s="3">
         <v>531000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="P35" s="3">
         <v>-22600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="Q35" s="3">
         <v>-126400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="R35" s="3">
         <v>-183500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="S35" s="3">
         <v>-52700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="T35" s="3">
         <v>-151500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="U35" s="3">
         <v>-9800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="V35" s="3">
         <v>1000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="W35" s="3">
         <v>-78200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="X35" s="3">
         <v>76800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="Y35" s="3">
         <v>215600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Z35" s="3">
         <v>226900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="AA35" s="3">
         <v>405100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AB35" s="3">
         <v>235900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AC35" s="3">
         <v>171800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AD35" s="3">
         <v>217300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AE35" s="3">
         <v>130700</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AF35" s="3">
         <v>133800</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="F38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3318,11 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,174 +3352,195 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2431600</v>
+        <v>1747300</v>
       </c>
       <c r="E41" s="3">
-        <v>2305100</v>
+        <v>2053600</v>
       </c>
       <c r="F41" s="3">
-        <v>1990400</v>
+        <v>2823600</v>
       </c>
       <c r="G41" s="3">
-        <v>2156100</v>
+        <v>2726000</v>
       </c>
       <c r="H41" s="3">
+        <v>2364400</v>
+      </c>
+      <c r="I41" s="3">
+        <v>2241400</v>
+      </c>
+      <c r="J41" s="3">
+        <v>1935400</v>
+      </c>
+      <c r="K41" s="3">
         <v>1767600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="L41" s="3">
         <v>1895000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="M41" s="3">
         <v>1411900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="N41" s="3">
         <v>1489200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="O41" s="3">
         <v>1826900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="P41" s="3">
         <v>1772200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="Q41" s="3">
         <v>1558500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="R41" s="3">
         <v>1231800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="S41" s="3">
         <v>1359800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="T41" s="3">
         <v>1273500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="U41" s="3">
         <v>1224500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="V41" s="3">
         <v>690500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="W41" s="3">
         <v>676400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="X41" s="3">
         <v>700300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="Y41" s="3">
         <v>581300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Z41" s="3">
         <v>1016700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="AA41" s="3">
         <v>1369600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AB41" s="3">
         <v>2067200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AC41" s="3">
         <v>925500</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AD41" s="3">
         <v>1027500</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AE41" s="3">
         <v>991000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AF41" s="3">
         <v>980500</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>695900</v>
+        <v>350000</v>
       </c>
       <c r="E42" s="3">
-        <v>792500</v>
+        <v>354900</v>
       </c>
       <c r="F42" s="3">
-        <v>1251700</v>
+        <v>365700</v>
       </c>
       <c r="G42" s="3">
-        <v>980000</v>
+        <v>484700</v>
       </c>
       <c r="H42" s="3">
+        <v>676600</v>
+      </c>
+      <c r="I42" s="3">
+        <v>770600</v>
+      </c>
+      <c r="J42" s="3">
+        <v>1217100</v>
+      </c>
+      <c r="K42" s="3">
         <v>740600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="L42" s="3">
         <v>401300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="M42" s="3">
         <v>439800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="N42" s="3">
         <v>463900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="O42" s="3">
         <v>472400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="P42" s="3">
         <v>602900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="Q42" s="3">
         <v>587200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="R42" s="3">
         <v>279600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="S42" s="3">
         <v>177500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="T42" s="3">
         <v>196100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="U42" s="3">
         <v>180500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="V42" s="3">
         <v>183700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="W42" s="3">
         <v>200400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="X42" s="3">
         <v>195800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="Y42" s="3">
         <v>216300</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Z42" s="3">
         <v>200600</v>
       </c>
-      <c r="X42" s="3">
+      <c r="AA42" s="3">
         <v>244200</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AB42" s="3">
         <v>259400</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AC42" s="3">
         <v>600500</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AD42" s="3">
         <v>580000</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AE42" s="3">
         <v>624900</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AF42" s="3">
         <v>572400</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3293,141 +3572,159 @@
         <v>0</v>
       </c>
       <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
         <v>2053100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="Q43" s="3">
         <v>1916200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="R43" s="3">
         <v>2485800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="S43" s="3">
         <v>2098400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="T43" s="3">
         <v>2769100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="U43" s="3">
         <v>2681000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="V43" s="3">
         <v>2665200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="W43" s="3">
         <v>2340300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="X43" s="3">
         <v>2222700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="Y43" s="3">
         <v>2398100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Z43" s="3">
         <v>2471900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="AA43" s="3">
         <v>2313800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AB43" s="3">
         <v>1523300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AC43" s="3">
         <v>1559100</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AD43" s="3">
         <v>1584500</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AE43" s="3">
         <v>1342000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AF43" s="3">
         <v>1417300</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2952900</v>
+        <v>2528700</v>
       </c>
       <c r="E44" s="3">
-        <v>2766800</v>
+        <v>2634800</v>
       </c>
       <c r="F44" s="3">
-        <v>2373800</v>
+        <v>2763600</v>
       </c>
       <c r="G44" s="3">
-        <v>2049700</v>
+        <v>2747000</v>
       </c>
       <c r="H44" s="3">
+        <v>2871300</v>
+      </c>
+      <c r="I44" s="3">
+        <v>2690300</v>
+      </c>
+      <c r="J44" s="3">
+        <v>2308200</v>
+      </c>
+      <c r="K44" s="3">
         <v>1783900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="L44" s="3">
         <v>1547700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="M44" s="3">
         <v>1346600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="N44" s="3">
         <v>1420300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="O44" s="3">
         <v>2019000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="P44" s="3">
         <v>1953900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="Q44" s="3">
         <v>2064700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="R44" s="3">
         <v>2275600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="S44" s="3">
         <v>2303900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="T44" s="3">
         <v>2609300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="U44" s="3">
         <v>2626900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="V44" s="3">
         <v>2830700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="W44" s="3">
         <v>2987800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="X44" s="3">
         <v>2446600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="Y44" s="3">
         <v>2285100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Z44" s="3">
         <v>2237700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="AA44" s="3">
         <v>2398100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AB44" s="3">
         <v>1573000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AC44" s="3">
         <v>1498300</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AD44" s="3">
         <v>1548300</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AE44" s="3">
         <v>1526600</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AF44" s="3">
         <v>1420000</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3437,11 +3734,11 @@
       <c r="E45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="F45" s="3">
+        <v>100</v>
+      </c>
+      <c r="G45" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="G45" s="3">
-        <v>100</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>8</v>
@@ -3458,8 +3755,8 @@
       <c r="L45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M45" s="3">
-        <v>100</v>
+      <c r="M45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>8</v>
@@ -3467,11 +3764,11 @@
       <c r="O45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P45" s="3" t="s">
+      <c r="P45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q45" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>100</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>8</v>
@@ -3479,8 +3776,8 @@
       <c r="S45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>8</v>
+      <c r="T45" s="3">
+        <v>100</v>
       </c>
       <c r="U45" s="3" t="s">
         <v>8</v>
@@ -3491,358 +3788,403 @@
       <c r="W45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z45" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA45" s="3" t="s">
+      <c r="X45" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="Y45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
       <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE45" s="3">
         <v>100</v>
       </c>
-      <c r="AC45" s="3" t="s">
+      <c r="AF45" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8755700</v>
+        <v>7039400</v>
       </c>
       <c r="E46" s="3">
-        <v>8607500</v>
+        <v>7563900</v>
       </c>
       <c r="F46" s="3">
-        <v>8057200</v>
+        <v>8545800</v>
       </c>
       <c r="G46" s="3">
-        <v>7121600</v>
+        <v>8151600</v>
       </c>
       <c r="H46" s="3">
+        <v>8513600</v>
+      </c>
+      <c r="I46" s="3">
+        <v>8369600</v>
+      </c>
+      <c r="J46" s="3">
+        <v>7834500</v>
+      </c>
+      <c r="K46" s="3">
         <v>6161000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="L46" s="3">
         <v>5709900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="M46" s="3">
         <v>4778100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="N46" s="3">
         <v>5039700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="O46" s="3">
         <v>6220500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="P46" s="3">
         <v>6382300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="Q46" s="3">
         <v>6126600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="R46" s="3">
         <v>6272800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="S46" s="3">
         <v>5939600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="T46" s="3">
         <v>6848100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="U46" s="3">
         <v>6712900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="V46" s="3">
         <v>6370100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="W46" s="3">
         <v>6204900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="X46" s="3">
         <v>5565400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="Y46" s="3">
         <v>5480700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Z46" s="3">
         <v>5926900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="AA46" s="3">
         <v>6325700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AB46" s="3">
         <v>5422900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AC46" s="3">
         <v>4583400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AD46" s="3">
         <v>4740300</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AE46" s="3">
         <v>4484500</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AF46" s="3">
         <v>4390100</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2127000</v>
+        <v>2252900</v>
       </c>
       <c r="E47" s="3">
-        <v>1886400</v>
+        <v>2220400</v>
       </c>
       <c r="F47" s="3">
-        <v>1717300</v>
+        <v>2063900</v>
       </c>
       <c r="G47" s="3">
-        <v>1687600</v>
+        <v>1941000</v>
       </c>
       <c r="H47" s="3">
+        <v>2068200</v>
+      </c>
+      <c r="I47" s="3">
+        <v>1834200</v>
+      </c>
+      <c r="J47" s="3">
+        <v>1669800</v>
+      </c>
+      <c r="K47" s="3">
         <v>1661200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="L47" s="3">
         <v>1639100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="M47" s="3">
         <v>1620400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="N47" s="3">
         <v>1709100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="O47" s="3">
         <v>1790700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="P47" s="3">
         <v>1220500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="Q47" s="3">
         <v>1278300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="R47" s="3">
         <v>1402500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="S47" s="3">
         <v>1272900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="T47" s="3">
         <v>1421300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="U47" s="3">
         <v>1264500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="V47" s="3">
         <v>1284800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="W47" s="3">
         <v>1305300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="X47" s="3">
         <v>1134900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="Y47" s="3">
         <v>1139600</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Z47" s="3">
         <v>1144700</v>
       </c>
-      <c r="X47" s="3">
+      <c r="AA47" s="3">
         <v>1299300</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AB47" s="3">
         <v>2104800</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AC47" s="3">
         <v>2176900</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AD47" s="3">
         <v>2458200</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AE47" s="3">
         <v>2442200</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AF47" s="3">
         <v>2383800</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5866400</v>
+        <v>6801600</v>
       </c>
       <c r="E48" s="3">
-        <v>5542000</v>
+        <v>6675200</v>
       </c>
       <c r="F48" s="3">
-        <v>5323700</v>
+        <v>6203500</v>
       </c>
       <c r="G48" s="3">
-        <v>5136100</v>
+        <v>5730500</v>
       </c>
       <c r="H48" s="3">
+        <v>5704300</v>
+      </c>
+      <c r="I48" s="3">
+        <v>5388800</v>
+      </c>
+      <c r="J48" s="3">
+        <v>5176500</v>
+      </c>
+      <c r="K48" s="3">
         <v>5139600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="L48" s="3">
         <v>5300600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="M48" s="3">
         <v>5068900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="N48" s="3">
         <v>5346400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="O48" s="3">
         <v>6654500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="P48" s="3">
         <v>6955000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="Q48" s="3">
         <v>7139400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="R48" s="3">
         <v>7892200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="S48" s="3">
         <v>8217200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="T48" s="3">
         <v>8909600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="U48" s="3">
         <v>8463300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="V48" s="3">
         <v>8251000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="W48" s="3">
         <v>8390300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="X48" s="3">
         <v>6777500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="Y48" s="3">
         <v>6821700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Z48" s="3">
         <v>7588300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="AA48" s="3">
         <v>8444900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AB48" s="3">
         <v>6542100</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AC48" s="3">
         <v>6670700</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AD48" s="3">
         <v>7352000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AE48" s="3">
         <v>7241900</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AF48" s="3">
         <v>6716900</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>922700</v>
+        <v>989900</v>
       </c>
       <c r="E49" s="3">
-        <v>881700</v>
+        <v>934300</v>
       </c>
       <c r="F49" s="3">
-        <v>845200</v>
+        <v>899900</v>
       </c>
       <c r="G49" s="3">
-        <v>820700</v>
+        <v>848700</v>
       </c>
       <c r="H49" s="3">
+        <v>897200</v>
+      </c>
+      <c r="I49" s="3">
+        <v>857300</v>
+      </c>
+      <c r="J49" s="3">
+        <v>821900</v>
+      </c>
+      <c r="K49" s="3">
         <v>832600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="L49" s="3">
         <v>862900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="M49" s="3">
         <v>827400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="N49" s="3">
         <v>872700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="O49" s="3">
         <v>969200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="P49" s="3">
         <v>1003200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="Q49" s="3">
         <v>1039500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="R49" s="3">
         <v>1281300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="S49" s="3">
         <v>1272900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="T49" s="3">
         <v>1407600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="U49" s="3">
         <v>1328000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="V49" s="3">
         <v>1260400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="W49" s="3">
         <v>1291000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="X49" s="3">
         <v>1094100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="Y49" s="3">
         <v>1192800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Z49" s="3">
         <v>1316300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="AA49" s="3">
         <v>1471900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AB49" s="3">
         <v>628400</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AC49" s="3">
         <v>645800</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AD49" s="3">
         <v>729800</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AE49" s="3">
         <v>716500</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AF49" s="3">
         <v>674300</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4266,17 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,91 +4358,109 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1782500</v>
+        <v>1689300</v>
       </c>
       <c r="E52" s="3">
-        <v>1713200</v>
+        <v>1676200</v>
       </c>
       <c r="F52" s="3">
-        <v>2091400</v>
+        <v>1621100</v>
       </c>
       <c r="G52" s="3">
-        <v>1648600</v>
+        <v>1493700</v>
       </c>
       <c r="H52" s="3">
+        <v>1733300</v>
+      </c>
+      <c r="I52" s="3">
+        <v>1665900</v>
+      </c>
+      <c r="J52" s="3">
+        <v>2033600</v>
+      </c>
+      <c r="K52" s="3">
         <v>1719200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="L52" s="3">
         <v>1577300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="M52" s="3">
         <v>2964500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="N52" s="3">
         <v>3126800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="O52" s="3">
         <v>1394500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="P52" s="3">
         <v>1241200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="Q52" s="3">
         <v>1246600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="R52" s="3">
         <v>1307400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="S52" s="3">
         <v>1493200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="T52" s="3">
         <v>1516400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="U52" s="3">
         <v>1538900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="V52" s="3">
         <v>1473100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="W52" s="3">
         <v>1415700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="X52" s="3">
         <v>1311300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="Y52" s="3">
         <v>1237900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Z52" s="3">
         <v>1249900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="AA52" s="3">
         <v>1550800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AB52" s="3">
         <v>1229500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AC52" s="3">
         <v>1189000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AD52" s="3">
         <v>1275900</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AE52" s="3">
         <v>1241600</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AF52" s="3">
         <v>1207000</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,91 +4542,109 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>19454300</v>
+        <v>18773100</v>
       </c>
       <c r="E54" s="3">
-        <v>18630800</v>
+        <v>19070000</v>
       </c>
       <c r="F54" s="3">
-        <v>18034800</v>
+        <v>19334200</v>
       </c>
       <c r="G54" s="3">
-        <v>16414600</v>
+        <v>18165600</v>
       </c>
       <c r="H54" s="3">
+        <v>18916600</v>
+      </c>
+      <c r="I54" s="3">
+        <v>18115800</v>
+      </c>
+      <c r="J54" s="3">
+        <v>17536300</v>
+      </c>
+      <c r="K54" s="3">
         <v>15513700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>15089800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="M54" s="3">
         <v>15259200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="N54" s="3">
         <v>16094600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="O54" s="3">
         <v>17029400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="P54" s="3">
         <v>16802100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="Q54" s="3">
         <v>16830500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="R54" s="3">
         <v>18156200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="S54" s="3">
         <v>18195900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="T54" s="3">
         <v>20103100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="U54" s="3">
         <v>19307700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="V54" s="3">
         <v>18639300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="W54" s="3">
         <v>18607200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="X54" s="3">
         <v>15883200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="Y54" s="3">
         <v>15872800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Z54" s="3">
         <v>17226200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="AA54" s="3">
         <v>18905400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AB54" s="3">
         <v>15927700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AC54" s="3">
         <v>15265800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AD54" s="3">
         <v>16556200</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AE54" s="3">
         <v>16126800</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AF54" s="3">
         <v>15372100</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4674,11 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,506 +4708,563 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2511700</v>
+        <v>2273700</v>
       </c>
       <c r="E57" s="3">
-        <v>2742400</v>
+        <v>2334900</v>
       </c>
       <c r="F57" s="3">
-        <v>2363700</v>
+        <v>2350700</v>
       </c>
       <c r="G57" s="3">
-        <v>2136100</v>
+        <v>2229200</v>
       </c>
       <c r="H57" s="3">
+        <v>2442300</v>
+      </c>
+      <c r="I57" s="3">
+        <v>2666600</v>
+      </c>
+      <c r="J57" s="3">
+        <v>2298400</v>
+      </c>
+      <c r="K57" s="3">
         <v>1901800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="L57" s="3">
         <v>1909600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="M57" s="3">
         <v>1642500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="N57" s="3">
         <v>1732400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="O57" s="3">
         <v>1962600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="P57" s="3">
         <v>1809700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="Q57" s="3">
         <v>1691000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="R57" s="3">
         <v>2183800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="S57" s="3">
         <v>2068800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="T57" s="3">
         <v>2373000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="U57" s="3">
         <v>2429800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="V57" s="3">
         <v>2507100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="W57" s="3">
         <v>2299400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="X57" s="3">
         <v>2036400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="Y57" s="3">
         <v>2184200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Z57" s="3">
         <v>2237200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="AA57" s="3">
         <v>2266100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AB57" s="3">
         <v>1198100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AC57" s="3">
         <v>1212600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AD57" s="3">
         <v>1260600</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AE57" s="3">
         <v>1246300</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AF57" s="3">
         <v>1125900</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1042700</v>
+        <v>527200</v>
       </c>
       <c r="E58" s="3">
-        <v>733300</v>
+        <v>482100</v>
       </c>
       <c r="F58" s="3">
-        <v>665200</v>
+        <v>539500</v>
       </c>
       <c r="G58" s="3">
-        <v>604600</v>
+        <v>617000</v>
       </c>
       <c r="H58" s="3">
+        <v>1013800</v>
+      </c>
+      <c r="I58" s="3">
+        <v>713000</v>
+      </c>
+      <c r="J58" s="3">
+        <v>646800</v>
+      </c>
+      <c r="K58" s="3">
         <v>393700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="L58" s="3">
         <v>393500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="M58" s="3">
         <v>442200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="N58" s="3">
         <v>466400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="O58" s="3">
         <v>491800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="P58" s="3">
         <v>700500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="Q58" s="3">
         <v>718600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="R58" s="3">
         <v>782800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="S58" s="3">
         <v>681500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="T58" s="3">
         <v>731100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="U58" s="3">
         <v>945500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="V58" s="3">
         <v>1009000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="W58" s="3">
         <v>1057500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="X58" s="3">
         <v>675900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="Y58" s="3">
         <v>508300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Z58" s="3">
         <v>571600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="AA58" s="3">
         <v>954700</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AB58" s="3">
         <v>1049600</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AC58" s="3">
         <v>433200</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AD58" s="3">
         <v>429200</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AE58" s="3">
         <v>404800</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AF58" s="3">
         <v>439200</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1096100</v>
+        <v>1014700</v>
       </c>
       <c r="E59" s="3">
-        <v>1008700</v>
+        <v>877400</v>
       </c>
       <c r="F59" s="3">
-        <v>1179100</v>
+        <v>982400</v>
       </c>
       <c r="G59" s="3">
-        <v>981100</v>
+        <v>1068900</v>
       </c>
       <c r="H59" s="3">
+        <v>1065800</v>
+      </c>
+      <c r="I59" s="3">
+        <v>980800</v>
+      </c>
+      <c r="J59" s="3">
+        <v>1146500</v>
+      </c>
+      <c r="K59" s="3">
         <v>663900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="L59" s="3">
         <v>488300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="M59" s="3">
         <v>379600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="N59" s="3">
         <v>400400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="O59" s="3">
         <v>554400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="P59" s="3">
         <v>370700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="Q59" s="3">
         <v>376900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="R59" s="3">
         <v>483300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="S59" s="3">
         <v>535900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="T59" s="3">
         <v>492900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="U59" s="3">
         <v>426400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="V59" s="3">
         <v>529000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="W59" s="3">
         <v>684000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="X59" s="3">
         <v>603300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="Y59" s="3">
         <v>509000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Z59" s="3">
         <v>526400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="AA59" s="3">
         <v>1202600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AB59" s="3">
         <v>410100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AC59" s="3">
         <v>337100</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AD59" s="3">
         <v>411300</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AE59" s="3">
         <v>458100</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AF59" s="3">
         <v>516900</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4650400</v>
+        <v>3815500</v>
       </c>
       <c r="E60" s="3">
-        <v>4484400</v>
+        <v>3694300</v>
       </c>
       <c r="F60" s="3">
-        <v>4208100</v>
+        <v>3872600</v>
       </c>
       <c r="G60" s="3">
-        <v>3721900</v>
+        <v>3915100</v>
       </c>
       <c r="H60" s="3">
+        <v>4521900</v>
+      </c>
+      <c r="I60" s="3">
+        <v>4360400</v>
+      </c>
+      <c r="J60" s="3">
+        <v>4091700</v>
+      </c>
+      <c r="K60" s="3">
         <v>2959400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>2791300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="M60" s="3">
         <v>2464300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="N60" s="3">
         <v>2599200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="O60" s="3">
         <v>3008800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="P60" s="3">
         <v>2880900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="Q60" s="3">
         <v>2786600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="R60" s="3">
         <v>3450000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="S60" s="3">
         <v>3286200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="T60" s="3">
         <v>3597000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="U60" s="3">
         <v>3801800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="V60" s="3">
         <v>4045200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="W60" s="3">
         <v>4040900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="X60" s="3">
         <v>3315500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="Y60" s="3">
         <v>3201600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Z60" s="3">
         <v>3335200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="AA60" s="3">
         <v>3860100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AB60" s="3">
         <v>2657800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AC60" s="3">
         <v>1982800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AD60" s="3">
         <v>2101200</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AE60" s="3">
         <v>2109200</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AF60" s="3">
         <v>2081900</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1955500</v>
+        <v>2738700</v>
       </c>
       <c r="E61" s="3">
-        <v>1980300</v>
+        <v>2721500</v>
       </c>
       <c r="F61" s="3">
-        <v>1982100</v>
+        <v>2708600</v>
       </c>
       <c r="G61" s="3">
-        <v>2068300</v>
+        <v>2380600</v>
       </c>
       <c r="H61" s="3">
+        <v>1901500</v>
+      </c>
+      <c r="I61" s="3">
+        <v>1925600</v>
+      </c>
+      <c r="J61" s="3">
+        <v>1927300</v>
+      </c>
+      <c r="K61" s="3">
         <v>2398100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="L61" s="3">
         <v>2310300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="M61" s="3">
         <v>2225300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="N61" s="3">
         <v>2347100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="O61" s="3">
         <v>2569900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="P61" s="3">
         <v>2620900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="Q61" s="3">
         <v>2694100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="R61" s="3">
         <v>2156700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="S61" s="3">
         <v>2087200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="T61" s="3">
         <v>2405400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="U61" s="3">
         <v>2153000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="V61" s="3">
         <v>1195400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="W61" s="3">
         <v>1054000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="X61" s="3">
         <v>806700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="Y61" s="3">
         <v>959300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Z61" s="3">
         <v>948900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="AA61" s="3">
         <v>1043500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AB61" s="3">
         <v>356300</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AC61" s="3">
         <v>368600</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AD61" s="3">
         <v>415900</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AE61" s="3">
         <v>550400</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AF61" s="3">
         <v>420300</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2210600</v>
+        <v>2364100</v>
       </c>
       <c r="E62" s="3">
-        <v>2286500</v>
+        <v>2425200</v>
       </c>
       <c r="F62" s="3">
-        <v>2484800</v>
+        <v>2293700</v>
       </c>
       <c r="G62" s="3">
-        <v>2311400</v>
+        <v>2010700</v>
       </c>
       <c r="H62" s="3">
+        <v>2149500</v>
+      </c>
+      <c r="I62" s="3">
+        <v>2223300</v>
+      </c>
+      <c r="J62" s="3">
+        <v>2416100</v>
+      </c>
+      <c r="K62" s="3">
         <v>2541500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="L62" s="3">
         <v>2318000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="M62" s="3">
         <v>3260900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="N62" s="3">
         <v>3439400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="O62" s="3">
         <v>3429000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="P62" s="3">
         <v>3510900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="Q62" s="3">
         <v>3361000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="R62" s="3">
         <v>3719000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="S62" s="3">
         <v>3516400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="T62" s="3">
         <v>3912800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="U62" s="3">
         <v>3455400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="V62" s="3">
         <v>3278400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="W62" s="3">
         <v>3547300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="X62" s="3">
         <v>2811300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="Y62" s="3">
         <v>2795200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Z62" s="3">
         <v>3056100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="AA62" s="3">
         <v>3561200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AB62" s="3">
         <v>2735700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AC62" s="3">
         <v>2775600</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AD62" s="3">
         <v>2844800</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AE62" s="3">
         <v>2661200</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AF62" s="3">
         <v>2833800</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5346,17 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5438,17 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5530,109 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9377800</v>
+        <v>9346900</v>
       </c>
       <c r="E66" s="3">
-        <v>9286300</v>
+        <v>9295400</v>
       </c>
       <c r="F66" s="3">
-        <v>9202000</v>
+        <v>9403300</v>
       </c>
       <c r="G66" s="3">
-        <v>8507500</v>
+        <v>8795100</v>
       </c>
       <c r="H66" s="3">
+        <v>9118600</v>
+      </c>
+      <c r="I66" s="3">
+        <v>9029600</v>
+      </c>
+      <c r="J66" s="3">
+        <v>8947600</v>
+      </c>
+      <c r="K66" s="3">
         <v>8220700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>7761700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>8228700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>8679200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>9335600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>9322800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="Q66" s="3">
         <v>9168900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="R66" s="3">
         <v>9726700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="S66" s="3">
         <v>9348900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="T66" s="3">
         <v>10441200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="U66" s="3">
         <v>9925000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="V66" s="3">
         <v>9051500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="W66" s="3">
         <v>8925000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="X66" s="3">
         <v>7391100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="Y66" s="3">
         <v>7415000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Z66" s="3">
         <v>7870700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="AA66" s="3">
         <v>8828100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AB66" s="3">
         <v>6353700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AC66" s="3">
         <v>5731300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AD66" s="3">
         <v>6081600</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AE66" s="3">
         <v>6027600</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AF66" s="3">
         <v>6016400</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5662,11 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5748,17 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5840,17 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5932,17 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,91 +6024,109 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6576600</v>
+        <v>5750500</v>
       </c>
       <c r="E72" s="3">
-        <v>6212200</v>
+        <v>5798400</v>
       </c>
       <c r="F72" s="3">
-        <v>6193900</v>
+        <v>6534300</v>
       </c>
       <c r="G72" s="3">
-        <v>5654100</v>
+        <v>6435100</v>
       </c>
       <c r="H72" s="3">
+        <v>6394800</v>
+      </c>
+      <c r="I72" s="3">
+        <v>6040500</v>
+      </c>
+      <c r="J72" s="3">
+        <v>6022700</v>
+      </c>
+      <c r="K72" s="3">
         <v>4972300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>4877400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>5029300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>5304700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>5389100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>5010800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="Q72" s="3">
         <v>5033300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="R72" s="3">
         <v>5159600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="S72" s="3">
         <v>5837800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="T72" s="3">
         <v>6405600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="U72" s="3">
         <v>6299500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="V72" s="3">
         <v>6466900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="W72" s="3">
         <v>6443600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="X72" s="3">
         <v>5915000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="Y72" s="3">
         <v>5838300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Z72" s="3">
         <v>6351300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="AA72" s="3">
         <v>6534600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AB72" s="3">
         <v>6130800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AC72" s="3">
         <v>5895000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AD72" s="3">
         <v>6408300</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AE72" s="3">
         <v>6190900</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AF72" s="3">
         <v>6060300</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +6208,17 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +6300,17 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6392,109 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10076600</v>
+        <v>9426100</v>
       </c>
       <c r="E76" s="3">
-        <v>9344600</v>
+        <v>9774600</v>
       </c>
       <c r="F76" s="3">
-        <v>8832800</v>
+        <v>9930900</v>
       </c>
       <c r="G76" s="3">
-        <v>7907100</v>
+        <v>9370500</v>
       </c>
       <c r="H76" s="3">
+        <v>9798000</v>
+      </c>
+      <c r="I76" s="3">
+        <v>9086300</v>
+      </c>
+      <c r="J76" s="3">
+        <v>8588600</v>
+      </c>
+      <c r="K76" s="3">
         <v>7292900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>7328000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>7030500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>7415500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>7693800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>7479300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="Q76" s="3">
         <v>7661600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="R76" s="3">
         <v>8429500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="S76" s="3">
         <v>8847000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="T76" s="3">
         <v>9661900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="U76" s="3">
         <v>9382700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="V76" s="3">
         <v>9587900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="W76" s="3">
         <v>9682200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="X76" s="3">
         <v>8492100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="Y76" s="3">
         <v>8457800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Z76" s="3">
         <v>9355400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="AA76" s="3">
         <v>10077300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AB76" s="3">
         <v>9574000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AC76" s="3">
         <v>9534500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AD76" s="3">
         <v>10474600</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AE76" s="3">
         <v>10099100</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AF76" s="3">
         <v>9355600</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6576,206 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="F80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>27000</v>
+        <v>-32700</v>
       </c>
       <c r="E81" s="3">
-        <v>644400</v>
+        <v>476700</v>
       </c>
       <c r="F81" s="3">
-        <v>1060700</v>
+        <v>115700</v>
       </c>
       <c r="G81" s="3">
-        <v>539800</v>
+        <v>26200</v>
       </c>
       <c r="H81" s="3">
+        <v>626600</v>
+      </c>
+      <c r="I81" s="3">
+        <v>1031400</v>
+      </c>
+      <c r="J81" s="3">
+        <v>524900</v>
+      </c>
+      <c r="K81" s="3">
         <v>670300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>94900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="M81" s="3">
         <v>243100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="N81" s="3">
         <v>143000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="O81" s="3">
         <v>531000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="P81" s="3">
         <v>-22600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="Q81" s="3">
         <v>-126400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="R81" s="3">
         <v>-183500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="S81" s="3">
         <v>-52700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="T81" s="3">
         <v>-151500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="U81" s="3">
         <v>-9800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="V81" s="3">
         <v>1000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="W81" s="3">
         <v>-78200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="X81" s="3">
         <v>76800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="Y81" s="3">
         <v>215600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Z81" s="3">
         <v>226900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="AA81" s="3">
         <v>405100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AB81" s="3">
         <v>235900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AC81" s="3">
         <v>171800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AD81" s="3">
         <v>217300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AE81" s="3">
         <v>130700</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AF81" s="3">
         <v>133800</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,91 +6805,103 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>240400</v>
+        <v>212800</v>
       </c>
       <c r="E83" s="3">
-        <v>205500</v>
+        <v>214000</v>
       </c>
       <c r="F83" s="3">
-        <v>203900</v>
+        <v>199900</v>
       </c>
       <c r="G83" s="3">
-        <v>190000</v>
+        <v>233800</v>
       </c>
       <c r="H83" s="3">
+        <v>199800</v>
+      </c>
+      <c r="I83" s="3">
+        <v>198300</v>
+      </c>
+      <c r="J83" s="3">
+        <v>184700</v>
+      </c>
+      <c r="K83" s="3">
         <v>226800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="L83" s="3">
         <v>197700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="M83" s="3">
         <v>178000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="N83" s="3">
         <v>186100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="O83" s="3">
         <v>415700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="P83" s="3">
         <v>211200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="Q83" s="3">
         <v>400700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="R83" s="3">
         <v>222800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="S83" s="3">
         <v>337000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="T83" s="3">
         <v>269100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="U83" s="3">
         <v>243500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="V83" s="3">
         <v>237500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="W83" s="3">
         <v>193900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="X83" s="3">
         <v>189400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="Y83" s="3">
         <v>193300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Z83" s="3">
         <v>207100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="AA83" s="3">
         <v>228100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AB83" s="3">
         <v>168000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AC83" s="3">
         <v>160800</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AD83" s="3">
         <v>166700</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AE83" s="3">
         <v>197300</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AF83" s="3">
         <v>174500</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6983,17 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +7075,17 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +7167,17 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +7259,17 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,91 +7351,109 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>796200</v>
+        <v>465300</v>
       </c>
       <c r="E89" s="3">
-        <v>566000</v>
+        <v>924700</v>
       </c>
       <c r="F89" s="3">
-        <v>1420100</v>
+        <v>338800</v>
       </c>
       <c r="G89" s="3">
-        <v>-17600</v>
+        <v>769100</v>
       </c>
       <c r="H89" s="3">
+        <v>550300</v>
+      </c>
+      <c r="I89" s="3">
+        <v>1380900</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="K89" s="3">
         <v>791900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="L89" s="3">
         <v>-7800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="M89" s="3">
         <v>615000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="N89" s="3">
         <v>-54000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="O89" s="3">
         <v>563900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="P89" s="3">
         <v>457800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="Q89" s="3">
         <v>221800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="R89" s="3">
         <v>138000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="S89" s="3">
         <v>628700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="T89" s="3">
         <v>420200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="U89" s="3">
         <v>300600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="V89" s="3">
         <v>88200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="W89" s="3">
         <v>106500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="X89" s="3">
         <v>263300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="Y89" s="3">
         <v>155300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Z89" s="3">
         <v>215800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="AA89" s="3">
         <v>740900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AB89" s="3">
         <v>341600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AC89" s="3">
         <v>501400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AD89" s="3">
         <v>82400</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AE89" s="3">
         <v>523700</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AF89" s="3">
         <v>284800</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,91 +7483,103 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3200000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-3476000</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-2633000</v>
+      </c>
+      <c r="G91" s="3">
         <v>-3690000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="H91" s="3">
         <v>-2542000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="I91" s="3">
         <v>-2063000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="J91" s="3">
         <v>-1309000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="K91" s="3">
         <v>-2334000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="L91" s="3">
         <v>-1300000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="M91" s="3">
         <v>-1369000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="N91" s="3">
         <v>-100900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="O91" s="3">
         <v>-182900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="P91" s="3">
         <v>-127700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="Q91" s="3">
         <v>-116400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="R91" s="3">
         <v>-136900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="S91" s="3">
         <v>-320200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="T91" s="3">
         <v>-237200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="U91" s="3">
         <v>-258000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="V91" s="3">
         <v>-184600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="W91" s="3">
         <v>-284000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="X91" s="3">
         <v>-183700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="Y91" s="3">
         <v>-157200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Z91" s="3">
         <v>-148500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="AA91" s="3">
         <v>-353000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AB91" s="3">
         <v>-173800</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AC91" s="3">
         <v>-156300</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AD91" s="3">
         <v>-172100</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AE91" s="3">
         <v>-315900</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AF91" s="3">
         <v>-198600</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7661,17 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,91 +7753,109 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-398300</v>
+        <v>-689000</v>
       </c>
       <c r="E94" s="3">
-        <v>-391300</v>
+        <v>-434700</v>
       </c>
       <c r="F94" s="3">
-        <v>-45300</v>
+        <v>-284700</v>
       </c>
       <c r="G94" s="3">
-        <v>-158500</v>
+        <v>-387200</v>
       </c>
       <c r="H94" s="3">
+        <v>-380500</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-44100</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-154100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-265300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="L94" s="3">
         <v>-138800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="M94" s="3">
         <v>85700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="N94" s="3">
         <v>-128800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="O94" s="3">
         <v>12700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="P94" s="3">
         <v>-131700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="Q94" s="3">
         <v>-456900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="R94" s="3">
         <v>-194500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="S94" s="3">
         <v>-324000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="T94" s="3">
         <v>-234000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="U94" s="3">
         <v>-310700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="V94" s="3">
         <v>-182800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="W94" s="3">
         <v>-292200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="X94" s="3">
         <v>-154800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="Y94" s="3">
         <v>-165900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Z94" s="3">
         <v>-159600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="AA94" s="3">
         <v>-1571400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AB94" s="3">
         <v>220100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AC94" s="3">
         <v>-244300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AD94" s="3">
         <v>-80900</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AE94" s="3">
         <v>-331100</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AF94" s="3">
         <v>-397400</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,91 +7885,103 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-11200</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-279900</v>
+        <v>-1150000</v>
       </c>
       <c r="F96" s="3">
-        <v>-1042600</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-10900</v>
       </c>
       <c r="H96" s="3">
+        <v>-272200</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-1013700</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-24300</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-241200</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-272200</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-10100</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-295800</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
-      <c r="T96" s="3">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-2500</v>
       </c>
-      <c r="U96" s="3">
+      <c r="X96" s="3">
         <v>-1900</v>
       </c>
-      <c r="V96" s="3">
+      <c r="Y96" s="3">
         <v>-366300</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
-      <c r="X96" s="3">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-8700</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="AB96" s="3">
         <v>-42700</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AC96" s="3">
         <v>-303900</v>
       </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB96" s="3">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
         <v>-14300</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AF96" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +8063,17 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +8155,17 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,253 +8247,289 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>21900</v>
+        <v>-41300</v>
       </c>
       <c r="E100" s="3">
-        <v>-117400</v>
+        <v>-1314000</v>
       </c>
       <c r="F100" s="3">
-        <v>-1136300</v>
+        <v>-35200</v>
       </c>
       <c r="G100" s="3">
-        <v>-14200</v>
+        <v>21300</v>
       </c>
       <c r="H100" s="3">
+        <v>-114100</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-1104900</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-151900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="L100" s="3">
         <v>38200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="M100" s="3">
         <v>-250200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="N100" s="3">
         <v>-49300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="O100" s="3">
         <v>-493200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="P100" s="3">
         <v>-73900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="Q100" s="3">
         <v>669000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="R100" s="3">
         <v>-600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="S100" s="3">
         <v>-107400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="T100" s="3">
         <v>-208300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="U100" s="3">
         <v>531200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="V100" s="3">
         <v>115200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="W100" s="3">
         <v>45700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="X100" s="3">
         <v>22200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="Y100" s="3">
         <v>-344300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Z100" s="3">
         <v>-292100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="AA100" s="3">
         <v>101800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AB100" s="3">
         <v>602000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AC100" s="3">
         <v>-283600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AD100" s="3">
         <v>26000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AE100" s="3">
         <v>-212400</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AF100" s="3">
         <v>-22300</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-42800</v>
+        <v>-41200</v>
       </c>
       <c r="E101" s="3">
-        <v>69200</v>
+        <v>54000</v>
       </c>
       <c r="F101" s="3">
-        <v>76300</v>
+        <v>78800</v>
       </c>
       <c r="G101" s="3">
-        <v>24500</v>
+        <v>-41600</v>
       </c>
       <c r="H101" s="3">
+        <v>67300</v>
+      </c>
+      <c r="I101" s="3">
+        <v>74200</v>
+      </c>
+      <c r="J101" s="3">
+        <v>23900</v>
+      </c>
+      <c r="K101" s="3">
         <v>13900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="L101" s="3">
         <v>-19000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="M101" s="3">
         <v>32500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="N101" s="3">
         <v>-28500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="O101" s="3">
         <v>-33400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="P101" s="3">
         <v>-22300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="Q101" s="3">
         <v>-95400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="R101" s="3">
         <v>58500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="S101" s="3">
         <v>-8600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="T101" s="3">
         <v>21100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="U101" s="3">
         <v>-1900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="V101" s="3">
         <v>-8800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="W101" s="3">
         <v>44000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="X101" s="3">
         <v>-11700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="Y101" s="3">
         <v>-22400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Z101" s="3">
         <v>-30700</v>
       </c>
-      <c r="X101" s="3">
+      <c r="AA101" s="3">
         <v>31000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AB101" s="3">
         <v>-22000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AC101" s="3">
         <v>-12900</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AD101" s="3">
         <v>9000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AE101" s="3">
         <v>30300</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AF101" s="3">
         <v>-21500</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>371800</v>
+        <v>-306200</v>
       </c>
       <c r="E102" s="3">
-        <v>126500</v>
+        <v>-770100</v>
       </c>
       <c r="F102" s="3">
-        <v>314700</v>
+        <v>97700</v>
       </c>
       <c r="G102" s="3">
-        <v>-165700</v>
+        <v>361500</v>
       </c>
       <c r="H102" s="3">
+        <v>123000</v>
+      </c>
+      <c r="I102" s="3">
+        <v>306000</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-161200</v>
+      </c>
+      <c r="K102" s="3">
         <v>388600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="L102" s="3">
         <v>-127500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="M102" s="3">
         <v>483000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="N102" s="3">
         <v>-260500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="O102" s="3">
         <v>14800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="P102" s="3">
         <v>213700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="Q102" s="3">
         <v>326700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="R102" s="3">
         <v>-12800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="S102" s="3">
         <v>188700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="T102" s="3">
         <v>-1100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="U102" s="3">
         <v>519300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="V102" s="3">
         <v>11800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="W102" s="3">
         <v>-96000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="X102" s="3">
         <v>119100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="Y102" s="3">
         <v>-377400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Z102" s="3">
         <v>-266600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="AA102" s="3">
         <v>-697600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AB102" s="3">
         <v>1141700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AC102" s="3">
         <v>-39400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AD102" s="3">
         <v>36500</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AE102" s="3">
         <v>10500</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AF102" s="3">
         <v>-156300</v>
       </c>
     </row>
